--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="1011">
   <si>
     <t>No</t>
   </si>
@@ -38,25 +38,121 @@
     <t>AADI</t>
   </si>
   <si>
+    <t>11868000000000</t>
+  </si>
+  <si>
+    <t>34952000000000</t>
+  </si>
+  <si>
+    <t>19616000000000</t>
+  </si>
+  <si>
+    <t>21029000000000</t>
+  </si>
+  <si>
     <t>AALI</t>
   </si>
   <si>
+    <t>2114000000000</t>
+  </si>
+  <si>
+    <t>1521000000000</t>
+  </si>
+  <si>
+    <t>244000000000</t>
+  </si>
+  <si>
+    <t>894000000000</t>
+  </si>
+  <si>
+    <t>2067000000000</t>
+  </si>
+  <si>
+    <t>1792000000000</t>
+  </si>
+  <si>
+    <t>1088000000000</t>
+  </si>
+  <si>
+    <t>1187000000000</t>
+  </si>
+  <si>
     <t>ABBA</t>
   </si>
   <si>
     <t>ABDA</t>
   </si>
   <si>
+    <t>173000000000</t>
+  </si>
+  <si>
+    <t>161000000000</t>
+  </si>
+  <si>
+    <t>138000000000</t>
+  </si>
+  <si>
+    <t>157000000000</t>
+  </si>
+  <si>
     <t>ABMM</t>
   </si>
   <si>
+    <t>958000000000</t>
+  </si>
+  <si>
+    <t>2665000000000</t>
+  </si>
+  <si>
+    <t>5086000000000</t>
+  </si>
+  <si>
+    <t>4815000000000</t>
+  </si>
+  <si>
+    <t>2209000000000</t>
+  </si>
+  <si>
     <t>ACES</t>
   </si>
   <si>
+    <t>863000000000</t>
+  </si>
+  <si>
+    <t>781000000000</t>
+  </si>
+  <si>
+    <t>976000000000</t>
+  </si>
+  <si>
+    <t>1024000000000</t>
+  </si>
+  <si>
+    <t>731000000000</t>
+  </si>
+  <si>
+    <t>705000000000</t>
+  </si>
+  <si>
+    <t>674000000000</t>
+  </si>
+  <si>
+    <t>771000000000</t>
+  </si>
+  <si>
+    <t>885000000000</t>
+  </si>
+  <si>
     <t>ACRO</t>
   </si>
   <si>
     <t>ACST</t>
+  </si>
+  <si>
+    <t>168000000000</t>
+  </si>
+  <si>
+    <t>154000000000</t>
   </si>
   <si>
     <t>ADCP</t>
@@ -3584,9 +3680,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3972,20 +4074,18 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:AT1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="43" width="5.375" customWidth="1"/>
+    <col min="3" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="43" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:51">
@@ -4143,10 +4243,18 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4169,17 +4277,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4202,17 +4328,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-42000000000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-37000000000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-36000000000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-44000000000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-58000000000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-36000000000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-31000000000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-52000000000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6000000000</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4235,17 +4379,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>69000000000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>88000000000</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1">
+        <v>91000000000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>85000000000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80000000000</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -4268,17 +4430,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>92000000000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>51000000000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>55000000000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-550000000000</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -4301,17 +4481,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4334,17 +4532,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>4000000000</v>
+      </c>
+      <c r="H8">
+        <v>2000000000</v>
+      </c>
+      <c r="I8">
+        <v>2000000000</v>
+      </c>
+      <c r="J8">
+        <v>5000000000</v>
+      </c>
+      <c r="K8">
+        <v>9000000000</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4367,17 +4571,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21000000000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1132000000000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1340000000000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-693000000000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-452000000000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-277000000000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-542000000000</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4400,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4433,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4466,7 +4688,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4499,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4532,7 +4754,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4565,7 +4787,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4598,7 +4820,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4631,7 +4853,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4664,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4697,7 +4919,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4730,7 +4952,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4763,7 +4985,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4796,7 +5018,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4829,7 +5051,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4862,7 +5084,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4895,7 +5117,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4928,7 +5150,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4961,7 +5183,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4994,7 +5216,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5027,7 +5249,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5060,7 +5282,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5093,7 +5315,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5126,7 +5348,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5159,7 +5381,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5192,7 +5414,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5225,7 +5447,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5258,7 +5480,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5291,7 +5513,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5324,7 +5546,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5357,7 +5579,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5390,7 +5612,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5423,7 +5645,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5456,7 +5678,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5489,7 +5711,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5522,7 +5744,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5555,7 +5777,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5588,7 +5810,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5621,7 +5843,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5654,7 +5876,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5687,7 +5909,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5720,7 +5942,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5753,7 +5975,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5786,7 +6008,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -5819,7 +6041,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -5852,7 +6074,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -5885,7 +6107,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5918,7 +6140,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5951,7 +6173,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5984,7 +6206,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6017,7 +6239,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6050,7 +6272,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6083,7 +6305,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6116,7 +6338,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6149,7 +6371,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6182,7 +6404,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6215,7 +6437,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6248,7 +6470,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6281,7 +6503,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6314,7 +6536,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6347,7 +6569,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6380,7 +6602,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6413,7 +6635,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6446,7 +6668,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6479,7 +6701,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6512,7 +6734,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6545,7 +6767,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6578,7 +6800,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6611,7 +6833,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6644,7 +6866,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6677,7 +6899,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6710,7 +6932,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6743,7 +6965,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6776,7 +6998,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6809,7 +7031,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6842,7 +7064,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6875,7 +7097,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6908,7 +7130,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6941,7 +7163,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6974,7 +7196,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7007,7 +7229,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7040,7 +7262,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7073,7 +7295,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7106,7 +7328,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7139,7 +7361,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7172,7 +7394,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7205,7 +7427,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7238,7 +7460,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7271,7 +7493,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7304,7 +7526,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7337,7 +7559,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7370,7 +7592,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7403,7 +7625,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7436,7 +7658,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -7469,7 +7691,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -7502,7 +7724,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7535,7 +7757,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7568,7 +7790,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -7601,7 +7823,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -7634,7 +7856,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7667,7 +7889,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -7700,7 +7922,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -7733,7 +7955,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -7766,7 +7988,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -7799,7 +8021,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -7832,7 +8054,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -7865,7 +8087,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -7898,7 +8120,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -7931,7 +8153,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -7964,7 +8186,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -7997,7 +8219,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -8030,7 +8252,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -8063,7 +8285,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -8096,7 +8318,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -8129,7 +8351,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -8162,7 +8384,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -8195,7 +8417,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -8228,7 +8450,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -8261,7 +8483,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -8294,7 +8516,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -8327,7 +8549,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -8360,7 +8582,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -8393,7 +8615,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -8426,7 +8648,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -8459,7 +8681,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -8492,7 +8714,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8525,7 +8747,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -8558,7 +8780,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -8591,7 +8813,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -8624,7 +8846,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -8657,7 +8879,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -8690,7 +8912,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -8723,7 +8945,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -8756,7 +8978,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -8789,7 +9011,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -8822,7 +9044,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -8855,7 +9077,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -8888,7 +9110,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -8921,7 +9143,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -8954,7 +9176,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -8987,7 +9209,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -9020,7 +9242,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -9053,7 +9275,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -9086,7 +9308,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9119,7 +9341,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -9152,7 +9374,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9185,7 +9407,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9218,7 +9440,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9251,7 +9473,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9284,7 +9506,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9317,7 +9539,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -9350,7 +9572,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -9383,7 +9605,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9416,7 +9638,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9449,7 +9671,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9482,7 +9704,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9515,7 +9737,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9548,7 +9770,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9581,7 +9803,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -9614,7 +9836,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -9647,7 +9869,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -9680,7 +9902,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -9713,7 +9935,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -9746,7 +9968,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -9779,7 +10001,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -9812,7 +10034,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -9845,7 +10067,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -9878,7 +10100,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -9911,7 +10133,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -9944,7 +10166,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -9977,7 +10199,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -10010,7 +10232,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10043,7 +10265,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10076,7 +10298,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10109,7 +10331,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10142,7 +10364,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10175,7 +10397,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10208,7 +10430,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10241,7 +10463,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10274,7 +10496,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10307,7 +10529,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -10340,7 +10562,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -10373,7 +10595,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -10406,7 +10628,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -10439,7 +10661,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -10472,7 +10694,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -10505,7 +10727,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -10538,7 +10760,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -10571,7 +10793,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -10604,7 +10826,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -10637,7 +10859,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -10670,7 +10892,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -10703,7 +10925,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -10736,7 +10958,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -10769,7 +10991,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -10802,7 +11024,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -10835,7 +11057,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -10868,7 +11090,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -10901,7 +11123,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -10934,7 +11156,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -10967,7 +11189,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -11000,7 +11222,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -11033,7 +11255,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -11066,7 +11288,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -11099,7 +11321,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -11132,7 +11354,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -11165,7 +11387,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -11198,7 +11420,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -11231,7 +11453,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -11264,7 +11486,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -11297,7 +11519,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -11330,7 +11552,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -11363,7 +11585,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -11396,7 +11618,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -11429,7 +11651,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -11462,7 +11684,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -11495,7 +11717,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -11528,7 +11750,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -11561,7 +11783,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -11594,7 +11816,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -11627,7 +11849,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -11660,7 +11882,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -11693,7 +11915,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -11726,7 +11948,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -11759,7 +11981,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -11792,7 +12014,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -11825,7 +12047,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -11858,7 +12080,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -11891,7 +12113,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -11924,7 +12146,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -11957,7 +12179,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -11990,7 +12212,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -12023,7 +12245,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -12056,7 +12278,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -12089,7 +12311,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -12122,7 +12344,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -12155,7 +12377,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -12188,7 +12410,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -12221,7 +12443,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -12254,7 +12476,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -12287,7 +12509,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -12320,7 +12542,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -12353,7 +12575,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -12386,7 +12608,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -12419,7 +12641,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -12452,7 +12674,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -12485,7 +12707,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -12518,7 +12740,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -12551,7 +12773,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -12584,7 +12806,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -12617,7 +12839,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -12650,7 +12872,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -12683,7 +12905,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -12716,7 +12938,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -12749,7 +12971,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -12782,7 +13004,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -12815,7 +13037,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -12848,7 +13070,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -12881,7 +13103,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -12914,7 +13136,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -12947,7 +13169,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -12980,7 +13202,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -13013,7 +13235,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -13046,7 +13268,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -13079,7 +13301,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -13112,7 +13334,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -13145,7 +13367,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -13178,7 +13400,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -13211,7 +13433,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -13244,7 +13466,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -13277,7 +13499,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -13310,7 +13532,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -13343,7 +13565,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -13376,7 +13598,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -13409,7 +13631,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -13442,7 +13664,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -13475,7 +13697,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -13508,7 +13730,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -13541,7 +13763,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -13574,7 +13796,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -13607,7 +13829,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -13640,7 +13862,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -13673,7 +13895,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -13706,7 +13928,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -13739,7 +13961,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -13772,7 +13994,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -13805,7 +14027,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -13838,7 +14060,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -13871,7 +14093,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -13904,7 +14126,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -13937,7 +14159,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -13970,7 +14192,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -14003,7 +14225,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -14036,7 +14258,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -14069,7 +14291,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -14102,7 +14324,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -14135,7 +14357,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -14168,7 +14390,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -14201,7 +14423,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -14234,7 +14456,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -14267,7 +14489,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -14300,7 +14522,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -14333,7 +14555,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -14366,7 +14588,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -14399,7 +14621,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -14432,7 +14654,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -14465,7 +14687,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -14498,7 +14720,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -14531,7 +14753,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -14564,7 +14786,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -14597,7 +14819,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -14630,7 +14852,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -14663,7 +14885,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -14696,7 +14918,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -14729,7 +14951,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -14762,7 +14984,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -14795,7 +15017,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -14828,7 +15050,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -14861,7 +15083,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -14894,7 +15116,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -14927,7 +15149,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -14960,7 +15182,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -14993,7 +15215,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -15026,7 +15248,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -15059,7 +15281,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -15092,7 +15314,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -15125,7 +15347,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -15158,7 +15380,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -15191,7 +15413,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -15224,7 +15446,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -15257,7 +15479,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -15290,7 +15512,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -15323,7 +15545,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -15356,7 +15578,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -15389,7 +15611,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -15422,7 +15644,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -15455,7 +15677,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -15488,7 +15710,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -15521,7 +15743,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -15554,7 +15776,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -15587,7 +15809,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -15620,7 +15842,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -15653,7 +15875,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -15686,7 +15908,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -15719,7 +15941,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -15752,7 +15974,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -15785,7 +16007,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -15818,7 +16040,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -15851,7 +16073,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -15884,7 +16106,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -15917,7 +16139,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -15950,7 +16172,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -15983,7 +16205,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -16016,7 +16238,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -16049,7 +16271,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -16082,7 +16304,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -16115,7 +16337,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -16148,7 +16370,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -16181,7 +16403,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -16214,7 +16436,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -16247,7 +16469,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -16280,7 +16502,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -16313,7 +16535,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -16346,7 +16568,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -16379,7 +16601,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -16412,7 +16634,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -16445,7 +16667,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -16478,7 +16700,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -16511,7 +16733,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -16544,7 +16766,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -16577,7 +16799,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -16610,7 +16832,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -16643,7 +16865,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -16676,7 +16898,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -16709,7 +16931,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -16742,7 +16964,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -16775,7 +16997,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -16808,7 +17030,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -16841,7 +17063,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -16874,7 +17096,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -16907,7 +17129,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -16940,7 +17162,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -16973,7 +17195,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -17006,7 +17228,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -17039,7 +17261,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -17072,7 +17294,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -17105,7 +17327,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -17138,7 +17360,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -17171,7 +17393,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -17204,7 +17426,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -17237,7 +17459,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -17270,7 +17492,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -17303,7 +17525,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -17336,7 +17558,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -17369,7 +17591,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -17402,7 +17624,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -17435,7 +17657,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -17468,7 +17690,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -17501,7 +17723,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -17534,7 +17756,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -17567,7 +17789,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -17600,7 +17822,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -17633,7 +17855,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -17666,7 +17888,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -17699,7 +17921,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -17732,7 +17954,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -17765,7 +17987,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -17798,7 +18020,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -17831,7 +18053,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -17864,7 +18086,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -17897,7 +18119,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -17930,7 +18152,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -17963,7 +18185,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -17996,7 +18218,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -18029,7 +18251,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -18062,7 +18284,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -18095,7 +18317,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -18128,7 +18350,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -18161,7 +18383,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -18194,7 +18416,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -18227,7 +18449,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -18260,7 +18482,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -18293,7 +18515,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -18326,7 +18548,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -18359,7 +18581,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -18392,7 +18614,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -18425,7 +18647,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -18458,7 +18680,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -18491,7 +18713,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -18524,7 +18746,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -18557,7 +18779,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -18590,7 +18812,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -18623,7 +18845,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -18656,7 +18878,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -18689,7 +18911,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -18722,7 +18944,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -18755,7 +18977,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -18788,7 +19010,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -18821,7 +19043,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -18854,7 +19076,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -18887,7 +19109,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -18920,7 +19142,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -18953,7 +19175,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -18986,7 +19208,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -19019,7 +19241,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -19052,7 +19274,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -19085,7 +19307,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -19118,7 +19340,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -19151,7 +19373,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -19184,7 +19406,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -19217,7 +19439,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -19250,7 +19472,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -19283,7 +19505,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -19316,7 +19538,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -19349,7 +19571,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -19382,7 +19604,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -19415,7 +19637,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -19448,7 +19670,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -19481,7 +19703,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -19514,7 +19736,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -19547,7 +19769,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -19580,7 +19802,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -19613,7 +19835,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -19646,7 +19868,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -19679,7 +19901,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -19712,7 +19934,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -19745,7 +19967,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -19778,7 +20000,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -19811,7 +20033,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -19844,7 +20066,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -19877,7 +20099,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -19910,7 +20132,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -19943,7 +20165,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -19976,7 +20198,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -20009,7 +20231,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -20042,7 +20264,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -20075,7 +20297,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -20108,7 +20330,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -20141,7 +20363,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -20174,7 +20396,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -20207,7 +20429,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -20240,7 +20462,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -20273,7 +20495,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -20306,7 +20528,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -20339,7 +20561,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -20372,7 +20594,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -20405,7 +20627,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -20438,7 +20660,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -20471,7 +20693,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -20504,7 +20726,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -20537,7 +20759,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -20570,7 +20792,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -20603,7 +20825,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -20636,7 +20858,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -20669,7 +20891,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -20702,7 +20924,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -20735,7 +20957,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -20768,7 +20990,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -20801,7 +21023,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -20834,7 +21056,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -20867,7 +21089,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -20900,7 +21122,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -20933,7 +21155,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -20966,7 +21188,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -20999,7 +21221,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -21032,7 +21254,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -21065,7 +21287,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -21098,7 +21320,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -21131,7 +21353,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -21164,7 +21386,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -21197,7 +21419,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -21230,7 +21452,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -21263,7 +21485,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -21296,7 +21518,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -21329,7 +21551,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -21362,7 +21584,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -21395,7 +21617,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -21428,7 +21650,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -21461,7 +21683,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -21494,7 +21716,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -21527,7 +21749,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -21560,7 +21782,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -21593,7 +21815,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -21626,7 +21848,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -21659,7 +21881,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -21692,7 +21914,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -21725,7 +21947,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -21758,7 +21980,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -21791,7 +22013,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -21824,7 +22046,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -21857,7 +22079,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -21890,7 +22112,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -21923,7 +22145,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -21956,7 +22178,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -21989,7 +22211,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -22022,7 +22244,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -22055,7 +22277,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -22088,7 +22310,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -22121,7 +22343,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -22154,7 +22376,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -22187,7 +22409,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -22220,7 +22442,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -22253,7 +22475,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -22286,7 +22508,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -22319,7 +22541,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -22352,7 +22574,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -22385,7 +22607,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -22418,7 +22640,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -22451,7 +22673,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -22484,7 +22706,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -22517,7 +22739,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -22550,7 +22772,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -22583,7 +22805,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -22616,7 +22838,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -22649,7 +22871,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -22682,7 +22904,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -22715,7 +22937,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -22748,7 +22970,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -22781,7 +23003,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -22814,7 +23036,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -22847,7 +23069,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -22880,7 +23102,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -22913,7 +23135,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -22946,7 +23168,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -22979,7 +23201,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -23012,7 +23234,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -23045,7 +23267,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -23078,7 +23300,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -23111,7 +23333,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -23144,7 +23366,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -23177,7 +23399,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -23210,7 +23432,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -23243,7 +23465,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -23276,7 +23498,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -23309,7 +23531,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -23342,7 +23564,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -23375,7 +23597,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -23408,7 +23630,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -23441,7 +23663,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -23474,7 +23696,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -23507,7 +23729,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -23540,7 +23762,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -23573,7 +23795,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -23606,7 +23828,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -23639,7 +23861,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -23672,7 +23894,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -23705,7 +23927,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -23738,7 +23960,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -23771,7 +23993,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -23804,7 +24026,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -23837,7 +24059,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -23870,7 +24092,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -23903,7 +24125,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -23936,7 +24158,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -23969,7 +24191,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -24002,7 +24224,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -24035,7 +24257,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -24068,7 +24290,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -24101,7 +24323,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -24134,7 +24356,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -24167,7 +24389,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -24200,7 +24422,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -24233,7 +24455,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -24266,7 +24488,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -24299,7 +24521,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -24332,7 +24554,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -24365,7 +24587,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -24398,7 +24620,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -24431,7 +24653,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -24464,7 +24686,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -24497,7 +24719,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -24530,7 +24752,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -24563,7 +24785,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -24596,7 +24818,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -24629,7 +24851,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -24662,7 +24884,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -24695,7 +24917,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -24728,7 +24950,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -24761,7 +24983,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -24794,7 +25016,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
@@ -24827,7 +25049,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
@@ -24860,7 +25082,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -24893,7 +25115,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
@@ -24926,7 +25148,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
@@ -24959,7 +25181,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -24992,7 +25214,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
@@ -25025,7 +25247,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
@@ -25058,7 +25280,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
@@ -25091,7 +25313,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
@@ -25124,7 +25346,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
@@ -25157,7 +25379,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
@@ -25190,7 +25412,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -25223,7 +25445,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
@@ -25256,7 +25478,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
@@ -25289,7 +25511,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
@@ -25322,7 +25544,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
@@ -25355,7 +25577,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
@@ -25388,7 +25610,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
@@ -25421,7 +25643,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -25454,7 +25676,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
@@ -25487,7 +25709,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
@@ -25520,7 +25742,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
@@ -25553,7 +25775,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
@@ -25586,7 +25808,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
@@ -25619,7 +25841,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
@@ -25652,7 +25874,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -25685,7 +25907,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -25718,7 +25940,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
@@ -25751,7 +25973,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
@@ -25784,7 +26006,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
@@ -25817,7 +26039,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -25850,7 +26072,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -25883,7 +26105,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -25916,7 +26138,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -25949,7 +26171,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -25982,7 +26204,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -26015,7 +26237,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -26048,7 +26270,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -26081,7 +26303,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -26114,7 +26336,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -26147,7 +26369,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
@@ -26180,7 +26402,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
@@ -26213,7 +26435,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
@@ -26246,7 +26468,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
@@ -26279,7 +26501,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
@@ -26312,7 +26534,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
@@ -26345,7 +26567,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -26378,7 +26600,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
@@ -26411,7 +26633,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -26444,7 +26666,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -26477,7 +26699,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -26510,7 +26732,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -26543,7 +26765,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -26576,7 +26798,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -26609,7 +26831,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -26642,7 +26864,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
@@ -26675,7 +26897,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
@@ -26708,7 +26930,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -26741,7 +26963,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
@@ -26774,7 +26996,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
@@ -26807,7 +27029,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -26840,7 +27062,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
@@ -26873,7 +27095,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
@@ -26906,7 +27128,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -26939,7 +27161,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
@@ -26972,7 +27194,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -27005,7 +27227,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
@@ -27038,7 +27260,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -27071,7 +27293,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -27104,7 +27326,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -27137,7 +27359,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -27170,7 +27392,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -27203,7 +27425,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -27236,7 +27458,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -27269,7 +27491,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -27302,7 +27524,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -27335,7 +27557,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -27368,7 +27590,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
@@ -27401,7 +27623,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
@@ -27434,7 +27656,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
@@ -27467,7 +27689,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
@@ -27500,7 +27722,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
@@ -27533,7 +27755,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
@@ -27566,7 +27788,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
@@ -27599,7 +27821,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
@@ -27632,7 +27854,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
@@ -27665,7 +27887,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
@@ -27698,7 +27920,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
@@ -27731,7 +27953,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
@@ -27764,7 +27986,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
@@ -27797,7 +28019,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
@@ -27830,7 +28052,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -27863,7 +28085,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -27896,7 +28118,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -27929,7 +28151,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -27962,7 +28184,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
@@ -27995,7 +28217,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
@@ -28028,7 +28250,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
@@ -28061,7 +28283,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
@@ -28094,7 +28316,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -28127,7 +28349,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -28160,7 +28382,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -28193,7 +28415,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
@@ -28226,7 +28448,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -28259,7 +28481,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
@@ -28292,7 +28514,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -28325,7 +28547,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -28358,7 +28580,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -28391,7 +28613,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -28424,7 +28646,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -28457,7 +28679,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -28490,7 +28712,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -28523,7 +28745,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -28556,7 +28778,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -28589,7 +28811,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -28622,7 +28844,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -28655,7 +28877,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -28688,7 +28910,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -28721,7 +28943,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
@@ -28754,7 +28976,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
@@ -28787,7 +29009,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
@@ -28820,7 +29042,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
@@ -28853,7 +29075,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -28886,7 +29108,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -28919,7 +29141,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
@@ -28952,7 +29174,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
@@ -28985,7 +29207,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
@@ -29018,7 +29240,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
@@ -29051,7 +29273,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
@@ -29084,7 +29306,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
@@ -29117,7 +29339,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
@@ -29150,7 +29372,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>760</v>
+        <v>792</v>
       </c>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
@@ -29183,7 +29405,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
@@ -29216,7 +29438,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>762</v>
+        <v>794</v>
       </c>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
@@ -29249,7 +29471,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
@@ -29282,7 +29504,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>764</v>
+        <v>796</v>
       </c>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
@@ -29315,7 +29537,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>765</v>
+        <v>797</v>
       </c>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
@@ -29348,7 +29570,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
@@ -29381,7 +29603,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
@@ -29414,7 +29636,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
@@ -29447,7 +29669,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
@@ -29480,7 +29702,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>770</v>
+        <v>802</v>
       </c>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
@@ -29513,7 +29735,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
@@ -29546,7 +29768,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
@@ -29579,7 +29801,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
@@ -29612,7 +29834,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
@@ -29645,7 +29867,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
@@ -29678,7 +29900,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
@@ -29711,7 +29933,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
@@ -29744,7 +29966,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
@@ -29777,7 +29999,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
@@ -29810,7 +30032,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
@@ -29843,7 +30065,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
@@ -29876,7 +30098,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
@@ -29909,7 +30131,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
@@ -29942,7 +30164,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
@@ -29975,7 +30197,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
@@ -30008,7 +30230,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
@@ -30041,7 +30263,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
@@ -30074,7 +30296,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>788</v>
+        <v>820</v>
       </c>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
@@ -30107,7 +30329,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
@@ -30140,7 +30362,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
@@ -30173,7 +30395,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
@@ -30206,7 +30428,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>792</v>
+        <v>824</v>
       </c>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -30239,7 +30461,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -30272,7 +30494,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>794</v>
+        <v>826</v>
       </c>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
@@ -30305,7 +30527,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>795</v>
+        <v>827</v>
       </c>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
@@ -30338,7 +30560,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>796</v>
+        <v>828</v>
       </c>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
@@ -30371,7 +30593,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
@@ -30404,7 +30626,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>798</v>
+        <v>830</v>
       </c>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
@@ -30437,7 +30659,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
@@ -30470,7 +30692,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
@@ -30503,7 +30725,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
@@ -30536,7 +30758,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
@@ -30569,7 +30791,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
@@ -30602,7 +30824,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
@@ -30635,7 +30857,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
@@ -30668,7 +30890,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
@@ -30701,7 +30923,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
@@ -30734,7 +30956,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
@@ -30767,7 +30989,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
@@ -30800,7 +31022,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
@@ -30833,7 +31055,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
@@ -30866,7 +31088,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
@@ -30899,7 +31121,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
@@ -30932,7 +31154,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
@@ -30965,7 +31187,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
@@ -30998,7 +31220,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
@@ -31031,7 +31253,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
@@ -31064,7 +31286,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
@@ -31097,7 +31319,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
@@ -31130,7 +31352,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
@@ -31163,7 +31385,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
@@ -31196,7 +31418,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
@@ -31229,7 +31451,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
@@ -31262,7 +31484,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
@@ -31295,7 +31517,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
@@ -31328,7 +31550,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
@@ -31361,7 +31583,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
@@ -31394,7 +31616,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>828</v>
+        <v>860</v>
       </c>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
@@ -31427,7 +31649,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
@@ -31460,7 +31682,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
@@ -31493,7 +31715,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
@@ -31526,7 +31748,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
@@ -31559,7 +31781,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
@@ -31592,7 +31814,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>834</v>
+        <v>866</v>
       </c>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
@@ -31625,7 +31847,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
@@ -31658,7 +31880,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
@@ -31691,7 +31913,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>837</v>
+        <v>869</v>
       </c>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
@@ -31724,7 +31946,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
@@ -31757,7 +31979,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
@@ -31790,7 +32012,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
@@ -31823,7 +32045,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
@@ -31856,7 +32078,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
@@ -31889,7 +32111,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
@@ -31922,7 +32144,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
@@ -31955,7 +32177,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
@@ -31988,7 +32210,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
@@ -32021,7 +32243,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
@@ -32054,7 +32276,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
@@ -32087,7 +32309,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
@@ -32120,7 +32342,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
@@ -32153,7 +32375,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
@@ -32186,7 +32408,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
@@ -32219,7 +32441,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>853</v>
+        <v>885</v>
       </c>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
@@ -32252,7 +32474,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>854</v>
+        <v>886</v>
       </c>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
@@ -32285,7 +32507,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
@@ -32318,7 +32540,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
@@ -32351,7 +32573,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>857</v>
+        <v>889</v>
       </c>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
@@ -32384,7 +32606,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>858</v>
+        <v>890</v>
       </c>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
@@ -32417,7 +32639,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
@@ -32450,7 +32672,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
@@ -32483,7 +32705,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
@@ -32516,7 +32738,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
@@ -32549,7 +32771,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
@@ -32582,7 +32804,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
@@ -32615,7 +32837,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
@@ -32648,7 +32870,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
@@ -32681,7 +32903,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
@@ -32714,7 +32936,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>868</v>
+        <v>900</v>
       </c>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
@@ -32747,7 +32969,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>869</v>
+        <v>901</v>
       </c>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
@@ -32780,7 +33002,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
@@ -32813,7 +33035,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>871</v>
+        <v>903</v>
       </c>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
@@ -32846,7 +33068,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
@@ -32879,7 +33101,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>873</v>
+        <v>905</v>
       </c>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
@@ -32912,7 +33134,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>874</v>
+        <v>906</v>
       </c>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
@@ -32945,7 +33167,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>875</v>
+        <v>907</v>
       </c>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
@@ -32978,7 +33200,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
@@ -33011,7 +33233,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
@@ -33044,7 +33266,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>878</v>
+        <v>910</v>
       </c>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
@@ -33077,7 +33299,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>879</v>
+        <v>911</v>
       </c>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
@@ -33110,7 +33332,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>880</v>
+        <v>912</v>
       </c>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
@@ -33143,7 +33365,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>881</v>
+        <v>913</v>
       </c>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
@@ -33176,7 +33398,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
@@ -33209,7 +33431,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>883</v>
+        <v>915</v>
       </c>
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
@@ -33242,7 +33464,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
@@ -33275,13 +33497,15 @@
         <v>884</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>885</v>
+        <v>917</v>
       </c>
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
-      <c r="G885" s="1"/>
+      <c r="G885" s="1">
+        <v>1</v>
+      </c>
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
@@ -33308,37 +33532,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>886</v>
+        <v>918</v>
       </c>
       <c r="C886" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>888</v>
+        <v>920</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>889</v>
+        <v>921</v>
       </c>
       <c r="F886" s="1" t="s">
-        <v>890</v>
+        <v>922</v>
       </c>
       <c r="G886" s="1" t="s">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="H886" s="1" t="s">
-        <v>892</v>
+        <v>924</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>893</v>
+        <v>925</v>
       </c>
       <c r="J886" s="1" t="s">
-        <v>894</v>
+        <v>926</v>
       </c>
       <c r="K886" s="1" t="s">
-        <v>895</v>
+        <v>927</v>
       </c>
       <c r="L886" s="1" t="s">
-        <v>896</v>
+        <v>928</v>
       </c>
       <c r="M886" s="1"/>
       <c r="N886" s="1"/>
@@ -33361,7 +33585,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>897</v>
+        <v>929</v>
       </c>
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
@@ -33394,7 +33618,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>898</v>
+        <v>930</v>
       </c>
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
@@ -33427,7 +33651,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>899</v>
+        <v>931</v>
       </c>
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
@@ -33460,7 +33684,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
@@ -33493,7 +33717,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>901</v>
+        <v>933</v>
       </c>
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
@@ -33526,7 +33750,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>902</v>
+        <v>934</v>
       </c>
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
@@ -33559,7 +33783,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
@@ -33592,7 +33816,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>904</v>
+        <v>936</v>
       </c>
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
@@ -33625,7 +33849,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
@@ -33658,7 +33882,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>906</v>
+        <v>938</v>
       </c>
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
@@ -33691,7 +33915,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>907</v>
+        <v>939</v>
       </c>
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
@@ -33724,7 +33948,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>908</v>
+        <v>940</v>
       </c>
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
@@ -33757,7 +33981,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>909</v>
+        <v>941</v>
       </c>
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
@@ -33790,7 +34014,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>910</v>
+        <v>942</v>
       </c>
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
@@ -33823,7 +34047,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>911</v>
+        <v>943</v>
       </c>
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
@@ -33856,7 +34080,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>912</v>
+        <v>944</v>
       </c>
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
@@ -33889,7 +34113,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>913</v>
+        <v>945</v>
       </c>
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
@@ -33922,7 +34146,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>914</v>
+        <v>946</v>
       </c>
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
@@ -33955,7 +34179,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>915</v>
+        <v>947</v>
       </c>
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
@@ -33988,7 +34212,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>916</v>
+        <v>948</v>
       </c>
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
@@ -34021,7 +34245,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>917</v>
+        <v>949</v>
       </c>
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
@@ -34054,7 +34278,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>918</v>
+        <v>950</v>
       </c>
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
@@ -34087,7 +34311,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>919</v>
+        <v>951</v>
       </c>
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
@@ -34120,7 +34344,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>920</v>
+        <v>952</v>
       </c>
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
@@ -34153,7 +34377,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
@@ -34186,7 +34410,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>922</v>
+        <v>954</v>
       </c>
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
@@ -34219,37 +34443,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>923</v>
+        <v>955</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>924</v>
+        <v>956</v>
       </c>
       <c r="D913" s="1" t="s">
-        <v>925</v>
+        <v>957</v>
       </c>
       <c r="E913" s="1" t="s">
-        <v>926</v>
+        <v>958</v>
       </c>
       <c r="F913" s="1" t="s">
-        <v>927</v>
+        <v>959</v>
       </c>
       <c r="G913" s="1" t="s">
-        <v>928</v>
+        <v>960</v>
       </c>
       <c r="H913" s="1" t="s">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>930</v>
+        <v>962</v>
       </c>
       <c r="J913" s="1" t="s">
-        <v>931</v>
+        <v>963</v>
       </c>
       <c r="K913" s="1" t="s">
-        <v>932</v>
+        <v>964</v>
       </c>
       <c r="L913" s="1" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="M913" s="1"/>
       <c r="N913" s="1"/>
@@ -34272,7 +34496,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>934</v>
+        <v>966</v>
       </c>
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
@@ -34305,7 +34529,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
@@ -34338,7 +34562,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>936</v>
+        <v>968</v>
       </c>
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
@@ -34371,7 +34595,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>937</v>
+        <v>969</v>
       </c>
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
@@ -34404,7 +34628,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
@@ -34437,7 +34661,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>939</v>
+        <v>971</v>
       </c>
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
@@ -34470,7 +34694,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>940</v>
+        <v>972</v>
       </c>
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
@@ -34503,7 +34727,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>941</v>
+        <v>973</v>
       </c>
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
@@ -34536,7 +34760,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>942</v>
+        <v>974</v>
       </c>
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
@@ -34569,7 +34793,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>943</v>
+        <v>975</v>
       </c>
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
@@ -34602,7 +34826,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>944</v>
+        <v>976</v>
       </c>
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
@@ -34635,7 +34859,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
@@ -34668,7 +34892,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
@@ -34701,7 +34925,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>947</v>
+        <v>979</v>
       </c>
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
@@ -34734,7 +34958,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>948</v>
+        <v>980</v>
       </c>
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
@@ -34767,7 +34991,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>949</v>
+        <v>981</v>
       </c>
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
@@ -34800,7 +35024,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>950</v>
+        <v>982</v>
       </c>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
@@ -34833,7 +35057,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
@@ -34866,7 +35090,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>952</v>
+        <v>984</v>
       </c>
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
@@ -34899,7 +35123,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>953</v>
+        <v>985</v>
       </c>
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
@@ -34932,7 +35156,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>954</v>
+        <v>986</v>
       </c>
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
@@ -34965,7 +35189,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>955</v>
+        <v>987</v>
       </c>
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
@@ -34998,7 +35222,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>956</v>
+        <v>988</v>
       </c>
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
@@ -35031,7 +35255,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>957</v>
+        <v>989</v>
       </c>
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
@@ -35064,7 +35288,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>958</v>
+        <v>990</v>
       </c>
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
@@ -35097,7 +35321,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>959</v>
+        <v>991</v>
       </c>
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
@@ -35130,7 +35354,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>960</v>
+        <v>992</v>
       </c>
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
@@ -35163,7 +35387,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>961</v>
+        <v>993</v>
       </c>
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
@@ -35196,7 +35420,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>962</v>
+        <v>994</v>
       </c>
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
@@ -35229,7 +35453,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>963</v>
+        <v>995</v>
       </c>
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
@@ -35262,7 +35486,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
@@ -35295,7 +35519,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
@@ -35328,7 +35552,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>966</v>
+        <v>998</v>
       </c>
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
@@ -35361,7 +35585,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>967</v>
+        <v>999</v>
       </c>
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
@@ -35394,7 +35618,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
@@ -35427,7 +35651,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>969</v>
+        <v>1001</v>
       </c>
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
@@ -35460,7 +35684,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>970</v>
+        <v>1002</v>
       </c>
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
@@ -35493,7 +35717,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>971</v>
+        <v>1003</v>
       </c>
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
@@ -35526,7 +35750,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>972</v>
+        <v>1004</v>
       </c>
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
@@ -35559,7 +35783,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>973</v>
+        <v>1005</v>
       </c>
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
@@ -35592,7 +35816,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>974</v>
+        <v>1006</v>
       </c>
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
@@ -35625,7 +35849,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>975</v>
+        <v>1007</v>
       </c>
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
@@ -35658,7 +35882,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>976</v>
+        <v>1008</v>
       </c>
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
@@ -35691,7 +35915,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>977</v>
+        <v>1009</v>
       </c>
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
@@ -35724,7 +35948,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>978</v>
+        <v>1010</v>
       </c>
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="12585" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="1065">
   <si>
     <t>No</t>
   </si>
@@ -158,24 +158,141 @@
     <t>ADCP</t>
   </si>
   <si>
+    <t>150000000000</t>
+  </si>
+  <si>
+    <t>133000000000</t>
+  </si>
+  <si>
+    <t>130000000000</t>
+  </si>
+  <si>
+    <t>105000000000</t>
+  </si>
+  <si>
+    <t>116000000000</t>
+  </si>
+  <si>
     <t>ADES</t>
   </si>
   <si>
+    <t>136000000000</t>
+  </si>
+  <si>
+    <t>266000000000</t>
+  </si>
+  <si>
+    <t>365000000000</t>
+  </si>
+  <si>
+    <t>396000000000</t>
+  </si>
+  <si>
+    <t>527000000000</t>
+  </si>
+  <si>
     <t>ADHI</t>
   </si>
   <si>
+    <t>315000000000</t>
+  </si>
+  <si>
+    <t>517000000000</t>
+  </si>
+  <si>
+    <t>645000000000</t>
+  </si>
+  <si>
+    <t>665000000000</t>
+  </si>
+  <si>
+    <t>175000000000</t>
+  </si>
+  <si>
+    <t>290000000000</t>
+  </si>
+  <si>
+    <t>281000000000</t>
+  </si>
+  <si>
     <t>ADMF</t>
   </si>
   <si>
+    <t>1009000000000</t>
+  </si>
+  <si>
+    <t>1409000000000</t>
+  </si>
+  <si>
+    <t>1815000000000</t>
+  </si>
+  <si>
+    <t>2109000000000</t>
+  </si>
+  <si>
+    <t>1026000000000</t>
+  </si>
+  <si>
+    <t>1213000000000</t>
+  </si>
+  <si>
+    <t>1606000000000</t>
+  </si>
+  <si>
+    <t>1944000000000</t>
+  </si>
+  <si>
+    <t>1407000000000</t>
+  </si>
+  <si>
     <t>ADMG</t>
   </si>
   <si>
     <t>ADMR</t>
   </si>
   <si>
+    <t>2243000000000</t>
+  </si>
+  <si>
+    <t>4994000000000</t>
+  </si>
+  <si>
+    <t>6725000000000</t>
+  </si>
+  <si>
+    <t>6891000000000</t>
+  </si>
+  <si>
     <t>ADRO</t>
   </si>
   <si>
+    <t>4534000000000</t>
+  </si>
+  <si>
+    <t>7180000000000</t>
+  </si>
+  <si>
+    <t>6805000000000</t>
+  </si>
+  <si>
+    <t>6154000000000</t>
+  </si>
+  <si>
+    <t>2310000000000</t>
+  </si>
+  <si>
+    <t>14721000000000</t>
+  </si>
+  <si>
+    <t>42116000000000</t>
+  </si>
+  <si>
+    <t>28295000000000</t>
+  </si>
+  <si>
+    <t>24665000000000</t>
+  </si>
+  <si>
     <t>AEGS</t>
   </si>
   <si>
@@ -185,12 +302,48 @@
     <t>AGII</t>
   </si>
   <si>
+    <t>114000000000</t>
+  </si>
+  <si>
+    <t>103000000000</t>
+  </si>
+  <si>
+    <t>100000000000</t>
+  </si>
+  <si>
+    <t>211000000000</t>
+  </si>
+  <si>
+    <t>104000000000</t>
+  </si>
+  <si>
+    <t>170000000000</t>
+  </si>
+  <si>
+    <t>110000000000</t>
+  </si>
+  <si>
     <t>AGRO</t>
   </si>
   <si>
+    <t>140000000000</t>
+  </si>
+  <si>
+    <t>204000000000</t>
+  </si>
+  <si>
     <t>AGRS</t>
   </si>
   <si>
+    <t>-177000000000</t>
+  </si>
+  <si>
+    <t>183000000000</t>
+  </si>
+  <si>
+    <t>216000000000</t>
+  </si>
+  <si>
     <t>AHAP</t>
   </si>
   <si>
@@ -198,6 +351,15 @@
   </si>
   <si>
     <t>AISA</t>
+  </si>
+  <si>
+    <t>719000000000</t>
+  </si>
+  <si>
+    <t>1135000000000</t>
+  </si>
+  <si>
+    <t>1205000000000</t>
   </si>
   <si>
     <t>AKKU</t>
@@ -3680,15 +3842,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4074,8 +4232,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4243,16 +4401,16 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -4279,31 +4437,31 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="1"/>
@@ -4381,10 +4539,10 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E5">
@@ -4393,10 +4551,10 @@
       <c r="F5" s="1">
         <v>88000000000</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="1">
@@ -4438,7 +4596,7 @@
       <c r="D6" s="1">
         <v>51000000000</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1">
@@ -4447,16 +4605,16 @@
       <c r="G6" s="1">
         <v>-550000000000</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="1"/>
@@ -4483,31 +4641,31 @@
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L7" s="1"/>
@@ -4573,10 +4731,10 @@
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1">
@@ -4625,14 +4783,27 @@
         <v>42</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="E10" s="1">
+        <v>65000000000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="1">
+        <v>43000000000</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4655,17 +4826,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>56000000000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>38000000000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>53000000000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>84000000000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4688,17 +4877,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>24000000000</v>
+      </c>
+      <c r="H12">
+        <v>86000000000</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4721,17 +4928,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4754,17 +4979,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-274000000000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-116000000000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-19000000000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-419000000000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-564000000000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-398000000000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-292000000000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-162000000000</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4787,17 +5030,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="E15" s="1">
+        <v>-724000000000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-12000000000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-416000000000</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4820,17 +5077,35 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4853,17 +5128,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1000000000</v>
+      </c>
+      <c r="J17">
+        <v>1000000000</v>
+      </c>
+      <c r="K17">
+        <v>1000000000</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4886,17 +5169,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="E18" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-1000000000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-2000000000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3000000000</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4919,17 +5216,35 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <v>64000000000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>98000000000</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4952,17 +5267,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <v>51000000000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>31000000000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-3046000000000</v>
+      </c>
+      <c r="I20">
+        <v>11000000000</v>
+      </c>
+      <c r="J20">
+        <v>24000000000</v>
+      </c>
+      <c r="K20">
+        <v>51000000000</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4985,17 +5318,35 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3000000000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-8000000000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-31000000000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-249000000000</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="1">
+        <v>13000000000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -5018,17 +5369,35 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8000000000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-41000000000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-27000000000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-115000000000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-14000000000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-19000000000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-7000000000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7000000000</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -5051,17 +5420,35 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-3000000000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-2000000000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1000000000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-1000000000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-1000000000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3000000000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-14000000000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-1000000000</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -5084,17 +5471,35 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-5234000000000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-124000000000</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9000000000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-62000000000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>19000000000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>69000000000</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -5117,17 +5522,35 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21000000000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-19000000000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-10000000000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-164000000000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-9000000000</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-122000000000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-36000000000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-5000000000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-9000000000</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -5150,7 +5573,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5183,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5216,7 +5639,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5249,7 +5672,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5282,7 +5705,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5315,7 +5738,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5348,7 +5771,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5381,7 +5804,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5414,7 +5837,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5447,7 +5870,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5480,7 +5903,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5513,7 +5936,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5546,7 +5969,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5579,7 +6002,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5612,7 +6035,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5645,7 +6068,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5678,7 +6101,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5711,7 +6134,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5744,7 +6167,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5777,7 +6200,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5810,7 +6233,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5843,7 +6266,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5876,7 +6299,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5909,7 +6332,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5942,7 +6365,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5975,7 +6398,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6008,7 +6431,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6041,7 +6464,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6074,7 +6497,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6107,7 +6530,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6140,7 +6563,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6173,7 +6596,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6206,7 +6629,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6239,7 +6662,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6272,7 +6695,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6305,7 +6728,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6338,7 +6761,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6371,7 +6794,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6404,7 +6827,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6437,7 +6860,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6470,7 +6893,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6503,7 +6926,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6536,7 +6959,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6569,7 +6992,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6602,7 +7025,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6635,7 +7058,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6668,7 +7091,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6701,7 +7124,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6734,7 +7157,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6767,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6800,7 +7223,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6833,7 +7256,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6866,7 +7289,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6899,7 +7322,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6932,7 +7355,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6965,7 +7388,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6998,7 +7421,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -7031,7 +7454,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -7064,7 +7487,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -7097,7 +7520,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -7130,7 +7553,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7163,7 +7586,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -7196,7 +7619,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7229,7 +7652,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7262,7 +7685,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7295,7 +7718,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7328,7 +7751,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7361,7 +7784,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7394,7 +7817,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7427,7 +7850,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7460,7 +7883,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7493,7 +7916,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7526,7 +7949,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7559,7 +7982,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7592,7 +8015,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7625,7 +8048,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7658,7 +8081,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -7691,7 +8114,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -7724,7 +8147,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7757,7 +8180,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7790,7 +8213,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -7823,7 +8246,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -7856,7 +8279,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7889,7 +8312,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -7922,7 +8345,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -7955,7 +8378,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -7988,7 +8411,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -8021,7 +8444,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -8054,7 +8477,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -8087,7 +8510,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -8120,7 +8543,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -8153,7 +8576,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -8186,7 +8609,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -8219,7 +8642,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -8252,7 +8675,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -8285,7 +8708,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -8318,7 +8741,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -8351,7 +8774,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -8384,7 +8807,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -8417,7 +8840,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -8450,7 +8873,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -8483,7 +8906,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -8516,7 +8939,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -8549,7 +8972,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -8582,7 +9005,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -8615,7 +9038,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -8648,7 +9071,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -8681,7 +9104,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -8714,7 +9137,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8747,7 +9170,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -8780,7 +9203,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -8813,7 +9236,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -8846,7 +9269,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -8879,7 +9302,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -8912,7 +9335,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -8945,7 +9368,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -8978,7 +9401,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -9011,7 +9434,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9044,7 +9467,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -9077,7 +9500,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -9110,7 +9533,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -9143,7 +9566,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -9176,7 +9599,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -9209,7 +9632,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -9242,7 +9665,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -9275,7 +9698,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -9308,7 +9731,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9341,7 +9764,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -9374,7 +9797,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9407,7 +9830,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9440,7 +9863,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9473,7 +9896,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9506,7 +9929,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9539,7 +9962,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -9572,7 +9995,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -9605,7 +10028,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9638,7 +10061,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9671,7 +10094,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9704,7 +10127,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9737,7 +10160,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9770,7 +10193,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9803,7 +10226,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -9836,7 +10259,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -9869,7 +10292,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -9902,7 +10325,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -9935,7 +10358,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -9968,7 +10391,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -10001,7 +10424,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -10034,7 +10457,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -10067,7 +10490,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -10100,7 +10523,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -10133,7 +10556,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -10166,7 +10589,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -10199,7 +10622,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -10232,7 +10655,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10265,7 +10688,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10298,7 +10721,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10331,7 +10754,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10364,7 +10787,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10397,7 +10820,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10430,7 +10853,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10463,7 +10886,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10496,7 +10919,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10529,7 +10952,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -10562,7 +10985,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -10595,7 +11018,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -10628,7 +11051,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -10661,7 +11084,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -10694,7 +11117,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -10727,7 +11150,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -10760,7 +11183,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -10793,7 +11216,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -10826,7 +11249,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -10859,7 +11282,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -10892,7 +11315,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -10925,7 +11348,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -10958,7 +11381,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -10991,7 +11414,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -11024,7 +11447,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -11057,7 +11480,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -11090,7 +11513,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -11123,7 +11546,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -11156,7 +11579,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -11189,7 +11612,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -11222,7 +11645,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -11255,7 +11678,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -11288,7 +11711,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -11321,7 +11744,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -11354,7 +11777,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -11387,7 +11810,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -11420,7 +11843,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -11453,7 +11876,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -11486,7 +11909,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -11519,7 +11942,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -11552,7 +11975,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -11585,7 +12008,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -11618,7 +12041,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -11651,7 +12074,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -11684,7 +12107,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -11717,7 +12140,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -11750,7 +12173,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -11783,7 +12206,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -11816,7 +12239,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -11849,7 +12272,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -11882,7 +12305,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -11915,7 +12338,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -11948,7 +12371,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -11981,7 +12404,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -12014,7 +12437,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -12047,7 +12470,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -12080,7 +12503,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -12113,7 +12536,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -12146,7 +12569,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -12179,7 +12602,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -12212,7 +12635,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -12245,7 +12668,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -12278,7 +12701,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -12311,7 +12734,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -12344,7 +12767,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -12377,7 +12800,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -12410,7 +12833,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -12443,7 +12866,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -12476,7 +12899,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -12509,7 +12932,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -12542,7 +12965,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -12575,7 +12998,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -12608,7 +13031,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -12641,7 +13064,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -12674,7 +13097,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -12707,7 +13130,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -12740,7 +13163,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -12773,7 +13196,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -12806,7 +13229,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -12839,7 +13262,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -12872,7 +13295,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -12905,7 +13328,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -12938,7 +13361,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -12971,7 +13394,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -13004,7 +13427,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -13037,7 +13460,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -13070,7 +13493,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -13103,7 +13526,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -13136,7 +13559,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -13169,7 +13592,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -13202,7 +13625,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -13235,7 +13658,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -13268,7 +13691,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -13301,7 +13724,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -13334,7 +13757,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -13367,7 +13790,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -13400,7 +13823,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -13433,7 +13856,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -13466,7 +13889,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -13499,7 +13922,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -13532,7 +13955,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -13565,7 +13988,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -13598,7 +14021,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -13631,7 +14054,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -13664,7 +14087,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -13697,7 +14120,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -13730,7 +14153,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -13763,7 +14186,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -13796,7 +14219,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -13829,7 +14252,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -13862,7 +14285,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -13895,7 +14318,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -13928,7 +14351,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -13961,7 +14384,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -13994,7 +14417,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -14027,7 +14450,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -14060,7 +14483,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -14093,7 +14516,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -14126,7 +14549,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -14159,7 +14582,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -14192,7 +14615,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -14225,7 +14648,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -14258,7 +14681,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -14291,7 +14714,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -14324,7 +14747,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -14357,7 +14780,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -14390,7 +14813,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -14423,7 +14846,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -14456,7 +14879,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -14489,7 +14912,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -14522,7 +14945,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -14555,7 +14978,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -14588,7 +15011,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -14621,7 +15044,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -14654,7 +15077,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -14687,7 +15110,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -14720,7 +15143,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -14753,7 +15176,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -14786,7 +15209,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -14819,7 +15242,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -14852,7 +15275,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -14885,7 +15308,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -14918,7 +15341,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -14951,7 +15374,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -14984,7 +15407,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -15017,7 +15440,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -15050,7 +15473,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -15083,7 +15506,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -15116,7 +15539,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -15149,7 +15572,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -15182,7 +15605,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -15215,7 +15638,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -15248,7 +15671,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -15281,7 +15704,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -15314,7 +15737,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -15347,7 +15770,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -15380,7 +15803,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -15413,7 +15836,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -15446,7 +15869,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -15479,7 +15902,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -15512,7 +15935,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -15545,7 +15968,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -15578,7 +16001,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -15611,7 +16034,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -15644,7 +16067,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -15677,7 +16100,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -15710,7 +16133,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -15743,7 +16166,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -15776,7 +16199,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -15809,7 +16232,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -15842,7 +16265,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -15875,7 +16298,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -15908,7 +16331,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -15941,7 +16364,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -15974,7 +16397,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -16007,7 +16430,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -16040,7 +16463,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -16073,7 +16496,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -16106,7 +16529,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -16139,7 +16562,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -16172,7 +16595,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -16205,7 +16628,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -16238,7 +16661,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -16271,7 +16694,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -16304,7 +16727,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -16337,7 +16760,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -16370,7 +16793,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -16403,7 +16826,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -16436,7 +16859,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -16469,7 +16892,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -16502,7 +16925,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -16535,7 +16958,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -16568,7 +16991,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -16601,7 +17024,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -16634,7 +17057,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -16667,7 +17090,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -16700,7 +17123,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -16733,7 +17156,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -16766,7 +17189,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -16799,7 +17222,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -16832,7 +17255,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -16865,7 +17288,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -16898,7 +17321,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -16931,7 +17354,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -16964,7 +17387,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -16997,7 +17420,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -17030,7 +17453,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -17063,7 +17486,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -17096,7 +17519,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -17129,7 +17552,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -17162,7 +17585,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -17195,7 +17618,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -17228,7 +17651,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -17261,7 +17684,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -17294,7 +17717,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -17327,7 +17750,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -17360,7 +17783,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -17393,7 +17816,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -17426,7 +17849,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -17459,7 +17882,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -17492,7 +17915,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -17525,7 +17948,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -17558,7 +17981,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -17591,7 +18014,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -17624,7 +18047,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -17657,7 +18080,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -17690,7 +18113,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -17723,7 +18146,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -17756,7 +18179,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -17789,7 +18212,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -17822,7 +18245,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -17855,7 +18278,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -17888,7 +18311,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -17921,7 +18344,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -17954,7 +18377,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -17987,7 +18410,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -18020,7 +18443,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -18053,7 +18476,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -18086,7 +18509,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -18119,7 +18542,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -18152,7 +18575,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -18185,7 +18608,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -18218,7 +18641,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -18251,7 +18674,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -18284,7 +18707,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -18317,7 +18740,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -18350,7 +18773,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -18383,7 +18806,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -18416,7 +18839,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -18449,7 +18872,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -18482,7 +18905,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -18515,7 +18938,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -18548,7 +18971,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -18581,7 +19004,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -18614,7 +19037,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -18647,7 +19070,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -18680,7 +19103,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -18713,7 +19136,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -18746,7 +19169,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -18779,7 +19202,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -18812,7 +19235,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -18845,7 +19268,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -18878,7 +19301,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -18911,7 +19334,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -18944,7 +19367,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -18977,7 +19400,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -19010,7 +19433,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -19043,7 +19466,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -19076,7 +19499,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -19109,7 +19532,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -19142,7 +19565,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -19175,7 +19598,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -19208,7 +19631,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -19241,7 +19664,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -19274,7 +19697,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -19307,7 +19730,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -19340,7 +19763,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -19373,7 +19796,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -19406,7 +19829,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -19439,7 +19862,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -19472,7 +19895,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -19505,7 +19928,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -19538,7 +19961,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -19571,7 +19994,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -19604,7 +20027,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -19637,7 +20060,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -19670,7 +20093,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -19703,7 +20126,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -19736,7 +20159,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -19769,7 +20192,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -19802,7 +20225,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -19835,7 +20258,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -19868,7 +20291,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -19901,7 +20324,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -19934,7 +20357,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -19967,7 +20390,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -20000,7 +20423,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -20033,7 +20456,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -20066,7 +20489,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -20099,7 +20522,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -20132,7 +20555,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -20165,7 +20588,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -20198,7 +20621,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -20231,7 +20654,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -20264,7 +20687,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -20297,7 +20720,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -20330,7 +20753,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>518</v>
+        <v>572</v>
       </c>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -20363,7 +20786,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>519</v>
+        <v>573</v>
       </c>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -20396,7 +20819,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -20429,7 +20852,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -20462,7 +20885,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -20495,7 +20918,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -20528,7 +20951,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>524</v>
+        <v>578</v>
       </c>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -20561,7 +20984,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -20594,7 +21017,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>526</v>
+        <v>580</v>
       </c>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -20627,7 +21050,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>527</v>
+        <v>581</v>
       </c>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -20660,7 +21083,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>528</v>
+        <v>582</v>
       </c>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -20693,7 +21116,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -20726,7 +21149,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>530</v>
+        <v>584</v>
       </c>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -20759,7 +21182,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>531</v>
+        <v>585</v>
       </c>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -20792,7 +21215,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -20825,7 +21248,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -20858,7 +21281,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -20891,7 +21314,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -20924,7 +21347,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -20957,7 +21380,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -20990,7 +21413,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>538</v>
+        <v>592</v>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -21023,7 +21446,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -21056,7 +21479,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -21089,7 +21512,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>541</v>
+        <v>595</v>
       </c>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -21122,7 +21545,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -21155,7 +21578,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -21188,7 +21611,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -21221,7 +21644,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -21254,7 +21677,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>546</v>
+        <v>600</v>
       </c>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -21287,7 +21710,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -21320,7 +21743,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>548</v>
+        <v>602</v>
       </c>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -21353,7 +21776,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>549</v>
+        <v>603</v>
       </c>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -21386,7 +21809,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>550</v>
+        <v>604</v>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -21419,7 +21842,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>551</v>
+        <v>605</v>
       </c>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -21452,7 +21875,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>552</v>
+        <v>606</v>
       </c>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -21485,7 +21908,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>553</v>
+        <v>607</v>
       </c>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -21518,7 +21941,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>554</v>
+        <v>608</v>
       </c>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -21551,7 +21974,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>555</v>
+        <v>609</v>
       </c>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -21584,7 +22007,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>556</v>
+        <v>610</v>
       </c>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -21617,7 +22040,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>557</v>
+        <v>611</v>
       </c>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -21650,7 +22073,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -21683,7 +22106,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>559</v>
+        <v>613</v>
       </c>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -21716,7 +22139,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>560</v>
+        <v>614</v>
       </c>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -21749,7 +22172,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>561</v>
+        <v>615</v>
       </c>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -21782,7 +22205,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>562</v>
+        <v>616</v>
       </c>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -21815,7 +22238,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>563</v>
+        <v>617</v>
       </c>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -21848,7 +22271,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -21881,7 +22304,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>565</v>
+        <v>619</v>
       </c>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -21914,7 +22337,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -21947,7 +22370,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>567</v>
+        <v>621</v>
       </c>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -21980,7 +22403,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>568</v>
+        <v>622</v>
       </c>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -22013,7 +22436,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>569</v>
+        <v>623</v>
       </c>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -22046,7 +22469,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>570</v>
+        <v>624</v>
       </c>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -22079,7 +22502,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>571</v>
+        <v>625</v>
       </c>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -22112,7 +22535,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>572</v>
+        <v>626</v>
       </c>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -22145,7 +22568,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>573</v>
+        <v>627</v>
       </c>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -22178,7 +22601,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>574</v>
+        <v>628</v>
       </c>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -22211,7 +22634,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>575</v>
+        <v>629</v>
       </c>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -22244,7 +22667,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>576</v>
+        <v>630</v>
       </c>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -22277,7 +22700,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>577</v>
+        <v>631</v>
       </c>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -22310,7 +22733,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>578</v>
+        <v>632</v>
       </c>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -22343,7 +22766,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>579</v>
+        <v>633</v>
       </c>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -22376,7 +22799,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -22409,7 +22832,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>581</v>
+        <v>635</v>
       </c>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -22442,7 +22865,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>582</v>
+        <v>636</v>
       </c>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -22475,7 +22898,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>583</v>
+        <v>637</v>
       </c>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -22508,7 +22931,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>584</v>
+        <v>638</v>
       </c>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -22541,7 +22964,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>585</v>
+        <v>639</v>
       </c>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -22574,7 +22997,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -22607,7 +23030,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -22640,7 +23063,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>588</v>
+        <v>642</v>
       </c>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -22673,7 +23096,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>589</v>
+        <v>643</v>
       </c>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -22706,7 +23129,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>590</v>
+        <v>644</v>
       </c>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -22739,7 +23162,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>591</v>
+        <v>645</v>
       </c>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -22772,7 +23195,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>592</v>
+        <v>646</v>
       </c>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -22805,7 +23228,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>593</v>
+        <v>647</v>
       </c>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -22838,7 +23261,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>594</v>
+        <v>648</v>
       </c>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -22871,7 +23294,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -22904,7 +23327,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>596</v>
+        <v>650</v>
       </c>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -22937,7 +23360,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -22970,7 +23393,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -23003,7 +23426,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -23036,7 +23459,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -23069,7 +23492,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>601</v>
+        <v>655</v>
       </c>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -23102,7 +23525,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>602</v>
+        <v>656</v>
       </c>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -23135,7 +23558,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>603</v>
+        <v>657</v>
       </c>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -23168,7 +23591,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -23201,7 +23624,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -23234,7 +23657,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -23267,7 +23690,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -23300,7 +23723,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -23333,7 +23756,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>609</v>
+        <v>663</v>
       </c>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -23366,7 +23789,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>610</v>
+        <v>664</v>
       </c>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -23399,7 +23822,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -23432,7 +23855,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -23465,7 +23888,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -23498,7 +23921,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>614</v>
+        <v>668</v>
       </c>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -23531,7 +23954,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>615</v>
+        <v>669</v>
       </c>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -23564,7 +23987,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>616</v>
+        <v>670</v>
       </c>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -23597,7 +24020,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>617</v>
+        <v>671</v>
       </c>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -23630,7 +24053,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>618</v>
+        <v>672</v>
       </c>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -23663,7 +24086,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>619</v>
+        <v>673</v>
       </c>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -23696,7 +24119,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>620</v>
+        <v>674</v>
       </c>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -23729,7 +24152,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>621</v>
+        <v>675</v>
       </c>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -23762,7 +24185,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>622</v>
+        <v>676</v>
       </c>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -23795,7 +24218,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>623</v>
+        <v>677</v>
       </c>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -23828,7 +24251,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>624</v>
+        <v>678</v>
       </c>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -23861,7 +24284,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>625</v>
+        <v>679</v>
       </c>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -23894,7 +24317,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>626</v>
+        <v>680</v>
       </c>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -23927,7 +24350,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>627</v>
+        <v>681</v>
       </c>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -23960,7 +24383,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>628</v>
+        <v>682</v>
       </c>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -23993,7 +24416,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -24026,7 +24449,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>630</v>
+        <v>684</v>
       </c>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -24059,7 +24482,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -24092,7 +24515,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>632</v>
+        <v>686</v>
       </c>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -24125,7 +24548,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>633</v>
+        <v>687</v>
       </c>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -24158,7 +24581,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>634</v>
+        <v>688</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -24191,7 +24614,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>635</v>
+        <v>689</v>
       </c>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -24224,7 +24647,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>636</v>
+        <v>690</v>
       </c>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -24257,7 +24680,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>637</v>
+        <v>691</v>
       </c>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -24290,7 +24713,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>638</v>
+        <v>692</v>
       </c>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -24323,7 +24746,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -24356,7 +24779,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>640</v>
+        <v>694</v>
       </c>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -24389,7 +24812,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>641</v>
+        <v>695</v>
       </c>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -24422,7 +24845,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>642</v>
+        <v>696</v>
       </c>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -24455,7 +24878,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -24488,7 +24911,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -24521,7 +24944,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>645</v>
+        <v>699</v>
       </c>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -24554,7 +24977,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>646</v>
+        <v>700</v>
       </c>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -24587,7 +25010,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>647</v>
+        <v>701</v>
       </c>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -24620,7 +25043,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -24653,7 +25076,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -24686,7 +25109,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>650</v>
+        <v>704</v>
       </c>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -24719,7 +25142,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>651</v>
+        <v>705</v>
       </c>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -24752,7 +25175,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>652</v>
+        <v>706</v>
       </c>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -24785,7 +25208,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>653</v>
+        <v>707</v>
       </c>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -24818,7 +25241,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>654</v>
+        <v>708</v>
       </c>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -24851,7 +25274,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>655</v>
+        <v>709</v>
       </c>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -24884,7 +25307,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>656</v>
+        <v>710</v>
       </c>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -24917,7 +25340,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>657</v>
+        <v>711</v>
       </c>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -24950,7 +25373,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>658</v>
+        <v>712</v>
       </c>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -24983,7 +25406,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -25016,7 +25439,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>660</v>
+        <v>714</v>
       </c>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
@@ -25049,7 +25472,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>661</v>
+        <v>715</v>
       </c>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
@@ -25082,7 +25505,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>662</v>
+        <v>716</v>
       </c>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -25115,7 +25538,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>663</v>
+        <v>717</v>
       </c>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
@@ -25148,7 +25571,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
@@ -25181,7 +25604,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>665</v>
+        <v>719</v>
       </c>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -25214,7 +25637,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>666</v>
+        <v>720</v>
       </c>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
@@ -25247,7 +25670,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>667</v>
+        <v>721</v>
       </c>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
@@ -25280,7 +25703,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>668</v>
+        <v>722</v>
       </c>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
@@ -25313,7 +25736,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>669</v>
+        <v>723</v>
       </c>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
@@ -25346,7 +25769,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>670</v>
+        <v>724</v>
       </c>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
@@ -25379,7 +25802,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>671</v>
+        <v>725</v>
       </c>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
@@ -25412,7 +25835,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>672</v>
+        <v>726</v>
       </c>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -25445,7 +25868,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>673</v>
+        <v>727</v>
       </c>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
@@ -25478,7 +25901,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>674</v>
+        <v>728</v>
       </c>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
@@ -25511,7 +25934,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>675</v>
+        <v>729</v>
       </c>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
@@ -25544,7 +25967,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>676</v>
+        <v>730</v>
       </c>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
@@ -25577,7 +26000,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>677</v>
+        <v>731</v>
       </c>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
@@ -25610,7 +26033,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>678</v>
+        <v>732</v>
       </c>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
@@ -25643,7 +26066,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>679</v>
+        <v>733</v>
       </c>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -25676,7 +26099,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>680</v>
+        <v>734</v>
       </c>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
@@ -25709,7 +26132,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>681</v>
+        <v>735</v>
       </c>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
@@ -25742,7 +26165,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>682</v>
+        <v>736</v>
       </c>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
@@ -25775,7 +26198,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
@@ -25808,7 +26231,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>684</v>
+        <v>738</v>
       </c>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
@@ -25841,7 +26264,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>685</v>
+        <v>739</v>
       </c>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
@@ -25874,7 +26297,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>686</v>
+        <v>740</v>
       </c>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -25907,7 +26330,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>687</v>
+        <v>741</v>
       </c>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -25940,7 +26363,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>688</v>
+        <v>742</v>
       </c>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
@@ -25973,7 +26396,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>689</v>
+        <v>743</v>
       </c>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
@@ -26006,7 +26429,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>690</v>
+        <v>744</v>
       </c>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
@@ -26039,7 +26462,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>691</v>
+        <v>745</v>
       </c>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -26072,7 +26495,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>692</v>
+        <v>746</v>
       </c>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -26105,7 +26528,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>693</v>
+        <v>747</v>
       </c>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -26138,7 +26561,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>694</v>
+        <v>748</v>
       </c>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -26171,7 +26594,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>695</v>
+        <v>749</v>
       </c>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -26204,7 +26627,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>696</v>
+        <v>750</v>
       </c>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -26237,7 +26660,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>697</v>
+        <v>751</v>
       </c>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -26270,7 +26693,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>698</v>
+        <v>752</v>
       </c>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -26303,7 +26726,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>699</v>
+        <v>753</v>
       </c>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -26336,7 +26759,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>700</v>
+        <v>754</v>
       </c>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -26369,7 +26792,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>701</v>
+        <v>755</v>
       </c>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
@@ -26402,7 +26825,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>702</v>
+        <v>756</v>
       </c>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
@@ -26435,7 +26858,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>703</v>
+        <v>757</v>
       </c>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
@@ -26468,7 +26891,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>704</v>
+        <v>758</v>
       </c>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
@@ -26501,7 +26924,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>705</v>
+        <v>759</v>
       </c>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
@@ -26534,7 +26957,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>706</v>
+        <v>760</v>
       </c>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
@@ -26567,7 +26990,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>707</v>
+        <v>761</v>
       </c>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -26600,7 +27023,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>708</v>
+        <v>762</v>
       </c>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
@@ -26633,7 +27056,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>709</v>
+        <v>763</v>
       </c>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -26666,7 +27089,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>710</v>
+        <v>764</v>
       </c>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -26699,7 +27122,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>711</v>
+        <v>765</v>
       </c>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -26732,7 +27155,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>712</v>
+        <v>766</v>
       </c>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -26765,7 +27188,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>713</v>
+        <v>767</v>
       </c>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -26798,7 +27221,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>714</v>
+        <v>768</v>
       </c>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -26831,7 +27254,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>715</v>
+        <v>769</v>
       </c>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -26864,7 +27287,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>716</v>
+        <v>770</v>
       </c>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
@@ -26897,7 +27320,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
@@ -26930,7 +27353,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -26963,7 +27386,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>719</v>
+        <v>773</v>
       </c>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
@@ -26996,7 +27419,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>720</v>
+        <v>774</v>
       </c>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
@@ -27029,7 +27452,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>721</v>
+        <v>775</v>
       </c>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -27062,7 +27485,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>722</v>
+        <v>776</v>
       </c>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
@@ -27095,7 +27518,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
@@ -27128,7 +27551,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -27161,7 +27584,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>725</v>
+        <v>779</v>
       </c>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
@@ -27194,7 +27617,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -27227,7 +27650,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>727</v>
+        <v>781</v>
       </c>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
@@ -27260,7 +27683,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -27293,7 +27716,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>729</v>
+        <v>783</v>
       </c>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -27326,7 +27749,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>730</v>
+        <v>784</v>
       </c>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -27359,7 +27782,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>731</v>
+        <v>785</v>
       </c>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -27392,7 +27815,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>732</v>
+        <v>786</v>
       </c>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -27425,7 +27848,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -27458,7 +27881,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>734</v>
+        <v>788</v>
       </c>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -27491,7 +27914,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>735</v>
+        <v>789</v>
       </c>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -27524,7 +27947,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>736</v>
+        <v>790</v>
       </c>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -27557,7 +27980,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>737</v>
+        <v>791</v>
       </c>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -27590,7 +28013,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>738</v>
+        <v>792</v>
       </c>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
@@ -27623,7 +28046,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>739</v>
+        <v>793</v>
       </c>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
@@ -27656,7 +28079,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>740</v>
+        <v>794</v>
       </c>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
@@ -27689,7 +28112,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>741</v>
+        <v>795</v>
       </c>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
@@ -27722,7 +28145,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>742</v>
+        <v>796</v>
       </c>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
@@ -27755,7 +28178,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>743</v>
+        <v>797</v>
       </c>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
@@ -27788,7 +28211,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>744</v>
+        <v>798</v>
       </c>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
@@ -27821,7 +28244,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>745</v>
+        <v>799</v>
       </c>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
@@ -27854,7 +28277,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>746</v>
+        <v>800</v>
       </c>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
@@ -27887,7 +28310,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>747</v>
+        <v>801</v>
       </c>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
@@ -27920,7 +28343,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
@@ -27953,7 +28376,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
@@ -27986,7 +28409,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>750</v>
+        <v>804</v>
       </c>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
@@ -28019,7 +28442,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>751</v>
+        <v>805</v>
       </c>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
@@ -28052,7 +28475,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>752</v>
+        <v>806</v>
       </c>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -28085,7 +28508,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -28118,7 +28541,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>754</v>
+        <v>808</v>
       </c>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -28151,7 +28574,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>755</v>
+        <v>809</v>
       </c>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -28184,7 +28607,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>756</v>
+        <v>810</v>
       </c>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
@@ -28217,7 +28640,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>757</v>
+        <v>811</v>
       </c>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
@@ -28250,7 +28673,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>758</v>
+        <v>812</v>
       </c>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
@@ -28283,7 +28706,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>759</v>
+        <v>813</v>
       </c>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
@@ -28316,7 +28739,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>760</v>
+        <v>814</v>
       </c>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -28349,7 +28772,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -28382,7 +28805,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>762</v>
+        <v>816</v>
       </c>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -28415,7 +28838,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
@@ -28448,7 +28871,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>764</v>
+        <v>818</v>
       </c>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -28481,7 +28904,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>765</v>
+        <v>819</v>
       </c>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
@@ -28514,7 +28937,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>766</v>
+        <v>820</v>
       </c>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -28547,7 +28970,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>767</v>
+        <v>821</v>
       </c>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -28580,7 +29003,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -28613,7 +29036,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>769</v>
+        <v>823</v>
       </c>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -28646,7 +29069,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>770</v>
+        <v>824</v>
       </c>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -28679,7 +29102,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>771</v>
+        <v>825</v>
       </c>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -28712,7 +29135,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -28745,7 +29168,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>773</v>
+        <v>827</v>
       </c>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -28778,7 +29201,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>774</v>
+        <v>828</v>
       </c>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -28811,7 +29234,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -28844,7 +29267,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -28877,7 +29300,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>777</v>
+        <v>831</v>
       </c>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -28910,7 +29333,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>778</v>
+        <v>832</v>
       </c>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -28943,7 +29366,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>779</v>
+        <v>833</v>
       </c>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
@@ -28976,7 +29399,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>780</v>
+        <v>834</v>
       </c>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
@@ -29009,7 +29432,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>781</v>
+        <v>835</v>
       </c>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
@@ -29042,7 +29465,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
@@ -29075,7 +29498,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>783</v>
+        <v>837</v>
       </c>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -29108,7 +29531,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -29141,7 +29564,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
@@ -29174,7 +29597,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>786</v>
+        <v>840</v>
       </c>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
@@ -29207,7 +29630,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
@@ -29240,7 +29663,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>788</v>
+        <v>842</v>
       </c>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
@@ -29273,7 +29696,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
@@ -29306,7 +29729,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
@@ -29339,7 +29762,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>791</v>
+        <v>845</v>
       </c>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
@@ -29372,7 +29795,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
@@ -29405,7 +29828,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>793</v>
+        <v>847</v>
       </c>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
@@ -29438,7 +29861,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>794</v>
+        <v>848</v>
       </c>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
@@ -29471,7 +29894,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>795</v>
+        <v>849</v>
       </c>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
@@ -29504,7 +29927,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>796</v>
+        <v>850</v>
       </c>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
@@ -29537,7 +29960,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>797</v>
+        <v>851</v>
       </c>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
@@ -29570,7 +29993,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>798</v>
+        <v>852</v>
       </c>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
@@ -29603,7 +30026,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>799</v>
+        <v>853</v>
       </c>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
@@ -29636,7 +30059,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>800</v>
+        <v>854</v>
       </c>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
@@ -29669,7 +30092,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>801</v>
+        <v>855</v>
       </c>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
@@ -29702,7 +30125,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>802</v>
+        <v>856</v>
       </c>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
@@ -29735,7 +30158,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>803</v>
+        <v>857</v>
       </c>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
@@ -29768,7 +30191,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>804</v>
+        <v>858</v>
       </c>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
@@ -29801,7 +30224,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>805</v>
+        <v>859</v>
       </c>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
@@ -29834,7 +30257,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>806</v>
+        <v>860</v>
       </c>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
@@ -29867,7 +30290,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>807</v>
+        <v>861</v>
       </c>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
@@ -29900,7 +30323,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>808</v>
+        <v>862</v>
       </c>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
@@ -29933,7 +30356,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
@@ -29966,7 +30389,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>810</v>
+        <v>864</v>
       </c>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
@@ -29999,7 +30422,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>811</v>
+        <v>865</v>
       </c>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
@@ -30032,7 +30455,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>812</v>
+        <v>866</v>
       </c>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
@@ -30065,7 +30488,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>813</v>
+        <v>867</v>
       </c>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
@@ -30098,7 +30521,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>814</v>
+        <v>868</v>
       </c>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
@@ -30131,7 +30554,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>815</v>
+        <v>869</v>
       </c>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
@@ -30164,7 +30587,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>816</v>
+        <v>870</v>
       </c>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
@@ -30197,7 +30620,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>817</v>
+        <v>871</v>
       </c>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
@@ -30230,7 +30653,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>818</v>
+        <v>872</v>
       </c>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
@@ -30263,7 +30686,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>819</v>
+        <v>873</v>
       </c>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
@@ -30296,7 +30719,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>820</v>
+        <v>874</v>
       </c>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
@@ -30329,7 +30752,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>821</v>
+        <v>875</v>
       </c>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
@@ -30362,7 +30785,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>822</v>
+        <v>876</v>
       </c>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
@@ -30395,7 +30818,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>823</v>
+        <v>877</v>
       </c>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
@@ -30428,7 +30851,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>824</v>
+        <v>878</v>
       </c>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -30461,7 +30884,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>825</v>
+        <v>879</v>
       </c>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -30494,7 +30917,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>826</v>
+        <v>880</v>
       </c>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
@@ -30527,7 +30950,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>827</v>
+        <v>881</v>
       </c>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
@@ -30560,7 +30983,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>828</v>
+        <v>882</v>
       </c>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
@@ -30593,7 +31016,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>829</v>
+        <v>883</v>
       </c>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
@@ -30626,7 +31049,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>830</v>
+        <v>884</v>
       </c>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
@@ -30659,7 +31082,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>831</v>
+        <v>885</v>
       </c>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
@@ -30692,7 +31115,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>832</v>
+        <v>886</v>
       </c>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
@@ -30725,7 +31148,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>833</v>
+        <v>887</v>
       </c>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
@@ -30758,7 +31181,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>834</v>
+        <v>888</v>
       </c>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
@@ -30791,7 +31214,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>835</v>
+        <v>889</v>
       </c>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
@@ -30824,7 +31247,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>836</v>
+        <v>890</v>
       </c>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
@@ -30857,7 +31280,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>837</v>
+        <v>891</v>
       </c>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
@@ -30890,7 +31313,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>838</v>
+        <v>892</v>
       </c>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
@@ -30923,7 +31346,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>839</v>
+        <v>893</v>
       </c>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
@@ -30956,7 +31379,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>840</v>
+        <v>894</v>
       </c>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
@@ -30989,7 +31412,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>841</v>
+        <v>895</v>
       </c>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
@@ -31022,7 +31445,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>842</v>
+        <v>896</v>
       </c>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
@@ -31055,7 +31478,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>843</v>
+        <v>897</v>
       </c>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
@@ -31088,7 +31511,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>844</v>
+        <v>898</v>
       </c>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
@@ -31121,7 +31544,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>845</v>
+        <v>899</v>
       </c>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
@@ -31154,7 +31577,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>846</v>
+        <v>900</v>
       </c>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
@@ -31187,7 +31610,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>847</v>
+        <v>901</v>
       </c>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
@@ -31220,7 +31643,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>848</v>
+        <v>902</v>
       </c>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
@@ -31253,7 +31676,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>849</v>
+        <v>903</v>
       </c>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
@@ -31286,7 +31709,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>850</v>
+        <v>904</v>
       </c>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
@@ -31319,7 +31742,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>851</v>
+        <v>905</v>
       </c>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
@@ -31352,7 +31775,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>852</v>
+        <v>906</v>
       </c>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
@@ -31385,7 +31808,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
@@ -31418,7 +31841,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>854</v>
+        <v>908</v>
       </c>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
@@ -31451,7 +31874,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>855</v>
+        <v>909</v>
       </c>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
@@ -31484,7 +31907,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>856</v>
+        <v>910</v>
       </c>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
@@ -31517,7 +31940,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
@@ -31550,7 +31973,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>858</v>
+        <v>912</v>
       </c>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
@@ -31583,7 +32006,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>859</v>
+        <v>913</v>
       </c>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
@@ -31616,7 +32039,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
@@ -31649,7 +32072,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>861</v>
+        <v>915</v>
       </c>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
@@ -31682,7 +32105,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>862</v>
+        <v>916</v>
       </c>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
@@ -31715,7 +32138,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>863</v>
+        <v>917</v>
       </c>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
@@ -31748,7 +32171,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>864</v>
+        <v>918</v>
       </c>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
@@ -31781,7 +32204,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>865</v>
+        <v>919</v>
       </c>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
@@ -31814,7 +32237,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>866</v>
+        <v>920</v>
       </c>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
@@ -31847,7 +32270,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>867</v>
+        <v>921</v>
       </c>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
@@ -31880,7 +32303,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>868</v>
+        <v>922</v>
       </c>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
@@ -31913,7 +32336,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>869</v>
+        <v>923</v>
       </c>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
@@ -31946,7 +32369,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>870</v>
+        <v>924</v>
       </c>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
@@ -31979,7 +32402,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>871</v>
+        <v>925</v>
       </c>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
@@ -32012,7 +32435,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>872</v>
+        <v>926</v>
       </c>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
@@ -32045,7 +32468,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>873</v>
+        <v>927</v>
       </c>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
@@ -32078,7 +32501,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>874</v>
+        <v>928</v>
       </c>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
@@ -32111,7 +32534,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>875</v>
+        <v>929</v>
       </c>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
@@ -32144,7 +32567,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>876</v>
+        <v>930</v>
       </c>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
@@ -32177,7 +32600,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>877</v>
+        <v>931</v>
       </c>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
@@ -32210,7 +32633,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>878</v>
+        <v>932</v>
       </c>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
@@ -32243,7 +32666,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>879</v>
+        <v>933</v>
       </c>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
@@ -32276,7 +32699,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>880</v>
+        <v>934</v>
       </c>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
@@ -32309,7 +32732,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>881</v>
+        <v>935</v>
       </c>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
@@ -32342,7 +32765,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>882</v>
+        <v>936</v>
       </c>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
@@ -32375,7 +32798,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>883</v>
+        <v>937</v>
       </c>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
@@ -32408,7 +32831,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>884</v>
+        <v>938</v>
       </c>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
@@ -32441,7 +32864,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>885</v>
+        <v>939</v>
       </c>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
@@ -32474,7 +32897,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>886</v>
+        <v>940</v>
       </c>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
@@ -32507,7 +32930,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>887</v>
+        <v>941</v>
       </c>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
@@ -32540,7 +32963,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>888</v>
+        <v>942</v>
       </c>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
@@ -32573,7 +32996,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>889</v>
+        <v>943</v>
       </c>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
@@ -32606,7 +33029,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>890</v>
+        <v>944</v>
       </c>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
@@ -32639,7 +33062,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>891</v>
+        <v>945</v>
       </c>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
@@ -32672,7 +33095,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>892</v>
+        <v>946</v>
       </c>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
@@ -32705,7 +33128,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>893</v>
+        <v>947</v>
       </c>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
@@ -32738,7 +33161,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>894</v>
+        <v>948</v>
       </c>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
@@ -32771,7 +33194,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>895</v>
+        <v>949</v>
       </c>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
@@ -32804,7 +33227,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>896</v>
+        <v>950</v>
       </c>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
@@ -32837,7 +33260,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>897</v>
+        <v>951</v>
       </c>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
@@ -32870,7 +33293,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>898</v>
+        <v>952</v>
       </c>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
@@ -32903,7 +33326,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>899</v>
+        <v>953</v>
       </c>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
@@ -32936,7 +33359,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>900</v>
+        <v>954</v>
       </c>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
@@ -32969,7 +33392,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>901</v>
+        <v>955</v>
       </c>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
@@ -33002,7 +33425,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>902</v>
+        <v>956</v>
       </c>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
@@ -33035,7 +33458,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>903</v>
+        <v>957</v>
       </c>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
@@ -33068,7 +33491,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>904</v>
+        <v>958</v>
       </c>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
@@ -33101,7 +33524,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>905</v>
+        <v>959</v>
       </c>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
@@ -33134,7 +33557,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>906</v>
+        <v>960</v>
       </c>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
@@ -33167,7 +33590,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>907</v>
+        <v>961</v>
       </c>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
@@ -33200,7 +33623,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>908</v>
+        <v>962</v>
       </c>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
@@ -33233,7 +33656,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>909</v>
+        <v>963</v>
       </c>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
@@ -33266,7 +33689,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>910</v>
+        <v>964</v>
       </c>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
@@ -33299,7 +33722,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>911</v>
+        <v>965</v>
       </c>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
@@ -33332,7 +33755,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>912</v>
+        <v>966</v>
       </c>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
@@ -33365,7 +33788,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>913</v>
+        <v>967</v>
       </c>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
@@ -33398,7 +33821,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
@@ -33431,7 +33854,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>915</v>
+        <v>969</v>
       </c>
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
@@ -33464,7 +33887,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
@@ -33497,7 +33920,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>917</v>
+        <v>971</v>
       </c>
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
@@ -33532,37 +33955,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>918</v>
+        <v>972</v>
       </c>
       <c r="C886" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>921</v>
+        <v>975</v>
       </c>
       <c r="F886" s="1" t="s">
-        <v>922</v>
+        <v>976</v>
       </c>
       <c r="G886" s="1" t="s">
-        <v>923</v>
+        <v>977</v>
       </c>
       <c r="H886" s="1" t="s">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>925</v>
+        <v>979</v>
       </c>
       <c r="J886" s="1" t="s">
-        <v>926</v>
+        <v>980</v>
       </c>
       <c r="K886" s="1" t="s">
-        <v>927</v>
+        <v>981</v>
       </c>
       <c r="L886" s="1" t="s">
-        <v>928</v>
+        <v>982</v>
       </c>
       <c r="M886" s="1"/>
       <c r="N886" s="1"/>
@@ -33585,7 +34008,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>929</v>
+        <v>983</v>
       </c>
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
@@ -33618,7 +34041,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>930</v>
+        <v>984</v>
       </c>
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
@@ -33651,7 +34074,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>931</v>
+        <v>985</v>
       </c>
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
@@ -33684,7 +34107,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>932</v>
+        <v>986</v>
       </c>
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
@@ -33717,7 +34140,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>933</v>
+        <v>987</v>
       </c>
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
@@ -33750,7 +34173,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>934</v>
+        <v>988</v>
       </c>
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
@@ -33783,7 +34206,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>935</v>
+        <v>989</v>
       </c>
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
@@ -33816,7 +34239,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>936</v>
+        <v>990</v>
       </c>
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
@@ -33849,7 +34272,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>937</v>
+        <v>991</v>
       </c>
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
@@ -33882,7 +34305,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>938</v>
+        <v>992</v>
       </c>
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
@@ -33915,7 +34338,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>939</v>
+        <v>993</v>
       </c>
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
@@ -33948,7 +34371,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>940</v>
+        <v>994</v>
       </c>
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
@@ -33981,7 +34404,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>941</v>
+        <v>995</v>
       </c>
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
@@ -34014,7 +34437,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>942</v>
+        <v>996</v>
       </c>
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
@@ -34047,7 +34470,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>943</v>
+        <v>997</v>
       </c>
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
@@ -34080,7 +34503,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>944</v>
+        <v>998</v>
       </c>
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
@@ -34113,7 +34536,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>945</v>
+        <v>999</v>
       </c>
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
@@ -34146,7 +34569,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>946</v>
+        <v>1000</v>
       </c>
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
@@ -34179,7 +34602,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>947</v>
+        <v>1001</v>
       </c>
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
@@ -34212,7 +34635,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>948</v>
+        <v>1002</v>
       </c>
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
@@ -34245,7 +34668,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>949</v>
+        <v>1003</v>
       </c>
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
@@ -34278,7 +34701,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>950</v>
+        <v>1004</v>
       </c>
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
@@ -34311,7 +34734,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>951</v>
+        <v>1005</v>
       </c>
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
@@ -34344,7 +34767,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>952</v>
+        <v>1006</v>
       </c>
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
@@ -34377,7 +34800,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>953</v>
+        <v>1007</v>
       </c>
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
@@ -34410,7 +34833,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
@@ -34443,37 +34866,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>955</v>
+        <v>1009</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>956</v>
+        <v>1010</v>
       </c>
       <c r="D913" s="1" t="s">
-        <v>957</v>
+        <v>1011</v>
       </c>
       <c r="E913" s="1" t="s">
-        <v>958</v>
+        <v>1012</v>
       </c>
       <c r="F913" s="1" t="s">
-        <v>959</v>
+        <v>1013</v>
       </c>
       <c r="G913" s="1" t="s">
-        <v>960</v>
+        <v>1014</v>
       </c>
       <c r="H913" s="1" t="s">
-        <v>961</v>
+        <v>1015</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>962</v>
+        <v>1016</v>
       </c>
       <c r="J913" s="1" t="s">
-        <v>963</v>
+        <v>1017</v>
       </c>
       <c r="K913" s="1" t="s">
-        <v>964</v>
+        <v>1018</v>
       </c>
       <c r="L913" s="1" t="s">
-        <v>965</v>
+        <v>1019</v>
       </c>
       <c r="M913" s="1"/>
       <c r="N913" s="1"/>
@@ -34496,7 +34919,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>966</v>
+        <v>1020</v>
       </c>
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
@@ -34529,7 +34952,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>967</v>
+        <v>1021</v>
       </c>
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
@@ -34562,7 +34985,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
@@ -34595,7 +35018,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>969</v>
+        <v>1023</v>
       </c>
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
@@ -34628,7 +35051,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>970</v>
+        <v>1024</v>
       </c>
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
@@ -34661,7 +35084,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>971</v>
+        <v>1025</v>
       </c>
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
@@ -34694,7 +35117,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>972</v>
+        <v>1026</v>
       </c>
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
@@ -34727,7 +35150,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>973</v>
+        <v>1027</v>
       </c>
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
@@ -34760,7 +35183,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>974</v>
+        <v>1028</v>
       </c>
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
@@ -34793,7 +35216,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>975</v>
+        <v>1029</v>
       </c>
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
@@ -34826,7 +35249,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>976</v>
+        <v>1030</v>
       </c>
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
@@ -34859,7 +35282,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>977</v>
+        <v>1031</v>
       </c>
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
@@ -34892,7 +35315,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>978</v>
+        <v>1032</v>
       </c>
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
@@ -34925,7 +35348,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>979</v>
+        <v>1033</v>
       </c>
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
@@ -34958,7 +35381,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>980</v>
+        <v>1034</v>
       </c>
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
@@ -34991,7 +35414,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>981</v>
+        <v>1035</v>
       </c>
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
@@ -35024,7 +35447,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>982</v>
+        <v>1036</v>
       </c>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
@@ -35057,7 +35480,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>983</v>
+        <v>1037</v>
       </c>
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
@@ -35090,7 +35513,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>984</v>
+        <v>1038</v>
       </c>
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
@@ -35123,7 +35546,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>985</v>
+        <v>1039</v>
       </c>
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
@@ -35156,7 +35579,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>986</v>
+        <v>1040</v>
       </c>
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
@@ -35189,7 +35612,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>987</v>
+        <v>1041</v>
       </c>
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
@@ -35222,7 +35645,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>988</v>
+        <v>1042</v>
       </c>
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
@@ -35255,7 +35678,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>989</v>
+        <v>1043</v>
       </c>
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
@@ -35288,7 +35711,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>990</v>
+        <v>1044</v>
       </c>
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
@@ -35321,7 +35744,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>991</v>
+        <v>1045</v>
       </c>
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
@@ -35354,7 +35777,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>992</v>
+        <v>1046</v>
       </c>
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
@@ -35387,7 +35810,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>993</v>
+        <v>1047</v>
       </c>
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
@@ -35420,7 +35843,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>994</v>
+        <v>1048</v>
       </c>
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
@@ -35453,7 +35876,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>995</v>
+        <v>1049</v>
       </c>
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
@@ -35486,7 +35909,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>996</v>
+        <v>1050</v>
       </c>
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
@@ -35519,7 +35942,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>997</v>
+        <v>1051</v>
       </c>
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
@@ -35552,7 +35975,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>998</v>
+        <v>1052</v>
       </c>
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
@@ -35585,7 +36008,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>999</v>
+        <v>1053</v>
       </c>
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
@@ -35618,7 +36041,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>1000</v>
+        <v>1054</v>
       </c>
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
@@ -35651,7 +36074,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>1001</v>
+        <v>1055</v>
       </c>
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
@@ -35684,7 +36107,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>1002</v>
+        <v>1056</v>
       </c>
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
@@ -35717,7 +36140,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>1003</v>
+        <v>1057</v>
       </c>
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
@@ -35750,7 +36173,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>1004</v>
+        <v>1058</v>
       </c>
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
@@ -35783,7 +36206,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>1005</v>
+        <v>1059</v>
       </c>
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
@@ -35816,7 +36239,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>1006</v>
+        <v>1060</v>
       </c>
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
@@ -35849,7 +36272,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>1007</v>
+        <v>1061</v>
       </c>
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
@@ -35882,7 +36305,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>1008</v>
+        <v>1062</v>
       </c>
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
@@ -35915,7 +36338,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>1009</v>
+        <v>1063</v>
       </c>
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
@@ -35948,7 +36371,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1010</v>
+        <v>1064</v>
       </c>
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1173">
   <si>
     <t>No</t>
   </si>
@@ -968,7 +968,61 @@
     <t>BJBR</t>
   </si>
   <si>
+    <t>115300000000</t>
+  </si>
+  <si>
+    <t>121100000000</t>
+  </si>
+  <si>
+    <t>155200000000</t>
+  </si>
+  <si>
+    <t>156400000000</t>
+  </si>
+  <si>
+    <t>169000000000</t>
+  </si>
+  <si>
+    <t>201900000000</t>
+  </si>
+  <si>
+    <t>224500000000</t>
+  </si>
+  <si>
+    <t>168100000000</t>
+  </si>
+  <si>
+    <t>145500000000</t>
+  </si>
+  <si>
     <t>BJTM</t>
+  </si>
+  <si>
+    <t>102800000000</t>
+  </si>
+  <si>
+    <t>115900000000</t>
+  </si>
+  <si>
+    <t>126000000000</t>
+  </si>
+  <si>
+    <t>137700000000</t>
+  </si>
+  <si>
+    <t>148900000000</t>
+  </si>
+  <si>
+    <t>152300000000</t>
+  </si>
+  <si>
+    <t>154300000000</t>
+  </si>
+  <si>
+    <t>147000000000</t>
+  </si>
+  <si>
+    <t>129600000000</t>
   </si>
   <si>
     <t>BKDP</t>
@@ -4133,11 +4187,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
@@ -4526,8 +4581,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140:K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4695,16 +4750,16 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="2"/>
@@ -4731,31 +4786,31 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
@@ -4833,10 +4888,10 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5">
@@ -4845,10 +4900,10 @@
       <c r="F5" s="2">
         <v>88000000000</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="2">
@@ -4890,7 +4945,7 @@
       <c r="D6" s="2">
         <v>51000000000</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="2">
@@ -4899,16 +4954,16 @@
       <c r="G6" s="2">
         <v>-550000000000</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="2"/>
@@ -4935,31 +4990,31 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L7" s="2"/>
@@ -5025,10 +5080,10 @@
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2">
@@ -5080,19 +5135,19 @@
       <c r="E10" s="2">
         <v>65000000000</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="2">
@@ -5134,19 +5189,19 @@
       <c r="F11" s="2">
         <v>84000000000</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L11" s="2"/>
@@ -5173,16 +5228,16 @@
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G12">
@@ -5191,13 +5246,13 @@
       <c r="H12">
         <v>86000000000</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="2"/>
@@ -5224,31 +5279,31 @@
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="2"/>
@@ -5337,16 +5392,16 @@
       <c r="G15" s="2">
         <v>-416000000000</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="L15" s="2"/>
@@ -5373,31 +5428,31 @@
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>87</v>
       </c>
       <c r="L16" s="2"/>
@@ -5518,25 +5573,25 @@
       <c r="D19" s="2">
         <v>98000000000</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="2"/>
@@ -5563,13 +5618,13 @@
       <c r="B20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="2">
@@ -5626,19 +5681,19 @@
       <c r="F21" s="2">
         <v>-249000000000</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="2">
         <v>13000000000</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="5" t="s">
         <v>104</v>
       </c>
       <c r="L21" s="2"/>
@@ -5767,7 +5822,7 @@
       <c r="B24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="2">
@@ -5776,10 +5831,10 @@
       <c r="E24" s="2">
         <v>-124000000000</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>110</v>
       </c>
       <c r="H24" s="2">
@@ -5884,10 +5939,10 @@
       <c r="G26" s="2">
         <v>66000000000</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>114</v>
       </c>
       <c r="J26" s="2">
@@ -5920,31 +5975,31 @@
       <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5" t="s">
         <v>123</v>
       </c>
       <c r="L27" s="2"/>
@@ -6037,7 +6092,7 @@
       <c r="G29" s="2">
         <v>65000000000</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>126</v>
       </c>
       <c r="I29" s="2">
@@ -6073,31 +6128,31 @@
       <c r="B30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="2"/>
@@ -6277,31 +6332,31 @@
       <c r="B34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2">
         <v>-28000000000</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="2">
         <v>90000000000</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="5" t="s">
         <v>137</v>
       </c>
       <c r="L34" s="2"/>
@@ -6388,10 +6443,10 @@
       <c r="I36" s="2">
         <v>-155000000000</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="5" t="s">
         <v>141</v>
       </c>
       <c r="L36" s="2"/>
@@ -6418,7 +6473,7 @@
       <c r="B37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D37" s="2">
@@ -6433,16 +6488,16 @@
       <c r="G37" s="2">
         <v>-431000000000</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="5" t="s">
         <v>147</v>
       </c>
       <c r="L37" s="2"/>
@@ -6523,19 +6578,19 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="6" t="s">
         <v>154</v>
       </c>
       <c r="L39" s="2"/>
@@ -6614,16 +6669,16 @@
       <c r="G41" s="2">
         <v>80000000000</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="5" t="s">
         <v>157</v>
       </c>
       <c r="J41" s="2">
         <v>93000000000</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L41" s="2"/>
@@ -6650,31 +6705,31 @@
       <c r="B42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="5" t="s">
         <v>166</v>
       </c>
       <c r="L42" s="2"/>
@@ -6750,10 +6805,10 @@
       <c r="B44" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E44" s="2">
@@ -6765,16 +6820,16 @@
       <c r="G44" s="2">
         <v>32000000000</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J44" s="2">
         <v>68000000000</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="5" t="s">
         <v>172</v>
       </c>
       <c r="L44" s="2"/>
@@ -6804,28 +6859,28 @@
       <c r="C45">
         <v>65000000000</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="6" t="s">
         <v>180</v>
       </c>
       <c r="L45" s="2"/>
@@ -6861,10 +6916,10 @@
       <c r="E46">
         <v>-1479000000000</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="6" t="s">
         <v>183</v>
       </c>
       <c r="H46">
@@ -6906,28 +6961,28 @@
       <c r="C47" s="2">
         <v>70000000000</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="2">
         <v>70000000000</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="5" t="s">
         <v>186</v>
       </c>
       <c r="L47" s="2"/>
@@ -7056,31 +7111,31 @@
       <c r="B50" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H50" s="2">
         <v>-485000000000</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="2"/>
@@ -7109,25 +7164,25 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="5" t="s">
         <v>202</v>
       </c>
       <c r="L51" s="2"/>
@@ -7266,7 +7321,7 @@
       <c r="H54" s="2">
         <v>13000000000</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="5" t="s">
         <v>206</v>
       </c>
       <c r="J54" s="2">
@@ -7431,28 +7486,28 @@
       <c r="C58" s="2">
         <v>91000000000</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="5" t="s">
         <v>217</v>
       </c>
       <c r="L58" s="2"/>
@@ -7605,7 +7660,7 @@
       <c r="J61" s="2">
         <v>71000000000</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="5" t="s">
         <v>221</v>
       </c>
       <c r="L61" s="2"/>
@@ -7683,31 +7738,31 @@
       <c r="B63" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="5" t="s">
         <v>232</v>
       </c>
       <c r="L63" s="2"/>
@@ -9621,31 +9676,31 @@
       <c r="B101" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H101" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K101" s="6" t="s">
+      <c r="K101" s="7" t="s">
         <v>272</v>
       </c>
       <c r="L101" s="3"/>
@@ -11355,15 +11410,33 @@
       <c r="B135" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
+      <c r="C135" s="2">
+        <v>33600000000</v>
+      </c>
+      <c r="D135" s="2">
+        <v>40300000000</v>
+      </c>
+      <c r="E135" s="2">
+        <v>40400000000</v>
+      </c>
+      <c r="F135" s="2">
+        <v>30700000000</v>
+      </c>
+      <c r="G135" s="2">
+        <v>27600000000</v>
+      </c>
+      <c r="H135" s="2">
+        <v>38100000000</v>
+      </c>
+      <c r="I135" s="2">
+        <v>52300000000</v>
+      </c>
+      <c r="J135" s="2">
+        <v>59600000000</v>
+      </c>
+      <c r="K135" s="2">
+        <v>17900000000</v>
+      </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -11388,15 +11461,33 @@
       <c r="B136" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
+      <c r="C136" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -11419,17 +11510,35 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -11452,17 +11561,35 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C138" s="2">
+        <v>-2800000000</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-2900000000</v>
+      </c>
+      <c r="E138" s="2">
+        <v>-4300000000</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-3700000000</v>
+      </c>
+      <c r="G138" s="2">
+        <v>-3100000000</v>
+      </c>
+      <c r="H138" s="2">
+        <v>-3600000000</v>
+      </c>
+      <c r="I138" s="2">
+        <v>-3300000000</v>
+      </c>
+      <c r="J138" s="2">
+        <v>-3500000000</v>
+      </c>
+      <c r="K138" s="2">
+        <v>-3600000000</v>
+      </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -11485,17 +11612,35 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C139" s="2">
+        <v>56200000000</v>
+      </c>
+      <c r="D139" s="2">
+        <v>46900000000</v>
+      </c>
+      <c r="E139" s="2">
+        <v>36900000000</v>
+      </c>
+      <c r="F139" s="2">
+        <v>6900000000</v>
+      </c>
+      <c r="G139" s="2">
+        <v>-55600000000</v>
+      </c>
+      <c r="H139" s="2">
+        <v>22900000000</v>
+      </c>
+      <c r="I139" s="2">
+        <v>-16700000000</v>
+      </c>
+      <c r="J139" s="2">
+        <v>31800000000</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1400000000</v>
+      </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -11518,17 +11663,35 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C140" s="4">
+        <v>-65000000000</v>
+      </c>
+      <c r="D140" s="4">
+        <v>-79000000000</v>
+      </c>
+      <c r="E140" s="4">
+        <v>1500000000</v>
+      </c>
+      <c r="F140" s="4">
+        <v>500000000</v>
+      </c>
+      <c r="G140" s="4">
+        <v>-42200000000</v>
+      </c>
+      <c r="H140" s="4">
+        <v>-157900000000</v>
+      </c>
+      <c r="I140" s="4">
+        <v>-40100000000</v>
+      </c>
+      <c r="J140" s="4">
+        <v>6900000000</v>
+      </c>
+      <c r="K140" s="4">
+        <v>5600000000</v>
+      </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -11551,7 +11714,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -11584,7 +11747,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -11617,7 +11780,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -11650,7 +11813,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -11683,7 +11846,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -11716,7 +11879,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -11749,7 +11912,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -11782,7 +11945,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -11815,7 +11978,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -11848,7 +12011,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -11881,7 +12044,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -11914,7 +12077,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -11947,7 +12110,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -11980,7 +12143,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -12013,7 +12176,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -12046,7 +12209,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -12079,7 +12242,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -12112,7 +12275,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -12145,7 +12308,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -12178,7 +12341,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -12211,7 +12374,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -12244,7 +12407,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -12277,7 +12440,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -12310,7 +12473,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -12343,7 +12506,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -12376,7 +12539,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -12409,7 +12572,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -12442,7 +12605,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -12475,7 +12638,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -12508,7 +12671,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -12541,7 +12704,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -12574,7 +12737,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -12607,7 +12770,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -12640,7 +12803,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -12673,7 +12836,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -12706,7 +12869,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -12739,7 +12902,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -12772,7 +12935,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -12805,7 +12968,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -12838,7 +13001,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -12871,7 +13034,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -12904,7 +13067,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -12937,7 +13100,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -12970,7 +13133,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -13003,7 +13166,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -13036,7 +13199,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -13069,7 +13232,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -13102,7 +13265,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -13135,7 +13298,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -13168,7 +13331,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -13201,7 +13364,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -13234,7 +13397,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -13267,7 +13430,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -13300,7 +13463,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -13333,7 +13496,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -13366,7 +13529,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -13399,7 +13562,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -13432,7 +13595,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -13465,7 +13628,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -13498,7 +13661,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -13531,7 +13694,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -13564,7 +13727,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -13597,7 +13760,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -13630,7 +13793,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -13663,7 +13826,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -13696,7 +13859,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -13729,7 +13892,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -13762,7 +13925,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -13795,7 +13958,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -13828,7 +13991,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -13861,7 +14024,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -13894,7 +14057,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -13927,7 +14090,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -13960,7 +14123,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -13993,7 +14156,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -14026,7 +14189,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -14059,7 +14222,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -14092,7 +14255,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -14125,7 +14288,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -14158,7 +14321,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -14191,7 +14354,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -14224,7 +14387,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -14257,7 +14420,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -14290,7 +14453,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -14323,7 +14486,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -14356,7 +14519,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -14389,7 +14552,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -14422,7 +14585,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -14455,7 +14618,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -14488,7 +14651,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -14521,7 +14684,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -14554,7 +14717,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -14587,7 +14750,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -14620,7 +14783,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -14653,7 +14816,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -14686,7 +14849,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -14719,7 +14882,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -14752,7 +14915,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -14785,7 +14948,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -14818,7 +14981,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -14851,7 +15014,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -14884,7 +15047,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -14917,7 +15080,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -14950,7 +15113,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -14983,7 +15146,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -15016,7 +15179,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -15049,7 +15212,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -15082,7 +15245,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -15115,7 +15278,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -15148,7 +15311,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -15181,7 +15344,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -15214,7 +15377,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -15247,7 +15410,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -15280,7 +15443,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -15313,7 +15476,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -15346,7 +15509,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -15379,7 +15542,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -15412,7 +15575,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -15445,7 +15608,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -15478,7 +15641,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -15511,7 +15674,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -15544,7 +15707,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -15577,7 +15740,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -15610,7 +15773,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -15643,7 +15806,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -15676,7 +15839,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -15709,7 +15872,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -15742,7 +15905,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -15775,7 +15938,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -15808,7 +15971,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -15841,7 +16004,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -15874,7 +16037,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -15907,7 +16070,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -15940,7 +16103,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -15973,7 +16136,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -16006,7 +16169,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -16039,7 +16202,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -16072,7 +16235,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -16105,7 +16268,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -16138,7 +16301,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -16171,7 +16334,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -16204,7 +16367,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -16237,7 +16400,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -16270,7 +16433,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -16303,7 +16466,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -16336,7 +16499,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -16369,7 +16532,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -16402,7 +16565,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -16435,7 +16598,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -16468,7 +16631,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -16501,7 +16664,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -16534,7 +16697,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -16567,7 +16730,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -16600,7 +16763,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -16633,7 +16796,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -16666,7 +16829,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -16699,7 +16862,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -16732,7 +16895,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -16765,7 +16928,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -16798,7 +16961,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -16831,7 +16994,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -16864,7 +17027,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -16897,7 +17060,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -16930,7 +17093,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -16963,7 +17126,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -16996,7 +17159,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -17029,7 +17192,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -17062,7 +17225,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -17095,7 +17258,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -17128,7 +17291,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -17161,7 +17324,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -17194,7 +17357,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -17227,7 +17390,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -17260,7 +17423,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -17293,7 +17456,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -17326,7 +17489,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -17359,7 +17522,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -17392,7 +17555,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -17425,7 +17588,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -17458,7 +17621,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -17491,7 +17654,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -17524,7 +17687,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -17557,7 +17720,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -17590,7 +17753,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -17623,7 +17786,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -17656,7 +17819,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -17689,7 +17852,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -17722,7 +17885,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -17755,7 +17918,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -17788,7 +17951,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -17821,7 +17984,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -17854,7 +18017,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -17887,7 +18050,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -17920,7 +18083,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -17953,7 +18116,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -17986,7 +18149,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -18019,7 +18182,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -18052,7 +18215,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -18085,7 +18248,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -18118,7 +18281,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -18151,7 +18314,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -18184,7 +18347,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -18217,7 +18380,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -18250,7 +18413,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -18283,7 +18446,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -18316,7 +18479,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -18349,7 +18512,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -18382,7 +18545,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -18415,7 +18578,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -18448,7 +18611,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -18481,7 +18644,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -18514,7 +18677,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -18547,7 +18710,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -18580,7 +18743,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -18613,7 +18776,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -18646,7 +18809,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -18679,7 +18842,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -18712,7 +18875,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -18745,7 +18908,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -18778,7 +18941,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -18811,7 +18974,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -18844,7 +19007,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -18877,7 +19040,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -18910,7 +19073,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -18943,7 +19106,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -18976,7 +19139,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -19009,7 +19172,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -19042,7 +19205,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -19075,7 +19238,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -19108,7 +19271,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -19141,7 +19304,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -19174,7 +19337,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -19207,7 +19370,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -19240,7 +19403,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -19273,7 +19436,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -19306,7 +19469,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -19339,7 +19502,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -19372,7 +19535,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -19405,7 +19568,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -19438,7 +19601,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -19471,7 +19634,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -19504,7 +19667,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -19537,7 +19700,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -19570,7 +19733,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -19603,7 +19766,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -19636,7 +19799,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -19669,7 +19832,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -19702,7 +19865,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -19735,7 +19898,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -19768,7 +19931,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -19801,7 +19964,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -19834,7 +19997,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -19867,7 +20030,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -19900,7 +20063,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -19933,7 +20096,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -19966,7 +20129,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -19999,7 +20162,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -20032,7 +20195,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -20065,7 +20228,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -20098,7 +20261,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -20131,7 +20294,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -20164,7 +20327,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -20197,7 +20360,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -20230,7 +20393,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -20263,7 +20426,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -20296,7 +20459,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -20329,7 +20492,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -20362,7 +20525,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -20395,7 +20558,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -20428,7 +20591,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -20461,7 +20624,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -20494,7 +20657,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -20527,7 +20690,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -20560,7 +20723,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -20593,7 +20756,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -20626,7 +20789,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -20659,7 +20822,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -20692,7 +20855,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -20725,7 +20888,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -20758,7 +20921,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -20791,7 +20954,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -20824,7 +20987,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -20857,7 +21020,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -20890,7 +21053,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -20923,7 +21086,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -20956,7 +21119,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -20989,7 +21152,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -21022,7 +21185,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -21055,7 +21218,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -21088,7 +21251,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -21121,7 +21284,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -21154,7 +21317,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -21187,7 +21350,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -21220,7 +21383,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -21253,7 +21416,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -21286,7 +21449,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -21319,7 +21482,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -21352,7 +21515,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -21385,7 +21548,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -21418,7 +21581,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -21451,7 +21614,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -21484,7 +21647,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -21517,7 +21680,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -21550,7 +21713,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -21583,7 +21746,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -21616,7 +21779,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -21649,7 +21812,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -21682,7 +21845,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -21715,7 +21878,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -21748,7 +21911,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -21781,7 +21944,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -21814,7 +21977,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -21847,7 +22010,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -21880,7 +22043,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -21913,7 +22076,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -21946,7 +22109,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -21979,7 +22142,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -22012,7 +22175,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -22045,7 +22208,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -22078,7 +22241,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -22111,7 +22274,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -22144,7 +22307,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -22177,7 +22340,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -22210,7 +22373,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -22243,7 +22406,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -22276,7 +22439,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -22309,7 +22472,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -22342,7 +22505,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -22375,7 +22538,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -22408,7 +22571,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -22441,7 +22604,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -22474,7 +22637,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -22507,7 +22670,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -22540,7 +22703,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -22573,7 +22736,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -22606,7 +22769,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -22639,7 +22802,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -22672,7 +22835,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -22705,7 +22868,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -22738,7 +22901,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -22771,7 +22934,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -22804,7 +22967,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -22837,7 +23000,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -22870,7 +23033,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -22903,7 +23066,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -22936,7 +23099,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -22969,7 +23132,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -23002,7 +23165,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -23035,7 +23198,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -23068,7 +23231,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -23101,7 +23264,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -23134,7 +23297,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -23167,7 +23330,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -23200,7 +23363,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -23233,7 +23396,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -23266,7 +23429,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -23299,7 +23462,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -23332,7 +23495,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -23365,7 +23528,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -23398,7 +23561,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -23431,7 +23594,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -23464,7 +23627,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -23497,7 +23660,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -23530,7 +23693,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -23563,7 +23726,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -23596,7 +23759,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -23629,7 +23792,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -23662,7 +23825,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -23695,7 +23858,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -23728,7 +23891,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -23761,7 +23924,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -23794,7 +23957,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -23827,7 +23990,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -23860,7 +24023,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -23893,7 +24056,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -23926,7 +24089,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -23959,7 +24122,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -23992,7 +24155,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -24025,7 +24188,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -24058,7 +24221,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -24091,7 +24254,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -24124,7 +24287,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -24157,7 +24320,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -24190,7 +24353,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -24223,7 +24386,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -24256,7 +24419,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -24289,7 +24452,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -24322,7 +24485,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -24355,7 +24518,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -24388,7 +24551,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -24421,7 +24584,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -24454,7 +24617,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -24487,7 +24650,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -24520,7 +24683,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -24553,7 +24716,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -24586,7 +24749,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -24619,7 +24782,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -24652,7 +24815,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -24685,7 +24848,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -24718,7 +24881,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -24751,7 +24914,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -24784,7 +24947,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -24817,7 +24980,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -24850,7 +25013,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -24883,7 +25046,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -24916,7 +25079,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -24949,7 +25112,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -24982,7 +25145,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -25015,7 +25178,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -25048,7 +25211,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -25081,7 +25244,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -25114,7 +25277,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -25147,7 +25310,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -25180,7 +25343,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -25213,7 +25376,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -25246,7 +25409,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -25279,7 +25442,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -25312,7 +25475,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -25345,7 +25508,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -25378,7 +25541,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -25411,7 +25574,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -25444,7 +25607,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -25477,7 +25640,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -25510,7 +25673,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -25543,7 +25706,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -25576,7 +25739,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -25609,7 +25772,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -25642,7 +25805,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -25675,7 +25838,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -25708,7 +25871,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -25741,7 +25904,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -25774,7 +25937,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -25807,7 +25970,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -25840,7 +26003,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -25873,7 +26036,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -25906,7 +26069,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -25939,7 +26102,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -25972,7 +26135,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -26005,7 +26168,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -26038,7 +26201,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -26071,7 +26234,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -26104,7 +26267,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -26137,7 +26300,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -26170,7 +26333,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -26203,7 +26366,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -26236,7 +26399,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -26269,7 +26432,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -26302,7 +26465,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -26335,7 +26498,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -26368,7 +26531,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -26401,7 +26564,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -26434,7 +26597,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -26467,7 +26630,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -26500,7 +26663,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -26533,7 +26696,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -26566,7 +26729,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -26599,7 +26762,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -26632,7 +26795,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -26665,7 +26828,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -26698,7 +26861,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -26731,7 +26894,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -26764,7 +26927,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -26797,7 +26960,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -26830,7 +26993,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -26863,7 +27026,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -26896,7 +27059,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -26929,7 +27092,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -26962,7 +27125,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -26995,7 +27158,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -27028,7 +27191,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -27061,7 +27224,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -27094,7 +27257,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -27127,7 +27290,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -27160,7 +27323,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -27193,7 +27356,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -27226,7 +27389,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -27259,7 +27422,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -27292,7 +27455,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -27325,7 +27488,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -27358,7 +27521,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -27391,7 +27554,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -27424,7 +27587,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -27457,7 +27620,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -27490,7 +27653,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -27523,7 +27686,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -27556,7 +27719,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -27589,7 +27752,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -27622,7 +27785,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -27655,7 +27818,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -27688,7 +27851,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -27721,7 +27884,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -27754,7 +27917,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -27787,7 +27950,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -27820,7 +27983,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -27853,7 +28016,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -27886,7 +28049,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -27919,7 +28082,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -27952,7 +28115,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -27985,7 +28148,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -28018,7 +28181,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -28051,7 +28214,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -28084,7 +28247,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -28117,7 +28280,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -28150,7 +28313,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -28183,7 +28346,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -28216,7 +28379,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -28249,7 +28412,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -28282,7 +28445,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -28315,7 +28478,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -28348,7 +28511,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -28381,7 +28544,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -28414,7 +28577,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -28447,7 +28610,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -28480,7 +28643,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -28513,7 +28676,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -28546,7 +28709,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -28579,7 +28742,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -28612,7 +28775,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -28645,7 +28808,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -28678,7 +28841,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -28711,7 +28874,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -28744,7 +28907,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -28777,7 +28940,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -28810,7 +28973,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -28843,7 +29006,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -28876,7 +29039,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -28909,7 +29072,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -28942,7 +29105,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -28975,7 +29138,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -29008,7 +29171,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -29041,7 +29204,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -29074,7 +29237,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -29107,7 +29270,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -29140,7 +29303,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -29173,7 +29336,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -29206,7 +29369,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -29239,7 +29402,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -29272,7 +29435,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -29305,7 +29468,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -29338,7 +29501,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -29371,7 +29534,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -29404,7 +29567,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -29437,7 +29600,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -29470,7 +29633,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -29503,7 +29666,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -29536,7 +29699,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -29569,7 +29732,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -29602,7 +29765,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -29635,7 +29798,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -29668,7 +29831,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -29701,7 +29864,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -29734,7 +29897,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -29767,7 +29930,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -29800,7 +29963,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -29833,7 +29996,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -29866,7 +30029,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -29899,7 +30062,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -29932,7 +30095,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -29965,7 +30128,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -29998,7 +30161,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -30031,7 +30194,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -30064,7 +30227,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -30097,7 +30260,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -30130,7 +30293,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -30163,7 +30326,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -30196,7 +30359,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -30229,7 +30392,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -30262,7 +30425,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -30295,7 +30458,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -30328,7 +30491,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -30361,7 +30524,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -30394,7 +30557,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -30427,7 +30590,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -30460,7 +30623,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -30493,7 +30656,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -30526,7 +30689,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -30559,7 +30722,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -30592,7 +30755,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -30625,7 +30788,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -30658,7 +30821,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -30691,7 +30854,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -30724,7 +30887,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -30757,7 +30920,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -30790,7 +30953,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -30823,7 +30986,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -30856,7 +31019,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -30889,7 +31052,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -30922,7 +31085,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -30955,7 +31118,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -30988,7 +31151,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -31021,7 +31184,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -31054,7 +31217,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -31087,7 +31250,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -31120,7 +31283,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -31153,7 +31316,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -31186,7 +31349,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -31219,7 +31382,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -31252,7 +31415,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -31285,7 +31448,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -31318,7 +31481,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -31351,7 +31514,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -31384,7 +31547,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -31417,7 +31580,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -31450,7 +31613,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -31483,7 +31646,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -31516,7 +31679,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -31549,7 +31712,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -31582,7 +31745,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -31615,7 +31778,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -31648,7 +31811,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -31681,7 +31844,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -31714,7 +31877,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -31747,7 +31910,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -31780,7 +31943,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -31813,7 +31976,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -31846,7 +32009,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -31879,7 +32042,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -31912,7 +32075,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -31945,7 +32108,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -31978,7 +32141,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -32011,7 +32174,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -32044,7 +32207,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -32077,7 +32240,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -32110,7 +32273,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -32143,7 +32306,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -32176,7 +32339,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -32209,7 +32372,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -32242,7 +32405,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -32275,7 +32438,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -32308,7 +32471,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -32341,7 +32504,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -32374,7 +32537,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -32407,7 +32570,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -32440,7 +32603,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -32473,7 +32636,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -32506,7 +32669,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -32539,7 +32702,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -32572,7 +32735,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -32605,7 +32768,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -32638,7 +32801,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -32671,7 +32834,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -32704,7 +32867,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -32737,7 +32900,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -32770,7 +32933,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -32803,7 +32966,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -32836,7 +32999,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -32869,7 +33032,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -32902,7 +33065,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -32935,7 +33098,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -32968,7 +33131,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -33001,7 +33164,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>967</v>
+        <v>985</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -33034,7 +33197,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -33067,7 +33230,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -33100,7 +33263,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -33133,7 +33296,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -33166,7 +33329,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -33199,7 +33362,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -33232,7 +33395,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -33265,7 +33428,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -33298,7 +33461,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -33331,7 +33494,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -33364,7 +33527,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -33397,7 +33560,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -33430,7 +33593,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -33463,7 +33626,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -33496,7 +33659,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -33529,7 +33692,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -33562,7 +33725,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -33595,7 +33758,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -33628,7 +33791,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -33661,7 +33824,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -33694,7 +33857,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -33727,7 +33890,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -33760,7 +33923,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -33793,7 +33956,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -33826,7 +33989,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -33859,7 +34022,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -33892,7 +34055,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -33925,7 +34088,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -33958,7 +34121,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -33991,7 +34154,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -34024,7 +34187,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -34057,7 +34220,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -34090,7 +34253,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -34123,7 +34286,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -34156,7 +34319,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -34189,7 +34352,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -34222,7 +34385,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -34255,7 +34418,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -34288,7 +34451,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -34321,7 +34484,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -34354,7 +34517,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -34387,7 +34550,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -34420,7 +34583,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -34453,7 +34616,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -34486,7 +34649,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -34519,7 +34682,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -34552,7 +34715,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -34585,7 +34748,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -34618,7 +34781,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -34651,7 +34814,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -34684,7 +34847,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1018</v>
+        <v>1036</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -34717,7 +34880,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -34750,7 +34913,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -34783,7 +34946,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -34816,7 +34979,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -34849,7 +35012,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -34882,7 +35045,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -34915,7 +35078,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -34948,7 +35111,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -34981,7 +35144,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -35014,7 +35177,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -35047,7 +35210,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -35080,7 +35243,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -35113,7 +35276,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -35146,7 +35309,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -35179,7 +35342,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -35212,7 +35375,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -35245,7 +35408,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -35278,7 +35441,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -35311,7 +35474,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -35344,7 +35507,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -35377,7 +35540,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -35410,7 +35573,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -35443,7 +35606,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -35476,7 +35639,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -35509,7 +35672,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -35542,7 +35705,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -35575,7 +35738,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1045</v>
+        <v>1063</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -35608,7 +35771,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -35641,7 +35804,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -35674,7 +35837,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -35707,7 +35870,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -35740,7 +35903,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -35773,7 +35936,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -35806,7 +35969,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -35839,7 +36002,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -35872,7 +36035,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -35905,7 +36068,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -35938,7 +36101,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -35971,7 +36134,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -36004,7 +36167,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -36037,7 +36200,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -36070,7 +36233,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -36103,7 +36266,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -36138,37 +36301,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="C886" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -36191,7 +36354,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -36224,7 +36387,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -36257,7 +36420,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -36290,7 +36453,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -36323,7 +36486,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -36356,7 +36519,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -36389,7 +36552,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -36422,7 +36585,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -36455,7 +36618,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -36488,7 +36651,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -36521,7 +36684,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -36554,7 +36717,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -36587,7 +36750,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -36620,7 +36783,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -36653,7 +36816,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -36686,7 +36849,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -36719,7 +36882,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -36752,7 +36915,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -36785,7 +36948,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -36818,7 +36981,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -36851,7 +37014,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -36884,7 +37047,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -36917,7 +37080,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -36950,7 +37113,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -36983,7 +37146,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -37016,7 +37179,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -37049,37 +37212,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -37102,7 +37265,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -37135,7 +37298,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -37168,7 +37331,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -37201,7 +37364,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -37234,7 +37397,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -37267,7 +37430,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -37300,7 +37463,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -37333,7 +37496,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -37366,7 +37529,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -37399,7 +37562,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -37432,7 +37595,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -37465,7 +37628,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -37498,7 +37661,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -37531,7 +37694,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1123</v>
+        <v>1141</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -37564,7 +37727,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -37597,7 +37760,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -37630,7 +37793,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -37663,7 +37826,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -37696,7 +37859,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -37729,7 +37892,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1129</v>
+        <v>1147</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -37762,7 +37925,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -37795,7 +37958,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -37828,7 +37991,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -37861,7 +38024,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -37894,7 +38057,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1134</v>
+        <v>1152</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -37927,7 +38090,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -37960,7 +38123,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -37993,7 +38156,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -38026,7 +38189,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -38059,7 +38222,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -38092,7 +38255,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -38125,7 +38288,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -38158,7 +38321,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1142</v>
+        <v>1160</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -38191,7 +38354,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1143</v>
+        <v>1161</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -38224,7 +38387,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -38257,7 +38420,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1145</v>
+        <v>1163</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -38290,7 +38453,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -38323,7 +38486,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -38356,7 +38519,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -38389,7 +38552,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -38422,7 +38585,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -38455,7 +38618,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1151</v>
+        <v>1169</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -38488,7 +38651,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -38521,7 +38684,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -38554,7 +38717,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1252">
   <si>
     <t>No</t>
   </si>
@@ -1052,55 +1052,292 @@
     <t>BMAS</t>
   </si>
   <si>
+    <t>115000000000</t>
+  </si>
+  <si>
     <t>BMBL</t>
   </si>
   <si>
     <t>BMHS</t>
   </si>
   <si>
+    <t>355000000000</t>
+  </si>
+  <si>
+    <t>129000000000</t>
+  </si>
+  <si>
     <t>BMRI</t>
   </si>
   <si>
+    <t>14650000000000</t>
+  </si>
+  <si>
+    <t>21443000000000</t>
+  </si>
+  <si>
+    <t>25852000000000</t>
+  </si>
+  <si>
+    <t>28456000000000</t>
+  </si>
+  <si>
+    <t>17646000000000</t>
+  </si>
+  <si>
+    <t>30551000000000</t>
+  </si>
+  <si>
+    <t>44952000000000</t>
+  </si>
+  <si>
+    <t>60052000000000</t>
+  </si>
+  <si>
+    <t>61165000000000</t>
+  </si>
+  <si>
     <t>BMSR</t>
   </si>
   <si>
+    <t>375000000000</t>
+  </si>
+  <si>
     <t>BMTR</t>
   </si>
   <si>
+    <t>787000000000</t>
+  </si>
+  <si>
+    <t>1054000000000</t>
+  </si>
+  <si>
+    <t>1351000000000</t>
+  </si>
+  <si>
+    <t>2317000000000</t>
+  </si>
+  <si>
+    <t>1801000000000</t>
+  </si>
+  <si>
+    <t>2451000000000</t>
+  </si>
+  <si>
+    <t>2061000000000</t>
+  </si>
+  <si>
+    <t>1068000000000</t>
+  </si>
+  <si>
+    <t>917000000000</t>
+  </si>
+  <si>
     <t>BNBA</t>
   </si>
   <si>
+    <t>790000000000</t>
+  </si>
+  <si>
+    <t>900000000000</t>
+  </si>
+  <si>
+    <t>930000000000</t>
+  </si>
+  <si>
+    <t>510000000000</t>
+  </si>
+  <si>
+    <t>350000000000</t>
+  </si>
+  <si>
+    <t>440000000000</t>
+  </si>
+  <si>
+    <t>610000000000</t>
+  </si>
+  <si>
     <t>BNBR</t>
   </si>
   <si>
+    <t>8630000000000</t>
+  </si>
+  <si>
+    <t>870000000000</t>
+  </si>
+  <si>
+    <t>3060000000000</t>
+  </si>
+  <si>
+    <t>2640000000000</t>
+  </si>
+  <si>
+    <t>3360000000000</t>
+  </si>
+  <si>
     <t>BNGA</t>
   </si>
   <si>
+    <t>20820000000000</t>
+  </si>
+  <si>
+    <t>29780000000000</t>
+  </si>
+  <si>
+    <t>34820000000000</t>
+  </si>
+  <si>
+    <t>36430000000000</t>
+  </si>
+  <si>
+    <t>20110000000000</t>
+  </si>
+  <si>
+    <t>40990000000000</t>
+  </si>
+  <si>
+    <t>50970000000000</t>
+  </si>
+  <si>
+    <t>65510000000000</t>
+  </si>
+  <si>
+    <t>68990000000000</t>
+  </si>
+  <si>
     <t>BNII</t>
   </si>
   <si>
+    <t>19670000000000</t>
+  </si>
+  <si>
+    <t>18610000000000</t>
+  </si>
+  <si>
+    <t>22620000000000</t>
+  </si>
+  <si>
+    <t>19240000000000</t>
+  </si>
+  <si>
+    <t>12840000000000</t>
+  </si>
+  <si>
+    <t>16800000000000</t>
+  </si>
+  <si>
+    <t>15330000000000</t>
+  </si>
+  <si>
+    <t>18180000000000</t>
+  </si>
+  <si>
+    <t>11990000000000</t>
+  </si>
+  <si>
     <t>BNLI</t>
   </si>
   <si>
+    <t>35670000000000</t>
+  </si>
+  <si>
+    <t>25850000000000</t>
+  </si>
+  <si>
+    <t>20130000000000</t>
+  </si>
+  <si>
+    <t>12310000000000</t>
+  </si>
+  <si>
+    <t>7220000000000</t>
+  </si>
+  <si>
+    <t>15000000000000</t>
+  </si>
+  <si>
+    <t>9010000000000</t>
+  </si>
+  <si>
+    <t>7480000000000</t>
+  </si>
+  <si>
     <t>BOAT</t>
   </si>
   <si>
     <t>BOBA</t>
   </si>
   <si>
+    <t>160000000000</t>
+  </si>
+  <si>
     <t>BOGA</t>
   </si>
   <si>
+    <t>120000000000</t>
+  </si>
+  <si>
     <t>BOLA</t>
   </si>
   <si>
+    <t>1940000000000</t>
+  </si>
+  <si>
     <t>BOLT</t>
   </si>
   <si>
+    <t>1080000000000</t>
+  </si>
+  <si>
+    <t>760000000000</t>
+  </si>
+  <si>
+    <t>830000000000</t>
+  </si>
+  <si>
+    <t>570000000000</t>
+  </si>
+  <si>
+    <t>1160000000000</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
     <t>BOSS</t>
   </si>
   <si>
+    <t>240000000000</t>
+  </si>
+  <si>
+    <t>220000000000</t>
+  </si>
+  <si>
     <t>BPFI</t>
+  </si>
+  <si>
+    <t>340000000000</t>
+  </si>
+  <si>
+    <t>490000000000</t>
+  </si>
+  <si>
+    <t>680000000000</t>
+  </si>
+  <si>
+    <t>750000000000</t>
+  </si>
+  <si>
+    <t>410000000000</t>
+  </si>
+  <si>
+    <t>460000000000</t>
+  </si>
+  <si>
+    <t>520000000000</t>
+  </si>
+  <si>
+    <t>880000000000</t>
   </si>
   <si>
     <t>BPII</t>
@@ -4187,12 +4424,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
@@ -4581,8 +4817,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140:K140"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4750,16 +4986,16 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="2"/>
@@ -4786,31 +5022,31 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
@@ -4888,10 +5124,10 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5">
@@ -4900,10 +5136,10 @@
       <c r="F5" s="2">
         <v>88000000000</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="2">
@@ -4945,7 +5181,7 @@
       <c r="D6" s="2">
         <v>51000000000</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="2">
@@ -4954,16 +5190,16 @@
       <c r="G6" s="2">
         <v>-550000000000</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="2"/>
@@ -4990,31 +5226,31 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="L7" s="2"/>
@@ -5080,10 +5316,10 @@
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2">
@@ -5135,19 +5371,19 @@
       <c r="E10" s="2">
         <v>65000000000</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="2">
@@ -5189,19 +5425,19 @@
       <c r="F11" s="2">
         <v>84000000000</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L11" s="2"/>
@@ -5228,16 +5464,16 @@
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G12">
@@ -5246,13 +5482,13 @@
       <c r="H12">
         <v>86000000000</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="2"/>
@@ -5279,31 +5515,31 @@
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="2"/>
@@ -5392,16 +5628,16 @@
       <c r="G15" s="2">
         <v>-416000000000</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>77</v>
       </c>
       <c r="L15" s="2"/>
@@ -5428,31 +5664,31 @@
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>87</v>
       </c>
       <c r="L16" s="2"/>
@@ -5573,25 +5809,25 @@
       <c r="D19" s="2">
         <v>98000000000</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="2"/>
@@ -5618,13 +5854,13 @@
       <c r="B20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="2">
@@ -5681,19 +5917,19 @@
       <c r="F21" s="2">
         <v>-249000000000</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="2">
         <v>13000000000</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>104</v>
       </c>
       <c r="L21" s="2"/>
@@ -5822,7 +6058,7 @@
       <c r="B24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="2">
@@ -5831,10 +6067,10 @@
       <c r="E24" s="2">
         <v>-124000000000</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H24" s="2">
@@ -5939,10 +6175,10 @@
       <c r="G26" s="2">
         <v>66000000000</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J26" s="2">
@@ -5975,31 +6211,31 @@
       <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>123</v>
       </c>
       <c r="L27" s="2"/>
@@ -6092,7 +6328,7 @@
       <c r="G29" s="2">
         <v>65000000000</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I29" s="2">
@@ -6128,31 +6364,31 @@
       <c r="B30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="2"/>
@@ -6332,31 +6568,31 @@
       <c r="B34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2">
         <v>-28000000000</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="2">
         <v>90000000000</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L34" s="2"/>
@@ -6443,10 +6679,10 @@
       <c r="I36" s="2">
         <v>-155000000000</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>141</v>
       </c>
       <c r="L36" s="2"/>
@@ -6473,7 +6709,7 @@
       <c r="B37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D37" s="2">
@@ -6488,16 +6724,16 @@
       <c r="G37" s="2">
         <v>-431000000000</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>147</v>
       </c>
       <c r="L37" s="2"/>
@@ -6578,19 +6814,19 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="5" t="s">
         <v>154</v>
       </c>
       <c r="L39" s="2"/>
@@ -6669,16 +6905,16 @@
       <c r="G41" s="2">
         <v>80000000000</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>157</v>
       </c>
       <c r="J41" s="2">
         <v>93000000000</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L41" s="2"/>
@@ -6705,31 +6941,31 @@
       <c r="B42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>166</v>
       </c>
       <c r="L42" s="2"/>
@@ -6805,10 +7041,10 @@
       <c r="B44" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E44" s="2">
@@ -6820,16 +7056,16 @@
       <c r="G44" s="2">
         <v>32000000000</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="J44" s="2">
         <v>68000000000</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>172</v>
       </c>
       <c r="L44" s="2"/>
@@ -6859,28 +7095,28 @@
       <c r="C45">
         <v>65000000000</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="5" t="s">
         <v>180</v>
       </c>
       <c r="L45" s="2"/>
@@ -6916,10 +7152,10 @@
       <c r="E46">
         <v>-1479000000000</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>183</v>
       </c>
       <c r="H46">
@@ -6961,28 +7197,28 @@
       <c r="C47" s="2">
         <v>70000000000</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="2">
         <v>70000000000</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>186</v>
       </c>
       <c r="L47" s="2"/>
@@ -7111,31 +7347,31 @@
       <c r="B50" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>193</v>
       </c>
       <c r="H50" s="2">
         <v>-485000000000</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="2"/>
@@ -7164,25 +7400,25 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>202</v>
       </c>
       <c r="L51" s="2"/>
@@ -7321,7 +7557,7 @@
       <c r="H54" s="2">
         <v>13000000000</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="4" t="s">
         <v>206</v>
       </c>
       <c r="J54" s="2">
@@ -7486,28 +7722,28 @@
       <c r="C58" s="2">
         <v>91000000000</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="4" t="s">
         <v>217</v>
       </c>
       <c r="L58" s="2"/>
@@ -7660,7 +7896,7 @@
       <c r="J61" s="2">
         <v>71000000000</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="4" t="s">
         <v>221</v>
       </c>
       <c r="L61" s="2"/>
@@ -7738,31 +7974,31 @@
       <c r="B63" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="4" t="s">
         <v>232</v>
       </c>
       <c r="L63" s="2"/>
@@ -9676,31 +9912,31 @@
       <c r="B101" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="K101" s="6" t="s">
         <v>272</v>
       </c>
       <c r="L101" s="3"/>
@@ -11461,31 +11697,31 @@
       <c r="B136" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H136" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="I136" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="J136" s="5" t="s">
+      <c r="J136" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K136" s="5" t="s">
+      <c r="K136" s="4" t="s">
         <v>321</v>
       </c>
       <c r="L136" s="2"/>
@@ -11512,31 +11748,31 @@
       <c r="B137" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G137" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="H137" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="I137" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J137" s="5" t="s">
+      <c r="J137" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="K137" s="5" t="s">
+      <c r="K137" s="4" t="s">
         <v>331</v>
       </c>
       <c r="L137" s="2"/>
@@ -11665,31 +11901,31 @@
       <c r="B140" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="2">
         <v>-65000000000</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="2">
         <v>-79000000000</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="2">
         <v>1500000000</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="2">
         <v>500000000</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="2">
         <v>-42200000000</v>
       </c>
-      <c r="H140" s="4">
+      <c r="H140" s="2">
         <v>-157900000000</v>
       </c>
-      <c r="I140" s="4">
+      <c r="I140" s="2">
         <v>-40100000000</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140" s="2">
         <v>6900000000</v>
       </c>
-      <c r="K140" s="4">
+      <c r="K140" s="2">
         <v>5600000000</v>
       </c>
       <c r="L140" s="2"/>
@@ -11721,10 +11957,18 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
+      <c r="H141" s="2">
+        <v>7800000000</v>
+      </c>
+      <c r="I141" s="2">
+        <v>6600000000</v>
+      </c>
+      <c r="J141" s="2">
+        <v>15100000000</v>
+      </c>
+      <c r="K141" s="2">
+        <v>16100000000</v>
+      </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -11755,9 +11999,15 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="I142" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="J142" s="2">
+        <v>10200000000</v>
+      </c>
+      <c r="K142" s="2">
+        <v>11200000000</v>
+      </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -11782,15 +12032,33 @@
       <c r="B143" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
+      <c r="C143" s="2">
+        <v>-21000000000</v>
+      </c>
+      <c r="D143" s="2">
+        <v>-11600000000</v>
+      </c>
+      <c r="E143" s="2">
+        <v>7700000000</v>
+      </c>
+      <c r="F143" s="2">
+        <v>-1200000000</v>
+      </c>
+      <c r="G143" s="2">
+        <v>-1200000000</v>
+      </c>
+      <c r="H143" s="2">
+        <v>8400000000</v>
+      </c>
+      <c r="I143" s="2">
+        <v>13400000000</v>
+      </c>
+      <c r="J143" s="2">
+        <v>23800000000</v>
+      </c>
+      <c r="K143" s="2">
+        <v>5600000000</v>
+      </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -11815,15 +12083,33 @@
       <c r="B144" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
+      <c r="C144" s="2">
+        <v>-1500000000</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1200000000</v>
+      </c>
+      <c r="E144" s="2">
+        <v>3500000000</v>
+      </c>
+      <c r="F144" s="2">
+        <v>8300000000</v>
+      </c>
+      <c r="G144" s="2">
+        <v>-44600000000</v>
+      </c>
+      <c r="H144" s="2">
+        <v>-26500000000</v>
+      </c>
+      <c r="I144" s="2">
+        <v>-5900000000</v>
+      </c>
+      <c r="J144" s="2">
+        <v>-1400000000</v>
+      </c>
+      <c r="K144" s="2">
+        <v>-7100000000</v>
+      </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -11850,13 +12136,27 @@
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
+      <c r="E145" s="2">
+        <v>13000000000</v>
+      </c>
+      <c r="F145" s="2">
+        <v>13000000000</v>
+      </c>
+      <c r="G145" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="H145" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="I145" s="2">
+        <v>14000000000</v>
+      </c>
+      <c r="J145" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="K145" s="2">
+        <v>16000000000</v>
+      </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -11881,15 +12181,33 @@
       <c r="B146" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
+      <c r="C146">
+        <v>68000000000</v>
+      </c>
+      <c r="D146">
+        <v>69000000000</v>
+      </c>
+      <c r="E146">
+        <v>71000000000</v>
+      </c>
+      <c r="F146">
+        <v>60000000000</v>
+      </c>
+      <c r="G146">
+        <v>67000000000</v>
+      </c>
+      <c r="H146">
+        <v>80000000000</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J146">
+        <v>63000000000</v>
+      </c>
+      <c r="K146">
+        <v>-247000000000</v>
+      </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -11912,17 +12230,27 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
+      <c r="G147" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="H147" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="I147" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>-9000000000</v>
+      </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -11945,17 +12273,31 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
+      <c r="E148" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="F148" s="2">
+        <v>31000000000</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J148" s="2">
+        <v>16000000000</v>
+      </c>
+      <c r="K148" s="2">
+        <v>19000000000</v>
+      </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -11978,17 +12320,35 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -12011,17 +12371,35 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C150" s="2">
+        <v>-20000000000</v>
+      </c>
+      <c r="D150" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="E150" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="F150" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K150" s="2">
+        <v>10000000000</v>
+      </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -12044,17 +12422,35 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -12077,17 +12473,35 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -12110,17 +12524,35 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C153" s="2">
+        <v>-36620000000000</v>
+      </c>
+      <c r="D153" s="2">
+        <v>-11990000000000</v>
+      </c>
+      <c r="E153" s="2">
+        <v>-12500000000000</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G153" s="2">
+        <v>-9300000000000</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -12143,17 +12575,35 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -12176,17 +12626,35 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -12209,17 +12677,35 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K156" s="2">
+        <v>-64830000000000</v>
+      </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -12242,17 +12728,25 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
+      <c r="H157" s="2">
+        <v>-170000000000</v>
+      </c>
+      <c r="I157" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="J157" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -12275,17 +12769,31 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
+      <c r="E158" s="2">
+        <v>-20000000000</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -12308,17 +12816,35 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="C159" s="2">
+        <v>50000000000</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" s="2">
+        <v>80000000000</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J159" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="K159" s="2">
+        <v>-280000000000</v>
+      </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -12341,17 +12867,31 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+      <c r="E160" s="2">
+        <v>50000000000</v>
+      </c>
+      <c r="F160" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="G160" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J160" s="2">
+        <v>-20000000000</v>
+      </c>
+      <c r="K160" s="2">
+        <v>-440000000000</v>
+      </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -12374,17 +12914,35 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G161" s="2">
+        <v>-570000000000</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -12407,17 +12965,31 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
+      <c r="E162" s="2">
+        <v>-290000000000</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H162" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="I162" s="2">
+        <v>-1060000000000</v>
+      </c>
+      <c r="J162" s="2">
+        <v>-1650000000000</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -12440,17 +13012,35 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -12473,7 +13063,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -12506,7 +13096,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -12539,7 +13129,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -12572,7 +13162,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -12605,7 +13195,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -12638,7 +13228,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -12671,7 +13261,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -12704,7 +13294,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -12737,7 +13327,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -12770,7 +13360,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -12803,7 +13393,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -12836,7 +13426,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -12869,7 +13459,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -12902,7 +13492,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -12935,7 +13525,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -12968,7 +13558,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -13001,7 +13591,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -13034,7 +13624,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -13067,7 +13657,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -13100,7 +13690,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -13133,7 +13723,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -13166,7 +13756,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -13199,7 +13789,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -13232,7 +13822,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -13265,7 +13855,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -13298,7 +13888,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -13331,7 +13921,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -13364,7 +13954,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -13397,7 +13987,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -13430,7 +14020,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -13463,7 +14053,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -13496,7 +14086,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -13529,7 +14119,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -13562,7 +14152,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -13595,7 +14185,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -13628,7 +14218,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -13661,7 +14251,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -13694,7 +14284,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -13727,7 +14317,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -13760,7 +14350,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -13793,7 +14383,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -13826,7 +14416,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -13859,7 +14449,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -13892,7 +14482,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -13925,7 +14515,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -13958,7 +14548,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>403</v>
+        <v>482</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -13991,7 +14581,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -14024,7 +14614,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -14057,7 +14647,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -14090,7 +14680,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -14123,7 +14713,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -14156,7 +14746,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -14189,7 +14779,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -14222,7 +14812,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>411</v>
+        <v>490</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -14255,7 +14845,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>412</v>
+        <v>491</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -14288,7 +14878,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>413</v>
+        <v>492</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -14321,7 +14911,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -14354,7 +14944,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -14387,7 +14977,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -14420,7 +15010,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>417</v>
+        <v>496</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -14453,7 +15043,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>418</v>
+        <v>497</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -14486,7 +15076,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>419</v>
+        <v>498</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -14519,7 +15109,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -14552,7 +15142,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -14585,7 +15175,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -14618,7 +15208,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>423</v>
+        <v>502</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -14651,7 +15241,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -14684,7 +15274,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>425</v>
+        <v>504</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -14717,7 +15307,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -14750,7 +15340,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -14783,7 +15373,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -14816,7 +15406,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -14849,7 +15439,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -14882,7 +15472,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>431</v>
+        <v>510</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -14915,7 +15505,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -14948,7 +15538,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -14981,7 +15571,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>434</v>
+        <v>513</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -15014,7 +15604,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -15047,7 +15637,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -15080,7 +15670,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -15113,7 +15703,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -15146,7 +15736,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -15179,7 +15769,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -15212,7 +15802,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -15245,7 +15835,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -15278,7 +15868,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -15311,7 +15901,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -15344,7 +15934,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>445</v>
+        <v>524</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -15377,7 +15967,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>446</v>
+        <v>525</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -15410,7 +16000,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>447</v>
+        <v>526</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -15443,7 +16033,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -15476,7 +16066,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -15509,7 +16099,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -15542,7 +16132,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -15575,7 +16165,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -15608,7 +16198,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -15641,7 +16231,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -15674,7 +16264,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -15707,7 +16297,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -15740,7 +16330,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -15773,7 +16363,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -15806,7 +16396,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -15839,7 +16429,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -15872,7 +16462,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>461</v>
+        <v>540</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -15905,7 +16495,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>462</v>
+        <v>541</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -15938,7 +16528,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -15971,7 +16561,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -16004,7 +16594,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>465</v>
+        <v>544</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -16037,7 +16627,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>466</v>
+        <v>545</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -16070,7 +16660,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>467</v>
+        <v>546</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -16103,7 +16693,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -16136,7 +16726,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>469</v>
+        <v>548</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -16169,7 +16759,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>470</v>
+        <v>549</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -16202,7 +16792,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>471</v>
+        <v>550</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -16235,7 +16825,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>472</v>
+        <v>551</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -16268,7 +16858,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -16301,7 +16891,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -16334,7 +16924,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>475</v>
+        <v>554</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -16367,7 +16957,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>476</v>
+        <v>555</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -16400,7 +16990,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -16433,7 +17023,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -16466,7 +17056,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>479</v>
+        <v>558</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -16499,7 +17089,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>480</v>
+        <v>559</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -16532,7 +17122,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -16565,7 +17155,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -16598,7 +17188,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -16631,7 +17221,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -16664,7 +17254,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -16697,7 +17287,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -16730,7 +17320,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -16763,7 +17353,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -16796,7 +17386,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -16829,7 +17419,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -16862,7 +17452,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -16895,7 +17485,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -16928,7 +17518,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -16961,7 +17551,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -16994,7 +17584,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -17027,7 +17617,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>496</v>
+        <v>575</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -17060,7 +17650,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>497</v>
+        <v>576</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -17093,7 +17683,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -17126,7 +17716,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -17159,7 +17749,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -17192,7 +17782,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -17225,7 +17815,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -17258,7 +17848,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -17291,7 +17881,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>504</v>
+        <v>583</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -17324,7 +17914,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>505</v>
+        <v>584</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -17357,7 +17947,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>506</v>
+        <v>585</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -17390,7 +17980,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>507</v>
+        <v>586</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -17423,7 +18013,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -17456,7 +18046,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -17489,7 +18079,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -17522,7 +18112,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>511</v>
+        <v>590</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -17555,7 +18145,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>512</v>
+        <v>591</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -17588,7 +18178,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -17621,7 +18211,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -17654,7 +18244,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -17687,7 +18277,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -17720,7 +18310,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -17753,7 +18343,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -17786,7 +18376,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -17819,7 +18409,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -17852,7 +18442,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -17885,7 +18475,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>522</v>
+        <v>601</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -17918,7 +18508,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>523</v>
+        <v>602</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -17951,7 +18541,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>524</v>
+        <v>603</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -17984,7 +18574,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>525</v>
+        <v>604</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -18017,7 +18607,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -18050,7 +18640,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>527</v>
+        <v>606</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -18083,7 +18673,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -18116,7 +18706,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -18149,7 +18739,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -18182,7 +18772,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -18215,7 +18805,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -18248,7 +18838,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -18281,7 +18871,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -18314,7 +18904,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>535</v>
+        <v>614</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -18347,7 +18937,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -18380,7 +18970,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>537</v>
+        <v>616</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -18413,7 +19003,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -18446,7 +19036,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -18479,7 +19069,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -18512,7 +19102,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -18545,7 +19135,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -18578,7 +19168,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -18611,7 +19201,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -18644,7 +19234,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -18677,7 +19267,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -18710,7 +19300,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>547</v>
+        <v>626</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -18743,7 +19333,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>548</v>
+        <v>627</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -18776,7 +19366,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>549</v>
+        <v>628</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -18809,7 +19399,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>550</v>
+        <v>629</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -18842,7 +19432,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>551</v>
+        <v>630</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -18875,7 +19465,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>552</v>
+        <v>631</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -18908,7 +19498,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>553</v>
+        <v>632</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -18941,7 +19531,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -18974,7 +19564,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -19007,7 +19597,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -19040,7 +19630,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -19073,7 +19663,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -19106,7 +19696,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -19139,7 +19729,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -19172,7 +19762,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -19205,7 +19795,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>562</v>
+        <v>641</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -19238,7 +19828,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>563</v>
+        <v>642</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -19271,7 +19861,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>564</v>
+        <v>643</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -19304,7 +19894,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>565</v>
+        <v>644</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -19337,7 +19927,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -19370,7 +19960,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -19403,7 +19993,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -19436,7 +20026,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -19469,7 +20059,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -19502,7 +20092,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -19535,7 +20125,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>572</v>
+        <v>651</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -19568,7 +20158,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>573</v>
+        <v>652</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -19601,7 +20191,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -19634,7 +20224,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -19667,7 +20257,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>576</v>
+        <v>655</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -19700,7 +20290,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>577</v>
+        <v>656</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -19733,7 +20323,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>578</v>
+        <v>657</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -19766,7 +20356,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>579</v>
+        <v>658</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -19799,7 +20389,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>580</v>
+        <v>659</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -19832,7 +20422,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>581</v>
+        <v>660</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -19865,7 +20455,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>582</v>
+        <v>661</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -19898,7 +20488,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>583</v>
+        <v>662</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -19931,7 +20521,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -19964,7 +20554,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -19997,7 +20587,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>586</v>
+        <v>665</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -20030,7 +20620,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -20063,7 +20653,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -20096,7 +20686,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -20129,7 +20719,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -20162,7 +20752,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -20195,7 +20785,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -20228,7 +20818,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -20261,7 +20851,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -20294,7 +20884,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -20327,7 +20917,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -20360,7 +20950,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -20393,7 +20983,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -20426,7 +21016,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -20459,7 +21049,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -20492,7 +21082,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -20525,7 +21115,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -20558,7 +21148,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -20591,7 +21181,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -20624,7 +21214,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>605</v>
+        <v>684</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -20657,7 +21247,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>606</v>
+        <v>685</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -20690,7 +21280,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -20723,7 +21313,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -20756,7 +21346,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -20789,7 +21379,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -20822,7 +21412,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -20855,7 +21445,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -20888,7 +21478,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -20921,7 +21511,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -20954,7 +21544,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -20987,7 +21577,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -21020,7 +21610,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -21053,7 +21643,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -21086,7 +21676,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -21119,7 +21709,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -21152,7 +21742,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -21185,7 +21775,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -21218,7 +21808,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>623</v>
+        <v>702</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -21251,7 +21841,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -21284,7 +21874,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>625</v>
+        <v>704</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -21317,7 +21907,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>626</v>
+        <v>705</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -21350,7 +21940,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>627</v>
+        <v>706</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -21383,7 +21973,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>628</v>
+        <v>707</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -21416,7 +22006,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -21449,7 +22039,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>630</v>
+        <v>709</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -21482,7 +22072,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -21515,7 +22105,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -21548,7 +22138,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -21581,7 +22171,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -21614,7 +22204,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -21647,7 +22237,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -21680,7 +22270,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -21713,7 +22303,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -21746,7 +22336,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -21779,7 +22369,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -21812,7 +22402,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -21845,7 +22435,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -21878,7 +22468,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -21911,7 +22501,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -21944,7 +22534,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -21977,7 +22567,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -22010,7 +22600,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -22043,7 +22633,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -22076,7 +22666,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -22109,7 +22699,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -22142,7 +22732,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -22175,7 +22765,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -22208,7 +22798,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -22241,7 +22831,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -22274,7 +22864,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -22307,7 +22897,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -22340,7 +22930,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -22373,7 +22963,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -22406,7 +22996,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -22439,7 +23029,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -22472,7 +23062,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -22505,7 +23095,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -22538,7 +23128,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -22571,7 +23161,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -22604,7 +23194,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -22637,7 +23227,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -22670,7 +23260,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -22703,7 +23293,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -22736,7 +23326,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -22769,7 +23359,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -22802,7 +23392,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -22835,7 +23425,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -22868,7 +23458,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -22901,7 +23491,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -22934,7 +23524,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -22967,7 +23557,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -23000,7 +23590,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -23033,7 +23623,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -23066,7 +23656,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -23099,7 +23689,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -23132,7 +23722,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -23165,7 +23755,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -23198,7 +23788,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -23231,7 +23821,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -23264,7 +23854,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -23297,7 +23887,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -23330,7 +23920,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -23363,7 +23953,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -23396,7 +23986,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -23429,7 +24019,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>690</v>
+        <v>769</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -23462,7 +24052,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -23495,7 +24085,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -23528,7 +24118,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -23561,7 +24151,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>694</v>
+        <v>773</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -23594,7 +24184,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>695</v>
+        <v>774</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -23627,7 +24217,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>696</v>
+        <v>775</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -23660,7 +24250,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>697</v>
+        <v>776</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -23693,7 +24283,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>698</v>
+        <v>777</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -23726,7 +24316,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>699</v>
+        <v>778</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -23759,7 +24349,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -23792,7 +24382,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>701</v>
+        <v>780</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -23825,7 +24415,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>702</v>
+        <v>781</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -23858,7 +24448,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>703</v>
+        <v>782</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -23891,7 +24481,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>704</v>
+        <v>783</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -23924,7 +24514,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -23957,7 +24547,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>706</v>
+        <v>785</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -23990,7 +24580,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>707</v>
+        <v>786</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -24023,7 +24613,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>708</v>
+        <v>787</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -24056,7 +24646,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>709</v>
+        <v>788</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -24089,7 +24679,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>710</v>
+        <v>789</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -24122,7 +24712,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>711</v>
+        <v>790</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -24155,7 +24745,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>712</v>
+        <v>791</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -24188,7 +24778,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>713</v>
+        <v>792</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -24221,7 +24811,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>714</v>
+        <v>793</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -24254,7 +24844,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>715</v>
+        <v>794</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -24287,7 +24877,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>716</v>
+        <v>795</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -24320,7 +24910,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>717</v>
+        <v>796</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -24353,7 +24943,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>718</v>
+        <v>797</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -24386,7 +24976,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>719</v>
+        <v>798</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -24419,7 +25009,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>720</v>
+        <v>799</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -24452,7 +25042,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>721</v>
+        <v>800</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -24485,7 +25075,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>722</v>
+        <v>801</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -24518,7 +25108,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>723</v>
+        <v>802</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -24551,7 +25141,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>724</v>
+        <v>803</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -24584,7 +25174,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>725</v>
+        <v>804</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -24617,7 +25207,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>726</v>
+        <v>805</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -24650,7 +25240,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>727</v>
+        <v>806</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -24683,7 +25273,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>728</v>
+        <v>807</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -24716,7 +25306,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>729</v>
+        <v>808</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -24749,7 +25339,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>730</v>
+        <v>809</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -24782,7 +25372,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>731</v>
+        <v>810</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -24815,7 +25405,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>732</v>
+        <v>811</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -24848,7 +25438,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>733</v>
+        <v>812</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -24881,7 +25471,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>734</v>
+        <v>813</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -24914,7 +25504,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>735</v>
+        <v>814</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -24947,7 +25537,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -24980,7 +25570,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>737</v>
+        <v>816</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -25013,7 +25603,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>738</v>
+        <v>817</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -25046,7 +25636,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>739</v>
+        <v>818</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -25079,7 +25669,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>740</v>
+        <v>819</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -25112,7 +25702,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>741</v>
+        <v>820</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -25145,7 +25735,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>742</v>
+        <v>821</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -25178,7 +25768,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>743</v>
+        <v>822</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -25211,7 +25801,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>744</v>
+        <v>823</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -25244,7 +25834,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>745</v>
+        <v>824</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -25277,7 +25867,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>746</v>
+        <v>825</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -25310,7 +25900,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>747</v>
+        <v>826</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -25343,7 +25933,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>748</v>
+        <v>827</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -25376,7 +25966,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>749</v>
+        <v>828</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -25409,7 +25999,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>750</v>
+        <v>829</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -25442,7 +26032,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>751</v>
+        <v>830</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -25475,7 +26065,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>752</v>
+        <v>831</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -25508,7 +26098,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>753</v>
+        <v>832</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -25541,7 +26131,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>754</v>
+        <v>833</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -25574,7 +26164,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>755</v>
+        <v>834</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -25607,7 +26197,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>756</v>
+        <v>835</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -25640,7 +26230,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>757</v>
+        <v>836</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -25673,7 +26263,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>758</v>
+        <v>837</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -25706,7 +26296,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>759</v>
+        <v>838</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -25739,7 +26329,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>760</v>
+        <v>839</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -25772,7 +26362,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>761</v>
+        <v>840</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -25805,7 +26395,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>762</v>
+        <v>841</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -25838,7 +26428,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>763</v>
+        <v>842</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -25871,7 +26461,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>764</v>
+        <v>843</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -25904,7 +26494,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>765</v>
+        <v>844</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -25937,7 +26527,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>766</v>
+        <v>845</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -25970,7 +26560,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>767</v>
+        <v>846</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -26003,7 +26593,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>768</v>
+        <v>847</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -26036,7 +26626,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>769</v>
+        <v>848</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -26069,7 +26659,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>770</v>
+        <v>849</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -26102,7 +26692,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>771</v>
+        <v>850</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -26135,7 +26725,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>772</v>
+        <v>851</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -26168,7 +26758,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>773</v>
+        <v>852</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -26201,7 +26791,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>774</v>
+        <v>853</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -26234,7 +26824,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>775</v>
+        <v>854</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -26267,7 +26857,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>776</v>
+        <v>855</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -26300,7 +26890,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>777</v>
+        <v>856</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -26333,7 +26923,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>778</v>
+        <v>857</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -26366,7 +26956,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>779</v>
+        <v>858</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -26399,7 +26989,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>780</v>
+        <v>859</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -26432,7 +27022,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>781</v>
+        <v>860</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -26465,7 +27055,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>782</v>
+        <v>861</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -26498,7 +27088,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>783</v>
+        <v>862</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -26531,7 +27121,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -26564,7 +27154,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>785</v>
+        <v>864</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -26597,7 +27187,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>786</v>
+        <v>865</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -26630,7 +27220,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>787</v>
+        <v>866</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -26663,7 +27253,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>788</v>
+        <v>867</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -26696,7 +27286,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>789</v>
+        <v>868</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -26729,7 +27319,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>790</v>
+        <v>869</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -26762,7 +27352,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>791</v>
+        <v>870</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -26795,7 +27385,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>792</v>
+        <v>871</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -26828,7 +27418,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>793</v>
+        <v>872</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -26861,7 +27451,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>794</v>
+        <v>873</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -26894,7 +27484,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>795</v>
+        <v>874</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -26927,7 +27517,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>796</v>
+        <v>875</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -26960,7 +27550,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>797</v>
+        <v>876</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -26993,7 +27583,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>798</v>
+        <v>877</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -27026,7 +27616,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>799</v>
+        <v>878</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -27059,7 +27649,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>800</v>
+        <v>879</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -27092,7 +27682,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>801</v>
+        <v>880</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -27125,7 +27715,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>802</v>
+        <v>881</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -27158,7 +27748,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>803</v>
+        <v>882</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -27191,7 +27781,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>804</v>
+        <v>883</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -27224,7 +27814,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>805</v>
+        <v>884</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -27257,7 +27847,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>806</v>
+        <v>885</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -27290,7 +27880,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>807</v>
+        <v>886</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -27323,7 +27913,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>808</v>
+        <v>887</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -27356,7 +27946,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>809</v>
+        <v>888</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -27389,7 +27979,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>810</v>
+        <v>889</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -27422,7 +28012,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>811</v>
+        <v>890</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -27455,7 +28045,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>812</v>
+        <v>891</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -27488,7 +28078,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>813</v>
+        <v>892</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -27521,7 +28111,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>814</v>
+        <v>893</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -27554,7 +28144,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>815</v>
+        <v>894</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -27587,7 +28177,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>816</v>
+        <v>895</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -27620,7 +28210,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>817</v>
+        <v>896</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -27653,7 +28243,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>818</v>
+        <v>897</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -27686,7 +28276,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>819</v>
+        <v>898</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -27719,7 +28309,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>820</v>
+        <v>899</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -27752,7 +28342,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>821</v>
+        <v>900</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -27785,7 +28375,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>822</v>
+        <v>901</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -27818,7 +28408,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>823</v>
+        <v>902</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -27851,7 +28441,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>824</v>
+        <v>903</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -27884,7 +28474,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>825</v>
+        <v>904</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -27917,7 +28507,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>826</v>
+        <v>905</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -27950,7 +28540,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>827</v>
+        <v>906</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -27983,7 +28573,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>828</v>
+        <v>907</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -28016,7 +28606,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>829</v>
+        <v>908</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -28049,7 +28639,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>830</v>
+        <v>909</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -28082,7 +28672,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>831</v>
+        <v>910</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -28115,7 +28705,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>832</v>
+        <v>911</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -28148,7 +28738,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>833</v>
+        <v>912</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -28181,7 +28771,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>834</v>
+        <v>913</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -28214,7 +28804,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>835</v>
+        <v>914</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -28247,7 +28837,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>836</v>
+        <v>915</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -28280,7 +28870,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>837</v>
+        <v>916</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -28313,7 +28903,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>838</v>
+        <v>917</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -28346,7 +28936,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>839</v>
+        <v>918</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -28379,7 +28969,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>840</v>
+        <v>919</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -28412,7 +29002,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>841</v>
+        <v>920</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -28445,7 +29035,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>842</v>
+        <v>921</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -28478,7 +29068,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>843</v>
+        <v>922</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -28511,7 +29101,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>844</v>
+        <v>923</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -28544,7 +29134,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>845</v>
+        <v>924</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -28577,7 +29167,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>846</v>
+        <v>925</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -28610,7 +29200,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>847</v>
+        <v>926</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -28643,7 +29233,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>848</v>
+        <v>927</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -28676,7 +29266,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>849</v>
+        <v>928</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -28709,7 +29299,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>850</v>
+        <v>929</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -28742,7 +29332,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>851</v>
+        <v>930</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -28775,7 +29365,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>852</v>
+        <v>931</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -28808,7 +29398,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>853</v>
+        <v>932</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -28841,7 +29431,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>854</v>
+        <v>933</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -28874,7 +29464,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>855</v>
+        <v>934</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -28907,7 +29497,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>856</v>
+        <v>935</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -28940,7 +29530,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>857</v>
+        <v>936</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -28973,7 +29563,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>858</v>
+        <v>937</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -29006,7 +29596,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>859</v>
+        <v>938</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -29039,7 +29629,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>860</v>
+        <v>939</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -29072,7 +29662,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>861</v>
+        <v>940</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -29105,7 +29695,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>862</v>
+        <v>941</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -29138,7 +29728,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>863</v>
+        <v>942</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -29171,7 +29761,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>864</v>
+        <v>943</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -29204,7 +29794,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>865</v>
+        <v>944</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -29237,7 +29827,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>866</v>
+        <v>945</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -29270,7 +29860,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>867</v>
+        <v>946</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -29303,7 +29893,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>868</v>
+        <v>947</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -29336,7 +29926,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>869</v>
+        <v>948</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -29369,7 +29959,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>870</v>
+        <v>949</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -29402,7 +29992,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>871</v>
+        <v>950</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -29435,7 +30025,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>872</v>
+        <v>951</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -29468,7 +30058,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>873</v>
+        <v>952</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -29501,7 +30091,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>874</v>
+        <v>953</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -29534,7 +30124,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>875</v>
+        <v>954</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -29567,7 +30157,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>876</v>
+        <v>955</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -29600,7 +30190,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>877</v>
+        <v>956</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -29633,7 +30223,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>878</v>
+        <v>957</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -29666,7 +30256,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>879</v>
+        <v>958</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -29699,7 +30289,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>880</v>
+        <v>959</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -29732,7 +30322,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>881</v>
+        <v>960</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -29765,7 +30355,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>882</v>
+        <v>961</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -29798,7 +30388,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>883</v>
+        <v>962</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -29831,7 +30421,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>884</v>
+        <v>963</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -29864,7 +30454,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>885</v>
+        <v>964</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -29897,7 +30487,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>886</v>
+        <v>965</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -29930,7 +30520,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>887</v>
+        <v>966</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -29963,7 +30553,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>888</v>
+        <v>967</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -29996,7 +30586,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>889</v>
+        <v>968</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -30029,7 +30619,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>890</v>
+        <v>969</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -30062,7 +30652,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>891</v>
+        <v>970</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -30095,7 +30685,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>892</v>
+        <v>971</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -30128,7 +30718,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>893</v>
+        <v>972</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -30161,7 +30751,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>894</v>
+        <v>973</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -30194,7 +30784,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>895</v>
+        <v>974</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -30227,7 +30817,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>896</v>
+        <v>975</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -30260,7 +30850,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>897</v>
+        <v>976</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -30293,7 +30883,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -30326,7 +30916,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>899</v>
+        <v>978</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -30359,7 +30949,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>900</v>
+        <v>979</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -30392,7 +30982,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>901</v>
+        <v>980</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -30425,7 +31015,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>902</v>
+        <v>981</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -30458,7 +31048,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>903</v>
+        <v>982</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -30491,7 +31081,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>904</v>
+        <v>983</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -30524,7 +31114,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>905</v>
+        <v>984</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -30557,7 +31147,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>906</v>
+        <v>985</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -30590,7 +31180,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>907</v>
+        <v>986</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -30623,7 +31213,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>908</v>
+        <v>987</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -30656,7 +31246,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>909</v>
+        <v>988</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -30689,7 +31279,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>910</v>
+        <v>989</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -30722,7 +31312,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>911</v>
+        <v>990</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -30755,7 +31345,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>912</v>
+        <v>991</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -30788,7 +31378,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>913</v>
+        <v>992</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -30821,7 +31411,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>914</v>
+        <v>993</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -30854,7 +31444,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>915</v>
+        <v>994</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -30887,7 +31477,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>916</v>
+        <v>995</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -30920,7 +31510,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>917</v>
+        <v>996</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -30953,7 +31543,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>918</v>
+        <v>997</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -30986,7 +31576,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>919</v>
+        <v>998</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -31019,7 +31609,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>920</v>
+        <v>999</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -31052,7 +31642,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>921</v>
+        <v>1000</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -31085,7 +31675,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>922</v>
+        <v>1001</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -31118,7 +31708,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>923</v>
+        <v>1002</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -31151,7 +31741,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>924</v>
+        <v>1003</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -31184,7 +31774,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>925</v>
+        <v>1004</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -31217,7 +31807,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>926</v>
+        <v>1005</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -31250,7 +31840,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>927</v>
+        <v>1006</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -31283,7 +31873,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>928</v>
+        <v>1007</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -31316,7 +31906,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>929</v>
+        <v>1008</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -31349,7 +31939,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>930</v>
+        <v>1009</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -31382,7 +31972,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>931</v>
+        <v>1010</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -31415,7 +32005,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>932</v>
+        <v>1011</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -31448,7 +32038,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>933</v>
+        <v>1012</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -31481,7 +32071,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>934</v>
+        <v>1013</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -31514,7 +32104,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>935</v>
+        <v>1014</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -31547,7 +32137,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>936</v>
+        <v>1015</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -31580,7 +32170,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>937</v>
+        <v>1016</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -31613,7 +32203,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>938</v>
+        <v>1017</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -31646,7 +32236,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>939</v>
+        <v>1018</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -31679,7 +32269,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>940</v>
+        <v>1019</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -31712,7 +32302,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>941</v>
+        <v>1020</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -31745,7 +32335,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>942</v>
+        <v>1021</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -31778,7 +32368,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>943</v>
+        <v>1022</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -31811,7 +32401,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>944</v>
+        <v>1023</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -31844,7 +32434,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>945</v>
+        <v>1024</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -31877,7 +32467,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>946</v>
+        <v>1025</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -31910,7 +32500,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>947</v>
+        <v>1026</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -31943,7 +32533,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>948</v>
+        <v>1027</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -31976,7 +32566,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>949</v>
+        <v>1028</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -32009,7 +32599,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>950</v>
+        <v>1029</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -32042,7 +32632,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>951</v>
+        <v>1030</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -32075,7 +32665,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>952</v>
+        <v>1031</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -32108,7 +32698,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>953</v>
+        <v>1032</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -32141,7 +32731,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>954</v>
+        <v>1033</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -32174,7 +32764,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>955</v>
+        <v>1034</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -32207,7 +32797,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>956</v>
+        <v>1035</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -32240,7 +32830,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>957</v>
+        <v>1036</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -32273,7 +32863,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>958</v>
+        <v>1037</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -32306,7 +32896,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>959</v>
+        <v>1038</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -32339,7 +32929,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>960</v>
+        <v>1039</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -32372,7 +32962,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>961</v>
+        <v>1040</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -32405,7 +32995,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>962</v>
+        <v>1041</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -32438,7 +33028,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>963</v>
+        <v>1042</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -32471,7 +33061,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>964</v>
+        <v>1043</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -32504,7 +33094,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>965</v>
+        <v>1044</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -32537,7 +33127,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>966</v>
+        <v>1045</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -32570,7 +33160,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>967</v>
+        <v>1046</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -32603,7 +33193,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>968</v>
+        <v>1047</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -32636,7 +33226,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>969</v>
+        <v>1048</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -32669,7 +33259,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>970</v>
+        <v>1049</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -32702,7 +33292,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>971</v>
+        <v>1050</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -32735,7 +33325,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -32768,7 +33358,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>973</v>
+        <v>1052</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -32801,7 +33391,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>974</v>
+        <v>1053</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -32834,7 +33424,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>975</v>
+        <v>1054</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -32867,7 +33457,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>976</v>
+        <v>1055</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -32900,7 +33490,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>977</v>
+        <v>1056</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -32933,7 +33523,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>978</v>
+        <v>1057</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -32966,7 +33556,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>979</v>
+        <v>1058</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -32999,7 +33589,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>980</v>
+        <v>1059</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -33032,7 +33622,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>981</v>
+        <v>1060</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -33065,7 +33655,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>982</v>
+        <v>1061</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -33098,7 +33688,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>983</v>
+        <v>1062</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -33131,7 +33721,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>984</v>
+        <v>1063</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -33164,7 +33754,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>985</v>
+        <v>1064</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -33197,7 +33787,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>986</v>
+        <v>1065</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -33230,7 +33820,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>987</v>
+        <v>1066</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -33263,7 +33853,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>988</v>
+        <v>1067</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -33296,7 +33886,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>989</v>
+        <v>1068</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -33329,7 +33919,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>990</v>
+        <v>1069</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -33362,7 +33952,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>991</v>
+        <v>1070</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -33395,7 +33985,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>992</v>
+        <v>1071</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -33428,7 +34018,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>993</v>
+        <v>1072</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -33461,7 +34051,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>994</v>
+        <v>1073</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -33494,7 +34084,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>995</v>
+        <v>1074</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -33527,7 +34117,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>996</v>
+        <v>1075</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -33560,7 +34150,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>997</v>
+        <v>1076</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -33593,7 +34183,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>998</v>
+        <v>1077</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -33626,7 +34216,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>999</v>
+        <v>1078</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -33659,7 +34249,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1000</v>
+        <v>1079</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -33692,7 +34282,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1001</v>
+        <v>1080</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -33725,7 +34315,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1002</v>
+        <v>1081</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -33758,7 +34348,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1003</v>
+        <v>1082</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -33791,7 +34381,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1004</v>
+        <v>1083</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -33824,7 +34414,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1005</v>
+        <v>1084</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -33857,7 +34447,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1006</v>
+        <v>1085</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -33890,7 +34480,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1007</v>
+        <v>1086</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -33923,7 +34513,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1008</v>
+        <v>1087</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -33956,7 +34546,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1009</v>
+        <v>1088</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -33989,7 +34579,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1010</v>
+        <v>1089</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -34022,7 +34612,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1011</v>
+        <v>1090</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -34055,7 +34645,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1012</v>
+        <v>1091</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -34088,7 +34678,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1013</v>
+        <v>1092</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -34121,7 +34711,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1014</v>
+        <v>1093</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -34154,7 +34744,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1015</v>
+        <v>1094</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -34187,7 +34777,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1016</v>
+        <v>1095</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -34220,7 +34810,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1017</v>
+        <v>1096</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -34253,7 +34843,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1018</v>
+        <v>1097</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -34286,7 +34876,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1019</v>
+        <v>1098</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -34319,7 +34909,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1020</v>
+        <v>1099</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -34352,7 +34942,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1021</v>
+        <v>1100</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -34385,7 +34975,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1022</v>
+        <v>1101</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -34418,7 +35008,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1023</v>
+        <v>1102</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -34451,7 +35041,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1024</v>
+        <v>1103</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -34484,7 +35074,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1025</v>
+        <v>1104</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -34517,7 +35107,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1026</v>
+        <v>1105</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -34550,7 +35140,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1027</v>
+        <v>1106</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -34583,7 +35173,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1028</v>
+        <v>1107</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -34616,7 +35206,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1029</v>
+        <v>1108</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -34649,7 +35239,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1030</v>
+        <v>1109</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -34682,7 +35272,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1031</v>
+        <v>1110</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -34715,7 +35305,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1032</v>
+        <v>1111</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -34748,7 +35338,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1033</v>
+        <v>1112</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -34781,7 +35371,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1034</v>
+        <v>1113</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -34814,7 +35404,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1035</v>
+        <v>1114</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -34847,7 +35437,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1036</v>
+        <v>1115</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -34880,7 +35470,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1037</v>
+        <v>1116</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -34913,7 +35503,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1038</v>
+        <v>1117</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -34946,7 +35536,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1039</v>
+        <v>1118</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -34979,7 +35569,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1040</v>
+        <v>1119</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -35012,7 +35602,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1041</v>
+        <v>1120</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -35045,7 +35635,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1042</v>
+        <v>1121</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -35078,7 +35668,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1043</v>
+        <v>1122</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -35111,7 +35701,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1044</v>
+        <v>1123</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -35144,7 +35734,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1045</v>
+        <v>1124</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -35177,7 +35767,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1046</v>
+        <v>1125</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -35210,7 +35800,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1047</v>
+        <v>1126</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -35243,7 +35833,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1048</v>
+        <v>1127</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -35276,7 +35866,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1049</v>
+        <v>1128</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -35309,7 +35899,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1050</v>
+        <v>1129</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -35342,7 +35932,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1051</v>
+        <v>1130</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -35375,7 +35965,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1052</v>
+        <v>1131</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -35408,7 +35998,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1053</v>
+        <v>1132</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -35441,7 +36031,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1054</v>
+        <v>1133</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -35474,7 +36064,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1055</v>
+        <v>1134</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -35507,7 +36097,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1056</v>
+        <v>1135</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -35540,7 +36130,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1057</v>
+        <v>1136</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -35573,7 +36163,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1058</v>
+        <v>1137</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -35606,7 +36196,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1059</v>
+        <v>1138</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -35639,7 +36229,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1060</v>
+        <v>1139</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -35672,7 +36262,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1061</v>
+        <v>1140</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -35705,7 +36295,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1062</v>
+        <v>1141</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -35738,7 +36328,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1063</v>
+        <v>1142</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -35771,7 +36361,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1064</v>
+        <v>1143</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -35804,7 +36394,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1065</v>
+        <v>1144</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -35837,7 +36427,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1066</v>
+        <v>1145</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -35870,7 +36460,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1067</v>
+        <v>1146</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -35903,7 +36493,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1068</v>
+        <v>1147</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -35936,7 +36526,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1069</v>
+        <v>1148</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -35969,7 +36559,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1070</v>
+        <v>1149</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -36002,7 +36592,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -36035,7 +36625,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1072</v>
+        <v>1151</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -36068,7 +36658,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1073</v>
+        <v>1152</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -36101,7 +36691,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1074</v>
+        <v>1153</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -36134,7 +36724,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1075</v>
+        <v>1154</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -36167,7 +36757,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1076</v>
+        <v>1155</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -36200,7 +36790,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1077</v>
+        <v>1156</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -36233,7 +36823,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1078</v>
+        <v>1157</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -36266,7 +36856,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1079</v>
+        <v>1158</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -36301,37 +36891,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1080</v>
+        <v>1159</v>
       </c>
       <c r="C886" t="s">
-        <v>1081</v>
+        <v>1160</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1082</v>
+        <v>1161</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1083</v>
+        <v>1162</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1084</v>
+        <v>1163</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1085</v>
+        <v>1164</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1086</v>
+        <v>1165</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1087</v>
+        <v>1166</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1088</v>
+        <v>1167</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1089</v>
+        <v>1168</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1090</v>
+        <v>1169</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -36354,7 +36944,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1091</v>
+        <v>1170</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -36387,7 +36977,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1092</v>
+        <v>1171</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -36420,7 +37010,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1093</v>
+        <v>1172</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -36453,7 +37043,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1094</v>
+        <v>1173</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -36486,7 +37076,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1095</v>
+        <v>1174</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -36519,7 +37109,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1096</v>
+        <v>1175</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -36552,7 +37142,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1097</v>
+        <v>1176</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -36585,7 +37175,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1098</v>
+        <v>1177</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -36618,7 +37208,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1099</v>
+        <v>1178</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -36651,7 +37241,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1100</v>
+        <v>1179</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -36684,7 +37274,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1101</v>
+        <v>1180</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -36717,7 +37307,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1102</v>
+        <v>1181</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -36750,7 +37340,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1103</v>
+        <v>1182</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -36783,7 +37373,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1104</v>
+        <v>1183</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -36816,7 +37406,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1105</v>
+        <v>1184</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -36849,7 +37439,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1106</v>
+        <v>1185</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -36882,7 +37472,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1107</v>
+        <v>1186</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -36915,7 +37505,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1108</v>
+        <v>1187</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -36948,7 +37538,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1109</v>
+        <v>1188</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -36981,7 +37571,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1110</v>
+        <v>1189</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -37014,7 +37604,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1111</v>
+        <v>1190</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -37047,7 +37637,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1112</v>
+        <v>1191</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -37080,7 +37670,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1113</v>
+        <v>1192</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -37113,7 +37703,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1114</v>
+        <v>1193</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -37146,7 +37736,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1115</v>
+        <v>1194</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -37179,7 +37769,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1116</v>
+        <v>1195</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -37212,37 +37802,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1117</v>
+        <v>1196</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1118</v>
+        <v>1197</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1119</v>
+        <v>1198</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1120</v>
+        <v>1199</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1121</v>
+        <v>1200</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1122</v>
+        <v>1201</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1123</v>
+        <v>1202</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1124</v>
+        <v>1203</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1125</v>
+        <v>1204</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1126</v>
+        <v>1205</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1127</v>
+        <v>1206</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -37265,7 +37855,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1128</v>
+        <v>1207</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -37298,7 +37888,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1129</v>
+        <v>1208</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -37331,7 +37921,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1130</v>
+        <v>1209</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -37364,7 +37954,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1131</v>
+        <v>1210</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -37397,7 +37987,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1132</v>
+        <v>1211</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -37430,7 +38020,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1133</v>
+        <v>1212</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -37463,7 +38053,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1134</v>
+        <v>1213</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -37496,7 +38086,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1135</v>
+        <v>1214</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -37529,7 +38119,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1136</v>
+        <v>1215</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -37562,7 +38152,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1137</v>
+        <v>1216</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -37595,7 +38185,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1138</v>
+        <v>1217</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -37628,7 +38218,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1139</v>
+        <v>1218</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -37661,7 +38251,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1140</v>
+        <v>1219</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -37694,7 +38284,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1141</v>
+        <v>1220</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -37727,7 +38317,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1142</v>
+        <v>1221</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -37760,7 +38350,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1143</v>
+        <v>1222</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -37793,7 +38383,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1144</v>
+        <v>1223</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -37826,7 +38416,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1145</v>
+        <v>1224</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -37859,7 +38449,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1146</v>
+        <v>1225</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -37892,7 +38482,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1147</v>
+        <v>1226</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -37925,7 +38515,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1148</v>
+        <v>1227</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -37958,7 +38548,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1149</v>
+        <v>1228</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -37991,7 +38581,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1150</v>
+        <v>1229</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -38024,7 +38614,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1151</v>
+        <v>1230</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -38057,7 +38647,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1152</v>
+        <v>1231</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -38090,7 +38680,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1153</v>
+        <v>1232</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -38123,7 +38713,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1154</v>
+        <v>1233</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -38156,7 +38746,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1155</v>
+        <v>1234</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -38189,7 +38779,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1156</v>
+        <v>1235</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -38222,7 +38812,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1157</v>
+        <v>1236</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -38255,7 +38845,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1158</v>
+        <v>1237</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -38288,7 +38878,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1159</v>
+        <v>1238</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -38321,7 +38911,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1160</v>
+        <v>1239</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -38354,7 +38944,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1161</v>
+        <v>1240</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -38387,7 +38977,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1162</v>
+        <v>1241</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -38420,7 +39010,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1163</v>
+        <v>1242</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -38453,7 +39043,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1164</v>
+        <v>1243</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -38486,7 +39076,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1165</v>
+        <v>1244</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -38519,7 +39109,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1166</v>
+        <v>1245</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -38552,7 +39142,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1167</v>
+        <v>1246</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -38585,7 +39175,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1168</v>
+        <v>1247</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -38618,7 +39208,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1169</v>
+        <v>1248</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -38651,7 +39241,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1170</v>
+        <v>1249</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -38684,7 +39274,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1171</v>
+        <v>1250</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -38717,7 +39307,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1172</v>
+        <v>1251</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1480">
   <si>
     <t>No</t>
   </si>
@@ -2321,6 +2321,9 @@
     <t>DOID</t>
   </si>
   <si>
+    <t>224000000000</t>
+  </si>
+  <si>
     <t>DOOH</t>
   </si>
   <si>
@@ -2333,13 +2336,46 @@
     <t>DPUM</t>
   </si>
   <si>
+    <t>106000000000</t>
+  </si>
+  <si>
     <t>DRMA</t>
   </si>
   <si>
+    <t>305000000000</t>
+  </si>
+  <si>
+    <t>397000000000</t>
+  </si>
+  <si>
+    <t>626000000000</t>
+  </si>
+  <si>
+    <t>593000000000</t>
+  </si>
+  <si>
     <t>DSFI</t>
   </si>
   <si>
     <t>DSNG</t>
+  </si>
+  <si>
+    <t>588000000000</t>
+  </si>
+  <si>
+    <t>478000000000</t>
+  </si>
+  <si>
+    <t>740000000000</t>
+  </si>
+  <si>
+    <t>1207000000000</t>
+  </si>
+  <si>
+    <t>842000000000</t>
+  </si>
+  <si>
+    <t>1141000000000</t>
   </si>
   <si>
     <t>DSSA</t>
@@ -5465,8 +5501,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C282" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -18056,12 +18092,6 @@
       <c r="B255" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C255"/>
-      <c r="D255"/>
-      <c r="E255"/>
-      <c r="F255"/>
-      <c r="G255"/>
-      <c r="H255"/>
       <c r="I255">
         <v>-11000000000</v>
       </c>
@@ -18961,15 +18991,33 @@
       <c r="B274" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
+      <c r="C274" s="2">
+        <v>82000000000</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F274" s="2">
+        <v>-299000000000</v>
+      </c>
+      <c r="G274" s="2">
+        <v>-121000000000</v>
+      </c>
+      <c r="H274" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I274" s="2">
+        <v>-765000000000</v>
+      </c>
+      <c r="J274" s="2">
+        <v>-1152000000000</v>
+      </c>
+      <c r="K274" s="2">
+        <v>-153000000000</v>
+      </c>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -18992,7 +19040,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -19000,9 +19048,15 @@
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
+      <c r="I275" s="2">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2">
+        <v>0</v>
+      </c>
+      <c r="K275" s="2">
+        <v>2000000000</v>
+      </c>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
@@ -19025,17 +19079,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
+      <c r="H276" s="2">
+        <v>15000000000</v>
+      </c>
+      <c r="I276" s="2">
+        <v>18000000000</v>
+      </c>
+      <c r="J276" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="K276" s="2">
+        <v>21000000000</v>
+      </c>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -19058,17 +19120,35 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
+        <v>767</v>
+      </c>
+      <c r="C277" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D277" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="E277" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="F277" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="G277" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="H277" s="2">
+        <v>23000000000</v>
+      </c>
+      <c r="I277" s="2">
+        <v>27000000000</v>
+      </c>
+      <c r="J277" s="2">
+        <v>16000000000</v>
+      </c>
+      <c r="K277" s="2">
+        <v>14000000000</v>
+      </c>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -19091,17 +19171,35 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="C278" s="2">
+        <v>91000000000</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E278" s="2">
+        <v>8000000000</v>
+      </c>
+      <c r="F278" s="2">
+        <v>-335000000000</v>
+      </c>
+      <c r="G278" s="2">
+        <v>-375000000000</v>
+      </c>
+      <c r="H278" s="2">
+        <v>-80000000000</v>
+      </c>
+      <c r="I278" s="2">
+        <v>-46000000000</v>
+      </c>
+      <c r="J278" s="2">
+        <v>-142000000000</v>
+      </c>
+      <c r="K278" s="2">
+        <v>-37000000000</v>
+      </c>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -19124,17 +19222,31 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
+      <c r="E279" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G279" s="2">
+        <v>8000000000</v>
+      </c>
+      <c r="H279" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="K279" s="4" t="s">
+        <v>774</v>
+      </c>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -19157,17 +19269,35 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2"/>
-      <c r="K280" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="C280" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="D280" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="E280" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="F280" s="2">
+        <v>8000000000</v>
+      </c>
+      <c r="G280" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="H280" s="2">
+        <v>15000000000</v>
+      </c>
+      <c r="I280" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="J280" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="K280" s="2">
+        <v>12000000000</v>
+      </c>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -19190,17 +19320,35 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-      <c r="K281" s="2"/>
+        <v>776</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="H281" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="I281" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="K281" s="4" t="s">
+        <v>782</v>
+      </c>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -19223,7 +19371,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -19256,7 +19404,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -19289,7 +19437,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -19322,7 +19470,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -19355,7 +19503,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -19388,7 +19536,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -19421,7 +19569,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -19454,7 +19602,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -19487,7 +19635,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -19520,7 +19668,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -19553,7 +19701,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -19586,7 +19734,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -19619,7 +19767,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -19652,7 +19800,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -19685,7 +19833,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -19718,7 +19866,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -19751,7 +19899,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -19784,7 +19932,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -19817,7 +19965,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -19850,7 +19998,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -19883,7 +20031,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -19916,7 +20064,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -19949,7 +20097,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -19982,7 +20130,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -20015,7 +20163,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -20048,7 +20196,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -20081,7 +20229,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -20114,7 +20262,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -20147,7 +20295,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -20180,7 +20328,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -20213,7 +20361,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -20246,7 +20394,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -20279,7 +20427,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -20312,7 +20460,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -20345,7 +20493,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -20378,7 +20526,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -20411,7 +20559,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -20444,7 +20592,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -20477,7 +20625,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -20510,7 +20658,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -20543,7 +20691,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -20576,7 +20724,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -20609,7 +20757,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -20642,7 +20790,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -20675,7 +20823,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -20708,7 +20856,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -20741,7 +20889,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -20774,7 +20922,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -20807,7 +20955,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -20840,7 +20988,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -20873,7 +21021,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -20906,7 +21054,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -20939,7 +21087,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -20972,7 +21120,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -21005,7 +21153,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -21038,7 +21186,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -21071,7 +21219,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -21104,7 +21252,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -21137,7 +21285,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -21170,7 +21318,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -21203,7 +21351,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -21236,7 +21384,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -21269,7 +21417,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -21302,7 +21450,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -21335,7 +21483,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -21368,7 +21516,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -21401,7 +21549,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -21434,7 +21582,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -21467,7 +21615,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -21500,7 +21648,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -21533,7 +21681,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -21566,7 +21714,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -21599,7 +21747,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -21632,7 +21780,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -21665,7 +21813,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -21698,7 +21846,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -21731,7 +21879,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -21764,7 +21912,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -21797,7 +21945,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -21830,7 +21978,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -21863,7 +22011,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -21896,7 +22044,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -21929,7 +22077,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -21962,7 +22110,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -21995,7 +22143,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -22028,7 +22176,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -22061,7 +22209,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -22094,7 +22242,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -22127,7 +22275,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -22160,7 +22308,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -22193,7 +22341,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -22226,7 +22374,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -22259,7 +22407,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -22292,7 +22440,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -22325,7 +22473,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -22358,7 +22506,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -22391,7 +22539,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -22424,7 +22572,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -22457,7 +22605,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -22490,7 +22638,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -22523,7 +22671,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -22556,7 +22704,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -22589,7 +22737,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -22622,7 +22770,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -22655,7 +22803,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -22688,7 +22836,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -22721,7 +22869,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -22754,7 +22902,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -22787,7 +22935,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -22820,7 +22968,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -22853,7 +23001,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -22886,7 +23034,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -22919,7 +23067,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -22952,7 +23100,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -22985,7 +23133,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -23018,7 +23166,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -23051,7 +23199,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -23084,7 +23232,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -23117,7 +23265,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -23150,7 +23298,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -23183,7 +23331,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -23216,7 +23364,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -23249,7 +23397,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -23282,7 +23430,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -23315,7 +23463,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -23348,7 +23496,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -23381,7 +23529,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -23414,7 +23562,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -23447,7 +23595,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -23480,7 +23628,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -23513,7 +23661,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -23546,7 +23694,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -23579,7 +23727,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -23612,7 +23760,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -23645,7 +23793,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -23678,7 +23826,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -23711,7 +23859,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -23744,7 +23892,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -23777,7 +23925,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -23810,7 +23958,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -23843,7 +23991,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -23876,7 +24024,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -23909,7 +24057,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -23942,7 +24090,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -23975,7 +24123,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -24008,7 +24156,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -24041,7 +24189,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -24074,7 +24222,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -24107,7 +24255,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -24140,7 +24288,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -24173,7 +24321,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -24206,7 +24354,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -24239,7 +24387,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -24272,7 +24420,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -24305,7 +24453,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -24338,7 +24486,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -24371,7 +24519,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -24404,7 +24552,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -24437,7 +24585,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -24470,7 +24618,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -24503,7 +24651,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -24536,7 +24684,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -24569,7 +24717,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -24602,7 +24750,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -24635,7 +24783,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -24668,7 +24816,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -24701,7 +24849,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -24734,7 +24882,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -24767,7 +24915,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -24800,7 +24948,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -24833,7 +24981,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -24866,7 +25014,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -24899,7 +25047,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -24932,7 +25080,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -24965,7 +25113,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -24998,7 +25146,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -25031,7 +25179,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -25064,7 +25212,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -25097,7 +25245,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -25130,7 +25278,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -25163,7 +25311,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -25196,7 +25344,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -25229,7 +25377,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -25262,7 +25410,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -25295,7 +25443,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -25328,7 +25476,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -25361,7 +25509,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -25394,7 +25542,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -25427,7 +25575,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -25460,7 +25608,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -25493,7 +25641,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -25526,7 +25674,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -25559,7 +25707,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -25592,7 +25740,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -25625,7 +25773,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -25658,7 +25806,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -25691,7 +25839,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -25724,7 +25872,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -25757,7 +25905,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -25790,7 +25938,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -25823,7 +25971,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -25856,7 +26004,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -25889,7 +26037,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -25922,7 +26070,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -25955,7 +26103,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -25988,7 +26136,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -26021,7 +26169,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -26054,7 +26202,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -26087,7 +26235,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -26120,7 +26268,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -26153,7 +26301,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -26186,7 +26334,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -26219,7 +26367,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -26252,7 +26400,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -26285,7 +26433,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -26318,7 +26466,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -26351,7 +26499,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -26384,7 +26532,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -26417,7 +26565,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -26450,7 +26598,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -26483,7 +26631,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -26516,7 +26664,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -26549,7 +26697,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -26582,7 +26730,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -26615,7 +26763,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -26648,7 +26796,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -26681,7 +26829,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -26714,7 +26862,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -26747,7 +26895,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -26780,7 +26928,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -26813,7 +26961,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -26846,7 +26994,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -26879,7 +27027,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -26912,7 +27060,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -26945,7 +27093,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -26978,7 +27126,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -27011,7 +27159,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -27044,7 +27192,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -27077,7 +27225,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -27110,7 +27258,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -27143,7 +27291,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -27176,7 +27324,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -27209,7 +27357,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -27242,7 +27390,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -27275,7 +27423,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -27308,7 +27456,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -27341,7 +27489,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -27374,7 +27522,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -27407,7 +27555,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -27440,7 +27588,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -27473,7 +27621,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -27506,7 +27654,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -27539,7 +27687,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -27572,7 +27720,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -27605,7 +27753,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -27638,7 +27786,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -27671,7 +27819,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -27704,7 +27852,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -27737,7 +27885,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -27770,7 +27918,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -27803,7 +27951,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -27836,7 +27984,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -27869,7 +28017,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -27902,7 +28050,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -27935,7 +28083,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -27968,7 +28116,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -28001,7 +28149,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -28034,7 +28182,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -28067,7 +28215,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -28100,7 +28248,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -28133,7 +28281,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -28166,7 +28314,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -28199,7 +28347,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -28232,7 +28380,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -28265,7 +28413,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -28298,7 +28446,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -28331,7 +28479,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -28364,7 +28512,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -28397,7 +28545,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -28430,7 +28578,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -28463,7 +28611,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -28496,7 +28644,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -28529,7 +28677,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -28562,7 +28710,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -28595,7 +28743,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -28628,7 +28776,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -28661,7 +28809,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -28694,7 +28842,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -28727,7 +28875,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -28760,7 +28908,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -28793,7 +28941,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -28826,7 +28974,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -28859,7 +29007,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -28892,7 +29040,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -28925,7 +29073,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -28958,7 +29106,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -28991,7 +29139,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -29024,7 +29172,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -29057,7 +29205,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -29090,7 +29238,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -29123,7 +29271,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -29156,7 +29304,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -29189,7 +29337,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -29222,7 +29370,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -29255,7 +29403,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -29288,7 +29436,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -29321,7 +29469,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -29354,7 +29502,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -29387,7 +29535,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -29420,7 +29568,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -29453,7 +29601,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -29486,7 +29634,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -29519,7 +29667,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -29552,7 +29700,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -29585,7 +29733,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -29618,7 +29766,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -29651,7 +29799,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -29684,7 +29832,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -29717,7 +29865,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -29750,7 +29898,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -29783,7 +29931,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -29816,7 +29964,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -29849,7 +29997,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -29882,7 +30030,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -29915,7 +30063,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1095</v>
+        <v>1107</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -29948,7 +30096,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -29981,7 +30129,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -30014,7 +30162,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -30047,7 +30195,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -30080,7 +30228,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -30113,7 +30261,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -30146,7 +30294,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -30179,7 +30327,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -30212,7 +30360,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -30245,7 +30393,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -30278,7 +30426,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -30311,7 +30459,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -30344,7 +30492,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1108</v>
+        <v>1120</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -30377,7 +30525,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -30410,7 +30558,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -30443,7 +30591,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -30476,7 +30624,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -30509,7 +30657,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -30542,7 +30690,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1114</v>
+        <v>1126</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -30575,7 +30723,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -30608,7 +30756,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -30641,7 +30789,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -30674,7 +30822,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -30707,7 +30855,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -30740,7 +30888,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -30773,7 +30921,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -30806,7 +30954,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -30839,7 +30987,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -30872,7 +31020,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -30905,7 +31053,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -30938,7 +31086,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -30971,7 +31119,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -31004,7 +31152,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -31037,7 +31185,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -31070,7 +31218,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -31103,7 +31251,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -31136,7 +31284,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1132</v>
+        <v>1144</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -31169,7 +31317,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1133</v>
+        <v>1145</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -31202,7 +31350,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1134</v>
+        <v>1146</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -31235,7 +31383,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1135</v>
+        <v>1147</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -31268,7 +31416,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -31301,7 +31449,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -31334,7 +31482,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -31367,7 +31515,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -31400,7 +31548,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -31433,7 +31581,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -31466,7 +31614,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -31499,7 +31647,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -31532,7 +31680,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -31565,7 +31713,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -31598,7 +31746,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1146</v>
+        <v>1158</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -31631,7 +31779,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1147</v>
+        <v>1159</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -31664,7 +31812,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1148</v>
+        <v>1160</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -31697,7 +31845,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1149</v>
+        <v>1161</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -31730,7 +31878,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -31763,7 +31911,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -31796,7 +31944,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -31829,7 +31977,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -31862,7 +32010,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -31895,7 +32043,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1155</v>
+        <v>1167</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -31928,7 +32076,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -31961,7 +32109,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -31994,7 +32142,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -32027,7 +32175,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -32060,7 +32208,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -32093,7 +32241,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -32126,7 +32274,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -32159,7 +32307,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -32192,7 +32340,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -32225,7 +32373,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -32258,7 +32406,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -32291,7 +32439,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -32324,7 +32472,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -32357,7 +32505,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -32390,7 +32538,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -32423,7 +32571,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -32456,7 +32604,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -32489,7 +32637,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1173</v>
+        <v>1185</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -32522,7 +32670,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1174</v>
+        <v>1186</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -32555,7 +32703,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1175</v>
+        <v>1187</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -32588,7 +32736,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -32621,7 +32769,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -32654,7 +32802,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -32687,7 +32835,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -32720,7 +32868,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1180</v>
+        <v>1192</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -32753,7 +32901,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1181</v>
+        <v>1193</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -32786,7 +32934,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1182</v>
+        <v>1194</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -32819,7 +32967,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1183</v>
+        <v>1195</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -32852,7 +33000,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -32885,7 +33033,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -32918,7 +33066,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -32951,7 +33099,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -32984,7 +33132,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -33017,7 +33165,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -33050,7 +33198,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -33083,7 +33231,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -33116,7 +33264,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -33149,7 +33297,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -33182,7 +33330,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -33215,7 +33363,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -33248,7 +33396,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -33281,7 +33429,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -33314,7 +33462,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -33347,7 +33495,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -33380,7 +33528,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -33413,7 +33561,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -33446,7 +33594,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -33479,7 +33627,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -33512,7 +33660,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -33545,7 +33693,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1205</v>
+        <v>1217</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -33578,7 +33726,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -33611,7 +33759,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -33644,7 +33792,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -33677,7 +33825,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -33710,7 +33858,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -33743,7 +33891,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -33776,7 +33924,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -33809,7 +33957,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -33842,7 +33990,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -33875,7 +34023,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -33908,7 +34056,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -33941,7 +34089,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -33974,7 +34122,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -34007,7 +34155,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -34040,7 +34188,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1220</v>
+        <v>1232</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -34073,7 +34221,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1221</v>
+        <v>1233</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -34106,7 +34254,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -34139,7 +34287,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -34172,7 +34320,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -34205,7 +34353,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -34238,7 +34386,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -34271,7 +34419,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -34304,7 +34452,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -34337,7 +34485,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -34370,7 +34518,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -34403,7 +34551,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -34436,7 +34584,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -34469,7 +34617,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -34502,7 +34650,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -34535,7 +34683,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -34568,7 +34716,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -34601,7 +34749,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -34634,7 +34782,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -34667,7 +34815,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -34700,7 +34848,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -34733,7 +34881,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -34766,7 +34914,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -34799,7 +34947,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -34832,7 +34980,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -34865,7 +35013,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -34898,7 +35046,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -34931,7 +35079,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -34964,7 +35112,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -34997,7 +35145,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -35030,7 +35178,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -35063,7 +35211,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -35096,7 +35244,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -35129,7 +35277,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -35162,7 +35310,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -35195,7 +35343,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -35228,7 +35376,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -35261,7 +35409,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -35294,7 +35442,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -35327,7 +35475,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -35360,7 +35508,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -35393,7 +35541,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -35426,7 +35574,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -35459,7 +35607,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -35492,7 +35640,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -35525,7 +35673,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -35558,7 +35706,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -35591,7 +35739,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -35624,7 +35772,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -35657,7 +35805,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -35690,7 +35838,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -35723,7 +35871,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -35756,7 +35904,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -35789,7 +35937,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -35822,7 +35970,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -35855,7 +36003,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -35888,7 +36036,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -35921,7 +36069,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -35954,7 +36102,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -35987,7 +36135,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -36020,7 +36168,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -36053,7 +36201,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -36086,7 +36234,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -36119,7 +36267,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -36152,7 +36300,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -36185,7 +36333,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -36218,7 +36366,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -36251,7 +36399,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -36284,7 +36432,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -36317,7 +36465,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -36350,7 +36498,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -36383,7 +36531,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -36416,7 +36564,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -36449,7 +36597,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -36482,7 +36630,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -36515,7 +36663,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -36548,7 +36696,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -36581,7 +36729,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -36614,7 +36762,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -36647,7 +36795,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -36680,7 +36828,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -36713,7 +36861,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -36746,7 +36894,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -36779,7 +36927,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -36812,7 +36960,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -36845,7 +36993,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -36878,7 +37026,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -36911,7 +37059,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -36944,7 +37092,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -36977,7 +37125,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -37010,7 +37158,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -37043,7 +37191,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -37076,7 +37224,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -37109,7 +37257,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -37142,7 +37290,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -37175,7 +37323,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -37208,7 +37356,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -37241,7 +37389,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -37274,7 +37422,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -37307,7 +37455,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -37340,7 +37488,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -37373,7 +37521,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -37406,7 +37554,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -37439,7 +37587,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -37472,7 +37620,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -37505,7 +37653,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -37538,7 +37686,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -37571,7 +37719,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -37604,7 +37752,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -37637,7 +37785,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -37670,7 +37818,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -37703,7 +37851,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -37736,7 +37884,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -37769,7 +37917,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -37802,7 +37950,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -37835,7 +37983,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -37868,7 +38016,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -37901,7 +38049,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -37934,7 +38082,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -37967,7 +38115,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -38000,7 +38148,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -38033,7 +38181,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -38066,7 +38214,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -38099,7 +38247,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -38132,7 +38280,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -38165,7 +38313,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -38198,7 +38346,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -38231,7 +38379,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -38264,7 +38412,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -38297,7 +38445,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -38330,7 +38478,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -38363,7 +38511,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -38396,7 +38544,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -38429,7 +38577,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -38462,7 +38610,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -38495,7 +38643,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -38528,7 +38676,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -38561,7 +38709,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1357</v>
+        <v>1369</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -38594,7 +38742,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -38627,7 +38775,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -38660,7 +38808,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -38693,7 +38841,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -38726,7 +38874,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -38759,7 +38907,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -38792,7 +38940,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -38825,7 +38973,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -38858,7 +39006,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -38891,7 +39039,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -38924,7 +39072,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -38957,7 +39105,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -38990,7 +39138,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -39023,7 +39171,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -39056,7 +39204,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -39089,7 +39237,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -39122,7 +39270,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -39157,37 +39305,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="C886" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -39210,7 +39358,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -39243,7 +39391,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -39276,7 +39424,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -39309,7 +39457,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -39342,7 +39490,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -39375,7 +39523,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -39408,7 +39556,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -39441,7 +39589,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -39474,7 +39622,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -39507,7 +39655,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -39540,7 +39688,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -39573,7 +39721,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -39606,7 +39754,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -39639,7 +39787,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -39672,7 +39820,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -39705,7 +39853,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -39738,7 +39886,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -39771,7 +39919,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -39804,7 +39952,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -39837,7 +39985,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -39870,7 +40018,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -39903,7 +40051,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -39936,7 +40084,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -39969,7 +40117,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -40002,7 +40150,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -40035,7 +40183,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -40068,37 +40216,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1418</v>
+        <v>1430</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1419</v>
+        <v>1431</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1422</v>
+        <v>1434</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -40121,7 +40269,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -40154,7 +40302,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1424</v>
+        <v>1436</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -40187,7 +40335,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -40220,7 +40368,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -40253,7 +40401,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -40286,7 +40434,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -40319,7 +40467,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -40352,7 +40500,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1430</v>
+        <v>1442</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -40385,7 +40533,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1431</v>
+        <v>1443</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -40418,7 +40566,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -40451,7 +40599,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -40484,7 +40632,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -40517,7 +40665,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -40550,7 +40698,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -40583,7 +40731,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -40616,7 +40764,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -40649,7 +40797,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1439</v>
+        <v>1451</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -40682,7 +40830,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -40715,7 +40863,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -40748,7 +40896,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1442</v>
+        <v>1454</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -40781,7 +40929,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -40814,7 +40962,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -40847,7 +40995,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -40880,7 +41028,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -40913,7 +41061,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -40946,7 +41094,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1448</v>
+        <v>1460</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -40979,7 +41127,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1449</v>
+        <v>1461</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -41012,7 +41160,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -41045,7 +41193,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -41078,7 +41226,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -41111,7 +41259,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1453</v>
+        <v>1465</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -41144,7 +41292,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1454</v>
+        <v>1466</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -41177,7 +41325,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1455</v>
+        <v>1467</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -41210,7 +41358,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -41243,7 +41391,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1457</v>
+        <v>1469</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -41276,7 +41424,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1458</v>
+        <v>1470</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -41309,7 +41457,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1459</v>
+        <v>1471</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -41342,7 +41490,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1460</v>
+        <v>1472</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -41375,7 +41523,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1461</v>
+        <v>1473</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -41408,7 +41556,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -41441,7 +41589,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1463</v>
+        <v>1475</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -41474,7 +41622,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1464</v>
+        <v>1476</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -41507,7 +41655,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1465</v>
+        <v>1477</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -41540,7 +41688,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -41573,7 +41721,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1467</v>
+        <v>1479</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11460"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1742">
   <si>
     <t>No</t>
   </si>
@@ -3594,6 +3594,12 @@
   </si>
   <si>
     <t>INPP</t>
+  </si>
+  <si>
+    <t>2081000000000</t>
+  </si>
+  <si>
+    <t>185000000000</t>
   </si>
   <si>
     <t>INPS</t>
@@ -6281,8 +6287,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -27014,13 +27020,27 @@
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2"/>
-      <c r="K425" s="2"/>
+      <c r="E425">
+        <v>16000000000</v>
+      </c>
+      <c r="F425">
+        <v>23000000000</v>
+      </c>
+      <c r="G425">
+        <v>-9000000000</v>
+      </c>
+      <c r="H425">
+        <v>27000000000</v>
+      </c>
+      <c r="I425">
+        <v>-36000000000</v>
+      </c>
+      <c r="J425">
+        <v>-28000000000</v>
+      </c>
+      <c r="K425">
+        <v>48000000000</v>
+      </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
       <c r="N425" s="2"/>
@@ -27045,15 +27065,33 @@
       <c r="B426" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="2"/>
-      <c r="J426" s="2"/>
-      <c r="K426" s="2"/>
+      <c r="C426" s="2">
+        <v>73000000000</v>
+      </c>
+      <c r="D426" s="2">
+        <v>68000000000</v>
+      </c>
+      <c r="E426" s="2">
+        <v>54000000000</v>
+      </c>
+      <c r="F426" s="2">
+        <v>-58000000000</v>
+      </c>
+      <c r="G426" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="H426" s="2">
+        <v>-168000000000</v>
+      </c>
+      <c r="I426" s="2">
+        <v>55000000000</v>
+      </c>
+      <c r="J426" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K426" s="4" t="s">
+        <v>804</v>
+      </c>
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
       <c r="N426" s="2"/>
@@ -27078,15 +27116,33 @@
       <c r="B427" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-      <c r="I427" s="2"/>
-      <c r="J427" s="2"/>
-      <c r="K427" s="2"/>
+      <c r="C427" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E427" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F427" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G427" s="2">
+        <v>-484000000000</v>
+      </c>
+      <c r="H427" s="2">
+        <v>-28000000000</v>
+      </c>
+      <c r="I427" s="2">
+        <v>69000000000</v>
+      </c>
+      <c r="J427" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K427" s="4" t="s">
+        <v>904</v>
+      </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
@@ -27109,17 +27165,33 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="2"/>
-      <c r="J428" s="2"/>
-      <c r="K428" s="2"/>
+      <c r="D428" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="E428" s="2">
+        <v>-11000000000</v>
+      </c>
+      <c r="F428" s="2">
+        <v>-4000000000</v>
+      </c>
+      <c r="G428" s="2">
+        <v>-17000000000</v>
+      </c>
+      <c r="H428" s="2">
+        <v>-31000000000</v>
+      </c>
+      <c r="I428" s="2">
+        <v>-75000000000</v>
+      </c>
+      <c r="J428" s="2">
+        <v>0</v>
+      </c>
+      <c r="K428" s="2">
+        <v>-30000000000</v>
+      </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2"/>
@@ -27142,7 +27214,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -27175,7 +27247,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -27208,7 +27280,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -27241,7 +27313,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -27274,7 +27346,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -27307,7 +27379,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -27340,7 +27412,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -27373,7 +27445,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -27406,7 +27478,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -27439,7 +27511,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -27472,7 +27544,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -27505,7 +27577,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -27538,7 +27610,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -27571,7 +27643,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -27604,7 +27676,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -27637,7 +27709,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -27670,7 +27742,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -27703,7 +27775,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -27736,7 +27808,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -27769,7 +27841,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -27802,7 +27874,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -27835,7 +27907,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -27868,7 +27940,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -27901,7 +27973,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -27934,7 +28006,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -27967,7 +28039,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -28000,7 +28072,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -28033,7 +28105,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -28066,7 +28138,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -28099,7 +28171,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -28132,7 +28204,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -28165,7 +28237,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -28198,7 +28270,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -28231,7 +28303,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -28264,7 +28336,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -28297,7 +28369,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -28330,7 +28402,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -28363,7 +28435,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -28396,7 +28468,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -28429,7 +28501,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -28462,7 +28534,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -28495,7 +28567,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -28528,7 +28600,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -28561,7 +28633,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -28594,7 +28666,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -28627,7 +28699,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -28660,7 +28732,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -28693,7 +28765,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -28726,7 +28798,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -28759,7 +28831,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -28792,7 +28864,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -28825,7 +28897,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -28858,7 +28930,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -28891,7 +28963,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -28924,7 +28996,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -28957,7 +29029,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -28990,7 +29062,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -29023,7 +29095,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -29056,7 +29128,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -29089,7 +29161,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -29122,7 +29194,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -29155,7 +29227,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -29188,7 +29260,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -29221,7 +29293,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -29254,7 +29326,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -29287,7 +29359,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -29320,7 +29392,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -29353,7 +29425,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -29386,7 +29458,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -29419,7 +29491,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -29452,7 +29524,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -29485,7 +29557,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -29518,7 +29590,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -29551,7 +29623,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -29584,7 +29656,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -29617,7 +29689,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -29650,7 +29722,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -29683,7 +29755,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -29716,7 +29788,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -29749,7 +29821,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -29782,7 +29854,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -29815,7 +29887,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -29848,7 +29920,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -29881,7 +29953,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -29914,7 +29986,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -29947,7 +30019,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -29980,7 +30052,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -30013,7 +30085,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -30046,7 +30118,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -30079,7 +30151,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -30112,7 +30184,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -30145,7 +30217,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -30178,7 +30250,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -30211,7 +30283,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -30244,7 +30316,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -30277,7 +30349,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -30310,7 +30382,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -30343,7 +30415,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -30376,7 +30448,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -30409,7 +30481,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -30442,7 +30514,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -30475,7 +30547,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -30508,7 +30580,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -30541,7 +30613,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -30574,7 +30646,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -30607,7 +30679,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -30640,7 +30712,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -30673,7 +30745,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -30706,7 +30778,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -30739,7 +30811,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -30772,7 +30844,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -30805,7 +30877,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -30838,7 +30910,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -30871,7 +30943,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -30904,7 +30976,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -30937,7 +31009,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -30970,7 +31042,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -31003,7 +31075,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -31036,7 +31108,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -31069,7 +31141,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -31102,7 +31174,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -31135,7 +31207,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -31168,7 +31240,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -31201,7 +31273,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -31234,7 +31306,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -31267,7 +31339,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -31300,7 +31372,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -31333,7 +31405,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -31366,7 +31438,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -31399,7 +31471,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -31432,7 +31504,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -31465,7 +31537,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -31498,7 +31570,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -31531,7 +31603,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -31564,7 +31636,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -31597,7 +31669,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -31630,7 +31702,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -31663,7 +31735,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -31696,7 +31768,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -31729,7 +31801,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -31762,7 +31834,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -31795,7 +31867,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -31828,7 +31900,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -31861,7 +31933,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -31894,7 +31966,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -31927,7 +31999,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -31960,7 +32032,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -31993,7 +32065,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -32026,7 +32098,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -32059,7 +32131,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -32092,7 +32164,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -32125,7 +32197,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -32158,7 +32230,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -32191,7 +32263,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -32224,7 +32296,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -32257,7 +32329,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -32290,7 +32362,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -32323,7 +32395,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -32356,7 +32428,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -32389,7 +32461,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -32422,7 +32494,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -32455,7 +32527,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -32488,7 +32560,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -32521,7 +32593,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -32554,7 +32626,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -32587,7 +32659,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -32620,7 +32692,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -32653,7 +32725,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -32686,7 +32758,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -32719,7 +32791,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -32752,7 +32824,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -32785,7 +32857,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -32818,7 +32890,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -32851,7 +32923,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -32884,7 +32956,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -32917,7 +32989,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -32950,7 +33022,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -32983,7 +33055,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -33016,7 +33088,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -33049,7 +33121,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -33082,7 +33154,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -33115,7 +33187,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -33148,7 +33220,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -33181,7 +33253,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -33214,7 +33286,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -33247,7 +33319,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -33280,7 +33352,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -33313,7 +33385,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -33346,7 +33418,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -33379,7 +33451,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -33412,7 +33484,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -33445,7 +33517,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -33478,7 +33550,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -33511,7 +33583,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -33544,7 +33616,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -33577,7 +33649,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -33610,7 +33682,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -33643,7 +33715,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -33676,7 +33748,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -33709,7 +33781,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -33742,7 +33814,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -33775,7 +33847,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -33808,7 +33880,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -33841,7 +33913,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -33874,7 +33946,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -33907,7 +33979,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -33940,7 +34012,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -33973,7 +34045,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -34006,7 +34078,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -34039,7 +34111,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -34072,7 +34144,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -34105,7 +34177,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -34138,7 +34210,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -34171,7 +34243,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -34204,7 +34276,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -34237,7 +34309,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -34270,7 +34342,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -34303,7 +34375,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -34336,7 +34408,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -34369,7 +34441,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -34402,7 +34474,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -34435,7 +34507,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -34468,7 +34540,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -34501,7 +34573,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -34534,7 +34606,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -34567,7 +34639,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -34600,7 +34672,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -34633,7 +34705,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -34666,7 +34738,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -34699,7 +34771,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -34732,7 +34804,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -34765,7 +34837,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -34798,7 +34870,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -34831,7 +34903,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -34864,7 +34936,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -34897,7 +34969,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -34930,7 +35002,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -34963,7 +35035,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -34996,7 +35068,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -35029,7 +35101,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -35062,7 +35134,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -35095,7 +35167,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -35128,7 +35200,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -35161,7 +35233,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -35194,7 +35266,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -35227,7 +35299,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -35260,7 +35332,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -35293,7 +35365,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -35326,7 +35398,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -35359,7 +35431,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -35392,7 +35464,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -35425,7 +35497,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -35458,7 +35530,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -35491,7 +35563,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -35524,7 +35596,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -35557,7 +35629,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -35590,7 +35662,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -35623,7 +35695,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -35656,7 +35728,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -35689,7 +35761,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -35722,7 +35794,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -35755,7 +35827,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -35788,7 +35860,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -35821,7 +35893,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -35854,7 +35926,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -35887,7 +35959,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -35920,7 +35992,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -35953,7 +36025,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -35986,7 +36058,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -36019,7 +36091,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -36052,7 +36124,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -36085,7 +36157,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -36118,7 +36190,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -36151,7 +36223,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -36184,7 +36256,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -36217,7 +36289,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -36250,7 +36322,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -36283,7 +36355,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -36316,7 +36388,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -36349,7 +36421,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -36382,7 +36454,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -36415,7 +36487,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -36448,7 +36520,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -36481,7 +36553,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -36514,7 +36586,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -36547,7 +36619,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -36580,7 +36652,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -36613,7 +36685,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -36646,7 +36718,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -36679,7 +36751,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -36712,7 +36784,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -36745,7 +36817,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -36778,7 +36850,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -36811,7 +36883,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -36844,7 +36916,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -36877,7 +36949,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -36910,7 +36982,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -36943,7 +37015,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -36976,7 +37048,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -37009,7 +37081,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -37042,7 +37114,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -37075,7 +37147,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -37108,7 +37180,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -37141,7 +37213,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -37174,7 +37246,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -37207,7 +37279,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -37240,7 +37312,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -37273,7 +37345,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -37306,7 +37378,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -37339,7 +37411,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -37372,7 +37444,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -37405,7 +37477,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -37438,7 +37510,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -37471,7 +37543,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -37504,7 +37576,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -37537,7 +37609,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -37570,7 +37642,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -37603,7 +37675,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -37636,7 +37708,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -37669,7 +37741,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -37702,7 +37774,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -37735,7 +37807,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -37768,7 +37840,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -37801,7 +37873,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -37834,7 +37906,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -37867,7 +37939,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -37900,7 +37972,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -37933,7 +38005,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -37966,7 +38038,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -37999,7 +38071,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -38032,7 +38104,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -38065,7 +38137,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -38098,7 +38170,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -38131,7 +38203,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -38164,7 +38236,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -38197,7 +38269,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -38230,7 +38302,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -38263,7 +38335,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -38296,7 +38368,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -38329,7 +38401,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -38362,7 +38434,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -38395,7 +38467,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -38428,7 +38500,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -38461,7 +38533,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -38494,7 +38566,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -38527,7 +38599,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -38560,7 +38632,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -38593,7 +38665,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -38626,7 +38698,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -38659,7 +38731,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -38692,7 +38764,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -38725,7 +38797,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -38758,7 +38830,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -38791,7 +38863,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -38824,7 +38896,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -38857,7 +38929,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -38890,7 +38962,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -38923,7 +38995,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -38956,7 +39028,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -38989,7 +39061,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -39022,7 +39094,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -39055,7 +39127,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -39088,7 +39160,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -39121,7 +39193,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -39154,7 +39226,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -39187,7 +39259,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -39220,7 +39292,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -39253,7 +39325,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -39286,7 +39358,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -39319,7 +39391,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -39352,7 +39424,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -39385,7 +39457,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -39418,7 +39490,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -39451,7 +39523,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -39484,7 +39556,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -39517,7 +39589,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -39550,7 +39622,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -39583,7 +39655,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -39616,7 +39688,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -39649,7 +39721,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -39682,7 +39754,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -39715,7 +39787,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -39748,7 +39820,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -39781,7 +39853,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -39814,7 +39886,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -39847,7 +39919,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -39880,7 +39952,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -39913,7 +39985,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -39946,7 +40018,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -39979,7 +40051,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -40012,7 +40084,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -40045,7 +40117,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -40078,7 +40150,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -40111,7 +40183,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -40144,7 +40216,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -40177,7 +40249,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -40210,7 +40282,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -40243,7 +40315,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -40276,7 +40348,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -40309,7 +40381,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -40342,7 +40414,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -40375,7 +40447,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -40408,7 +40480,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -40441,7 +40513,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -40474,7 +40546,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -40507,7 +40579,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -40540,7 +40612,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -40573,7 +40645,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -40606,7 +40678,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -40639,7 +40711,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -40672,7 +40744,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -40705,7 +40777,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -40738,7 +40810,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -40771,7 +40843,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -40804,7 +40876,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -40837,7 +40909,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -40870,7 +40942,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -40903,7 +40975,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -40936,7 +41008,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -40969,7 +41041,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -41002,7 +41074,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -41035,7 +41107,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -41068,7 +41140,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -41101,7 +41173,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -41134,7 +41206,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -41167,7 +41239,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -41200,7 +41272,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -41233,7 +41305,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -41266,7 +41338,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -41299,7 +41371,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -41332,7 +41404,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -41365,7 +41437,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -41398,7 +41470,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -41431,7 +41503,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -41464,7 +41536,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -41497,7 +41569,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -41530,7 +41602,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -41563,7 +41635,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -41596,7 +41668,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -41629,7 +41701,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -41662,7 +41734,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -41695,7 +41767,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -41728,7 +41800,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -41761,7 +41833,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -41794,7 +41866,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -41827,7 +41899,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -41860,7 +41932,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -41893,7 +41965,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -41926,7 +41998,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -41959,7 +42031,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -41992,7 +42064,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -42025,7 +42097,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -42058,7 +42130,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -42091,7 +42163,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -42124,7 +42196,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -42157,7 +42229,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -42190,7 +42262,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -42225,37 +42297,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="C886" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -42278,7 +42350,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -42311,7 +42383,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -42344,7 +42416,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -42377,7 +42449,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -42410,7 +42482,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -42443,7 +42515,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -42476,7 +42548,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -42509,7 +42581,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -42542,7 +42614,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -42575,7 +42647,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -42608,7 +42680,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -42641,7 +42713,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -42674,7 +42746,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -42707,7 +42779,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -42740,7 +42812,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -42773,7 +42845,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -42806,7 +42878,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -42839,7 +42911,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -42872,7 +42944,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -42905,7 +42977,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -42938,7 +43010,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -42971,7 +43043,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -43004,7 +43076,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -43037,7 +43109,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -43070,7 +43142,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -43103,7 +43175,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -43136,37 +43208,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -43189,7 +43261,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -43222,7 +43294,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -43255,7 +43327,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -43288,7 +43360,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -43321,7 +43393,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -43354,7 +43426,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -43387,7 +43459,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -43420,7 +43492,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -43453,7 +43525,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -43486,7 +43558,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -43519,7 +43591,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -43552,7 +43624,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -43585,7 +43657,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -43618,7 +43690,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -43651,7 +43723,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -43684,7 +43756,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -43717,7 +43789,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -43750,7 +43822,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -43783,7 +43855,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -43816,7 +43888,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -43849,7 +43921,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -43882,7 +43954,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -43915,7 +43987,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -43948,7 +44020,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -43981,7 +44053,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -44014,7 +44086,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -44047,7 +44119,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -44080,7 +44152,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -44113,7 +44185,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -44146,7 +44218,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -44179,7 +44251,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -44212,7 +44284,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -44245,7 +44317,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -44278,7 +44350,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -44311,7 +44383,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -44344,7 +44416,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -44377,7 +44449,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -44410,7 +44482,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -44443,7 +44515,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -44476,7 +44548,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -44509,7 +44581,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -44542,7 +44614,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -44575,7 +44647,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -44608,7 +44680,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -44641,7 +44713,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1912">
   <si>
     <t>No</t>
   </si>
@@ -4214,12 +4214,48 @@
     <t>LPKR</t>
   </si>
   <si>
+    <t>1227000000000</t>
+  </si>
+  <si>
+    <t>1726000000000</t>
+  </si>
+  <si>
+    <t>654000000000</t>
+  </si>
+  <si>
+    <t>18727000000000</t>
+  </si>
+  <si>
     <t>LPLI</t>
   </si>
   <si>
     <t>LPPF</t>
   </si>
   <si>
+    <t>2020000000000</t>
+  </si>
+  <si>
+    <t>1907000000000</t>
+  </si>
+  <si>
+    <t>1097000000000</t>
+  </si>
+  <si>
+    <t>1367000000000</t>
+  </si>
+  <si>
+    <t>913000000000</t>
+  </si>
+  <si>
+    <t>1383000000000</t>
+  </si>
+  <si>
+    <t>675000000000</t>
+  </si>
+  <si>
+    <t>828000000000</t>
+  </si>
+  <si>
     <t>LPPS</t>
   </si>
   <si>
@@ -4229,9 +4265,33 @@
     <t>LSIP</t>
   </si>
   <si>
+    <t>763000000000</t>
+  </si>
+  <si>
+    <t>695000000000</t>
+  </si>
+  <si>
+    <t>990000000000</t>
+  </si>
+  <si>
+    <t>1035000000000</t>
+  </si>
+  <si>
+    <t>761000000000</t>
+  </si>
+  <si>
+    <t>1476000000000</t>
+  </si>
+  <si>
     <t>LTLS</t>
   </si>
   <si>
+    <t>341000000000</t>
+  </si>
+  <si>
+    <t>217000000000</t>
+  </si>
+  <si>
     <t>LUCK</t>
   </si>
   <si>
@@ -4247,30 +4307,87 @@
     <t>MAHA</t>
   </si>
   <si>
+    <t>312000000000</t>
+  </si>
+  <si>
+    <t>502000000000</t>
+  </si>
+  <si>
+    <t>293000000000</t>
+  </si>
+  <si>
     <t>MAIN</t>
   </si>
   <si>
+    <t>488000000000</t>
+  </si>
+  <si>
     <t>MANG</t>
   </si>
   <si>
     <t>MAPA</t>
   </si>
   <si>
+    <t>1173000000000</t>
+  </si>
+  <si>
+    <t>1384000000000</t>
+  </si>
+  <si>
+    <t>1338000000000</t>
+  </si>
+  <si>
     <t>MAPB</t>
   </si>
   <si>
+    <t>166000000000</t>
+  </si>
+  <si>
     <t>MAPI</t>
   </si>
   <si>
+    <t>208000000000</t>
+  </si>
+  <si>
+    <t>814000000000</t>
+  </si>
+  <si>
+    <t>1164000000000</t>
+  </si>
+  <si>
+    <t>2505000000000</t>
+  </si>
+  <si>
+    <t>2345000000000</t>
+  </si>
+  <si>
+    <t>2147000000000</t>
+  </si>
+  <si>
     <t>MARI</t>
   </si>
   <si>
     <t>MARK</t>
   </si>
   <si>
+    <t>392000000000</t>
+  </si>
+  <si>
+    <t>243000000000</t>
+  </si>
+  <si>
     <t>MASA</t>
   </si>
   <si>
+    <t>515000000000</t>
+  </si>
+  <si>
+    <t>873000000000</t>
+  </si>
+  <si>
+    <t>553000000000</t>
+  </si>
+  <si>
     <t>MASB</t>
   </si>
   <si>
@@ -4280,12 +4397,33 @@
     <t>MAYA</t>
   </si>
   <si>
+    <t>528000000000</t>
+  </si>
+  <si>
     <t>MBAP</t>
   </si>
   <si>
+    <t>361000000000</t>
+  </si>
+  <si>
+    <t>785000000000</t>
+  </si>
+  <si>
+    <t>717000000000</t>
+  </si>
+  <si>
+    <t>1439000000000</t>
+  </si>
+  <si>
+    <t>2669000000000</t>
+  </si>
+  <si>
     <t>MBMA</t>
   </si>
   <si>
+    <t>508000000000</t>
+  </si>
+  <si>
     <t>MBSS</t>
   </si>
   <si>
@@ -4298,18 +4436,72 @@
     <t>MCOL</t>
   </si>
   <si>
+    <t>495000000000</t>
+  </si>
+  <si>
+    <t>621000000000</t>
+  </si>
+  <si>
+    <t>3934000000000</t>
+  </si>
+  <si>
+    <t>5330000000000</t>
+  </si>
+  <si>
+    <t>3583000000000</t>
+  </si>
+  <si>
+    <t>1853000000000</t>
+  </si>
+  <si>
     <t>MCOR</t>
   </si>
   <si>
+    <t>1067000000000</t>
+  </si>
+  <si>
+    <t>1147000000000</t>
+  </si>
+  <si>
+    <t>1241000000000</t>
+  </si>
+  <si>
+    <t>1299000000000</t>
+  </si>
+  <si>
+    <t>1248000000000</t>
+  </si>
+  <si>
+    <t>1323000000000</t>
+  </si>
+  <si>
+    <t>1690000000000</t>
+  </si>
+  <si>
+    <t>2142000000000</t>
+  </si>
+  <si>
     <t>MDIA</t>
   </si>
   <si>
     <t>MDIY</t>
   </si>
   <si>
+    <t>1078000000000</t>
+  </si>
+  <si>
     <t>MDKA</t>
   </si>
   <si>
+    <t>825000000000</t>
+  </si>
+  <si>
+    <t>980000000000</t>
+  </si>
+  <si>
+    <t>421000000000</t>
+  </si>
+  <si>
     <t>MDKI</t>
   </si>
   <si>
@@ -4317,6 +4509,12 @@
   </si>
   <si>
     <t>MDLN</t>
+  </si>
+  <si>
+    <t>501000000000</t>
+  </si>
+  <si>
+    <t>615000000000</t>
   </si>
   <si>
     <t>MDRN</t>
@@ -6602,8 +6800,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="C526" sqref="C526"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="C563" sqref="C563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -32164,15 +32362,33 @@
       <c r="B526" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="C526" s="2"/>
-      <c r="D526" s="2"/>
-      <c r="E526" s="2"/>
-      <c r="F526" s="2"/>
-      <c r="G526" s="2"/>
-      <c r="H526" s="2"/>
-      <c r="I526" s="2"/>
-      <c r="J526" s="2"/>
-      <c r="K526" s="2"/>
+      <c r="C526" s="2">
+        <v>-64000000000</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E526" s="2">
+        <v>33000000000</v>
+      </c>
+      <c r="F526" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="G526" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="H526" s="2">
+        <v>23000000000</v>
+      </c>
+      <c r="I526" s="2">
+        <v>27000000000</v>
+      </c>
+      <c r="J526" s="2">
+        <v>19000000000</v>
+      </c>
+      <c r="K526" s="2">
+        <v>34000000000</v>
+      </c>
       <c r="L526" s="2"/>
       <c r="M526" s="2"/>
       <c r="N526" s="2"/>
@@ -32197,15 +32413,33 @@
       <c r="B527" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="C527" s="2"/>
-      <c r="D527" s="2"/>
-      <c r="E527" s="2"/>
-      <c r="F527" s="2"/>
-      <c r="G527" s="2"/>
-      <c r="H527" s="2"/>
-      <c r="I527" s="2"/>
-      <c r="J527" s="2"/>
-      <c r="K527" s="2"/>
+      <c r="C527" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D527" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F527" s="2">
+        <v>-2061000000000</v>
+      </c>
+      <c r="G527" s="2">
+        <v>-9637000000000</v>
+      </c>
+      <c r="H527" s="2">
+        <v>-1623000000000</v>
+      </c>
+      <c r="I527" s="2">
+        <v>-2327000000000</v>
+      </c>
+      <c r="J527" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K527" s="5" t="s">
+        <v>1398</v>
+      </c>
       <c r="L527" s="2"/>
       <c r="M527" s="2"/>
       <c r="N527" s="2"/>
@@ -32228,17 +32462,35 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C528" s="2"/>
-      <c r="D528" s="2"/>
-      <c r="E528" s="2"/>
-      <c r="F528" s="2"/>
-      <c r="G528" s="2"/>
-      <c r="H528" s="2"/>
-      <c r="I528" s="2"/>
-      <c r="J528" s="2"/>
-      <c r="K528" s="2"/>
+        <v>1399</v>
+      </c>
+      <c r="C528" s="2">
+        <v>-213000000000</v>
+      </c>
+      <c r="D528" s="2">
+        <v>-345000000000</v>
+      </c>
+      <c r="E528" s="2">
+        <v>-62000000000</v>
+      </c>
+      <c r="F528" s="2">
+        <v>-19000000000</v>
+      </c>
+      <c r="G528" s="2">
+        <v>-21000000000</v>
+      </c>
+      <c r="H528" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I528" s="2">
+        <v>39000000000</v>
+      </c>
+      <c r="J528" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="K528" s="2">
+        <v>41000000000</v>
+      </c>
       <c r="L528" s="2"/>
       <c r="M528" s="2"/>
       <c r="N528" s="2"/>
@@ -32261,17 +32513,35 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C529" s="2"/>
-      <c r="D529" s="2"/>
-      <c r="E529" s="2"/>
-      <c r="F529" s="2"/>
-      <c r="G529" s="2"/>
-      <c r="H529" s="2"/>
-      <c r="I529" s="2"/>
-      <c r="J529" s="2"/>
-      <c r="K529" s="2"/>
+        <v>1400</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E529" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G529" s="2">
+        <v>-873000000000</v>
+      </c>
+      <c r="H529" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I529" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J529" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K529" s="5" t="s">
+        <v>1408</v>
+      </c>
       <c r="L529" s="2"/>
       <c r="M529" s="2"/>
       <c r="N529" s="2"/>
@@ -32294,17 +32564,35 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C530" s="2"/>
-      <c r="D530" s="2"/>
-      <c r="E530" s="2"/>
-      <c r="F530" s="2"/>
-      <c r="G530" s="2"/>
-      <c r="H530" s="2"/>
-      <c r="I530" s="2"/>
-      <c r="J530" s="2"/>
-      <c r="K530" s="2"/>
+        <v>1409</v>
+      </c>
+      <c r="C530" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="D530" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="E530" s="2">
+        <v>37000000000</v>
+      </c>
+      <c r="F530" s="2">
+        <v>-41000000000</v>
+      </c>
+      <c r="G530" s="2">
+        <v>16000000000</v>
+      </c>
+      <c r="H530" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="I530" s="2">
+        <v>-270000000000</v>
+      </c>
+      <c r="J530" s="2">
+        <v>23000000000</v>
+      </c>
+      <c r="K530" s="2">
+        <v>-36000000000</v>
+      </c>
       <c r="L530" s="2"/>
       <c r="M530" s="2"/>
       <c r="N530" s="2"/>
@@ -32327,17 +32615,35 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C531" s="2"/>
-      <c r="D531" s="2"/>
-      <c r="E531" s="2"/>
-      <c r="F531" s="2"/>
-      <c r="G531" s="2"/>
-      <c r="H531" s="2"/>
-      <c r="I531" s="2"/>
-      <c r="J531" s="2"/>
-      <c r="K531" s="2"/>
+        <v>1410</v>
+      </c>
+      <c r="C531" s="2">
+        <v>-28000000000</v>
+      </c>
+      <c r="D531" s="2">
+        <v>-38000000000</v>
+      </c>
+      <c r="E531" s="2">
+        <v>-30000000000</v>
+      </c>
+      <c r="F531" s="2">
+        <v>-7000000000</v>
+      </c>
+      <c r="G531" s="2">
+        <v>-43000000000</v>
+      </c>
+      <c r="H531" s="2">
+        <v>-26000000000</v>
+      </c>
+      <c r="I531" s="2">
+        <v>-21000000000</v>
+      </c>
+      <c r="J531" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="K531" s="2">
+        <v>-17000000000</v>
+      </c>
       <c r="L531" s="2"/>
       <c r="M531" s="2"/>
       <c r="N531" s="2"/>
@@ -32360,17 +32666,35 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C532" s="2"/>
-      <c r="D532" s="2"/>
-      <c r="E532" s="2"/>
-      <c r="F532" s="2"/>
-      <c r="G532" s="2"/>
-      <c r="H532" s="2"/>
-      <c r="I532" s="2"/>
-      <c r="J532" s="2"/>
-      <c r="K532" s="2"/>
+        <v>1411</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D532" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H532" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I532" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="J532" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K532" s="5" t="s">
+        <v>1417</v>
+      </c>
       <c r="L532" s="2"/>
       <c r="M532" s="2"/>
       <c r="N532" s="2"/>
@@ -32393,17 +32717,35 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C533" s="2"/>
-      <c r="D533" s="2"/>
-      <c r="E533" s="2"/>
-      <c r="F533" s="2"/>
-      <c r="G533" s="2"/>
-      <c r="H533" s="2"/>
-      <c r="I533" s="2"/>
-      <c r="J533" s="2"/>
-      <c r="K533" s="2"/>
+        <v>1418</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D533" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E533" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G533" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H533" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="I533" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J533" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="K533" s="5" t="s">
+        <v>1420</v>
+      </c>
       <c r="L533" s="2"/>
       <c r="M533" s="2"/>
       <c r="N533" s="2"/>
@@ -32426,17 +32768,33 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1401</v>
+        <v>1421</v>
       </c>
       <c r="C534" s="2"/>
-      <c r="D534" s="2"/>
-      <c r="E534" s="2"/>
-      <c r="F534" s="2"/>
-      <c r="G534" s="2"/>
-      <c r="H534" s="2"/>
-      <c r="I534" s="2"/>
-      <c r="J534" s="2"/>
-      <c r="K534" s="2"/>
+      <c r="D534">
+        <v>10000000000</v>
+      </c>
+      <c r="E534">
+        <v>2000000000</v>
+      </c>
+      <c r="F534">
+        <v>7000000000</v>
+      </c>
+      <c r="G534">
+        <v>-3000000000</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+      <c r="I534">
+        <v>1000000000</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>-6000000000</v>
+      </c>
       <c r="L534" s="2"/>
       <c r="M534" s="2"/>
       <c r="N534" s="2"/>
@@ -32459,17 +32817,29 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1402</v>
+        <v>1422</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
-      <c r="F535" s="2"/>
-      <c r="G535" s="2"/>
-      <c r="H535" s="2"/>
-      <c r="I535" s="2"/>
-      <c r="J535" s="2"/>
-      <c r="K535" s="2"/>
+      <c r="F535" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="G535" s="2">
+        <v>0</v>
+      </c>
+      <c r="H535" s="2">
+        <v>0</v>
+      </c>
+      <c r="I535" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="J535" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K535" s="2">
+        <v>-14000000000</v>
+      </c>
       <c r="L535" s="2"/>
       <c r="M535" s="2"/>
       <c r="N535" s="2"/>
@@ -32492,12 +32862,20 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C536" s="2"/>
-      <c r="D536" s="2"/>
-      <c r="E536" s="2"/>
-      <c r="F536" s="2"/>
+        <v>1423</v>
+      </c>
+      <c r="C536" s="2">
+        <v>-34000000000</v>
+      </c>
+      <c r="D536" s="2">
+        <v>-70000000000</v>
+      </c>
+      <c r="E536" s="2">
+        <v>-206000000000</v>
+      </c>
+      <c r="F536" s="2">
+        <v>-266000000000</v>
+      </c>
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
@@ -32525,14 +32903,26 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C537" s="2"/>
-      <c r="D537" s="2"/>
-      <c r="E537" s="2"/>
-      <c r="F537" s="2"/>
-      <c r="G537" s="2"/>
-      <c r="H537" s="2"/>
+        <v>1424</v>
+      </c>
+      <c r="C537" s="2">
+        <v>-44000000000</v>
+      </c>
+      <c r="D537" s="2">
+        <v>-171000000000</v>
+      </c>
+      <c r="E537" s="2">
+        <v>-44000000000</v>
+      </c>
+      <c r="F537" s="2">
+        <v>-136000000000</v>
+      </c>
+      <c r="G537" s="2">
+        <v>-213000000000</v>
+      </c>
+      <c r="H537" s="2">
+        <v>-74000000000</v>
+      </c>
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -32558,17 +32948,27 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1405</v>
+        <v>1425</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
-      <c r="G538" s="2"/>
-      <c r="H538" s="2"/>
-      <c r="I538" s="2"/>
-      <c r="J538" s="2"/>
-      <c r="K538" s="2"/>
+      <c r="G538" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H538" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I538" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J538" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K538" s="5" t="s">
+        <v>1428</v>
+      </c>
       <c r="L538" s="2"/>
       <c r="M538" s="2"/>
       <c r="N538" s="2"/>
@@ -32591,17 +32991,35 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C539" s="2"/>
-      <c r="D539" s="2"/>
-      <c r="E539" s="2"/>
-      <c r="F539" s="2"/>
-      <c r="G539" s="2"/>
-      <c r="H539" s="2"/>
-      <c r="I539" s="2"/>
-      <c r="J539" s="2"/>
-      <c r="K539" s="2"/>
+        <v>1429</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D539" s="2">
+        <v>49000000000</v>
+      </c>
+      <c r="E539" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G539" s="2">
+        <v>-39000000000</v>
+      </c>
+      <c r="H539" s="2">
+        <v>60000000000</v>
+      </c>
+      <c r="I539" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="J539" s="2">
+        <v>63000000000</v>
+      </c>
+      <c r="K539" s="5" t="s">
+        <v>1430</v>
+      </c>
       <c r="L539" s="2"/>
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
@@ -32624,17 +33042,25 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1407</v>
+        <v>1431</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
-      <c r="H540" s="2"/>
-      <c r="I540" s="2"/>
-      <c r="J540" s="2"/>
-      <c r="K540" s="2"/>
+      <c r="H540" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="I540" s="2">
+        <v>-11000000000</v>
+      </c>
+      <c r="J540" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K540" s="2">
+        <v>1000000000</v>
+      </c>
       <c r="L540" s="2"/>
       <c r="M540" s="2"/>
       <c r="N540" s="2"/>
@@ -32657,17 +33083,33 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1408</v>
+        <v>1432</v>
       </c>
       <c r="C541" s="2"/>
-      <c r="D541" s="2"/>
-      <c r="E541" s="2"/>
-      <c r="F541" s="2"/>
-      <c r="G541" s="2"/>
-      <c r="H541" s="2"/>
-      <c r="I541" s="2"/>
-      <c r="J541" s="2"/>
-      <c r="K541" s="2"/>
+      <c r="D541" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E541" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G541" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="H541" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="I541" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J541" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K541" s="5" t="s">
+        <v>1435</v>
+      </c>
       <c r="L541" s="2"/>
       <c r="M541" s="2"/>
       <c r="N541" s="2"/>
@@ -32690,17 +33132,35 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C542" s="2"/>
-      <c r="D542" s="2"/>
-      <c r="E542" s="2"/>
-      <c r="F542" s="2"/>
-      <c r="G542" s="2"/>
-      <c r="H542" s="2"/>
-      <c r="I542" s="2"/>
-      <c r="J542" s="2"/>
-      <c r="K542" s="2"/>
+        <v>1436</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D542" s="2">
+        <v>94000000000</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G542" s="2">
+        <v>-165000000000</v>
+      </c>
+      <c r="H542" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="I542" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="J542" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K542" s="2">
+        <v>-146000000000</v>
+      </c>
       <c r="L542" s="2"/>
       <c r="M542" s="2"/>
       <c r="N542" s="2"/>
@@ -32723,17 +33183,35 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C543" s="2"/>
-      <c r="D543" s="2"/>
-      <c r="E543" s="2"/>
-      <c r="F543" s="2"/>
-      <c r="G543" s="2"/>
-      <c r="H543" s="2"/>
-      <c r="I543" s="2"/>
-      <c r="J543" s="2"/>
-      <c r="K543" s="2"/>
+        <v>1438</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D543" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E543" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G543" s="2">
+        <v>-585000000000</v>
+      </c>
+      <c r="H543" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I543" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J543" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K543" s="5" t="s">
+        <v>1444</v>
+      </c>
       <c r="L543" s="2"/>
       <c r="M543" s="2"/>
       <c r="N543" s="2"/>
@@ -32756,17 +33234,35 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C544" s="2"/>
-      <c r="D544" s="2"/>
-      <c r="E544" s="2"/>
-      <c r="F544" s="2"/>
-      <c r="G544" s="2"/>
-      <c r="H544" s="2"/>
-      <c r="I544" s="2"/>
-      <c r="J544" s="2"/>
-      <c r="K544" s="2"/>
+        <v>1445</v>
+      </c>
+      <c r="C544" s="2">
+        <v>43000000000</v>
+      </c>
+      <c r="D544" s="2">
+        <v>33000000000</v>
+      </c>
+      <c r="E544" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="F544" s="2">
+        <v>32000000000</v>
+      </c>
+      <c r="G544" s="2">
+        <v>-50000000000</v>
+      </c>
+      <c r="H544" s="2">
+        <v>-27000000000</v>
+      </c>
+      <c r="I544" s="2">
+        <v>-100000000000</v>
+      </c>
+      <c r="J544" s="2">
+        <v>-103000000000</v>
+      </c>
+      <c r="K544" s="2">
+        <v>-66000000000</v>
+      </c>
       <c r="L544" s="2"/>
       <c r="M544" s="2"/>
       <c r="N544" s="2"/>
@@ -32789,17 +33285,35 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C545" s="2"/>
-      <c r="D545" s="2"/>
-      <c r="E545" s="2"/>
-      <c r="F545" s="2"/>
-      <c r="G545" s="2"/>
-      <c r="H545" s="2"/>
-      <c r="I545" s="2"/>
-      <c r="J545" s="2"/>
-      <c r="K545" s="2"/>
+        <v>1446</v>
+      </c>
+      <c r="C545" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="D545" s="2">
+        <v>47000000000</v>
+      </c>
+      <c r="E545" s="2">
+        <v>82000000000</v>
+      </c>
+      <c r="F545" s="2">
+        <v>88000000000</v>
+      </c>
+      <c r="G545" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H545" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I545" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J545" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="K545" s="5" t="s">
+        <v>1372</v>
+      </c>
       <c r="L545" s="2"/>
       <c r="M545" s="2"/>
       <c r="N545" s="2"/>
@@ -32822,17 +33336,35 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C546" s="2"/>
-      <c r="D546" s="2"/>
-      <c r="E546" s="2"/>
-      <c r="F546" s="2"/>
-      <c r="G546" s="2"/>
-      <c r="H546" s="2"/>
-      <c r="I546" s="2"/>
-      <c r="J546" s="2"/>
-      <c r="K546" s="2"/>
+        <v>1449</v>
+      </c>
+      <c r="C546" s="2">
+        <v>-89000000000</v>
+      </c>
+      <c r="D546" s="2">
+        <v>-108000000000</v>
+      </c>
+      <c r="E546" s="2">
+        <v>-255000000000</v>
+      </c>
+      <c r="F546" s="2">
+        <v>-158000000000</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H546" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I546" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="J546" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K546" s="5" t="s">
+        <v>1452</v>
+      </c>
       <c r="L546" s="2"/>
       <c r="M546" s="2"/>
       <c r="N546" s="2"/>
@@ -32855,17 +33387,27 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1414</v>
+        <v>1453</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
-      <c r="G547" s="2"/>
-      <c r="H547" s="2"/>
-      <c r="I547" s="2"/>
-      <c r="J547" s="2"/>
-      <c r="K547" s="2"/>
+      <c r="G547" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H547" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="I547" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="J547" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K547" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="L547" s="2"/>
       <c r="M547" s="2"/>
       <c r="N547" s="2"/>
@@ -32888,17 +33430,29 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1415</v>
+        <v>1454</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
-      <c r="F548" s="2"/>
-      <c r="G548" s="2"/>
-      <c r="H548" s="2"/>
-      <c r="I548" s="2"/>
-      <c r="J548" s="2"/>
-      <c r="K548" s="2"/>
+      <c r="F548" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="G548" s="2">
+        <v>8000000000</v>
+      </c>
+      <c r="H548" s="2">
+        <v>11000000000</v>
+      </c>
+      <c r="I548" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J548" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="K548" s="2">
+        <v>-3000000000</v>
+      </c>
       <c r="L548" s="2"/>
       <c r="M548" s="2"/>
       <c r="N548" s="2"/>
@@ -32921,17 +33475,35 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C549" s="2"/>
-      <c r="D549" s="2"/>
-      <c r="E549" s="2"/>
-      <c r="F549" s="2"/>
-      <c r="G549" s="2"/>
-      <c r="H549" s="2"/>
-      <c r="I549" s="2"/>
-      <c r="J549" s="2"/>
-      <c r="K549" s="2"/>
+        <v>1455</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D549" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E549" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G549" s="2">
+        <v>64000000000</v>
+      </c>
+      <c r="H549" s="2">
+        <v>44000000000</v>
+      </c>
+      <c r="I549" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="J549" s="2">
+        <v>22000000000</v>
+      </c>
+      <c r="K549" s="2">
+        <v>26000000000</v>
+      </c>
       <c r="L549" s="2"/>
       <c r="M549" s="2"/>
       <c r="N549" s="2"/>
@@ -32954,17 +33526,35 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C550" s="2"/>
-      <c r="D550" s="2"/>
-      <c r="E550" s="2"/>
-      <c r="F550" s="2"/>
-      <c r="G550" s="2"/>
-      <c r="H550" s="2"/>
-      <c r="I550" s="2"/>
-      <c r="J550" s="2"/>
-      <c r="K550" s="2"/>
+        <v>1457</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D550" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G550" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H550" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I550" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J550" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K550" s="5" t="s">
+        <v>1391</v>
+      </c>
       <c r="L550" s="2"/>
       <c r="M550" s="2"/>
       <c r="N550" s="2"/>
@@ -32987,7 +33577,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1418</v>
+        <v>1463</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -32995,9 +33585,15 @@
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
-      <c r="I551" s="2"/>
-      <c r="J551" s="2"/>
-      <c r="K551" s="2"/>
+      <c r="I551" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J551" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K551" s="5" t="s">
+        <v>1319</v>
+      </c>
       <c r="L551" s="2"/>
       <c r="M551" s="2"/>
       <c r="N551" s="2"/>
@@ -33020,17 +33616,35 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C552" s="2"/>
-      <c r="D552" s="2"/>
-      <c r="E552" s="2"/>
-      <c r="F552" s="2"/>
-      <c r="G552" s="2"/>
-      <c r="H552" s="2"/>
-      <c r="I552" s="2"/>
-      <c r="J552" s="2"/>
-      <c r="K552" s="2"/>
+        <v>1465</v>
+      </c>
+      <c r="C552" s="2">
+        <v>-396000000000</v>
+      </c>
+      <c r="D552" s="2">
+        <v>-119000000000</v>
+      </c>
+      <c r="E552" s="2">
+        <v>-239000000000</v>
+      </c>
+      <c r="F552" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="G552" s="2">
+        <v>-218000000000</v>
+      </c>
+      <c r="H552" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I552" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="J552" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="K552" s="5" t="s">
+        <v>583</v>
+      </c>
       <c r="L552" s="2"/>
       <c r="M552" s="2"/>
       <c r="N552" s="2"/>
@@ -33053,17 +33667,35 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C553" s="2"/>
-      <c r="D553" s="2"/>
-      <c r="E553" s="2"/>
-      <c r="F553" s="2"/>
-      <c r="G553" s="2"/>
-      <c r="H553" s="2"/>
-      <c r="I553" s="2"/>
-      <c r="J553" s="2"/>
-      <c r="K553" s="2"/>
+        <v>1466</v>
+      </c>
+      <c r="C553" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="D553" s="2">
+        <v>-25000000000</v>
+      </c>
+      <c r="E553" s="2">
+        <v>-114000000000</v>
+      </c>
+      <c r="F553" s="2">
+        <v>-67000000000</v>
+      </c>
+      <c r="G553" s="2">
+        <v>-203000000000</v>
+      </c>
+      <c r="H553" s="2">
+        <v>-149000000000</v>
+      </c>
+      <c r="I553" s="2">
+        <v>-42000000000</v>
+      </c>
+      <c r="J553" s="2">
+        <v>-32000000000</v>
+      </c>
+      <c r="K553" s="2">
+        <v>-4000000000</v>
+      </c>
       <c r="L553" s="2"/>
       <c r="M553" s="2"/>
       <c r="N553" s="2"/>
@@ -33086,17 +33718,35 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C554" s="2"/>
-      <c r="D554" s="2"/>
-      <c r="E554" s="2"/>
-      <c r="F554" s="2"/>
-      <c r="G554" s="2"/>
-      <c r="H554" s="2"/>
-      <c r="I554" s="2"/>
-      <c r="J554" s="2"/>
-      <c r="K554" s="2"/>
+        <v>1467</v>
+      </c>
+      <c r="C554" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="D554" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G554" s="2">
+        <v>72000000000</v>
+      </c>
+      <c r="H554" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I554" s="2">
+        <v>41000000000</v>
+      </c>
+      <c r="J554" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="K554" s="2">
+        <v>-35000000000</v>
+      </c>
       <c r="L554" s="2"/>
       <c r="M554" s="2"/>
       <c r="N554" s="2"/>
@@ -33119,17 +33769,31 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1422</v>
+        <v>1468</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
-      <c r="E555" s="2"/>
-      <c r="F555" s="2"/>
-      <c r="G555" s="2"/>
-      <c r="H555" s="2"/>
-      <c r="I555" s="2"/>
-      <c r="J555" s="2"/>
-      <c r="K555" s="2"/>
+      <c r="E555" s="2">
+        <v>95000000000</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G555" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H555" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I555" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J555" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K555" s="5" t="s">
+        <v>1474</v>
+      </c>
       <c r="L555" s="2"/>
       <c r="M555" s="2"/>
       <c r="N555" s="2"/>
@@ -33152,17 +33816,35 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C556" s="2"/>
-      <c r="D556" s="2"/>
-      <c r="E556" s="2"/>
-      <c r="F556" s="2"/>
-      <c r="G556" s="2"/>
-      <c r="H556" s="2"/>
-      <c r="I556" s="2"/>
-      <c r="J556" s="2"/>
-      <c r="K556" s="2"/>
+        <v>1475</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D556" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G556" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="H556" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I556" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J556" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K556" s="5" t="s">
+        <v>1483</v>
+      </c>
       <c r="L556" s="2"/>
       <c r="M556" s="2"/>
       <c r="N556" s="2"/>
@@ -33185,17 +33867,35 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C557" s="2"/>
-      <c r="D557" s="2"/>
-      <c r="E557" s="2"/>
-      <c r="F557" s="2"/>
-      <c r="G557" s="2"/>
-      <c r="H557" s="2"/>
-      <c r="I557" s="2"/>
-      <c r="J557" s="2"/>
-      <c r="K557" s="2"/>
+        <v>1484</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D557" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E557" s="2">
+        <v>-137000000000</v>
+      </c>
+      <c r="F557" s="2">
+        <v>69000000000</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H557" s="2">
+        <v>81000000000</v>
+      </c>
+      <c r="I557" s="2">
+        <v>31000000000</v>
+      </c>
+      <c r="J557" s="2">
+        <v>-960000000000</v>
+      </c>
+      <c r="K557" s="2">
+        <v>-943000000000</v>
+      </c>
       <c r="L557" s="2"/>
       <c r="M557" s="2"/>
       <c r="N557" s="2"/>
@@ -33218,17 +33918,25 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1425</v>
+        <v>1485</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
-      <c r="H558" s="2"/>
-      <c r="I558" s="2"/>
-      <c r="J558" s="2"/>
-      <c r="K558" s="2"/>
+      <c r="H558" s="2">
+        <v>-80000000000</v>
+      </c>
+      <c r="I558" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="J558" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="K558" s="5" t="s">
+        <v>1486</v>
+      </c>
       <c r="L558" s="2"/>
       <c r="M558" s="2"/>
       <c r="N558" s="2"/>
@@ -33251,17 +33959,35 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C559" s="2"/>
-      <c r="D559" s="2"/>
-      <c r="E559" s="2"/>
-      <c r="F559" s="2"/>
-      <c r="G559" s="2"/>
-      <c r="H559" s="2"/>
-      <c r="I559" s="2"/>
-      <c r="J559" s="2"/>
-      <c r="K559" s="2"/>
+        <v>1487</v>
+      </c>
+      <c r="C559" s="2">
+        <v>-37000000000</v>
+      </c>
+      <c r="D559" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="E559" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H559" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I559" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J559" s="2">
+        <v>86000000000</v>
+      </c>
+      <c r="K559" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="L559" s="2"/>
       <c r="M559" s="2"/>
       <c r="N559" s="2"/>
@@ -33284,17 +34010,35 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C560" s="2"/>
-      <c r="D560" s="2"/>
-      <c r="E560" s="2"/>
-      <c r="F560" s="2"/>
-      <c r="G560" s="2"/>
-      <c r="H560" s="2"/>
-      <c r="I560" s="2"/>
-      <c r="J560" s="2"/>
-      <c r="K560" s="2"/>
+        <v>1491</v>
+      </c>
+      <c r="C560" s="2">
+        <v>87000000000</v>
+      </c>
+      <c r="D560" s="2">
+        <v>47000000000</v>
+      </c>
+      <c r="E560" s="2">
+        <v>34000000000</v>
+      </c>
+      <c r="F560" s="2">
+        <v>33000000000</v>
+      </c>
+      <c r="G560" s="2">
+        <v>40000000000</v>
+      </c>
+      <c r="H560" s="2">
+        <v>39000000000</v>
+      </c>
+      <c r="I560" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="J560" s="2">
+        <v>48000000000</v>
+      </c>
+      <c r="K560" s="2">
+        <v>29000000000</v>
+      </c>
       <c r="L560" s="2"/>
       <c r="M560" s="2"/>
       <c r="N560" s="2"/>
@@ -33317,7 +34061,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1428</v>
+        <v>1492</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -33325,9 +34069,15 @@
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
       <c r="H561" s="2"/>
-      <c r="I561" s="2"/>
-      <c r="J561" s="2"/>
-      <c r="K561" s="2"/>
+      <c r="I561" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="J561" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K561" s="5" t="s">
+        <v>1391</v>
+      </c>
       <c r="L561" s="2"/>
       <c r="M561" s="2"/>
       <c r="N561" s="2"/>
@@ -33350,17 +34100,35 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C562" s="2"/>
-      <c r="D562" s="2"/>
-      <c r="E562" s="2"/>
-      <c r="F562" s="2"/>
-      <c r="G562" s="2"/>
-      <c r="H562" s="2"/>
-      <c r="I562" s="2"/>
-      <c r="J562" s="2"/>
-      <c r="K562" s="2"/>
+        <v>1493</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D562" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E562" s="2">
+        <v>25000000000</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G562" s="2">
+        <v>-1764000000000</v>
+      </c>
+      <c r="H562" s="2">
+        <v>-42000000000</v>
+      </c>
+      <c r="I562" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="J562" s="2">
+        <v>-105000000000</v>
+      </c>
+      <c r="K562" s="2">
+        <v>-691000000000</v>
+      </c>
       <c r="L562" s="2"/>
       <c r="M562" s="2"/>
       <c r="N562" s="2"/>
@@ -33383,7 +34151,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1430</v>
+        <v>1496</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -33416,7 +34184,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1431</v>
+        <v>1497</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -33449,7 +34217,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1432</v>
+        <v>1498</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -33482,7 +34250,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1433</v>
+        <v>1499</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -33515,7 +34283,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1434</v>
+        <v>1500</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -33548,7 +34316,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1435</v>
+        <v>1501</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -33581,7 +34349,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1436</v>
+        <v>1502</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -33614,7 +34382,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1437</v>
+        <v>1503</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -33647,7 +34415,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1438</v>
+        <v>1504</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -33680,7 +34448,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1439</v>
+        <v>1505</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -33713,7 +34481,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1440</v>
+        <v>1506</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -33746,7 +34514,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1441</v>
+        <v>1507</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -33779,7 +34547,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1442</v>
+        <v>1508</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -33812,7 +34580,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1443</v>
+        <v>1509</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -33845,7 +34613,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1444</v>
+        <v>1510</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -33878,7 +34646,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1445</v>
+        <v>1511</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -33911,7 +34679,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1446</v>
+        <v>1512</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -33944,7 +34712,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1447</v>
+        <v>1513</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -33977,7 +34745,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1448</v>
+        <v>1514</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -34010,7 +34778,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1449</v>
+        <v>1515</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -34043,7 +34811,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1450</v>
+        <v>1516</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -34076,7 +34844,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1451</v>
+        <v>1517</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -34109,7 +34877,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1452</v>
+        <v>1518</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -34142,7 +34910,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1453</v>
+        <v>1519</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -34175,7 +34943,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1454</v>
+        <v>1520</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -34208,7 +34976,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1455</v>
+        <v>1521</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -34241,7 +35009,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1456</v>
+        <v>1522</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -34274,7 +35042,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1457</v>
+        <v>1523</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -34307,7 +35075,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1458</v>
+        <v>1524</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -34340,7 +35108,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1459</v>
+        <v>1525</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -34373,7 +35141,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1460</v>
+        <v>1526</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -34406,7 +35174,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1461</v>
+        <v>1527</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -34439,7 +35207,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1462</v>
+        <v>1528</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -34472,7 +35240,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1463</v>
+        <v>1529</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -34505,7 +35273,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1464</v>
+        <v>1530</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -34538,7 +35306,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1465</v>
+        <v>1531</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -34571,7 +35339,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1466</v>
+        <v>1532</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -34604,7 +35372,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1467</v>
+        <v>1533</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -34637,7 +35405,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1468</v>
+        <v>1534</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -34670,7 +35438,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1469</v>
+        <v>1535</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -34703,7 +35471,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1470</v>
+        <v>1536</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -34736,7 +35504,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1471</v>
+        <v>1537</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -34769,7 +35537,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1472</v>
+        <v>1538</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -34802,7 +35570,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1473</v>
+        <v>1539</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -34835,7 +35603,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1474</v>
+        <v>1540</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -34868,7 +35636,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1475</v>
+        <v>1541</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -34901,7 +35669,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1476</v>
+        <v>1542</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -34934,7 +35702,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1477</v>
+        <v>1543</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -34967,7 +35735,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1478</v>
+        <v>1544</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -35000,7 +35768,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1479</v>
+        <v>1545</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -35033,7 +35801,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1480</v>
+        <v>1546</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -35066,7 +35834,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1481</v>
+        <v>1547</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -35099,7 +35867,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1482</v>
+        <v>1548</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -35132,7 +35900,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1483</v>
+        <v>1549</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -35165,7 +35933,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1484</v>
+        <v>1550</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -35198,7 +35966,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1485</v>
+        <v>1551</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -35231,7 +35999,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1486</v>
+        <v>1552</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -35264,7 +36032,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1487</v>
+        <v>1553</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -35297,7 +36065,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1488</v>
+        <v>1554</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -35330,7 +36098,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1489</v>
+        <v>1555</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -35363,7 +36131,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1490</v>
+        <v>1556</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -35396,7 +36164,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1491</v>
+        <v>1557</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -35429,7 +36197,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1492</v>
+        <v>1558</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -35462,7 +36230,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1493</v>
+        <v>1559</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -35495,7 +36263,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1494</v>
+        <v>1560</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -35528,7 +36296,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1495</v>
+        <v>1561</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -35561,7 +36329,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1496</v>
+        <v>1562</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -35594,7 +36362,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1497</v>
+        <v>1563</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -35627,7 +36395,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1498</v>
+        <v>1564</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -35660,7 +36428,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1499</v>
+        <v>1565</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -35693,7 +36461,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1500</v>
+        <v>1566</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -35726,7 +36494,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1501</v>
+        <v>1567</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -35759,7 +36527,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1502</v>
+        <v>1568</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -35792,7 +36560,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1503</v>
+        <v>1569</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -35825,7 +36593,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1504</v>
+        <v>1570</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -35858,7 +36626,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1505</v>
+        <v>1571</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -35891,7 +36659,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1506</v>
+        <v>1572</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -35924,7 +36692,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1507</v>
+        <v>1573</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -35957,7 +36725,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1508</v>
+        <v>1574</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -35990,7 +36758,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1509</v>
+        <v>1575</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -36023,7 +36791,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1510</v>
+        <v>1576</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -36056,7 +36824,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1511</v>
+        <v>1577</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -36089,7 +36857,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1512</v>
+        <v>1578</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -36122,7 +36890,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1513</v>
+        <v>1579</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -36155,7 +36923,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1514</v>
+        <v>1580</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -36188,7 +36956,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1515</v>
+        <v>1581</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -36221,7 +36989,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1516</v>
+        <v>1582</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -36254,7 +37022,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1517</v>
+        <v>1583</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -36287,7 +37055,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1518</v>
+        <v>1584</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -36320,7 +37088,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1519</v>
+        <v>1585</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -36353,7 +37121,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1520</v>
+        <v>1586</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -36386,7 +37154,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1521</v>
+        <v>1587</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -36419,7 +37187,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1522</v>
+        <v>1588</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -36452,7 +37220,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1523</v>
+        <v>1589</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -36485,7 +37253,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1524</v>
+        <v>1590</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -36518,7 +37286,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1525</v>
+        <v>1591</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -36551,7 +37319,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1526</v>
+        <v>1592</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -36584,7 +37352,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1527</v>
+        <v>1593</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -36617,7 +37385,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1528</v>
+        <v>1594</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -36650,7 +37418,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1529</v>
+        <v>1595</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -36683,7 +37451,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1530</v>
+        <v>1596</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -36716,7 +37484,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1531</v>
+        <v>1597</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -36749,7 +37517,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1532</v>
+        <v>1598</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -36782,7 +37550,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1533</v>
+        <v>1599</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -36815,7 +37583,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1534</v>
+        <v>1600</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -36848,7 +37616,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1535</v>
+        <v>1601</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -36881,7 +37649,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1536</v>
+        <v>1602</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -36914,7 +37682,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1537</v>
+        <v>1603</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -36947,7 +37715,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1538</v>
+        <v>1604</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -36980,7 +37748,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1539</v>
+        <v>1605</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -37013,7 +37781,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1540</v>
+        <v>1606</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -37046,7 +37814,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1541</v>
+        <v>1607</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -37079,7 +37847,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1542</v>
+        <v>1608</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -37112,7 +37880,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1543</v>
+        <v>1609</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -37145,7 +37913,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1544</v>
+        <v>1610</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -37178,7 +37946,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1545</v>
+        <v>1611</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -37211,7 +37979,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1546</v>
+        <v>1612</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -37244,7 +38012,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1547</v>
+        <v>1613</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -37277,7 +38045,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1548</v>
+        <v>1614</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -37310,7 +38078,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1549</v>
+        <v>1615</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -37343,7 +38111,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1550</v>
+        <v>1616</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -37376,7 +38144,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1551</v>
+        <v>1617</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -37409,7 +38177,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1552</v>
+        <v>1618</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -37442,7 +38210,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1553</v>
+        <v>1619</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -37475,7 +38243,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1554</v>
+        <v>1620</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -37508,7 +38276,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1555</v>
+        <v>1621</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -37541,7 +38309,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1556</v>
+        <v>1622</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -37574,7 +38342,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1557</v>
+        <v>1623</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -37607,7 +38375,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1558</v>
+        <v>1624</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -37640,7 +38408,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1559</v>
+        <v>1625</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -37673,7 +38441,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1560</v>
+        <v>1626</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -37706,7 +38474,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1561</v>
+        <v>1627</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -37739,7 +38507,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1562</v>
+        <v>1628</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -37772,7 +38540,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1563</v>
+        <v>1629</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -37805,7 +38573,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1564</v>
+        <v>1630</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -37838,7 +38606,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1565</v>
+        <v>1631</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -37871,7 +38639,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1566</v>
+        <v>1632</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -37904,7 +38672,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1567</v>
+        <v>1633</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -37937,7 +38705,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1568</v>
+        <v>1634</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -37970,7 +38738,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1569</v>
+        <v>1635</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -38003,7 +38771,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1570</v>
+        <v>1636</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -38036,7 +38804,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1571</v>
+        <v>1637</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -38069,7 +38837,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1572</v>
+        <v>1638</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -38102,7 +38870,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1573</v>
+        <v>1639</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -38135,7 +38903,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1574</v>
+        <v>1640</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -38168,7 +38936,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1575</v>
+        <v>1641</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -38201,7 +38969,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1576</v>
+        <v>1642</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -38234,7 +39002,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1577</v>
+        <v>1643</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -38267,7 +39035,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1578</v>
+        <v>1644</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -38300,7 +39068,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1579</v>
+        <v>1645</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -38333,7 +39101,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1580</v>
+        <v>1646</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -38366,7 +39134,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1581</v>
+        <v>1647</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -38399,7 +39167,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1582</v>
+        <v>1648</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -38432,7 +39200,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1583</v>
+        <v>1649</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -38465,7 +39233,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1584</v>
+        <v>1650</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -38498,7 +39266,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1585</v>
+        <v>1651</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -38531,7 +39299,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1586</v>
+        <v>1652</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -38564,7 +39332,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1587</v>
+        <v>1653</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -38597,7 +39365,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1588</v>
+        <v>1654</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -38630,7 +39398,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1589</v>
+        <v>1655</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -38663,7 +39431,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1590</v>
+        <v>1656</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -38696,7 +39464,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1591</v>
+        <v>1657</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -38729,7 +39497,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1592</v>
+        <v>1658</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -38762,7 +39530,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1593</v>
+        <v>1659</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -38795,7 +39563,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1594</v>
+        <v>1660</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -38828,7 +39596,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1595</v>
+        <v>1661</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -38861,7 +39629,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1596</v>
+        <v>1662</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -38894,7 +39662,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1597</v>
+        <v>1663</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -38927,7 +39695,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1598</v>
+        <v>1664</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -38960,7 +39728,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1599</v>
+        <v>1665</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -38993,7 +39761,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1600</v>
+        <v>1666</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -39026,7 +39794,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1601</v>
+        <v>1667</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -39059,7 +39827,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1602</v>
+        <v>1668</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -39092,7 +39860,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1603</v>
+        <v>1669</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -39125,7 +39893,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1604</v>
+        <v>1670</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -39158,7 +39926,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1605</v>
+        <v>1671</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -39191,7 +39959,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1606</v>
+        <v>1672</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -39224,7 +39992,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1607</v>
+        <v>1673</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -39257,7 +40025,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1608</v>
+        <v>1674</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -39290,7 +40058,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1609</v>
+        <v>1675</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -39323,7 +40091,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1610</v>
+        <v>1676</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -39356,7 +40124,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1611</v>
+        <v>1677</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -39389,7 +40157,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1612</v>
+        <v>1678</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -39422,7 +40190,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1613</v>
+        <v>1679</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -39455,7 +40223,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1614</v>
+        <v>1680</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -39488,7 +40256,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1615</v>
+        <v>1681</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -39521,7 +40289,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1616</v>
+        <v>1682</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -39554,7 +40322,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1617</v>
+        <v>1683</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -39587,7 +40355,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1618</v>
+        <v>1684</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -39620,7 +40388,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1619</v>
+        <v>1685</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -39653,7 +40421,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1620</v>
+        <v>1686</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -39686,7 +40454,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1621</v>
+        <v>1687</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -39719,7 +40487,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1622</v>
+        <v>1688</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -39752,7 +40520,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1623</v>
+        <v>1689</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -39785,7 +40553,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1624</v>
+        <v>1690</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -39818,7 +40586,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1625</v>
+        <v>1691</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -39851,7 +40619,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1626</v>
+        <v>1692</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -39884,7 +40652,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1627</v>
+        <v>1693</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -39917,7 +40685,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1628</v>
+        <v>1694</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -39950,7 +40718,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1629</v>
+        <v>1695</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -39983,7 +40751,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1630</v>
+        <v>1696</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -40016,7 +40784,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1631</v>
+        <v>1697</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -40049,7 +40817,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1632</v>
+        <v>1698</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -40082,7 +40850,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1633</v>
+        <v>1699</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -40115,7 +40883,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1634</v>
+        <v>1700</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -40148,7 +40916,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1635</v>
+        <v>1701</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -40181,7 +40949,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1636</v>
+        <v>1702</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -40214,7 +40982,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1637</v>
+        <v>1703</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -40247,7 +41015,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1638</v>
+        <v>1704</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -40280,7 +41048,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1639</v>
+        <v>1705</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -40313,7 +41081,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1640</v>
+        <v>1706</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -40346,7 +41114,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1641</v>
+        <v>1707</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -40379,7 +41147,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1642</v>
+        <v>1708</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -40412,7 +41180,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1643</v>
+        <v>1709</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -40445,7 +41213,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1644</v>
+        <v>1710</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -40478,7 +41246,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1645</v>
+        <v>1711</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -40511,7 +41279,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1646</v>
+        <v>1712</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -40544,7 +41312,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1647</v>
+        <v>1713</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -40577,7 +41345,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1648</v>
+        <v>1714</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -40610,7 +41378,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1649</v>
+        <v>1715</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -40643,7 +41411,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1650</v>
+        <v>1716</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -40676,7 +41444,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1651</v>
+        <v>1717</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -40709,7 +41477,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1652</v>
+        <v>1718</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -40742,7 +41510,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1653</v>
+        <v>1719</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -40775,7 +41543,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1654</v>
+        <v>1720</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -40808,7 +41576,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1655</v>
+        <v>1721</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -40841,7 +41609,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1656</v>
+        <v>1722</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -40874,7 +41642,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1657</v>
+        <v>1723</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -40907,7 +41675,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1658</v>
+        <v>1724</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -40940,7 +41708,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1659</v>
+        <v>1725</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -40973,7 +41741,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1660</v>
+        <v>1726</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -41006,7 +41774,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1661</v>
+        <v>1727</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -41039,7 +41807,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1662</v>
+        <v>1728</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -41072,7 +41840,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1663</v>
+        <v>1729</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -41105,7 +41873,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1664</v>
+        <v>1730</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -41138,7 +41906,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1665</v>
+        <v>1731</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -41171,7 +41939,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1666</v>
+        <v>1732</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -41204,7 +41972,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1667</v>
+        <v>1733</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -41237,7 +42005,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1668</v>
+        <v>1734</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -41270,7 +42038,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1669</v>
+        <v>1735</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -41303,7 +42071,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1670</v>
+        <v>1736</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -41336,7 +42104,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1671</v>
+        <v>1737</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -41369,7 +42137,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1672</v>
+        <v>1738</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -41402,7 +42170,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1673</v>
+        <v>1739</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -41435,7 +42203,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1674</v>
+        <v>1740</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -41468,7 +42236,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1675</v>
+        <v>1741</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -41501,7 +42269,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1676</v>
+        <v>1742</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -41534,7 +42302,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1677</v>
+        <v>1743</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -41567,7 +42335,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1678</v>
+        <v>1744</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -41600,7 +42368,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1679</v>
+        <v>1745</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -41633,7 +42401,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1680</v>
+        <v>1746</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -41666,7 +42434,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1681</v>
+        <v>1747</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -41699,7 +42467,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1682</v>
+        <v>1748</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -41732,7 +42500,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1683</v>
+        <v>1749</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -41765,7 +42533,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1684</v>
+        <v>1750</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -41798,7 +42566,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1685</v>
+        <v>1751</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -41831,7 +42599,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1686</v>
+        <v>1752</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -41864,7 +42632,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1687</v>
+        <v>1753</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -41897,7 +42665,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1688</v>
+        <v>1754</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -41930,7 +42698,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1689</v>
+        <v>1755</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -41963,7 +42731,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1690</v>
+        <v>1756</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -41996,7 +42764,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1691</v>
+        <v>1757</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -42029,7 +42797,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1692</v>
+        <v>1758</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -42062,7 +42830,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -42095,7 +42863,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1694</v>
+        <v>1760</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -42128,7 +42896,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1695</v>
+        <v>1761</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -42161,7 +42929,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1696</v>
+        <v>1762</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -42194,7 +42962,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1697</v>
+        <v>1763</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -42227,7 +42995,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1698</v>
+        <v>1764</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -42260,7 +43028,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1699</v>
+        <v>1765</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -42293,7 +43061,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1700</v>
+        <v>1766</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -42326,7 +43094,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1701</v>
+        <v>1767</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -42359,7 +43127,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1702</v>
+        <v>1768</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -42392,7 +43160,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1703</v>
+        <v>1769</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -42425,7 +43193,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1704</v>
+        <v>1770</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -42458,7 +43226,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1705</v>
+        <v>1771</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -42491,7 +43259,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1706</v>
+        <v>1772</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -42524,7 +43292,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1707</v>
+        <v>1773</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -42557,7 +43325,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1708</v>
+        <v>1774</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -42590,7 +43358,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1709</v>
+        <v>1775</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -42623,7 +43391,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1710</v>
+        <v>1776</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -42656,7 +43424,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1711</v>
+        <v>1777</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -42689,7 +43457,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1712</v>
+        <v>1778</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -42722,7 +43490,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1713</v>
+        <v>1779</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -42755,7 +43523,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1714</v>
+        <v>1780</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -42788,7 +43556,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1715</v>
+        <v>1781</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -42821,7 +43589,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1716</v>
+        <v>1782</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -42854,7 +43622,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1717</v>
+        <v>1783</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -42887,7 +43655,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1718</v>
+        <v>1784</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -42920,7 +43688,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1719</v>
+        <v>1785</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -42953,7 +43721,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1720</v>
+        <v>1786</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -42986,7 +43754,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1721</v>
+        <v>1787</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -43019,7 +43787,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1722</v>
+        <v>1788</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -43052,7 +43820,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1723</v>
+        <v>1789</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -43085,7 +43853,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1724</v>
+        <v>1790</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -43118,7 +43886,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1725</v>
+        <v>1791</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -43151,7 +43919,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1726</v>
+        <v>1792</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -43184,7 +43952,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1727</v>
+        <v>1793</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -43217,7 +43985,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1728</v>
+        <v>1794</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -43250,7 +44018,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1729</v>
+        <v>1795</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -43283,7 +44051,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1730</v>
+        <v>1796</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -43316,7 +44084,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1731</v>
+        <v>1797</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -43349,7 +44117,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1732</v>
+        <v>1798</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -43382,7 +44150,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1733</v>
+        <v>1799</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -43415,7 +44183,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1734</v>
+        <v>1800</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -43448,7 +44216,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1735</v>
+        <v>1801</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -43481,7 +44249,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1736</v>
+        <v>1802</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -43514,7 +44282,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1737</v>
+        <v>1803</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -43547,7 +44315,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1738</v>
+        <v>1804</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -43580,7 +44348,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1739</v>
+        <v>1805</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -43613,7 +44381,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1740</v>
+        <v>1806</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -43646,7 +44414,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1741</v>
+        <v>1807</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -43679,7 +44447,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1742</v>
+        <v>1808</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -43712,7 +44480,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1743</v>
+        <v>1809</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -43745,7 +44513,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1744</v>
+        <v>1810</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -43778,7 +44546,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1745</v>
+        <v>1811</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -43811,7 +44579,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1746</v>
+        <v>1812</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -43844,7 +44612,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1747</v>
+        <v>1813</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -43877,7 +44645,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1748</v>
+        <v>1814</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -43910,7 +44678,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1749</v>
+        <v>1815</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -43943,7 +44711,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1750</v>
+        <v>1816</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -43976,7 +44744,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1751</v>
+        <v>1817</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -44009,7 +44777,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1752</v>
+        <v>1818</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -44044,37 +44812,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1753</v>
+        <v>1819</v>
       </c>
       <c r="C886" t="s">
-        <v>1754</v>
+        <v>1820</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1755</v>
+        <v>1821</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1756</v>
+        <v>1822</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1757</v>
+        <v>1823</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1758</v>
+        <v>1824</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1759</v>
+        <v>1825</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1760</v>
+        <v>1826</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1761</v>
+        <v>1827</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1762</v>
+        <v>1828</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1763</v>
+        <v>1829</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -44097,7 +44865,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1764</v>
+        <v>1830</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -44130,7 +44898,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1765</v>
+        <v>1831</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -44163,7 +44931,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1766</v>
+        <v>1832</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -44196,7 +44964,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1767</v>
+        <v>1833</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -44229,7 +44997,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1768</v>
+        <v>1834</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -44262,7 +45030,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1769</v>
+        <v>1835</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -44295,7 +45063,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1770</v>
+        <v>1836</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -44328,7 +45096,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1771</v>
+        <v>1837</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -44361,7 +45129,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1772</v>
+        <v>1838</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -44394,7 +45162,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1773</v>
+        <v>1839</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -44427,7 +45195,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1774</v>
+        <v>1840</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -44460,7 +45228,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1775</v>
+        <v>1841</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -44493,7 +45261,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1776</v>
+        <v>1842</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -44526,7 +45294,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1777</v>
+        <v>1843</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -44559,7 +45327,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1778</v>
+        <v>1844</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -44592,7 +45360,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1779</v>
+        <v>1845</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -44625,7 +45393,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1780</v>
+        <v>1846</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -44658,7 +45426,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1781</v>
+        <v>1847</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -44691,7 +45459,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1782</v>
+        <v>1848</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -44724,7 +45492,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1783</v>
+        <v>1849</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -44757,7 +45525,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1784</v>
+        <v>1850</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -44790,7 +45558,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1785</v>
+        <v>1851</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -44823,7 +45591,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1786</v>
+        <v>1852</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -44856,7 +45624,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1787</v>
+        <v>1853</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -44889,7 +45657,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1788</v>
+        <v>1854</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -44922,7 +45690,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1789</v>
+        <v>1855</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -44955,37 +45723,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1790</v>
+        <v>1856</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1791</v>
+        <v>1857</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1792</v>
+        <v>1858</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1793</v>
+        <v>1859</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1794</v>
+        <v>1860</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1795</v>
+        <v>1861</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1796</v>
+        <v>1862</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1797</v>
+        <v>1863</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1798</v>
+        <v>1864</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1799</v>
+        <v>1865</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1800</v>
+        <v>1866</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -45008,7 +45776,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1801</v>
+        <v>1867</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -45041,7 +45809,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1802</v>
+        <v>1868</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -45074,7 +45842,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1803</v>
+        <v>1869</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -45107,7 +45875,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1804</v>
+        <v>1870</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -45140,7 +45908,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1805</v>
+        <v>1871</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -45173,7 +45941,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1806</v>
+        <v>1872</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -45206,7 +45974,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1807</v>
+        <v>1873</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -45239,7 +46007,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1808</v>
+        <v>1874</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -45272,7 +46040,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1809</v>
+        <v>1875</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -45305,7 +46073,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1810</v>
+        <v>1876</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -45338,7 +46106,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1811</v>
+        <v>1877</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -45371,7 +46139,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1812</v>
+        <v>1878</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -45404,7 +46172,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1813</v>
+        <v>1879</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -45437,7 +46205,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1814</v>
+        <v>1880</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -45470,7 +46238,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1815</v>
+        <v>1881</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -45503,7 +46271,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1816</v>
+        <v>1882</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -45536,7 +46304,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1817</v>
+        <v>1883</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -45569,7 +46337,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1818</v>
+        <v>1884</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -45602,7 +46370,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1819</v>
+        <v>1885</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -45635,7 +46403,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1820</v>
+        <v>1886</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -45668,7 +46436,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1821</v>
+        <v>1887</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -45701,7 +46469,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1822</v>
+        <v>1888</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -45734,7 +46502,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1823</v>
+        <v>1889</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -45767,7 +46535,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1824</v>
+        <v>1890</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -45800,7 +46568,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1825</v>
+        <v>1891</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -45833,7 +46601,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1826</v>
+        <v>1892</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -45866,7 +46634,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1827</v>
+        <v>1893</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -45899,7 +46667,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1828</v>
+        <v>1894</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -45932,7 +46700,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1829</v>
+        <v>1895</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -45965,7 +46733,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1830</v>
+        <v>1896</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -45998,7 +46766,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1831</v>
+        <v>1897</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -46031,7 +46799,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1832</v>
+        <v>1898</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -46064,7 +46832,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1833</v>
+        <v>1899</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -46097,7 +46865,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1834</v>
+        <v>1900</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -46130,7 +46898,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1835</v>
+        <v>1901</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -46163,7 +46931,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1836</v>
+        <v>1902</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -46196,7 +46964,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1837</v>
+        <v>1903</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -46229,7 +46997,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1838</v>
+        <v>1904</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -46262,7 +47030,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1839</v>
+        <v>1905</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -46295,7 +47063,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1840</v>
+        <v>1906</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -46328,7 +47096,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1841</v>
+        <v>1907</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -46361,7 +47129,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1842</v>
+        <v>1908</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -46394,7 +47162,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1843</v>
+        <v>1909</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -46427,7 +47195,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1844</v>
+        <v>1910</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -46460,7 +47228,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1845</v>
+        <v>1911</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="1946">
   <si>
     <t>No</t>
   </si>
@@ -4523,12 +4523,57 @@
     <t>MEDC</t>
   </si>
   <si>
+    <t>2489000000000</t>
+  </si>
+  <si>
+    <t>1764000000000</t>
+  </si>
+  <si>
+    <t>896000000000</t>
+  </si>
+  <si>
+    <t>8203000000000</t>
+  </si>
+  <si>
+    <t>5274000000000</t>
+  </si>
+  <si>
+    <t>6026000000000</t>
+  </si>
+  <si>
     <t>MEDS</t>
   </si>
   <si>
     <t>MEGA</t>
   </si>
   <si>
+    <t>1158000000000</t>
+  </si>
+  <si>
+    <t>1300000000000</t>
+  </si>
+  <si>
+    <t>1599000000000</t>
+  </si>
+  <si>
+    <t>2003000000000</t>
+  </si>
+  <si>
+    <t>3008000000000</t>
+  </si>
+  <si>
+    <t>4008000000000</t>
+  </si>
+  <si>
+    <t>4053000000000</t>
+  </si>
+  <si>
+    <t>3511000000000</t>
+  </si>
+  <si>
+    <t>2631000000000</t>
+  </si>
+  <si>
     <t>MEJA</t>
   </si>
   <si>
@@ -4541,12 +4586,30 @@
     <t>MERK</t>
   </si>
   <si>
+    <t>1163000000000</t>
+  </si>
+  <si>
+    <t>153000000000</t>
+  </si>
+  <si>
     <t>META</t>
   </si>
   <si>
     <t>MFIN</t>
   </si>
   <si>
+    <t>333000000000</t>
+  </si>
+  <si>
+    <t>485000000000</t>
+  </si>
+  <si>
+    <t>659000000000</t>
+  </si>
+  <si>
+    <t>423000000000</t>
+  </si>
+  <si>
     <t>MFMI</t>
   </si>
   <si>
@@ -4568,9 +4631,30 @@
     <t>MIDI</t>
   </si>
   <si>
+    <t>203000000000</t>
+  </si>
+  <si>
+    <t>275000000000</t>
+  </si>
+  <si>
+    <t>399000000000</t>
+  </si>
+  <si>
     <t>MIKA</t>
   </si>
   <si>
+    <t>923000000000</t>
+  </si>
+  <si>
+    <t>1362000000000</t>
+  </si>
+  <si>
+    <t>1094000000000</t>
+  </si>
+  <si>
+    <t>996000000000</t>
+  </si>
+  <si>
     <t>MINA</t>
   </si>
   <si>
@@ -4590,6 +4674,24 @@
   </si>
   <si>
     <t>MKPI</t>
+  </si>
+  <si>
+    <t>1199000000000</t>
+  </si>
+  <si>
+    <t>1194000000000</t>
+  </si>
+  <si>
+    <t>231000000000</t>
+  </si>
+  <si>
+    <t>701000000000</t>
+  </si>
+  <si>
+    <t>844000000000</t>
+  </si>
+  <si>
+    <t>986000000000</t>
   </si>
   <si>
     <t>MKTR</t>
@@ -6800,8 +6902,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="C563" sqref="C563"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="C588" sqref="C588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -34153,15 +34255,33 @@
       <c r="B563" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="C563" s="2"/>
-      <c r="D563" s="2"/>
-      <c r="E563" s="2"/>
-      <c r="F563" s="2"/>
-      <c r="G563" s="2"/>
-      <c r="H563" s="2"/>
-      <c r="I563" s="2"/>
-      <c r="J563" s="2"/>
-      <c r="K563" s="2"/>
+      <c r="C563" s="2">
+        <v>-540000000000</v>
+      </c>
+      <c r="D563" s="2">
+        <v>-1062000000000</v>
+      </c>
+      <c r="E563" s="2">
+        <v>-39000000000</v>
+      </c>
+      <c r="F563" s="2">
+        <v>-54000000000</v>
+      </c>
+      <c r="G563" s="2">
+        <v>-208000000000</v>
+      </c>
+      <c r="H563" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I563" s="2">
+        <v>78000000000</v>
+      </c>
+      <c r="J563" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="K563" s="2">
+        <v>9000000000</v>
+      </c>
       <c r="L563" s="2"/>
       <c r="M563" s="2"/>
       <c r="N563" s="2"/>
@@ -34186,15 +34306,33 @@
       <c r="B564" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="C564" s="2"/>
-      <c r="D564" s="2"/>
-      <c r="E564" s="2"/>
-      <c r="F564" s="2"/>
-      <c r="G564" s="2"/>
-      <c r="H564" s="2"/>
-      <c r="I564" s="2"/>
-      <c r="J564" s="2"/>
-      <c r="K564" s="2"/>
+      <c r="C564" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D564" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E564" s="2">
+        <v>-404000000000</v>
+      </c>
+      <c r="F564" s="2">
+        <v>-191000000000</v>
+      </c>
+      <c r="G564" s="2">
+        <v>-2585000000000</v>
+      </c>
+      <c r="H564" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I564" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J564" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="K564" s="5" t="s">
+        <v>1503</v>
+      </c>
       <c r="L564" s="2"/>
       <c r="M564" s="2"/>
       <c r="N564" s="2"/>
@@ -34217,17 +34355,29 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
-      <c r="F565" s="2"/>
-      <c r="G565" s="2"/>
-      <c r="H565" s="2"/>
-      <c r="I565" s="2"/>
-      <c r="J565" s="2"/>
-      <c r="K565" s="2"/>
+      <c r="F565" s="2">
+        <v>0</v>
+      </c>
+      <c r="G565" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="H565" s="2">
+        <v>27000000000</v>
+      </c>
+      <c r="I565" s="2">
+        <v>0</v>
+      </c>
+      <c r="J565" s="2">
+        <v>-4000000000</v>
+      </c>
+      <c r="K565" s="2">
+        <v>-9000000000</v>
+      </c>
       <c r="L565" s="2"/>
       <c r="M565" s="2"/>
       <c r="N565" s="2"/>
@@ -34250,17 +34400,35 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C566" s="2"/>
-      <c r="D566" s="2"/>
-      <c r="E566" s="2"/>
-      <c r="F566" s="2"/>
-      <c r="G566" s="2"/>
-      <c r="H566" s="2"/>
-      <c r="I566" s="2"/>
-      <c r="J566" s="2"/>
-      <c r="K566" s="2"/>
+        <v>1505</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D566" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H566" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I566" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J566" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K566" s="5" t="s">
+        <v>1514</v>
+      </c>
       <c r="L566" s="2"/>
       <c r="M566" s="2"/>
       <c r="N566" s="2"/>
@@ -34283,17 +34451,25 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1500</v>
+        <v>1515</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
-      <c r="H567" s="2"/>
-      <c r="I567" s="2"/>
-      <c r="J567" s="2"/>
-      <c r="K567" s="2"/>
+      <c r="H567" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I567" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="J567" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="K567" s="2">
+        <v>3000000000</v>
+      </c>
       <c r="L567" s="2"/>
       <c r="M567" s="2"/>
       <c r="N567" s="2"/>
@@ -34316,17 +34492,27 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1501</v>
+        <v>1516</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
-      <c r="G568" s="2"/>
-      <c r="H568" s="2"/>
-      <c r="I568" s="2"/>
-      <c r="J568" s="2"/>
-      <c r="K568" s="2"/>
+      <c r="G568" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H568" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I568" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J568" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K568" s="2">
+        <v>0</v>
+      </c>
       <c r="L568" s="2"/>
       <c r="M568" s="2"/>
       <c r="N568" s="2"/>
@@ -34349,7 +34535,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1502</v>
+        <v>1517</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -34357,9 +34543,15 @@
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
       <c r="H569" s="2"/>
-      <c r="I569" s="2"/>
-      <c r="J569" s="2"/>
-      <c r="K569" s="2"/>
+      <c r="I569" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="J569" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="K569" s="2">
+        <v>9000000000</v>
+      </c>
       <c r="L569" s="2"/>
       <c r="M569" s="2"/>
       <c r="N569" s="2"/>
@@ -34382,17 +34574,35 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C570" s="2"/>
-      <c r="D570" s="2"/>
-      <c r="E570" s="2"/>
-      <c r="F570" s="2"/>
-      <c r="G570" s="2"/>
-      <c r="H570" s="2"/>
-      <c r="I570" s="2"/>
-      <c r="J570" s="2"/>
-      <c r="K570" s="2"/>
+        <v>1518</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D570" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G570" s="2">
+        <v>72000000000</v>
+      </c>
+      <c r="H570" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I570" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J570" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K570" s="5" t="s">
+        <v>1520</v>
+      </c>
       <c r="L570" s="2"/>
       <c r="M570" s="2"/>
       <c r="N570" s="2"/>
@@ -34415,17 +34625,35 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C571" s="2"/>
-      <c r="D571" s="2"/>
-      <c r="E571" s="2"/>
-      <c r="F571" s="2"/>
-      <c r="G571" s="2"/>
-      <c r="H571" s="2"/>
-      <c r="I571" s="2"/>
-      <c r="J571" s="2"/>
-      <c r="K571" s="2"/>
+        <v>1521</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D571" s="2">
+        <v>93000000000</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G571" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H571" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="I571" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J571" s="2">
+        <v>-236000000000</v>
+      </c>
+      <c r="K571" s="5" t="s">
+        <v>1373</v>
+      </c>
       <c r="L571" s="2"/>
       <c r="M571" s="2"/>
       <c r="N571" s="2"/>
@@ -34448,17 +34676,35 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C572" s="2"/>
-      <c r="D572" s="2"/>
-      <c r="E572" s="2"/>
-      <c r="F572" s="2"/>
-      <c r="G572" s="2"/>
-      <c r="H572" s="2"/>
-      <c r="I572" s="2"/>
-      <c r="J572" s="2"/>
-      <c r="K572" s="2"/>
+        <v>1522</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D572" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="H572" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I572" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J572" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K572" s="5" t="s">
+        <v>1314</v>
+      </c>
       <c r="L572" s="2"/>
       <c r="M572" s="2"/>
       <c r="N572" s="2"/>
@@ -34481,17 +34727,35 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C573" s="2"/>
-      <c r="D573" s="2"/>
-      <c r="E573" s="2"/>
-      <c r="F573" s="2"/>
-      <c r="G573" s="2"/>
-      <c r="H573" s="2"/>
-      <c r="I573" s="2"/>
-      <c r="J573" s="2"/>
-      <c r="K573" s="2"/>
+        <v>1527</v>
+      </c>
+      <c r="C573" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="D573" s="2">
+        <v>23000000000</v>
+      </c>
+      <c r="E573" s="2">
+        <v>27000000000</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G573" s="2">
+        <v>18000000000</v>
+      </c>
+      <c r="H573" s="2">
+        <v>25000000000</v>
+      </c>
+      <c r="I573" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="J573" s="2">
+        <v>28000000000</v>
+      </c>
+      <c r="K573" s="2">
+        <v>26000000000</v>
+      </c>
       <c r="L573" s="2"/>
       <c r="M573" s="2"/>
       <c r="N573" s="2"/>
@@ -34514,17 +34778,31 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
-      <c r="E574" s="2"/>
-      <c r="F574" s="2"/>
-      <c r="G574" s="2"/>
-      <c r="H574" s="2"/>
-      <c r="I574" s="2"/>
-      <c r="J574" s="2"/>
-      <c r="K574" s="2"/>
+      <c r="E574">
+        <v>1000000000</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>3000000000</v>
+      </c>
+      <c r="H574">
+        <v>7000000000</v>
+      </c>
+      <c r="I574">
+        <v>16000000000</v>
+      </c>
+      <c r="J574">
+        <v>18000000000</v>
+      </c>
+      <c r="K574">
+        <v>7000000000</v>
+      </c>
       <c r="L574" s="2"/>
       <c r="M574" s="2"/>
       <c r="N574" s="2"/>
@@ -34547,17 +34825,35 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C575" s="2"/>
-      <c r="D575" s="2"/>
-      <c r="E575" s="2"/>
-      <c r="F575" s="2"/>
-      <c r="G575" s="2"/>
-      <c r="H575" s="2"/>
-      <c r="I575" s="2"/>
-      <c r="J575" s="2"/>
-      <c r="K575" s="2"/>
+        <v>1529</v>
+      </c>
+      <c r="C575" s="2">
+        <v>-69000000000</v>
+      </c>
+      <c r="D575" s="2">
+        <v>-16000000000</v>
+      </c>
+      <c r="E575" s="2">
+        <v>-37000000000</v>
+      </c>
+      <c r="F575" s="2">
+        <v>-122000000000</v>
+      </c>
+      <c r="G575" s="2">
+        <v>57000000000</v>
+      </c>
+      <c r="H575" s="2">
+        <v>-2000000000</v>
+      </c>
+      <c r="I575" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="J575" s="2">
+        <v>-2000000000</v>
+      </c>
+      <c r="K575" s="2">
+        <v>6000000000</v>
+      </c>
       <c r="L575" s="2"/>
       <c r="M575" s="2"/>
       <c r="N575" s="2"/>
@@ -34580,17 +34876,33 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1509</v>
+        <v>1530</v>
       </c>
       <c r="C576" s="2"/>
-      <c r="D576" s="2"/>
-      <c r="E576" s="2"/>
-      <c r="F576" s="2"/>
-      <c r="G576" s="2"/>
-      <c r="H576" s="2"/>
-      <c r="I576" s="2"/>
-      <c r="J576" s="2"/>
-      <c r="K576" s="2"/>
+      <c r="D576" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="E576" s="2">
+        <v>84000000000</v>
+      </c>
+      <c r="F576" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="G576" s="2">
+        <v>-50000000000</v>
+      </c>
+      <c r="H576" s="2">
+        <v>90000000000</v>
+      </c>
+      <c r="I576" s="2">
+        <v>-35000000000</v>
+      </c>
+      <c r="J576" s="2">
+        <v>-172000000000</v>
+      </c>
+      <c r="K576" s="2">
+        <v>-23000000000</v>
+      </c>
       <c r="L576" s="2"/>
       <c r="M576" s="2"/>
       <c r="N576" s="2"/>
@@ -34613,17 +34925,27 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1510</v>
+        <v>1531</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
-      <c r="G577" s="2"/>
-      <c r="H577" s="2"/>
-      <c r="I577" s="2"/>
-      <c r="J577" s="2"/>
-      <c r="K577" s="2"/>
+      <c r="G577" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="H577" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="I577" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="J577" s="2">
+        <v>29000000000</v>
+      </c>
+      <c r="K577" s="2">
+        <v>32000000000</v>
+      </c>
       <c r="L577" s="2"/>
       <c r="M577" s="2"/>
       <c r="N577" s="2"/>
@@ -34646,17 +34968,35 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C578" s="2"/>
-      <c r="D578" s="2"/>
-      <c r="E578" s="2"/>
-      <c r="F578" s="2"/>
-      <c r="G578" s="2"/>
-      <c r="H578" s="2"/>
-      <c r="I578" s="2"/>
-      <c r="J578" s="2"/>
-      <c r="K578" s="2"/>
+        <v>1532</v>
+      </c>
+      <c r="C578" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="D578" s="2">
+        <v>67000000000</v>
+      </c>
+      <c r="E578" s="2">
+        <v>33000000000</v>
+      </c>
+      <c r="F578" s="2">
+        <v>34000000000</v>
+      </c>
+      <c r="G578" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="H578" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="I578" s="2">
+        <v>48000000000</v>
+      </c>
+      <c r="J578" s="2">
+        <v>34000000000</v>
+      </c>
+      <c r="K578" s="2">
+        <v>42000000000</v>
+      </c>
       <c r="L578" s="2"/>
       <c r="M578" s="2"/>
       <c r="N578" s="2"/>
@@ -34679,17 +35019,35 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C579" s="2"/>
-      <c r="D579" s="2"/>
-      <c r="E579" s="2"/>
-      <c r="F579" s="2"/>
-      <c r="G579" s="2"/>
-      <c r="H579" s="2"/>
-      <c r="I579" s="2"/>
-      <c r="J579" s="2"/>
-      <c r="K579" s="2"/>
+        <v>1533</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H579" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I579" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J579" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K579" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="L579" s="2"/>
       <c r="M579" s="2"/>
       <c r="N579" s="2"/>
@@ -34712,17 +35070,27 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1513</v>
+        <v>1537</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
-      <c r="G580" s="2"/>
-      <c r="H580" s="2"/>
-      <c r="I580" s="2"/>
-      <c r="J580" s="2"/>
-      <c r="K580" s="2"/>
+      <c r="G580" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H580" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I580" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J580" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K580" s="5" t="s">
+        <v>1395</v>
+      </c>
       <c r="L580" s="2"/>
       <c r="M580" s="2"/>
       <c r="N580" s="2"/>
@@ -34745,17 +35113,35 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C581" s="2"/>
-      <c r="D581" s="2"/>
-      <c r="E581" s="2"/>
-      <c r="F581" s="2"/>
-      <c r="G581" s="2"/>
-      <c r="H581" s="2"/>
-      <c r="I581" s="2"/>
-      <c r="J581" s="2"/>
-      <c r="K581" s="2"/>
+        <v>1542</v>
+      </c>
+      <c r="C581" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="D581" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="E581" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="F581" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G581" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="H581" s="2">
+        <v>-5000000000</v>
+      </c>
+      <c r="I581" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="J581" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="K581" s="2">
+        <v>-6000000000</v>
+      </c>
       <c r="L581" s="2"/>
       <c r="M581" s="2"/>
       <c r="N581" s="2"/>
@@ -34778,17 +35164,25 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1515</v>
+        <v>1543</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
-      <c r="H582" s="2"/>
-      <c r="I582" s="2"/>
-      <c r="J582" s="2"/>
-      <c r="K582" s="2"/>
+      <c r="H582" s="2">
+        <v>66000000000</v>
+      </c>
+      <c r="I582" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J582" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K582" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="L582" s="2"/>
       <c r="M582" s="2"/>
       <c r="N582" s="2"/>
@@ -34811,17 +35205,35 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C583" s="2"/>
-      <c r="D583" s="2"/>
-      <c r="E583" s="2"/>
-      <c r="F583" s="2"/>
-      <c r="G583" s="2"/>
-      <c r="H583" s="2"/>
-      <c r="I583" s="2"/>
-      <c r="J583" s="2"/>
-      <c r="K583" s="2"/>
+        <v>1544</v>
+      </c>
+      <c r="C583" s="2">
+        <v>-38000000000</v>
+      </c>
+      <c r="D583" s="2">
+        <v>-20000000000</v>
+      </c>
+      <c r="E583" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="F583" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="G583" s="2">
+        <v>-18000000000</v>
+      </c>
+      <c r="H583" s="2">
+        <v>-13000000000</v>
+      </c>
+      <c r="I583" s="2">
+        <v>-31000000000</v>
+      </c>
+      <c r="J583" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="K583" s="2">
+        <v>-9000000000</v>
+      </c>
       <c r="L583" s="2"/>
       <c r="M583" s="2"/>
       <c r="N583" s="2"/>
@@ -34844,17 +35256,35 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C584" s="2"/>
-      <c r="D584" s="2"/>
-      <c r="E584" s="2"/>
-      <c r="F584" s="2"/>
-      <c r="G584" s="2"/>
-      <c r="H584" s="2"/>
-      <c r="I584" s="2"/>
-      <c r="J584" s="2"/>
-      <c r="K584" s="2"/>
+        <v>1545</v>
+      </c>
+      <c r="C584" s="2">
+        <v>-23000000000</v>
+      </c>
+      <c r="D584" s="2">
+        <v>-23000000000</v>
+      </c>
+      <c r="E584" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="F584" s="2">
+        <v>-88000000000</v>
+      </c>
+      <c r="G584" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="H584" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="I584" s="2">
+        <v>15000000000</v>
+      </c>
+      <c r="J584" s="2">
+        <v>48000000000</v>
+      </c>
+      <c r="K584" s="2">
+        <v>11000000000</v>
+      </c>
       <c r="L584" s="2"/>
       <c r="M584" s="2"/>
       <c r="N584" s="2"/>
@@ -34877,17 +35307,27 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1518</v>
+        <v>1546</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
-      <c r="G585" s="2"/>
-      <c r="H585" s="2"/>
-      <c r="I585" s="2"/>
-      <c r="J585" s="2"/>
-      <c r="K585" s="2"/>
+      <c r="G585" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H585" s="2">
+        <v>15000000000</v>
+      </c>
+      <c r="I585" s="2">
+        <v>-2000000000</v>
+      </c>
+      <c r="J585" s="2">
+        <v>32000000000</v>
+      </c>
+      <c r="K585" s="2">
+        <v>41000000000</v>
+      </c>
       <c r="L585" s="2"/>
       <c r="M585" s="2"/>
       <c r="N585" s="2"/>
@@ -34910,15 +35350,29 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C586" s="2"/>
-      <c r="D586" s="2"/>
-      <c r="E586" s="2"/>
-      <c r="F586" s="2"/>
-      <c r="G586" s="2"/>
-      <c r="H586" s="2"/>
-      <c r="I586" s="2"/>
+        <v>1547</v>
+      </c>
+      <c r="C586" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="D586" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="E586" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="F586" s="2">
+        <v>-121000000000</v>
+      </c>
+      <c r="G586" s="2">
+        <v>-63000000000</v>
+      </c>
+      <c r="H586" s="2">
+        <v>-35000000000</v>
+      </c>
+      <c r="I586" s="2">
+        <v>-44000000000</v>
+      </c>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
@@ -34943,17 +35397,35 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C587" s="2"/>
-      <c r="D587" s="2"/>
-      <c r="E587" s="2"/>
-      <c r="F587" s="2"/>
-      <c r="G587" s="2"/>
-      <c r="H587" s="2"/>
-      <c r="I587" s="2"/>
-      <c r="J587" s="2"/>
-      <c r="K587" s="2"/>
+        <v>1548</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D587" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E587" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="F587" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G587" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H587" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="I587" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J587" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K587" s="5" t="s">
+        <v>1554</v>
+      </c>
       <c r="L587" s="2"/>
       <c r="M587" s="2"/>
       <c r="N587" s="2"/>
@@ -34976,7 +35448,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1521</v>
+        <v>1555</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -35009,7 +35481,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1522</v>
+        <v>1556</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -35042,7 +35514,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1523</v>
+        <v>1557</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -35075,7 +35547,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1524</v>
+        <v>1558</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -35108,7 +35580,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1525</v>
+        <v>1559</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -35141,7 +35613,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1526</v>
+        <v>1560</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -35174,7 +35646,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1527</v>
+        <v>1561</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -35207,7 +35679,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1528</v>
+        <v>1562</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -35240,7 +35712,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -35273,7 +35745,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1530</v>
+        <v>1564</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -35306,7 +35778,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1531</v>
+        <v>1565</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -35339,7 +35811,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1532</v>
+        <v>1566</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -35372,7 +35844,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1533</v>
+        <v>1567</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -35405,7 +35877,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1534</v>
+        <v>1568</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -35438,7 +35910,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1535</v>
+        <v>1569</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -35471,7 +35943,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1536</v>
+        <v>1570</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -35504,7 +35976,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1537</v>
+        <v>1571</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -35537,7 +36009,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1538</v>
+        <v>1572</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -35570,7 +36042,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1539</v>
+        <v>1573</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -35603,7 +36075,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1540</v>
+        <v>1574</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -35636,7 +36108,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1541</v>
+        <v>1575</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -35669,7 +36141,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1542</v>
+        <v>1576</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -35702,7 +36174,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1543</v>
+        <v>1577</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -35735,7 +36207,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1544</v>
+        <v>1578</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -35768,7 +36240,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1545</v>
+        <v>1579</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -35801,7 +36273,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1546</v>
+        <v>1580</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -35834,7 +36306,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1547</v>
+        <v>1581</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -35867,7 +36339,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1548</v>
+        <v>1582</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -35900,7 +36372,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1549</v>
+        <v>1583</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -35933,7 +36405,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1550</v>
+        <v>1584</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -35966,7 +36438,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1551</v>
+        <v>1585</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -35999,7 +36471,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1552</v>
+        <v>1586</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -36032,7 +36504,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1553</v>
+        <v>1587</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -36065,7 +36537,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1554</v>
+        <v>1588</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -36098,7 +36570,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1555</v>
+        <v>1589</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -36131,7 +36603,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1556</v>
+        <v>1590</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -36164,7 +36636,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1557</v>
+        <v>1591</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -36197,7 +36669,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1558</v>
+        <v>1592</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -36230,7 +36702,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1559</v>
+        <v>1593</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -36263,7 +36735,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1560</v>
+        <v>1594</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -36296,7 +36768,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1561</v>
+        <v>1595</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -36329,7 +36801,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1562</v>
+        <v>1596</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -36362,7 +36834,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1563</v>
+        <v>1597</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -36395,7 +36867,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1564</v>
+        <v>1598</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -36428,7 +36900,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1565</v>
+        <v>1599</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -36461,7 +36933,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -36494,7 +36966,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1567</v>
+        <v>1601</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -36527,7 +36999,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1568</v>
+        <v>1602</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -36560,7 +37032,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1569</v>
+        <v>1603</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -36593,7 +37065,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1570</v>
+        <v>1604</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -36626,7 +37098,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1571</v>
+        <v>1605</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -36659,7 +37131,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1572</v>
+        <v>1606</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -36692,7 +37164,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1573</v>
+        <v>1607</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -36725,7 +37197,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1574</v>
+        <v>1608</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -36758,7 +37230,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1575</v>
+        <v>1609</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -36791,7 +37263,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1576</v>
+        <v>1610</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -36824,7 +37296,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1577</v>
+        <v>1611</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -36857,7 +37329,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1578</v>
+        <v>1612</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -36890,7 +37362,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1579</v>
+        <v>1613</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -36923,7 +37395,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1580</v>
+        <v>1614</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -36956,7 +37428,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1581</v>
+        <v>1615</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -36989,7 +37461,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1582</v>
+        <v>1616</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -37022,7 +37494,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1583</v>
+        <v>1617</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -37055,7 +37527,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1584</v>
+        <v>1618</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -37088,7 +37560,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1585</v>
+        <v>1619</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -37121,7 +37593,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1586</v>
+        <v>1620</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -37154,7 +37626,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1587</v>
+        <v>1621</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -37187,7 +37659,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1588</v>
+        <v>1622</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -37220,7 +37692,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1589</v>
+        <v>1623</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -37253,7 +37725,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1590</v>
+        <v>1624</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -37286,7 +37758,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1591</v>
+        <v>1625</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -37319,7 +37791,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1592</v>
+        <v>1626</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -37352,7 +37824,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1593</v>
+        <v>1627</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -37385,7 +37857,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1594</v>
+        <v>1628</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -37418,7 +37890,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1595</v>
+        <v>1629</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -37451,7 +37923,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1596</v>
+        <v>1630</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -37484,7 +37956,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1597</v>
+        <v>1631</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -37517,7 +37989,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1598</v>
+        <v>1632</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -37550,7 +38022,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1599</v>
+        <v>1633</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -37583,7 +38055,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1600</v>
+        <v>1634</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -37616,7 +38088,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1601</v>
+        <v>1635</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -37649,7 +38121,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1602</v>
+        <v>1636</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -37682,7 +38154,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1603</v>
+        <v>1637</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -37715,7 +38187,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1604</v>
+        <v>1638</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -37748,7 +38220,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1605</v>
+        <v>1639</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -37781,7 +38253,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1606</v>
+        <v>1640</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -37814,7 +38286,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1607</v>
+        <v>1641</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -37847,7 +38319,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1608</v>
+        <v>1642</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -37880,7 +38352,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1609</v>
+        <v>1643</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -37913,7 +38385,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1610</v>
+        <v>1644</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -37946,7 +38418,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1611</v>
+        <v>1645</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -37979,7 +38451,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1612</v>
+        <v>1646</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -38012,7 +38484,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1613</v>
+        <v>1647</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -38045,7 +38517,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1614</v>
+        <v>1648</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -38078,7 +38550,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1615</v>
+        <v>1649</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -38111,7 +38583,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1616</v>
+        <v>1650</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -38144,7 +38616,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1617</v>
+        <v>1651</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -38177,7 +38649,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1618</v>
+        <v>1652</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -38210,7 +38682,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1619</v>
+        <v>1653</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -38243,7 +38715,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1620</v>
+        <v>1654</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -38276,7 +38748,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1621</v>
+        <v>1655</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -38309,7 +38781,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1622</v>
+        <v>1656</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -38342,7 +38814,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1623</v>
+        <v>1657</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -38375,7 +38847,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1624</v>
+        <v>1658</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -38408,7 +38880,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1625</v>
+        <v>1659</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -38441,7 +38913,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1626</v>
+        <v>1660</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -38474,7 +38946,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1627</v>
+        <v>1661</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -38507,7 +38979,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1628</v>
+        <v>1662</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -38540,7 +39012,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1629</v>
+        <v>1663</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -38573,7 +39045,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1630</v>
+        <v>1664</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -38606,7 +39078,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1631</v>
+        <v>1665</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -38639,7 +39111,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1632</v>
+        <v>1666</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -38672,7 +39144,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1633</v>
+        <v>1667</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -38705,7 +39177,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1634</v>
+        <v>1668</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -38738,7 +39210,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1635</v>
+        <v>1669</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -38771,7 +39243,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1636</v>
+        <v>1670</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -38804,7 +39276,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1637</v>
+        <v>1671</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -38837,7 +39309,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1638</v>
+        <v>1672</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -38870,7 +39342,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1639</v>
+        <v>1673</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -38903,7 +39375,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1640</v>
+        <v>1674</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -38936,7 +39408,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1641</v>
+        <v>1675</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -38969,7 +39441,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1642</v>
+        <v>1676</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -39002,7 +39474,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1643</v>
+        <v>1677</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -39035,7 +39507,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1644</v>
+        <v>1678</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -39068,7 +39540,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1645</v>
+        <v>1679</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -39101,7 +39573,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1646</v>
+        <v>1680</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -39134,7 +39606,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1647</v>
+        <v>1681</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -39167,7 +39639,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1648</v>
+        <v>1682</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -39200,7 +39672,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1649</v>
+        <v>1683</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -39233,7 +39705,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1650</v>
+        <v>1684</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -39266,7 +39738,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1651</v>
+        <v>1685</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -39299,7 +39771,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1652</v>
+        <v>1686</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -39332,7 +39804,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1653</v>
+        <v>1687</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -39365,7 +39837,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1654</v>
+        <v>1688</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -39398,7 +39870,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1655</v>
+        <v>1689</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -39431,7 +39903,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1656</v>
+        <v>1690</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -39464,7 +39936,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1657</v>
+        <v>1691</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -39497,7 +39969,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1658</v>
+        <v>1692</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -39530,7 +40002,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1659</v>
+        <v>1693</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -39563,7 +40035,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1660</v>
+        <v>1694</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -39596,7 +40068,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1661</v>
+        <v>1695</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -39629,7 +40101,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1662</v>
+        <v>1696</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -39662,7 +40134,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1663</v>
+        <v>1697</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -39695,7 +40167,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1664</v>
+        <v>1698</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -39728,7 +40200,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1665</v>
+        <v>1699</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -39761,7 +40233,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1666</v>
+        <v>1700</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -39794,7 +40266,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1667</v>
+        <v>1701</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -39827,7 +40299,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1668</v>
+        <v>1702</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -39860,7 +40332,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1669</v>
+        <v>1703</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -39893,7 +40365,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1670</v>
+        <v>1704</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -39926,7 +40398,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1671</v>
+        <v>1705</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -39959,7 +40431,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1672</v>
+        <v>1706</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -39992,7 +40464,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1673</v>
+        <v>1707</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -40025,7 +40497,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1674</v>
+        <v>1708</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -40058,7 +40530,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1675</v>
+        <v>1709</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -40091,7 +40563,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1676</v>
+        <v>1710</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -40124,7 +40596,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1677</v>
+        <v>1711</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -40157,7 +40629,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1678</v>
+        <v>1712</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -40190,7 +40662,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1679</v>
+        <v>1713</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -40223,7 +40695,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1680</v>
+        <v>1714</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -40256,7 +40728,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1681</v>
+        <v>1715</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -40289,7 +40761,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1682</v>
+        <v>1716</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -40322,7 +40794,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1683</v>
+        <v>1717</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -40355,7 +40827,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1684</v>
+        <v>1718</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -40388,7 +40860,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1685</v>
+        <v>1719</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -40421,7 +40893,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1686</v>
+        <v>1720</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -40454,7 +40926,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1687</v>
+        <v>1721</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -40487,7 +40959,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1688</v>
+        <v>1722</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -40520,7 +40992,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1689</v>
+        <v>1723</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -40553,7 +41025,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1690</v>
+        <v>1724</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -40586,7 +41058,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1691</v>
+        <v>1725</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -40619,7 +41091,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1692</v>
+        <v>1726</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -40652,7 +41124,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1693</v>
+        <v>1727</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -40685,7 +41157,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1694</v>
+        <v>1728</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -40718,7 +41190,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1695</v>
+        <v>1729</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -40751,7 +41223,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1696</v>
+        <v>1730</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -40784,7 +41256,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1697</v>
+        <v>1731</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -40817,7 +41289,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1698</v>
+        <v>1732</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -40850,7 +41322,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1699</v>
+        <v>1733</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -40883,7 +41355,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1700</v>
+        <v>1734</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -40916,7 +41388,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1701</v>
+        <v>1735</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -40949,7 +41421,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1702</v>
+        <v>1736</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -40982,7 +41454,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1703</v>
+        <v>1737</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -41015,7 +41487,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1704</v>
+        <v>1738</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -41048,7 +41520,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1705</v>
+        <v>1739</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -41081,7 +41553,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1706</v>
+        <v>1740</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -41114,7 +41586,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1707</v>
+        <v>1741</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -41147,7 +41619,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -41180,7 +41652,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1709</v>
+        <v>1743</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -41213,7 +41685,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1710</v>
+        <v>1744</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -41246,7 +41718,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1711</v>
+        <v>1745</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -41279,7 +41751,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1712</v>
+        <v>1746</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -41312,7 +41784,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1713</v>
+        <v>1747</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -41345,7 +41817,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1714</v>
+        <v>1748</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -41378,7 +41850,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1715</v>
+        <v>1749</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -41411,7 +41883,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1716</v>
+        <v>1750</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -41444,7 +41916,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1717</v>
+        <v>1751</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -41477,7 +41949,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1718</v>
+        <v>1752</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -41510,7 +41982,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1719</v>
+        <v>1753</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -41543,7 +42015,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1720</v>
+        <v>1754</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -41576,7 +42048,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1721</v>
+        <v>1755</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -41609,7 +42081,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1722</v>
+        <v>1756</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -41642,7 +42114,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1723</v>
+        <v>1757</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -41675,7 +42147,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1724</v>
+        <v>1758</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -41708,7 +42180,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1725</v>
+        <v>1759</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -41741,7 +42213,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1726</v>
+        <v>1760</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -41774,7 +42246,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1727</v>
+        <v>1761</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -41807,7 +42279,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1728</v>
+        <v>1762</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -41840,7 +42312,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1729</v>
+        <v>1763</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -41873,7 +42345,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1730</v>
+        <v>1764</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -41906,7 +42378,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1731</v>
+        <v>1765</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -41939,7 +42411,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1732</v>
+        <v>1766</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -41972,7 +42444,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1733</v>
+        <v>1767</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -42005,7 +42477,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1734</v>
+        <v>1768</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -42038,7 +42510,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1735</v>
+        <v>1769</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -42071,7 +42543,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1736</v>
+        <v>1770</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -42104,7 +42576,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1737</v>
+        <v>1771</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -42137,7 +42609,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1738</v>
+        <v>1772</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -42170,7 +42642,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1739</v>
+        <v>1773</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -42203,7 +42675,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1740</v>
+        <v>1774</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -42236,7 +42708,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1741</v>
+        <v>1775</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -42269,7 +42741,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1742</v>
+        <v>1776</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -42302,7 +42774,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1743</v>
+        <v>1777</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -42335,7 +42807,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1744</v>
+        <v>1778</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -42368,7 +42840,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1745</v>
+        <v>1779</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -42401,7 +42873,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1746</v>
+        <v>1780</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -42434,7 +42906,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1747</v>
+        <v>1781</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -42467,7 +42939,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1748</v>
+        <v>1782</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -42500,7 +42972,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1749</v>
+        <v>1783</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -42533,7 +43005,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1750</v>
+        <v>1784</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -42566,7 +43038,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1751</v>
+        <v>1785</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -42599,7 +43071,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1752</v>
+        <v>1786</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -42632,7 +43104,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1753</v>
+        <v>1787</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -42665,7 +43137,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1754</v>
+        <v>1788</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -42698,7 +43170,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1755</v>
+        <v>1789</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -42731,7 +43203,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1756</v>
+        <v>1790</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -42764,7 +43236,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1757</v>
+        <v>1791</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -42797,7 +43269,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1758</v>
+        <v>1792</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -42830,7 +43302,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1759</v>
+        <v>1793</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -42863,7 +43335,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1760</v>
+        <v>1794</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -42896,7 +43368,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1761</v>
+        <v>1795</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -42929,7 +43401,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1762</v>
+        <v>1796</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -42962,7 +43434,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1763</v>
+        <v>1797</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -42995,7 +43467,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1764</v>
+        <v>1798</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -43028,7 +43500,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1765</v>
+        <v>1799</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -43061,7 +43533,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -43094,7 +43566,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1767</v>
+        <v>1801</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -43127,7 +43599,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1768</v>
+        <v>1802</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -43160,7 +43632,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1769</v>
+        <v>1803</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -43193,7 +43665,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1770</v>
+        <v>1804</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -43226,7 +43698,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1771</v>
+        <v>1805</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -43259,7 +43731,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1772</v>
+        <v>1806</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -43292,7 +43764,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1773</v>
+        <v>1807</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -43325,7 +43797,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1774</v>
+        <v>1808</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -43358,7 +43830,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1775</v>
+        <v>1809</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -43391,7 +43863,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1776</v>
+        <v>1810</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -43424,7 +43896,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1777</v>
+        <v>1811</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -43457,7 +43929,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1778</v>
+        <v>1812</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -43490,7 +43962,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1779</v>
+        <v>1813</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -43523,7 +43995,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1780</v>
+        <v>1814</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -43556,7 +44028,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1781</v>
+        <v>1815</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -43589,7 +44061,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1782</v>
+        <v>1816</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -43622,7 +44094,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1783</v>
+        <v>1817</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -43655,7 +44127,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1784</v>
+        <v>1818</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -43688,7 +44160,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1785</v>
+        <v>1819</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -43721,7 +44193,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1786</v>
+        <v>1820</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -43754,7 +44226,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1787</v>
+        <v>1821</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -43787,7 +44259,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1788</v>
+        <v>1822</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -43820,7 +44292,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1789</v>
+        <v>1823</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -43853,7 +44325,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1790</v>
+        <v>1824</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -43886,7 +44358,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1791</v>
+        <v>1825</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -43919,7 +44391,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1792</v>
+        <v>1826</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -43952,7 +44424,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1793</v>
+        <v>1827</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -43985,7 +44457,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1794</v>
+        <v>1828</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -44018,7 +44490,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1795</v>
+        <v>1829</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -44051,7 +44523,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1796</v>
+        <v>1830</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -44084,7 +44556,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1797</v>
+        <v>1831</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -44117,7 +44589,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1798</v>
+        <v>1832</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -44150,7 +44622,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1799</v>
+        <v>1833</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -44183,7 +44655,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1800</v>
+        <v>1834</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -44216,7 +44688,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1801</v>
+        <v>1835</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -44249,7 +44721,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1802</v>
+        <v>1836</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -44282,7 +44754,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1803</v>
+        <v>1837</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -44315,7 +44787,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1804</v>
+        <v>1838</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -44348,7 +44820,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1805</v>
+        <v>1839</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -44381,7 +44853,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1806</v>
+        <v>1840</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -44414,7 +44886,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1807</v>
+        <v>1841</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -44447,7 +44919,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1808</v>
+        <v>1842</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -44480,7 +44952,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1809</v>
+        <v>1843</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -44513,7 +44985,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1810</v>
+        <v>1844</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -44546,7 +45018,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1811</v>
+        <v>1845</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -44579,7 +45051,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1812</v>
+        <v>1846</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -44612,7 +45084,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1813</v>
+        <v>1847</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -44645,7 +45117,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1814</v>
+        <v>1848</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -44678,7 +45150,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1815</v>
+        <v>1849</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -44711,7 +45183,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1816</v>
+        <v>1850</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -44744,7 +45216,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1817</v>
+        <v>1851</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -44777,7 +45249,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1818</v>
+        <v>1852</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -44812,37 +45284,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1819</v>
+        <v>1853</v>
       </c>
       <c r="C886" t="s">
-        <v>1820</v>
+        <v>1854</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1821</v>
+        <v>1855</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1822</v>
+        <v>1856</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1823</v>
+        <v>1857</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1824</v>
+        <v>1858</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1825</v>
+        <v>1859</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1826</v>
+        <v>1860</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1827</v>
+        <v>1861</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1828</v>
+        <v>1862</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1829</v>
+        <v>1863</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -44865,7 +45337,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1830</v>
+        <v>1864</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -44898,7 +45370,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1831</v>
+        <v>1865</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -44931,7 +45403,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1832</v>
+        <v>1866</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -44964,7 +45436,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1833</v>
+        <v>1867</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -44997,7 +45469,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1834</v>
+        <v>1868</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -45030,7 +45502,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1835</v>
+        <v>1869</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -45063,7 +45535,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1836</v>
+        <v>1870</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -45096,7 +45568,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1837</v>
+        <v>1871</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -45129,7 +45601,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1838</v>
+        <v>1872</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -45162,7 +45634,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1839</v>
+        <v>1873</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -45195,7 +45667,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1840</v>
+        <v>1874</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -45228,7 +45700,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1841</v>
+        <v>1875</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -45261,7 +45733,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1842</v>
+        <v>1876</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -45294,7 +45766,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1843</v>
+        <v>1877</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -45327,7 +45799,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1844</v>
+        <v>1878</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -45360,7 +45832,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1845</v>
+        <v>1879</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -45393,7 +45865,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1846</v>
+        <v>1880</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -45426,7 +45898,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1847</v>
+        <v>1881</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -45459,7 +45931,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1848</v>
+        <v>1882</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -45492,7 +45964,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1849</v>
+        <v>1883</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -45525,7 +45997,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1850</v>
+        <v>1884</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -45558,7 +46030,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1851</v>
+        <v>1885</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -45591,7 +46063,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1852</v>
+        <v>1886</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -45624,7 +46096,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1853</v>
+        <v>1887</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -45657,7 +46129,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1854</v>
+        <v>1888</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -45690,7 +46162,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1855</v>
+        <v>1889</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -45723,37 +46195,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1856</v>
+        <v>1890</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1857</v>
+        <v>1891</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1858</v>
+        <v>1892</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1859</v>
+        <v>1893</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1860</v>
+        <v>1894</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1861</v>
+        <v>1895</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1862</v>
+        <v>1896</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1863</v>
+        <v>1897</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1864</v>
+        <v>1898</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1865</v>
+        <v>1899</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1866</v>
+        <v>1900</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -45776,7 +46248,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1867</v>
+        <v>1901</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -45809,7 +46281,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1868</v>
+        <v>1902</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -45842,7 +46314,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1869</v>
+        <v>1903</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -45875,7 +46347,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1870</v>
+        <v>1904</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -45908,7 +46380,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1871</v>
+        <v>1905</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -45941,7 +46413,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1872</v>
+        <v>1906</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -45974,7 +46446,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1873</v>
+        <v>1907</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -46007,7 +46479,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1874</v>
+        <v>1908</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -46040,7 +46512,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1875</v>
+        <v>1909</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -46073,7 +46545,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1876</v>
+        <v>1910</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -46106,7 +46578,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1877</v>
+        <v>1911</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -46139,7 +46611,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1878</v>
+        <v>1912</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -46172,7 +46644,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1879</v>
+        <v>1913</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -46205,7 +46677,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1880</v>
+        <v>1914</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -46238,7 +46710,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1881</v>
+        <v>1915</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -46271,7 +46743,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1882</v>
+        <v>1916</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -46304,7 +46776,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1883</v>
+        <v>1917</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -46337,7 +46809,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1884</v>
+        <v>1918</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -46370,7 +46842,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1885</v>
+        <v>1919</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -46403,7 +46875,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1886</v>
+        <v>1920</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -46436,7 +46908,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1887</v>
+        <v>1921</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -46469,7 +46941,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1888</v>
+        <v>1922</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -46502,7 +46974,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1889</v>
+        <v>1923</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -46535,7 +47007,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1890</v>
+        <v>1924</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -46568,7 +47040,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1891</v>
+        <v>1925</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -46601,7 +47073,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1892</v>
+        <v>1926</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -46634,7 +47106,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1893</v>
+        <v>1927</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -46667,7 +47139,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1894</v>
+        <v>1928</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -46700,7 +47172,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1895</v>
+        <v>1929</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -46733,7 +47205,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1896</v>
+        <v>1930</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -46766,7 +47238,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1897</v>
+        <v>1931</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -46799,7 +47271,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1898</v>
+        <v>1932</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -46832,7 +47304,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1899</v>
+        <v>1933</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -46865,7 +47337,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1900</v>
+        <v>1934</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -46898,7 +47370,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1901</v>
+        <v>1935</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -46931,7 +47403,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1902</v>
+        <v>1936</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -46964,7 +47436,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1903</v>
+        <v>1937</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -46997,7 +47469,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1904</v>
+        <v>1938</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -47030,7 +47502,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1905</v>
+        <v>1939</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -47063,7 +47535,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1906</v>
+        <v>1940</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -47096,7 +47568,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1907</v>
+        <v>1941</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -47129,7 +47601,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1908</v>
+        <v>1942</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -47162,7 +47634,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1909</v>
+        <v>1943</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -47195,7 +47667,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1910</v>
+        <v>1944</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -47228,7 +47700,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1911</v>
+        <v>1945</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1969">
   <si>
     <t>No</t>
   </si>
@@ -4700,36 +4700,99 @@
     <t>MLBI</t>
   </si>
   <si>
+    <t>982000000000</t>
+  </si>
+  <si>
+    <t>1322000000000</t>
+  </si>
+  <si>
+    <t>1225000000000</t>
+  </si>
+  <si>
+    <t>1206000000000</t>
+  </si>
+  <si>
+    <t>666000000000</t>
+  </si>
+  <si>
+    <t>925000000000</t>
+  </si>
+  <si>
+    <t>1066000000000</t>
+  </si>
+  <si>
+    <t>1142000000000</t>
+  </si>
+  <si>
     <t>MLIA</t>
   </si>
   <si>
+    <t>652000000000</t>
+  </si>
+  <si>
     <t>MLPL</t>
   </si>
   <si>
     <t>MLPT</t>
   </si>
   <si>
+    <t>369000000000</t>
+  </si>
+  <si>
     <t>MMIX</t>
   </si>
   <si>
     <t>MMLP</t>
   </si>
   <si>
+    <t>366000000000</t>
+  </si>
+  <si>
     <t>MNCN</t>
   </si>
   <si>
+    <t>1568000000000</t>
+  </si>
+  <si>
+    <t>2353000000000</t>
+  </si>
+  <si>
+    <t>1871000000000</t>
+  </si>
+  <si>
+    <t>2577000000000</t>
+  </si>
+  <si>
+    <t>2244000000000</t>
+  </si>
+  <si>
     <t>MOLI</t>
   </si>
   <si>
     <t>MORA</t>
   </si>
   <si>
+    <t>673000000000</t>
+  </si>
+  <si>
     <t>MPIX</t>
   </si>
   <si>
     <t>MPMX</t>
   </si>
   <si>
+    <t>413000000000</t>
+  </si>
+  <si>
+    <t>3702000000000</t>
+  </si>
+  <si>
+    <t>662000000000</t>
+  </si>
+  <si>
+    <t>526000000000</t>
+  </si>
+  <si>
     <t>MPOW</t>
   </si>
   <si>
@@ -4752,6 +4815,12 @@
   </si>
   <si>
     <t>MSIN</t>
+  </si>
+  <si>
+    <t>301000000000</t>
+  </si>
+  <si>
+    <t>265000000000</t>
   </si>
   <si>
     <t>MSJA</t>
@@ -6902,8 +6971,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="C588" sqref="C588"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="G609" sqref="G609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -35453,12 +35522,24 @@
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
-      <c r="F588" s="2"/>
-      <c r="G588" s="2"/>
-      <c r="H588" s="2"/>
-      <c r="I588" s="2"/>
-      <c r="J588" s="2"/>
-      <c r="K588" s="2"/>
+      <c r="F588" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="G588" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="H588" s="2">
+        <v>48000000000</v>
+      </c>
+      <c r="I588" s="2">
+        <v>62000000000</v>
+      </c>
+      <c r="J588" s="2">
+        <v>51000000000</v>
+      </c>
+      <c r="K588" s="2">
+        <v>52000000000</v>
+      </c>
       <c r="L588" s="2"/>
       <c r="M588" s="2"/>
       <c r="N588" s="2"/>
@@ -35483,15 +35564,33 @@
       <c r="B589" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="C589" s="2"/>
-      <c r="D589" s="2"/>
-      <c r="E589" s="2"/>
-      <c r="F589" s="2"/>
-      <c r="G589" s="2"/>
-      <c r="H589" s="2"/>
-      <c r="I589" s="2"/>
-      <c r="J589" s="2"/>
-      <c r="K589" s="2"/>
+      <c r="C589" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D589" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E589" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F589" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G589" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H589" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I589" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J589" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K589" s="5" t="s">
+        <v>1564</v>
+      </c>
       <c r="L589" s="2"/>
       <c r="M589" s="2"/>
       <c r="N589" s="2"/>
@@ -35514,17 +35613,35 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C590" s="2"/>
-      <c r="D590" s="2"/>
-      <c r="E590" s="2"/>
-      <c r="F590" s="2"/>
-      <c r="G590" s="2"/>
-      <c r="H590" s="2"/>
-      <c r="I590" s="2"/>
-      <c r="J590" s="2"/>
-      <c r="K590" s="2"/>
+        <v>1565</v>
+      </c>
+      <c r="C590" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="D590" s="2">
+        <v>48000000000</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G590" s="2">
+        <v>55000000000</v>
+      </c>
+      <c r="H590" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I590" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="J590" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K590" s="5" t="s">
+        <v>611</v>
+      </c>
       <c r="L590" s="2"/>
       <c r="M590" s="2"/>
       <c r="N590" s="2"/>
@@ -35547,17 +35664,35 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C591" s="2"/>
-      <c r="D591" s="2"/>
-      <c r="E591" s="2"/>
-      <c r="F591" s="2"/>
-      <c r="G591" s="2"/>
-      <c r="H591" s="2"/>
-      <c r="I591" s="2"/>
-      <c r="J591" s="2"/>
-      <c r="K591" s="2"/>
+        <v>1567</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D591">
+        <v>-1824000000000</v>
+      </c>
+      <c r="E591">
+        <v>-1620000000000</v>
+      </c>
+      <c r="F591">
+        <v>-1402000000000</v>
+      </c>
+      <c r="G591">
+        <v>-990000000000</v>
+      </c>
+      <c r="H591">
+        <v>26000000000</v>
+      </c>
+      <c r="I591">
+        <v>-61000000000</v>
+      </c>
+      <c r="J591">
+        <v>35000000000</v>
+      </c>
+      <c r="K591" s="6" t="s">
+        <v>1520</v>
+      </c>
       <c r="L591" s="2"/>
       <c r="M591" s="2"/>
       <c r="N591" s="2"/>
@@ -35580,17 +35715,35 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C592" s="2"/>
-      <c r="D592" s="2"/>
-      <c r="E592" s="2"/>
-      <c r="F592" s="2"/>
-      <c r="G592" s="2"/>
-      <c r="H592" s="2"/>
-      <c r="I592" s="2"/>
-      <c r="J592" s="2"/>
-      <c r="K592" s="2"/>
+        <v>1568</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E592" s="2">
+        <v>84000000000</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G592" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H592" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="I592" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="J592" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="K592" s="5" t="s">
+        <v>1569</v>
+      </c>
       <c r="L592" s="2"/>
       <c r="M592" s="2"/>
       <c r="N592" s="2"/>
@@ -35613,17 +35766,27 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1560</v>
+        <v>1570</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
-      <c r="G593" s="2"/>
-      <c r="H593" s="2"/>
-      <c r="I593" s="2"/>
-      <c r="J593" s="2"/>
-      <c r="K593" s="2"/>
+      <c r="G593" s="2">
+        <v>0</v>
+      </c>
+      <c r="H593" s="2">
+        <v>25000000000</v>
+      </c>
+      <c r="I593" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="J593" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="K593" s="2">
+        <v>1000000000</v>
+      </c>
       <c r="L593" s="2"/>
       <c r="M593" s="2"/>
       <c r="N593" s="2"/>
@@ -35646,17 +35809,35 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C594" s="2"/>
-      <c r="D594" s="2"/>
-      <c r="E594" s="2"/>
-      <c r="F594" s="2"/>
-      <c r="G594" s="2"/>
-      <c r="H594" s="2"/>
-      <c r="I594" s="2"/>
-      <c r="J594" s="2"/>
-      <c r="K594" s="2"/>
+        <v>1571</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D594" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F594" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="G594" s="2">
+        <v>-89000000000</v>
+      </c>
+      <c r="H594" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I594" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="J594" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K594" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="L594" s="2"/>
       <c r="M594" s="2"/>
       <c r="N594" s="2"/>
@@ -35679,17 +35860,35 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C595" s="2"/>
-      <c r="D595" s="2"/>
-      <c r="E595" s="2"/>
-      <c r="F595" s="2"/>
-      <c r="G595" s="2"/>
-      <c r="H595" s="2"/>
-      <c r="I595" s="2"/>
-      <c r="J595" s="2"/>
-      <c r="K595" s="2"/>
+        <v>1573</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D595" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E595" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F595" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G595" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H595" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I595" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J595" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="K595" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="L595" s="2"/>
       <c r="M595" s="2"/>
       <c r="N595" s="2"/>
@@ -35712,17 +35911,33 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1563</v>
+        <v>1579</v>
       </c>
       <c r="C596" s="2"/>
-      <c r="D596" s="2"/>
-      <c r="E596" s="2"/>
-      <c r="F596" s="2"/>
-      <c r="G596" s="2"/>
-      <c r="H596" s="2"/>
-      <c r="I596" s="2"/>
-      <c r="J596" s="2"/>
-      <c r="K596" s="2"/>
+      <c r="D596" s="2">
+        <v>88000000000</v>
+      </c>
+      <c r="E596" s="2">
+        <v>94000000000</v>
+      </c>
+      <c r="F596" s="2">
+        <v>61000000000</v>
+      </c>
+      <c r="G596" s="2">
+        <v>79000000000</v>
+      </c>
+      <c r="H596" s="2">
+        <v>39000000000</v>
+      </c>
+      <c r="I596" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="J596" s="2">
+        <v>94000000000</v>
+      </c>
+      <c r="K596" s="2">
+        <v>18000000000</v>
+      </c>
       <c r="L596" s="2"/>
       <c r="M596" s="2"/>
       <c r="N596" s="2"/>
@@ -35745,17 +35960,25 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1564</v>
+        <v>1580</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
-      <c r="H597" s="2"/>
-      <c r="I597" s="2"/>
-      <c r="J597" s="2"/>
-      <c r="K597" s="2"/>
+      <c r="H597" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="I597" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J597" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K597" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="L597" s="2"/>
       <c r="M597" s="2"/>
       <c r="N597" s="2"/>
@@ -35778,17 +36001,27 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1565</v>
+        <v>1582</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
-      <c r="G598" s="2"/>
-      <c r="H598" s="2"/>
-      <c r="I598" s="2"/>
-      <c r="J598" s="2"/>
-      <c r="K598" s="2"/>
+      <c r="G598" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H598" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="I598" s="2">
+        <v>14000000000</v>
+      </c>
+      <c r="J598" s="2">
+        <v>19000000000</v>
+      </c>
+      <c r="K598" s="2">
+        <v>20000000000</v>
+      </c>
       <c r="L598" s="2"/>
       <c r="M598" s="2"/>
       <c r="N598" s="2"/>
@@ -35811,17 +36044,35 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C599" s="2"/>
-      <c r="D599" s="2"/>
-      <c r="E599" s="2"/>
-      <c r="F599" s="2"/>
-      <c r="G599" s="2"/>
-      <c r="H599" s="2"/>
-      <c r="I599" s="2"/>
-      <c r="J599" s="2"/>
-      <c r="K599" s="2"/>
+        <v>1583</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E599" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F599" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="G599" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H599" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="I599" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J599" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K599" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="L599" s="2"/>
       <c r="M599" s="2"/>
       <c r="N599" s="2"/>
@@ -35844,17 +36095,35 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C600" s="2"/>
-      <c r="D600" s="2"/>
-      <c r="E600" s="2"/>
-      <c r="F600" s="2"/>
-      <c r="G600" s="2"/>
-      <c r="H600" s="2"/>
-      <c r="I600" s="2"/>
-      <c r="J600" s="2"/>
-      <c r="K600" s="2"/>
+        <v>1588</v>
+      </c>
+      <c r="C600" s="2">
+        <v>11000000000</v>
+      </c>
+      <c r="D600" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="E600" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="F600" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="G600" s="2">
+        <v>0</v>
+      </c>
+      <c r="H600" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="I600" s="2">
+        <v>-11000000000</v>
+      </c>
+      <c r="J600" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="K600" s="2">
+        <v>-3000000000</v>
+      </c>
       <c r="L600" s="2"/>
       <c r="M600" s="2"/>
       <c r="N600" s="2"/>
@@ -35877,17 +36146,35 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
-      <c r="E601" s="2"/>
-      <c r="F601" s="2"/>
-      <c r="G601" s="2"/>
-      <c r="H601" s="2"/>
-      <c r="I601" s="2"/>
-      <c r="J601" s="2"/>
-      <c r="K601" s="2"/>
+        <v>1589</v>
+      </c>
+      <c r="C601" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="D601" s="2">
+        <v>-1243000000000</v>
+      </c>
+      <c r="E601" s="2">
+        <v>-898000000000</v>
+      </c>
+      <c r="F601" s="2">
+        <v>-553000000000</v>
+      </c>
+      <c r="G601" s="2">
+        <v>-405000000000</v>
+      </c>
+      <c r="H601" s="2">
+        <v>-338000000000</v>
+      </c>
+      <c r="I601" s="2">
+        <v>-430000000000</v>
+      </c>
+      <c r="J601" s="2">
+        <v>-255000000000</v>
+      </c>
+      <c r="K601" s="2">
+        <v>-118000000000</v>
+      </c>
       <c r="L601" s="2"/>
       <c r="M601" s="2"/>
       <c r="N601" s="2"/>
@@ -35910,17 +36197,33 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1569</v>
+        <v>1590</v>
       </c>
       <c r="C602" s="2"/>
-      <c r="D602" s="2"/>
-      <c r="E602" s="2"/>
-      <c r="F602" s="2"/>
-      <c r="G602" s="2"/>
-      <c r="H602" s="2"/>
-      <c r="I602" s="2"/>
-      <c r="J602" s="2"/>
-      <c r="K602" s="2"/>
+      <c r="D602" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="E602" s="2">
+        <v>-42000000000</v>
+      </c>
+      <c r="F602" s="2">
+        <v>32000000000</v>
+      </c>
+      <c r="G602" s="2">
+        <v>13000000000</v>
+      </c>
+      <c r="H602" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="I602" s="2">
+        <v>-29000000000</v>
+      </c>
+      <c r="J602" s="2">
+        <v>-39000000000</v>
+      </c>
+      <c r="K602" s="2">
+        <v>-39000000000</v>
+      </c>
       <c r="L602" s="2"/>
       <c r="M602" s="2"/>
       <c r="N602" s="2"/>
@@ -35943,17 +36246,29 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1570</v>
+        <v>1591</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
-      <c r="F603" s="2"/>
-      <c r="G603" s="2"/>
-      <c r="H603" s="2"/>
-      <c r="I603" s="2"/>
-      <c r="J603" s="2"/>
-      <c r="K603" s="2"/>
+      <c r="F603" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G603" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="H603" s="2">
+        <v>11000000000</v>
+      </c>
+      <c r="I603" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="J603" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="K603" s="2">
+        <v>12000000000</v>
+      </c>
       <c r="L603" s="2"/>
       <c r="M603" s="2"/>
       <c r="N603" s="2"/>
@@ -35976,17 +36291,35 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C604" s="2"/>
-      <c r="D604" s="2"/>
-      <c r="E604" s="2"/>
-      <c r="F604" s="2"/>
-      <c r="G604" s="2"/>
-      <c r="H604" s="2"/>
-      <c r="I604" s="2"/>
-      <c r="J604" s="2"/>
-      <c r="K604" s="2"/>
+        <v>1592</v>
+      </c>
+      <c r="C604" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="D604" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="E604" s="2">
+        <v>-2000000000</v>
+      </c>
+      <c r="F604" s="2">
+        <v>0</v>
+      </c>
+      <c r="G604" s="2">
+        <v>-7000000000</v>
+      </c>
+      <c r="H604" s="2">
+        <v>0</v>
+      </c>
+      <c r="I604" s="2">
+        <v>68000000000</v>
+      </c>
+      <c r="J604" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="K604" s="2">
+        <v>-5000000000</v>
+      </c>
       <c r="L604" s="2"/>
       <c r="M604" s="2"/>
       <c r="N604" s="2"/>
@@ -36009,17 +36342,35 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C605" s="2"/>
-      <c r="D605" s="2"/>
-      <c r="E605" s="2"/>
-      <c r="F605" s="2"/>
-      <c r="G605" s="2"/>
-      <c r="H605" s="2"/>
-      <c r="I605" s="2"/>
-      <c r="J605" s="2"/>
-      <c r="K605" s="2"/>
+        <v>1593</v>
+      </c>
+      <c r="C605" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D605" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E605" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F605" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G605" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H605" s="2">
+        <v>-291000000000</v>
+      </c>
+      <c r="I605" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="J605" s="2">
+        <v>61000000000</v>
+      </c>
+      <c r="K605" s="2">
+        <v>51000000000</v>
+      </c>
       <c r="L605" s="2"/>
       <c r="M605" s="2"/>
       <c r="N605" s="2"/>
@@ -36042,17 +36393,25 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1573</v>
+        <v>1594</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
-      <c r="H606" s="2"/>
-      <c r="I606" s="2"/>
-      <c r="J606" s="2"/>
-      <c r="K606" s="2"/>
+      <c r="H606" s="2">
+        <v>0</v>
+      </c>
+      <c r="I606" s="2">
+        <v>68000000000</v>
+      </c>
+      <c r="J606" s="2">
+        <v>0</v>
+      </c>
+      <c r="K606" s="2">
+        <v>0</v>
+      </c>
       <c r="L606" s="2"/>
       <c r="M606" s="2"/>
       <c r="N606" s="2"/>
@@ -36075,17 +36434,33 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1574</v>
+        <v>1595</v>
       </c>
       <c r="C607" s="2"/>
-      <c r="D607" s="2"/>
-      <c r="E607" s="2"/>
-      <c r="F607" s="2"/>
-      <c r="G607" s="2"/>
-      <c r="H607" s="2"/>
-      <c r="I607" s="2"/>
-      <c r="J607" s="2"/>
-      <c r="K607" s="2"/>
+      <c r="D607" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E607" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F607" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="G607" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H607" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I607" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J607" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K607" s="5" t="s">
+        <v>1536</v>
+      </c>
       <c r="L607" s="2"/>
       <c r="M607" s="2"/>
       <c r="N607" s="2"/>
@@ -36108,17 +36483,27 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1575</v>
+        <v>1598</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
-      <c r="G608" s="2"/>
-      <c r="H608" s="2"/>
-      <c r="I608" s="2"/>
-      <c r="J608" s="2"/>
-      <c r="K608" s="2"/>
+      <c r="G608" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H608" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="I608" s="2">
+        <v>67000000000</v>
+      </c>
+      <c r="J608" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="K608" s="2">
+        <v>89000000000</v>
+      </c>
       <c r="L608" s="2"/>
       <c r="M608" s="2"/>
       <c r="N608" s="2"/>
@@ -36141,7 +36526,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1576</v>
+        <v>1599</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -36174,7 +36559,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1577</v>
+        <v>1600</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -36207,7 +36592,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1578</v>
+        <v>1601</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -36240,7 +36625,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1579</v>
+        <v>1602</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -36273,7 +36658,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1580</v>
+        <v>1603</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -36306,7 +36691,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1581</v>
+        <v>1604</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -36339,7 +36724,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1582</v>
+        <v>1605</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -36372,7 +36757,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1583</v>
+        <v>1606</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -36405,7 +36790,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1584</v>
+        <v>1607</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -36438,7 +36823,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1585</v>
+        <v>1608</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -36471,7 +36856,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1586</v>
+        <v>1609</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -36504,7 +36889,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1587</v>
+        <v>1610</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -36537,7 +36922,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1588</v>
+        <v>1611</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -36570,7 +36955,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1589</v>
+        <v>1612</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -36603,7 +36988,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1590</v>
+        <v>1613</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -36636,7 +37021,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1591</v>
+        <v>1614</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -36669,7 +37054,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1592</v>
+        <v>1615</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -36702,7 +37087,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1593</v>
+        <v>1616</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -36735,7 +37120,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1594</v>
+        <v>1617</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -36768,7 +37153,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1595</v>
+        <v>1618</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -36801,7 +37186,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1596</v>
+        <v>1619</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -36834,7 +37219,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1597</v>
+        <v>1620</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -36867,7 +37252,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -36900,7 +37285,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1599</v>
+        <v>1622</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -36933,7 +37318,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1600</v>
+        <v>1623</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -36966,7 +37351,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1601</v>
+        <v>1624</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -36999,7 +37384,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1602</v>
+        <v>1625</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -37032,7 +37417,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1603</v>
+        <v>1626</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -37065,7 +37450,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1604</v>
+        <v>1627</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -37098,7 +37483,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1605</v>
+        <v>1628</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -37131,7 +37516,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1606</v>
+        <v>1629</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -37164,7 +37549,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1607</v>
+        <v>1630</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -37197,7 +37582,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1608</v>
+        <v>1631</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -37230,7 +37615,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1609</v>
+        <v>1632</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -37263,7 +37648,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1610</v>
+        <v>1633</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -37296,7 +37681,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1611</v>
+        <v>1634</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -37329,7 +37714,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1612</v>
+        <v>1635</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -37362,7 +37747,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1613</v>
+        <v>1636</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -37395,7 +37780,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1614</v>
+        <v>1637</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -37428,7 +37813,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1615</v>
+        <v>1638</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -37461,7 +37846,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1616</v>
+        <v>1639</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -37494,7 +37879,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1617</v>
+        <v>1640</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -37527,7 +37912,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1618</v>
+        <v>1641</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -37560,7 +37945,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1619</v>
+        <v>1642</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -37593,7 +37978,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1620</v>
+        <v>1643</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -37626,7 +38011,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1621</v>
+        <v>1644</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -37659,7 +38044,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1622</v>
+        <v>1645</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -37692,7 +38077,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1623</v>
+        <v>1646</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -37725,7 +38110,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1624</v>
+        <v>1647</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -37758,7 +38143,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1625</v>
+        <v>1648</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -37791,7 +38176,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1626</v>
+        <v>1649</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -37824,7 +38209,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1627</v>
+        <v>1650</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -37857,7 +38242,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1628</v>
+        <v>1651</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -37890,7 +38275,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1629</v>
+        <v>1652</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -37923,7 +38308,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1630</v>
+        <v>1653</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -37956,7 +38341,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1631</v>
+        <v>1654</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -37989,7 +38374,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1632</v>
+        <v>1655</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -38022,7 +38407,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1633</v>
+        <v>1656</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -38055,7 +38440,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1634</v>
+        <v>1657</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -38088,7 +38473,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1635</v>
+        <v>1658</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -38121,7 +38506,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1636</v>
+        <v>1659</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -38154,7 +38539,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1637</v>
+        <v>1660</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -38187,7 +38572,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1638</v>
+        <v>1661</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -38220,7 +38605,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1639</v>
+        <v>1662</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -38253,7 +38638,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1640</v>
+        <v>1663</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -38286,7 +38671,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1641</v>
+        <v>1664</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -38319,7 +38704,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1642</v>
+        <v>1665</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -38352,7 +38737,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1643</v>
+        <v>1666</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -38385,7 +38770,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1644</v>
+        <v>1667</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -38418,7 +38803,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1645</v>
+        <v>1668</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -38451,7 +38836,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1646</v>
+        <v>1669</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -38484,7 +38869,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1647</v>
+        <v>1670</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -38517,7 +38902,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1648</v>
+        <v>1671</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -38550,7 +38935,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1649</v>
+        <v>1672</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -38583,7 +38968,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1650</v>
+        <v>1673</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -38616,7 +39001,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1651</v>
+        <v>1674</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -38649,7 +39034,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1652</v>
+        <v>1675</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -38682,7 +39067,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1653</v>
+        <v>1676</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -38715,7 +39100,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1654</v>
+        <v>1677</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -38748,7 +39133,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1655</v>
+        <v>1678</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -38781,7 +39166,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1656</v>
+        <v>1679</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -38814,7 +39199,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1657</v>
+        <v>1680</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -38847,7 +39232,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1658</v>
+        <v>1681</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -38880,7 +39265,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1659</v>
+        <v>1682</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -38913,7 +39298,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1660</v>
+        <v>1683</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -38946,7 +39331,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1661</v>
+        <v>1684</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -38979,7 +39364,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1662</v>
+        <v>1685</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -39012,7 +39397,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1663</v>
+        <v>1686</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -39045,7 +39430,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1664</v>
+        <v>1687</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -39078,7 +39463,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1665</v>
+        <v>1688</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -39111,7 +39496,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1666</v>
+        <v>1689</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -39144,7 +39529,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1667</v>
+        <v>1690</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -39177,7 +39562,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1668</v>
+        <v>1691</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -39210,7 +39595,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1669</v>
+        <v>1692</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -39243,7 +39628,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1670</v>
+        <v>1693</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -39276,7 +39661,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1671</v>
+        <v>1694</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -39309,7 +39694,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1672</v>
+        <v>1695</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -39342,7 +39727,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1673</v>
+        <v>1696</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -39375,7 +39760,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1674</v>
+        <v>1697</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -39408,7 +39793,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1675</v>
+        <v>1698</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -39441,7 +39826,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1676</v>
+        <v>1699</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -39474,7 +39859,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1677</v>
+        <v>1700</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -39507,7 +39892,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1678</v>
+        <v>1701</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -39540,7 +39925,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1679</v>
+        <v>1702</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -39573,7 +39958,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1680</v>
+        <v>1703</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -39606,7 +39991,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1681</v>
+        <v>1704</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -39639,7 +40024,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1682</v>
+        <v>1705</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -39672,7 +40057,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1683</v>
+        <v>1706</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -39705,7 +40090,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1684</v>
+        <v>1707</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -39738,7 +40123,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1685</v>
+        <v>1708</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -39771,7 +40156,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1686</v>
+        <v>1709</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -39804,7 +40189,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1687</v>
+        <v>1710</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -39837,7 +40222,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1688</v>
+        <v>1711</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -39870,7 +40255,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1689</v>
+        <v>1712</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -39903,7 +40288,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1690</v>
+        <v>1713</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -39936,7 +40321,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1691</v>
+        <v>1714</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -39969,7 +40354,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1692</v>
+        <v>1715</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -40002,7 +40387,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1693</v>
+        <v>1716</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -40035,7 +40420,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1694</v>
+        <v>1717</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -40068,7 +40453,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1695</v>
+        <v>1718</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -40101,7 +40486,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1696</v>
+        <v>1719</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -40134,7 +40519,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1697</v>
+        <v>1720</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -40167,7 +40552,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1698</v>
+        <v>1721</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -40200,7 +40585,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1699</v>
+        <v>1722</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -40233,7 +40618,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1700</v>
+        <v>1723</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -40266,7 +40651,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1701</v>
+        <v>1724</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -40299,7 +40684,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1702</v>
+        <v>1725</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -40332,7 +40717,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1703</v>
+        <v>1726</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -40365,7 +40750,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1704</v>
+        <v>1727</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -40398,7 +40783,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1705</v>
+        <v>1728</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -40431,7 +40816,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1706</v>
+        <v>1729</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -40464,7 +40849,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1707</v>
+        <v>1730</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -40497,7 +40882,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1708</v>
+        <v>1731</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -40530,7 +40915,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1709</v>
+        <v>1732</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -40563,7 +40948,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1710</v>
+        <v>1733</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -40596,7 +40981,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1711</v>
+        <v>1734</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -40629,7 +41014,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1712</v>
+        <v>1735</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -40662,7 +41047,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1713</v>
+        <v>1736</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -40695,7 +41080,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1714</v>
+        <v>1737</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -40728,7 +41113,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1715</v>
+        <v>1738</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -40761,7 +41146,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1716</v>
+        <v>1739</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -40794,7 +41179,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1717</v>
+        <v>1740</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -40827,7 +41212,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1718</v>
+        <v>1741</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -40860,7 +41245,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1719</v>
+        <v>1742</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -40893,7 +41278,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1720</v>
+        <v>1743</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -40926,7 +41311,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1721</v>
+        <v>1744</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -40959,7 +41344,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1722</v>
+        <v>1745</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -40992,7 +41377,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1723</v>
+        <v>1746</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -41025,7 +41410,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1724</v>
+        <v>1747</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -41058,7 +41443,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1725</v>
+        <v>1748</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -41091,7 +41476,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1726</v>
+        <v>1749</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -41124,7 +41509,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1727</v>
+        <v>1750</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -41157,7 +41542,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1728</v>
+        <v>1751</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -41190,7 +41575,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1729</v>
+        <v>1752</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -41223,7 +41608,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1730</v>
+        <v>1753</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -41256,7 +41641,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1731</v>
+        <v>1754</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -41289,7 +41674,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1732</v>
+        <v>1755</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -41322,7 +41707,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1733</v>
+        <v>1756</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -41355,7 +41740,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1734</v>
+        <v>1757</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -41388,7 +41773,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1735</v>
+        <v>1758</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -41421,7 +41806,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1736</v>
+        <v>1759</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -41454,7 +41839,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1737</v>
+        <v>1760</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -41487,7 +41872,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1738</v>
+        <v>1761</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -41520,7 +41905,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1739</v>
+        <v>1762</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -41553,7 +41938,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1740</v>
+        <v>1763</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -41586,7 +41971,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1741</v>
+        <v>1764</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -41619,7 +42004,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1742</v>
+        <v>1765</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -41652,7 +42037,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1743</v>
+        <v>1766</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -41685,7 +42070,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1744</v>
+        <v>1767</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -41718,7 +42103,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1745</v>
+        <v>1768</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -41751,7 +42136,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1746</v>
+        <v>1769</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -41784,7 +42169,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1747</v>
+        <v>1770</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -41817,7 +42202,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1748</v>
+        <v>1771</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -41850,7 +42235,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1749</v>
+        <v>1772</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -41883,7 +42268,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1750</v>
+        <v>1773</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -41916,7 +42301,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1751</v>
+        <v>1774</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -41949,7 +42334,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1752</v>
+        <v>1775</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -41982,7 +42367,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1753</v>
+        <v>1776</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -42015,7 +42400,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1754</v>
+        <v>1777</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -42048,7 +42433,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1755</v>
+        <v>1778</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -42081,7 +42466,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1756</v>
+        <v>1779</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -42114,7 +42499,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1757</v>
+        <v>1780</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -42147,7 +42532,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1758</v>
+        <v>1781</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -42180,7 +42565,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1759</v>
+        <v>1782</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -42213,7 +42598,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -42246,7 +42631,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1761</v>
+        <v>1784</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -42279,7 +42664,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1762</v>
+        <v>1785</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -42312,7 +42697,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1763</v>
+        <v>1786</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -42345,7 +42730,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1764</v>
+        <v>1787</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -42378,7 +42763,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1765</v>
+        <v>1788</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -42411,7 +42796,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1766</v>
+        <v>1789</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -42444,7 +42829,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1767</v>
+        <v>1790</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -42477,7 +42862,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1768</v>
+        <v>1791</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -42510,7 +42895,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1769</v>
+        <v>1792</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -42543,7 +42928,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1770</v>
+        <v>1793</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -42576,7 +42961,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1771</v>
+        <v>1794</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -42609,7 +42994,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1772</v>
+        <v>1795</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -42642,7 +43027,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1773</v>
+        <v>1796</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -42675,7 +43060,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1774</v>
+        <v>1797</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -42708,7 +43093,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1775</v>
+        <v>1798</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -42741,7 +43126,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1776</v>
+        <v>1799</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -42774,7 +43159,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1777</v>
+        <v>1800</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -42807,7 +43192,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1778</v>
+        <v>1801</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -42840,7 +43225,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1779</v>
+        <v>1802</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -42873,7 +43258,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1780</v>
+        <v>1803</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -42906,7 +43291,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1781</v>
+        <v>1804</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -42939,7 +43324,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1782</v>
+        <v>1805</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -42972,7 +43357,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1783</v>
+        <v>1806</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -43005,7 +43390,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1784</v>
+        <v>1807</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -43038,7 +43423,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1785</v>
+        <v>1808</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -43071,7 +43456,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1786</v>
+        <v>1809</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -43104,7 +43489,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1787</v>
+        <v>1810</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -43137,7 +43522,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1788</v>
+        <v>1811</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -43170,7 +43555,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -43203,7 +43588,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1790</v>
+        <v>1813</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -43236,7 +43621,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1791</v>
+        <v>1814</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -43269,7 +43654,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1792</v>
+        <v>1815</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -43302,7 +43687,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1793</v>
+        <v>1816</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -43335,7 +43720,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1794</v>
+        <v>1817</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -43368,7 +43753,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1795</v>
+        <v>1818</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -43401,7 +43786,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1796</v>
+        <v>1819</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -43434,7 +43819,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1797</v>
+        <v>1820</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -43467,7 +43852,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1798</v>
+        <v>1821</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -43500,7 +43885,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1799</v>
+        <v>1822</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -43533,7 +43918,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1800</v>
+        <v>1823</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -43566,7 +43951,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1801</v>
+        <v>1824</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -43599,7 +43984,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1802</v>
+        <v>1825</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -43632,7 +44017,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1803</v>
+        <v>1826</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -43665,7 +44050,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1804</v>
+        <v>1827</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -43698,7 +44083,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1805</v>
+        <v>1828</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -43731,7 +44116,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1806</v>
+        <v>1829</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -43764,7 +44149,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1807</v>
+        <v>1830</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -43797,7 +44182,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1808</v>
+        <v>1831</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -43830,7 +44215,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1809</v>
+        <v>1832</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -43863,7 +44248,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1810</v>
+        <v>1833</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -43896,7 +44281,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1811</v>
+        <v>1834</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -43929,7 +44314,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1812</v>
+        <v>1835</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -43962,7 +44347,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1813</v>
+        <v>1836</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -43995,7 +44380,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1814</v>
+        <v>1837</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -44028,7 +44413,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1815</v>
+        <v>1838</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -44061,7 +44446,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1816</v>
+        <v>1839</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -44094,7 +44479,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1817</v>
+        <v>1840</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -44127,7 +44512,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1818</v>
+        <v>1841</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -44160,7 +44545,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1819</v>
+        <v>1842</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -44193,7 +44578,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1820</v>
+        <v>1843</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -44226,7 +44611,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1821</v>
+        <v>1844</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -44259,7 +44644,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1822</v>
+        <v>1845</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -44292,7 +44677,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1823</v>
+        <v>1846</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -44325,7 +44710,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1824</v>
+        <v>1847</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -44358,7 +44743,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1825</v>
+        <v>1848</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -44391,7 +44776,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1826</v>
+        <v>1849</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -44424,7 +44809,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1827</v>
+        <v>1850</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -44457,7 +44842,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1828</v>
+        <v>1851</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -44490,7 +44875,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1829</v>
+        <v>1852</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -44523,7 +44908,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1830</v>
+        <v>1853</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -44556,7 +44941,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1831</v>
+        <v>1854</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -44589,7 +44974,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1832</v>
+        <v>1855</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -44622,7 +45007,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1833</v>
+        <v>1856</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -44655,7 +45040,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1834</v>
+        <v>1857</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -44688,7 +45073,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1835</v>
+        <v>1858</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -44721,7 +45106,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1836</v>
+        <v>1859</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -44754,7 +45139,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1837</v>
+        <v>1860</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -44787,7 +45172,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1838</v>
+        <v>1861</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -44820,7 +45205,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1839</v>
+        <v>1862</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -44853,7 +45238,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1840</v>
+        <v>1863</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -44886,7 +45271,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1841</v>
+        <v>1864</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -44919,7 +45304,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1842</v>
+        <v>1865</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -44952,7 +45337,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1843</v>
+        <v>1866</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -44985,7 +45370,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1844</v>
+        <v>1867</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -45018,7 +45403,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1845</v>
+        <v>1868</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -45051,7 +45436,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1846</v>
+        <v>1869</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -45084,7 +45469,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1847</v>
+        <v>1870</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -45117,7 +45502,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1848</v>
+        <v>1871</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -45150,7 +45535,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1849</v>
+        <v>1872</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -45183,7 +45568,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1850</v>
+        <v>1873</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -45216,7 +45601,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1851</v>
+        <v>1874</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -45249,7 +45634,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1852</v>
+        <v>1875</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -45284,37 +45669,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1853</v>
+        <v>1876</v>
       </c>
       <c r="C886" t="s">
-        <v>1854</v>
+        <v>1877</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1855</v>
+        <v>1878</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1856</v>
+        <v>1879</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1857</v>
+        <v>1880</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1858</v>
+        <v>1881</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1859</v>
+        <v>1882</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1860</v>
+        <v>1883</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1861</v>
+        <v>1884</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1862</v>
+        <v>1885</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1863</v>
+        <v>1886</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -45337,7 +45722,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1864</v>
+        <v>1887</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -45370,7 +45755,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1865</v>
+        <v>1888</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -45403,7 +45788,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1866</v>
+        <v>1889</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -45436,7 +45821,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1867</v>
+        <v>1890</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -45469,7 +45854,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1868</v>
+        <v>1891</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -45502,7 +45887,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1869</v>
+        <v>1892</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -45535,7 +45920,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1870</v>
+        <v>1893</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -45568,7 +45953,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1871</v>
+        <v>1894</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -45601,7 +45986,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1872</v>
+        <v>1895</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -45634,7 +46019,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1873</v>
+        <v>1896</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -45667,7 +46052,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1874</v>
+        <v>1897</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -45700,7 +46085,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1875</v>
+        <v>1898</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -45733,7 +46118,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1876</v>
+        <v>1899</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -45766,7 +46151,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1877</v>
+        <v>1900</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -45799,7 +46184,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1878</v>
+        <v>1901</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -45832,7 +46217,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1879</v>
+        <v>1902</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -45865,7 +46250,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1880</v>
+        <v>1903</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -45898,7 +46283,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1881</v>
+        <v>1904</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -45931,7 +46316,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1882</v>
+        <v>1905</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -45964,7 +46349,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1883</v>
+        <v>1906</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -45997,7 +46382,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1884</v>
+        <v>1907</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -46030,7 +46415,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1885</v>
+        <v>1908</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -46063,7 +46448,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1886</v>
+        <v>1909</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -46096,7 +46481,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1887</v>
+        <v>1910</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -46129,7 +46514,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1888</v>
+        <v>1911</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -46162,7 +46547,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1889</v>
+        <v>1912</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -46195,37 +46580,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1890</v>
+        <v>1913</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1892</v>
+        <v>1915</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1893</v>
+        <v>1916</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1894</v>
+        <v>1917</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1895</v>
+        <v>1918</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1896</v>
+        <v>1919</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1897</v>
+        <v>1920</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1898</v>
+        <v>1921</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1899</v>
+        <v>1922</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1900</v>
+        <v>1923</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -46248,7 +46633,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1901</v>
+        <v>1924</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -46281,7 +46666,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1902</v>
+        <v>1925</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -46314,7 +46699,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1903</v>
+        <v>1926</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -46347,7 +46732,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1904</v>
+        <v>1927</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -46380,7 +46765,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1905</v>
+        <v>1928</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -46413,7 +46798,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1906</v>
+        <v>1929</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -46446,7 +46831,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1907</v>
+        <v>1930</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -46479,7 +46864,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1908</v>
+        <v>1931</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -46512,7 +46897,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1909</v>
+        <v>1932</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -46545,7 +46930,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1910</v>
+        <v>1933</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -46578,7 +46963,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1911</v>
+        <v>1934</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -46611,7 +46996,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1912</v>
+        <v>1935</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -46644,7 +47029,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -46677,7 +47062,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1914</v>
+        <v>1937</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -46710,7 +47095,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1915</v>
+        <v>1938</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -46743,7 +47128,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1916</v>
+        <v>1939</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -46776,7 +47161,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1917</v>
+        <v>1940</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -46809,7 +47194,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1918</v>
+        <v>1941</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -46842,7 +47227,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1919</v>
+        <v>1942</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -46875,7 +47260,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1920</v>
+        <v>1943</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -46908,7 +47293,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1921</v>
+        <v>1944</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -46941,7 +47326,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -46974,7 +47359,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1923</v>
+        <v>1946</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -47007,7 +47392,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1924</v>
+        <v>1947</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -47040,7 +47425,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1925</v>
+        <v>1948</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -47073,7 +47458,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1926</v>
+        <v>1949</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -47106,7 +47491,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1927</v>
+        <v>1950</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -47139,7 +47524,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1928</v>
+        <v>1951</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -47172,7 +47557,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1929</v>
+        <v>1952</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -47205,7 +47590,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1930</v>
+        <v>1953</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -47238,7 +47623,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1931</v>
+        <v>1954</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -47271,7 +47656,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1932</v>
+        <v>1955</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -47304,7 +47689,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1933</v>
+        <v>1956</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -47337,7 +47722,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1934</v>
+        <v>1957</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -47370,7 +47755,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1935</v>
+        <v>1958</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -47403,7 +47788,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1936</v>
+        <v>1959</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -47436,7 +47821,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1937</v>
+        <v>1960</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -47469,7 +47854,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1938</v>
+        <v>1961</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -47502,7 +47887,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1939</v>
+        <v>1962</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -47535,7 +47920,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1940</v>
+        <v>1963</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -47568,7 +47953,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1941</v>
+        <v>1964</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -47601,7 +47986,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1942</v>
+        <v>1965</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -47634,7 +48019,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1943</v>
+        <v>1966</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -47667,7 +48052,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1944</v>
+        <v>1967</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -47700,7 +48085,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1945</v>
+        <v>1968</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="2032">
   <si>
     <t>No</t>
   </si>
@@ -4835,18 +4835,63 @@
     <t>MTDL</t>
   </si>
   <si>
+    <t>426000000000</t>
+  </si>
+  <si>
+    <t>535000000000</t>
+  </si>
+  <si>
+    <t>542000000000</t>
+  </si>
+  <si>
+    <t>762000000000</t>
+  </si>
+  <si>
+    <t>867000000000</t>
+  </si>
+  <si>
+    <t>1071000000000</t>
+  </si>
+  <si>
     <t>MTEL</t>
   </si>
   <si>
+    <t>493000000000</t>
+  </si>
+  <si>
+    <t>602000000000</t>
+  </si>
+  <si>
+    <t>1381000000000</t>
+  </si>
+  <si>
+    <t>1785000000000</t>
+  </si>
+  <si>
+    <t>2010000000000</t>
+  </si>
+  <si>
+    <t>2108000000000</t>
+  </si>
+  <si>
     <t>MTFN</t>
   </si>
   <si>
     <t>MTLA</t>
   </si>
   <si>
+    <t>317000000000</t>
+  </si>
+  <si>
+    <t>507000000000</t>
+  </si>
+  <si>
     <t>MTMH</t>
   </si>
   <si>
+    <t>131000000000</t>
+  </si>
+  <si>
     <t>MTPS</t>
   </si>
   <si>
@@ -4865,9 +4910,45 @@
     <t>MYOH</t>
   </si>
   <si>
+    <t>441000000000</t>
+  </si>
+  <si>
+    <t>328000000000</t>
+  </si>
+  <si>
+    <t>386000000000</t>
+  </si>
+  <si>
+    <t>282000000000</t>
+  </si>
+  <si>
+    <t>257000000000</t>
+  </si>
+  <si>
     <t>MYOR</t>
   </si>
   <si>
+    <t>1389000000000</t>
+  </si>
+  <si>
+    <t>1631000000000</t>
+  </si>
+  <si>
+    <t>1760000000000</t>
+  </si>
+  <si>
+    <t>2039000000000</t>
+  </si>
+  <si>
+    <t>2098000000000</t>
+  </si>
+  <si>
+    <t>3245000000000</t>
+  </si>
+  <si>
+    <t>3068000000000</t>
+  </si>
+  <si>
     <t>MYTX</t>
   </si>
   <si>
@@ -4892,9 +4973,21 @@
     <t>NCKL</t>
   </si>
   <si>
+    <t>4589000000000</t>
+  </si>
+  <si>
+    <t>7068000000000</t>
+  </si>
+  <si>
+    <t>7712000000000</t>
+  </si>
+  <si>
     <t>NELY</t>
   </si>
   <si>
+    <t>229000000000</t>
+  </si>
+  <si>
     <t>NEST</t>
   </si>
   <si>
@@ -4904,6 +4997,9 @@
     <t>NFCX</t>
   </si>
   <si>
+    <t>339000000000</t>
+  </si>
+  <si>
     <t>NICE</t>
   </si>
   <si>
@@ -4925,6 +5021,30 @@
     <t>NISP</t>
   </si>
   <si>
+    <t>2176000000000</t>
+  </si>
+  <si>
+    <t>2638000000000</t>
+  </si>
+  <si>
+    <t>2939000000000</t>
+  </si>
+  <si>
+    <t>2102000000000</t>
+  </si>
+  <si>
+    <t>2520000000000</t>
+  </si>
+  <si>
+    <t>3327000000000</t>
+  </si>
+  <si>
+    <t>4091000000000</t>
+  </si>
+  <si>
+    <t>4867000000000</t>
+  </si>
+  <si>
     <t>NOBU</t>
   </si>
   <si>
@@ -4964,12 +5084,21 @@
     <t>OKAS</t>
   </si>
   <si>
+    <t>411000000000</t>
+  </si>
+  <si>
     <t>OLIV</t>
   </si>
   <si>
     <t>OMED</t>
   </si>
   <si>
+    <t>228000000000</t>
+  </si>
+  <si>
+    <t>291000000000</t>
+  </si>
+  <si>
     <t>OMRE</t>
   </si>
   <si>
@@ -4988,24 +5117,45 @@
     <t>PALM</t>
   </si>
   <si>
+    <t>1994000000000</t>
+  </si>
+  <si>
+    <t>2014000000000</t>
+  </si>
+  <si>
     <t>PAMG</t>
   </si>
   <si>
     <t>PANI</t>
   </si>
   <si>
+    <t>288000000000</t>
+  </si>
+  <si>
+    <t>1268000000000</t>
+  </si>
+  <si>
     <t>PANR</t>
   </si>
   <si>
     <t>PANS</t>
   </si>
   <si>
+    <t>256000000000</t>
+  </si>
+  <si>
     <t>PART</t>
   </si>
   <si>
     <t>PBID</t>
   </si>
   <si>
+    <t>298000000000</t>
+  </si>
+  <si>
+    <t>416000000000</t>
+  </si>
+  <si>
     <t>PBRX</t>
   </si>
   <si>
@@ -5033,7 +5183,46 @@
     <t>PGAS</t>
   </si>
   <si>
+    <t>4106000000000</t>
+  </si>
+  <si>
+    <t>5196000000000</t>
+  </si>
+  <si>
+    <t>1598000000000</t>
+  </si>
+  <si>
+    <t>5217000000000</t>
+  </si>
+  <si>
+    <t>5970000000000</t>
+  </si>
+  <si>
+    <t>5745000000000</t>
+  </si>
+  <si>
+    <t>6968000000000</t>
+  </si>
+  <si>
     <t>PGEO</t>
+  </si>
+  <si>
+    <t>1352000000000</t>
+  </si>
+  <si>
+    <t>1062000000000</t>
+  </si>
+  <si>
+    <t>1217000000000</t>
+  </si>
+  <si>
+    <t>1894000000000</t>
+  </si>
+  <si>
+    <t>2495000000000</t>
+  </si>
+  <si>
+    <t>2541000000000</t>
   </si>
   <si>
     <t>PGJO</t>
@@ -6971,8 +7160,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="G609" sqref="G609"/>
+    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
+      <selection activeCell="C682" sqref="C682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -36528,15 +36717,33 @@
       <c r="B609" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="C609" s="2"/>
-      <c r="D609" s="2"/>
-      <c r="E609" s="2"/>
-      <c r="F609" s="2"/>
-      <c r="G609" s="2"/>
-      <c r="H609" s="2"/>
-      <c r="I609" s="2"/>
-      <c r="J609" s="2"/>
-      <c r="K609" s="2"/>
+      <c r="C609" s="2">
+        <v>-197000000000</v>
+      </c>
+      <c r="D609" s="2">
+        <v>-289000000000</v>
+      </c>
+      <c r="E609" s="2">
+        <v>-228000000000</v>
+      </c>
+      <c r="F609" s="2">
+        <v>-75000000000</v>
+      </c>
+      <c r="G609" s="2">
+        <v>-201000000000</v>
+      </c>
+      <c r="H609" s="2">
+        <v>-182000000000</v>
+      </c>
+      <c r="I609" s="2">
+        <v>-245000000000</v>
+      </c>
+      <c r="J609" s="2">
+        <v>-275000000000</v>
+      </c>
+      <c r="K609" s="2">
+        <v>-117000000000</v>
+      </c>
       <c r="L609" s="2"/>
       <c r="M609" s="2"/>
       <c r="N609" s="2"/>
@@ -36565,11 +36772,21 @@
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
-      <c r="G610" s="2"/>
-      <c r="H610" s="2"/>
-      <c r="I610" s="2"/>
-      <c r="J610" s="2"/>
-      <c r="K610" s="2"/>
+      <c r="G610" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H610" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="I610" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J610" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="K610" s="5" t="s">
+        <v>1230</v>
+      </c>
       <c r="L610" s="2"/>
       <c r="M610" s="2"/>
       <c r="N610" s="2"/>
@@ -36594,15 +36811,33 @@
       <c r="B611" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="C611" s="2"/>
-      <c r="D611" s="2"/>
-      <c r="E611" s="2"/>
-      <c r="F611" s="2"/>
-      <c r="G611" s="2"/>
-      <c r="H611" s="2"/>
-      <c r="I611" s="2"/>
-      <c r="J611" s="2"/>
-      <c r="K611" s="2"/>
+      <c r="C611" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D611" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E611" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F611" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G611" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H611" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I611" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J611" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K611" s="5" t="s">
+        <v>1607</v>
+      </c>
       <c r="L611" s="2"/>
       <c r="M611" s="2"/>
       <c r="N611" s="2"/>
@@ -36625,17 +36860,31 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
-      <c r="E612" s="2"/>
-      <c r="F612" s="2"/>
-      <c r="G612" s="2"/>
-      <c r="H612" s="2"/>
-      <c r="I612" s="2"/>
-      <c r="J612" s="2"/>
-      <c r="K612" s="2"/>
+      <c r="E612" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H612" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I612" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J612" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K612" s="5" t="s">
+        <v>1614</v>
+      </c>
       <c r="L612" s="2"/>
       <c r="M612" s="2"/>
       <c r="N612" s="2"/>
@@ -36658,17 +36907,35 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C613" s="2"/>
-      <c r="D613" s="2"/>
-      <c r="E613" s="2"/>
-      <c r="F613" s="2"/>
-      <c r="G613" s="2"/>
-      <c r="H613" s="2"/>
-      <c r="I613" s="2"/>
-      <c r="J613" s="2"/>
-      <c r="K613" s="2"/>
+        <v>1615</v>
+      </c>
+      <c r="C613" s="2">
+        <v>-1212000000000</v>
+      </c>
+      <c r="D613" s="2">
+        <v>14000000000</v>
+      </c>
+      <c r="E613" s="2">
+        <v>14000000000</v>
+      </c>
+      <c r="F613" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="G613" s="2">
+        <v>-34000000000</v>
+      </c>
+      <c r="H613" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="I613" s="2">
+        <v>-339000000000</v>
+      </c>
+      <c r="J613" s="2">
+        <v>-30000000000</v>
+      </c>
+      <c r="K613" s="2">
+        <v>-88000000000</v>
+      </c>
       <c r="L613" s="2"/>
       <c r="M613" s="2"/>
       <c r="N613" s="2"/>
@@ -36691,17 +36958,35 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C614" s="2"/>
-      <c r="D614" s="2"/>
-      <c r="E614" s="2"/>
-      <c r="F614" s="2"/>
-      <c r="G614" s="2"/>
-      <c r="H614" s="2"/>
-      <c r="I614" s="2"/>
-      <c r="J614" s="2"/>
-      <c r="K614" s="2"/>
+        <v>1616</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D614" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H614" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I614" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="J614" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K614" s="5" t="s">
+        <v>1230</v>
+      </c>
       <c r="L614" s="2"/>
       <c r="M614" s="2"/>
       <c r="N614" s="2"/>
@@ -36724,17 +37009,31 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1605</v>
+        <v>1619</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
-      <c r="E615" s="2"/>
-      <c r="F615" s="2"/>
-      <c r="G615" s="2"/>
-      <c r="H615" s="2"/>
-      <c r="I615" s="2"/>
-      <c r="J615" s="2"/>
-      <c r="K615" s="2"/>
+      <c r="E615" s="2">
+        <v>-11000000000</v>
+      </c>
+      <c r="F615" s="2">
+        <v>-86000000000</v>
+      </c>
+      <c r="G615" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="H615" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I615" s="2">
+        <v>65000000000</v>
+      </c>
+      <c r="J615" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="K615" s="2">
+        <v>3000000000</v>
+      </c>
       <c r="L615" s="2"/>
       <c r="M615" s="2"/>
       <c r="N615" s="2"/>
@@ -36757,17 +37056,31 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1606</v>
+        <v>1621</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
-      <c r="E616" s="2"/>
-      <c r="F616" s="2"/>
-      <c r="G616" s="2"/>
-      <c r="H616" s="2"/>
-      <c r="I616" s="2"/>
-      <c r="J616" s="2"/>
-      <c r="K616" s="2"/>
+      <c r="E616" s="2">
+        <v>19000000000</v>
+      </c>
+      <c r="F616" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="G616" s="2">
+        <v>-29000000000</v>
+      </c>
+      <c r="H616" s="2">
+        <v>-232000000000</v>
+      </c>
+      <c r="I616" s="2">
+        <v>-43000000000</v>
+      </c>
+      <c r="J616" s="2">
+        <v>-16000000000</v>
+      </c>
+      <c r="K616" s="2">
+        <v>-5000000000</v>
+      </c>
       <c r="L616" s="2"/>
       <c r="M616" s="2"/>
       <c r="N616" s="2"/>
@@ -36790,17 +37103,31 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1607</v>
+        <v>1622</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
-      <c r="E617" s="2"/>
-      <c r="F617" s="2"/>
-      <c r="G617" s="2"/>
-      <c r="H617" s="2"/>
-      <c r="I617" s="2"/>
-      <c r="J617" s="2"/>
-      <c r="K617" s="2"/>
+      <c r="E617" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="F617" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="G617" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="H617" s="2">
+        <v>-21000000000</v>
+      </c>
+      <c r="I617" s="2">
+        <v>-11000000000</v>
+      </c>
+      <c r="J617" s="2">
+        <v>-91000000000</v>
+      </c>
+      <c r="K617" s="2">
+        <v>-81000000000</v>
+      </c>
       <c r="L617" s="2"/>
       <c r="M617" s="2"/>
       <c r="N617" s="2"/>
@@ -36823,17 +37150,35 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
-      <c r="E618" s="2"/>
-      <c r="F618" s="2"/>
-      <c r="G618" s="2"/>
-      <c r="H618" s="2"/>
-      <c r="I618" s="2"/>
-      <c r="J618" s="2"/>
-      <c r="K618" s="2"/>
+        <v>1623</v>
+      </c>
+      <c r="C618" s="2">
+        <v>-2000000000</v>
+      </c>
+      <c r="D618" s="2">
+        <v>-5000000000</v>
+      </c>
+      <c r="E618" s="2">
+        <v>-7000000000</v>
+      </c>
+      <c r="F618" s="2">
+        <v>-8000000000</v>
+      </c>
+      <c r="G618" s="2">
+        <v>-9000000000</v>
+      </c>
+      <c r="H618" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="I618" s="2">
+        <v>-7000000000</v>
+      </c>
+      <c r="J618" s="2">
+        <v>-7000000000</v>
+      </c>
+      <c r="K618" s="2">
+        <v>-1000000000</v>
+      </c>
       <c r="L618" s="2"/>
       <c r="M618" s="2"/>
       <c r="N618" s="2"/>
@@ -36856,17 +37201,33 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1609</v>
+        <v>1624</v>
       </c>
       <c r="C619" s="2"/>
-      <c r="D619" s="2"/>
-      <c r="E619" s="2"/>
-      <c r="F619" s="2"/>
-      <c r="G619" s="2"/>
-      <c r="H619" s="2"/>
-      <c r="I619" s="2"/>
-      <c r="J619" s="2"/>
-      <c r="K619" s="2"/>
+      <c r="D619" s="2">
+        <v>-5000000000</v>
+      </c>
+      <c r="E619" s="2">
+        <v>-4000000000</v>
+      </c>
+      <c r="F619" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="G619" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="H619" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="I619" s="2">
+        <v>-8000000000</v>
+      </c>
+      <c r="J619" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="K619" s="2">
+        <v>76000000000</v>
+      </c>
       <c r="L619" s="2"/>
       <c r="M619" s="2"/>
       <c r="N619" s="2"/>
@@ -36889,17 +37250,27 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1610</v>
+        <v>1625</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
-      <c r="G620" s="2"/>
-      <c r="H620" s="2"/>
-      <c r="I620" s="2"/>
-      <c r="J620" s="2"/>
-      <c r="K620" s="2"/>
+      <c r="G620" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="H620" s="2">
+        <v>19000000000</v>
+      </c>
+      <c r="I620" s="2">
+        <v>37000000000</v>
+      </c>
+      <c r="J620" s="2">
+        <v>31000000000</v>
+      </c>
+      <c r="K620" s="2">
+        <v>24000000000</v>
+      </c>
       <c r="L620" s="2"/>
       <c r="M620" s="2"/>
       <c r="N620" s="2"/>
@@ -36922,17 +37293,35 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C621" s="2"/>
-      <c r="D621" s="2"/>
-      <c r="E621" s="2"/>
-      <c r="F621" s="2"/>
-      <c r="G621" s="2"/>
-      <c r="H621" s="2"/>
-      <c r="I621" s="2"/>
-      <c r="J621" s="2"/>
-      <c r="K621" s="2"/>
+        <v>1626</v>
+      </c>
+      <c r="C621" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E621" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F621" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G621" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H621" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I621" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J621" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K621" s="5" t="s">
+        <v>1631</v>
+      </c>
       <c r="L621" s="2"/>
       <c r="M621" s="2"/>
       <c r="N621" s="2"/>
@@ -36955,17 +37344,35 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C622" s="2"/>
-      <c r="D622" s="2"/>
-      <c r="E622" s="2"/>
-      <c r="F622" s="2"/>
-      <c r="G622" s="2"/>
-      <c r="H622" s="2"/>
-      <c r="I622" s="2"/>
-      <c r="J622" s="2"/>
-      <c r="K622" s="2"/>
+        <v>1632</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E622" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G622" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H622" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="I622" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J622" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K622" s="5" t="s">
+        <v>1639</v>
+      </c>
       <c r="L622" s="2"/>
       <c r="M622" s="2"/>
       <c r="N622" s="2"/>
@@ -36988,17 +37395,35 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C623" s="2"/>
-      <c r="D623" s="2"/>
-      <c r="E623" s="2"/>
-      <c r="F623" s="2"/>
-      <c r="G623" s="2"/>
-      <c r="H623" s="2"/>
-      <c r="I623" s="2"/>
-      <c r="J623" s="2"/>
-      <c r="K623" s="2"/>
+        <v>1640</v>
+      </c>
+      <c r="C623" s="2">
+        <v>-356000000000</v>
+      </c>
+      <c r="D623" s="2">
+        <v>-286000000000</v>
+      </c>
+      <c r="E623" s="2">
+        <v>-170000000000</v>
+      </c>
+      <c r="F623" s="2">
+        <v>-241000000000</v>
+      </c>
+      <c r="G623" s="2">
+        <v>-115000000000</v>
+      </c>
+      <c r="H623" s="2">
+        <v>-140000000000</v>
+      </c>
+      <c r="I623" s="2">
+        <v>-21000000000</v>
+      </c>
+      <c r="J623" s="2">
+        <v>-352000000000</v>
+      </c>
+      <c r="K623" s="2">
+        <v>-76000000000</v>
+      </c>
       <c r="L623" s="2"/>
       <c r="M623" s="2"/>
       <c r="N623" s="2"/>
@@ -37021,17 +37446,25 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1614</v>
+        <v>1641</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
-      <c r="H624" s="2"/>
-      <c r="I624" s="2"/>
-      <c r="J624" s="2"/>
-      <c r="K624" s="2"/>
+      <c r="H624" s="2">
+        <v>8000000000</v>
+      </c>
+      <c r="I624" s="2">
+        <v>11000000000</v>
+      </c>
+      <c r="J624" s="2">
+        <v>13000000000</v>
+      </c>
+      <c r="K624" s="2">
+        <v>31000000000</v>
+      </c>
       <c r="L624" s="2"/>
       <c r="M624" s="2"/>
       <c r="N624" s="2"/>
@@ -37054,17 +37487,29 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1615</v>
+        <v>1642</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
-      <c r="F625" s="2"/>
-      <c r="G625" s="2"/>
-      <c r="H625" s="2"/>
-      <c r="I625" s="2"/>
-      <c r="J625" s="2"/>
-      <c r="K625" s="2"/>
+      <c r="F625" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G625" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="H625" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="I625" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="J625" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K625" s="2">
+        <v>1000000000</v>
+      </c>
       <c r="L625" s="2"/>
       <c r="M625" s="2"/>
       <c r="N625" s="2"/>
@@ -37087,17 +37532,35 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C626" s="2"/>
-      <c r="D626" s="2"/>
-      <c r="E626" s="2"/>
-      <c r="F626" s="2"/>
-      <c r="G626" s="2"/>
-      <c r="H626" s="2"/>
-      <c r="I626" s="2"/>
-      <c r="J626" s="2"/>
-      <c r="K626" s="2"/>
+        <v>1643</v>
+      </c>
+      <c r="C626" s="2">
+        <v>0</v>
+      </c>
+      <c r="D626" s="2">
+        <v>-20000000000</v>
+      </c>
+      <c r="E626" s="2">
+        <v>0</v>
+      </c>
+      <c r="F626" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="G626" s="2">
+        <v>-7000000000</v>
+      </c>
+      <c r="H626" s="2">
+        <v>-5000000000</v>
+      </c>
+      <c r="I626" s="2">
+        <v>0</v>
+      </c>
+      <c r="J626" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="K626" s="2">
+        <v>8000000000</v>
+      </c>
       <c r="L626" s="2"/>
       <c r="M626" s="2"/>
       <c r="N626" s="2"/>
@@ -37120,17 +37583,29 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1617</v>
+        <v>1644</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
-      <c r="F627" s="2"/>
-      <c r="G627" s="2"/>
-      <c r="H627" s="2"/>
-      <c r="I627" s="2"/>
-      <c r="J627" s="2"/>
-      <c r="K627" s="2"/>
+      <c r="F627" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="G627" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H627" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I627" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J627" s="2">
+        <v>0</v>
+      </c>
+      <c r="K627" s="2">
+        <v>0</v>
+      </c>
       <c r="L627" s="2"/>
       <c r="M627" s="2"/>
       <c r="N627" s="2"/>
@@ -37153,17 +37628,33 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1618</v>
+        <v>1645</v>
       </c>
       <c r="C628" s="2"/>
-      <c r="D628" s="2"/>
-      <c r="E628" s="2"/>
-      <c r="F628" s="2"/>
-      <c r="G628" s="2"/>
-      <c r="H628" s="2"/>
-      <c r="I628" s="2"/>
-      <c r="J628" s="2"/>
-      <c r="K628" s="2"/>
+      <c r="D628" s="2">
+        <v>0</v>
+      </c>
+      <c r="E628" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="F628" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="G628" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H628" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="I628" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="J628" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K628" s="2">
+        <v>1000000000</v>
+      </c>
       <c r="L628" s="2"/>
       <c r="M628" s="2"/>
       <c r="N628" s="2"/>
@@ -37186,17 +37677,27 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1619</v>
+        <v>1646</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
-      <c r="G629" s="2"/>
-      <c r="H629" s="2"/>
-      <c r="I629" s="2"/>
-      <c r="J629" s="2"/>
-      <c r="K629" s="2"/>
+      <c r="G629" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H629" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I629" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="J629" s="2">
+        <v>0</v>
+      </c>
+      <c r="K629" s="2">
+        <v>0</v>
+      </c>
       <c r="L629" s="2"/>
       <c r="M629" s="2"/>
       <c r="N629" s="2"/>
@@ -37219,7 +37720,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1620</v>
+        <v>1647</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -37227,9 +37728,15 @@
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
       <c r="H630" s="2"/>
-      <c r="I630" s="2"/>
-      <c r="J630" s="2"/>
-      <c r="K630" s="2"/>
+      <c r="I630" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J630" s="5" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K630" s="5" t="s">
+        <v>1650</v>
+      </c>
       <c r="L630" s="2"/>
       <c r="M630" s="2"/>
       <c r="N630" s="2"/>
@@ -37252,17 +37759,35 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C631" s="2"/>
-      <c r="D631" s="2"/>
-      <c r="E631" s="2"/>
-      <c r="F631" s="2"/>
-      <c r="G631" s="2"/>
-      <c r="H631" s="2"/>
-      <c r="I631" s="2"/>
-      <c r="J631" s="2"/>
-      <c r="K631" s="2"/>
+        <v>1651</v>
+      </c>
+      <c r="C631" s="2">
+        <v>14000000000</v>
+      </c>
+      <c r="D631" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="E631" s="2">
+        <v>53000000000</v>
+      </c>
+      <c r="F631" s="2">
+        <v>52000000000</v>
+      </c>
+      <c r="G631" s="2">
+        <v>44000000000</v>
+      </c>
+      <c r="H631" s="2">
+        <v>51000000000</v>
+      </c>
+      <c r="I631" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J631" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K631" s="5" t="s">
+        <v>1380</v>
+      </c>
       <c r="L631" s="2"/>
       <c r="M631" s="2"/>
       <c r="N631" s="2"/>
@@ -37285,17 +37810,25 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1622</v>
+        <v>1653</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
-      <c r="H632" s="2"/>
-      <c r="I632" s="2"/>
-      <c r="J632" s="2"/>
-      <c r="K632" s="2"/>
+      <c r="H632" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="I632" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="J632" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="K632" s="2">
+        <v>27000000000</v>
+      </c>
       <c r="L632" s="2"/>
       <c r="M632" s="2"/>
       <c r="N632" s="2"/>
@@ -37318,17 +37851,31 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1623</v>
+        <v>1654</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
-      <c r="E633" s="2"/>
-      <c r="F633" s="2"/>
-      <c r="G633" s="2"/>
-      <c r="H633" s="2"/>
-      <c r="I633" s="2"/>
-      <c r="J633" s="2"/>
-      <c r="K633" s="2"/>
+      <c r="E633" s="2">
+        <v>-171000000000</v>
+      </c>
+      <c r="F633" s="2">
+        <v>-423000000000</v>
+      </c>
+      <c r="G633" s="2">
+        <v>-616000000000</v>
+      </c>
+      <c r="H633" s="2">
+        <v>-172000000000</v>
+      </c>
+      <c r="I633" s="2">
+        <v>-182000000000</v>
+      </c>
+      <c r="J633" s="2">
+        <v>-634000000000</v>
+      </c>
+      <c r="K633" s="2">
+        <v>-79000000000</v>
+      </c>
       <c r="L633" s="2"/>
       <c r="M633" s="2"/>
       <c r="N633" s="2"/>
@@ -37351,17 +37898,33 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1624</v>
+        <v>1655</v>
       </c>
       <c r="C634" s="2"/>
-      <c r="D634" s="2"/>
-      <c r="E634" s="2"/>
-      <c r="F634" s="2"/>
-      <c r="G634" s="2"/>
-      <c r="H634" s="2"/>
-      <c r="I634" s="2"/>
-      <c r="J634" s="2"/>
-      <c r="K634" s="2"/>
+      <c r="D634" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="E634" s="2">
+        <v>22000000000</v>
+      </c>
+      <c r="F634" s="2">
+        <v>57000000000</v>
+      </c>
+      <c r="G634" s="2">
+        <v>54000000000</v>
+      </c>
+      <c r="H634" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I634" s="2">
+        <v>23000000000</v>
+      </c>
+      <c r="J634" s="2">
+        <v>-478000000000</v>
+      </c>
+      <c r="K634" s="2">
+        <v>-147000000000</v>
+      </c>
       <c r="L634" s="2"/>
       <c r="M634" s="2"/>
       <c r="N634" s="2"/>
@@ -37384,17 +37947,27 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1625</v>
+        <v>1657</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
-      <c r="G635" s="2"/>
-      <c r="H635" s="2"/>
-      <c r="I635" s="2"/>
-      <c r="J635" s="2"/>
-      <c r="K635" s="2"/>
+      <c r="G635" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="H635" s="2">
+        <v>47000000000</v>
+      </c>
+      <c r="I635" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J635" s="2">
+        <v>62000000000</v>
+      </c>
+      <c r="K635" s="2">
+        <v>34000000000</v>
+      </c>
       <c r="L635" s="2"/>
       <c r="M635" s="2"/>
       <c r="N635" s="2"/>
@@ -37417,17 +37990,33 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1626</v>
+        <v>1658</v>
       </c>
       <c r="C636" s="2"/>
-      <c r="D636" s="2"/>
-      <c r="E636" s="2"/>
-      <c r="F636" s="2"/>
-      <c r="G636" s="2"/>
-      <c r="H636" s="2"/>
-      <c r="I636" s="2"/>
-      <c r="J636" s="2"/>
-      <c r="K636" s="2"/>
+      <c r="D636" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="E636" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="F636" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="G636" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="H636" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I636" s="2">
+        <v>-51000000000</v>
+      </c>
+      <c r="J636" s="2">
+        <v>-68000000000</v>
+      </c>
+      <c r="K636" s="2">
+        <v>8000000000</v>
+      </c>
       <c r="L636" s="2"/>
       <c r="M636" s="2"/>
       <c r="N636" s="2"/>
@@ -37450,17 +38039,33 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1627</v>
+        <v>1659</v>
       </c>
       <c r="C637" s="2"/>
-      <c r="D637" s="2"/>
-      <c r="E637" s="2"/>
-      <c r="F637" s="2"/>
-      <c r="G637" s="2"/>
-      <c r="H637" s="2"/>
-      <c r="I637" s="2"/>
-      <c r="J637" s="2"/>
-      <c r="K637" s="2"/>
+      <c r="D637" s="2">
+        <v>-12000000000</v>
+      </c>
+      <c r="E637" s="2">
+        <v>-16000000000</v>
+      </c>
+      <c r="F637" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="G637" s="2">
+        <v>32000000000</v>
+      </c>
+      <c r="H637" s="2">
+        <v>45000000000</v>
+      </c>
+      <c r="I637" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J637" s="2">
+        <v>27000000000</v>
+      </c>
+      <c r="K637" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="L637" s="2"/>
       <c r="M637" s="2"/>
       <c r="N637" s="2"/>
@@ -37483,17 +38088,35 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C638" s="2"/>
-      <c r="D638" s="2"/>
-      <c r="E638" s="2"/>
-      <c r="F638" s="2"/>
-      <c r="G638" s="2"/>
-      <c r="H638" s="2"/>
-      <c r="I638" s="2"/>
-      <c r="J638" s="2"/>
-      <c r="K638" s="2"/>
+        <v>1660</v>
+      </c>
+      <c r="C638" s="2">
+        <v>34000000000</v>
+      </c>
+      <c r="D638" s="2">
+        <v>18000000000</v>
+      </c>
+      <c r="E638" s="2">
+        <v>-22000000000</v>
+      </c>
+      <c r="F638" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="G638" s="2">
+        <v>40000000000</v>
+      </c>
+      <c r="H638" s="2">
+        <v>84000000000</v>
+      </c>
+      <c r="I638" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="J638" s="2">
+        <v>-56000000000</v>
+      </c>
+      <c r="K638" s="2">
+        <v>0</v>
+      </c>
       <c r="L638" s="2"/>
       <c r="M638" s="2"/>
       <c r="N638" s="2"/>
@@ -37516,17 +38139,27 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1629</v>
+        <v>1661</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
-      <c r="G639" s="2"/>
-      <c r="H639" s="2"/>
-      <c r="I639" s="2"/>
-      <c r="J639" s="2"/>
-      <c r="K639" s="2"/>
+      <c r="G639" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="H639" s="2">
+        <v>0</v>
+      </c>
+      <c r="I639" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="J639" s="2">
+        <v>-4000000000</v>
+      </c>
+      <c r="K639" s="2">
+        <v>-6000000000</v>
+      </c>
       <c r="L639" s="2"/>
       <c r="M639" s="2"/>
       <c r="N639" s="2"/>
@@ -37549,17 +38182,35 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C640" s="2"/>
-      <c r="D640" s="2"/>
-      <c r="E640" s="2"/>
-      <c r="F640" s="2"/>
-      <c r="G640" s="2"/>
-      <c r="H640" s="2"/>
-      <c r="I640" s="2"/>
-      <c r="J640" s="2"/>
-      <c r="K640" s="2"/>
+        <v>1662</v>
+      </c>
+      <c r="C640" s="2">
+        <v>-31000000000</v>
+      </c>
+      <c r="D640" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="E640" s="2">
+        <v>-35000000000</v>
+      </c>
+      <c r="F640" s="2">
+        <v>-42000000000</v>
+      </c>
+      <c r="G640" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H640" s="2">
+        <v>-164000000000</v>
+      </c>
+      <c r="I640" s="2">
+        <v>-355000000000</v>
+      </c>
+      <c r="J640" s="2">
+        <v>-313000000000</v>
+      </c>
+      <c r="K640" s="2">
+        <v>-505000000000</v>
+      </c>
       <c r="L640" s="2"/>
       <c r="M640" s="2"/>
       <c r="N640" s="2"/>
@@ -37582,17 +38233,35 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C641" s="2"/>
-      <c r="D641" s="2"/>
-      <c r="E641" s="2"/>
-      <c r="F641" s="2"/>
-      <c r="G641" s="2"/>
-      <c r="H641" s="2"/>
-      <c r="I641" s="2"/>
-      <c r="J641" s="2"/>
-      <c r="K641" s="2"/>
+        <v>1663</v>
+      </c>
+      <c r="C641" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D641" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E641" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F641" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G641" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H641" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I641" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J641" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K641" s="5" t="s">
+        <v>1671</v>
+      </c>
       <c r="L641" s="2"/>
       <c r="M641" s="2"/>
       <c r="N641" s="2"/>
@@ -37615,17 +38284,35 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C642" s="2"/>
-      <c r="D642" s="2"/>
-      <c r="E642" s="2"/>
-      <c r="F642" s="2"/>
-      <c r="G642" s="2"/>
-      <c r="H642" s="2"/>
-      <c r="I642" s="2"/>
-      <c r="J642" s="2"/>
-      <c r="K642" s="2"/>
+        <v>1672</v>
+      </c>
+      <c r="C642" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="D642" s="2">
+        <v>35000000000</v>
+      </c>
+      <c r="E642" s="2">
+        <v>45000000000</v>
+      </c>
+      <c r="F642" s="2">
+        <v>46000000000</v>
+      </c>
+      <c r="G642" s="2">
+        <v>54000000000</v>
+      </c>
+      <c r="H642" s="2">
+        <v>64000000000</v>
+      </c>
+      <c r="I642" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J642" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="K642" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="L642" s="2"/>
       <c r="M642" s="2"/>
       <c r="N642" s="2"/>
@@ -37648,17 +38335,33 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1633</v>
+        <v>1673</v>
       </c>
       <c r="C643" s="2"/>
-      <c r="D643" s="2"/>
-      <c r="E643" s="2"/>
-      <c r="F643" s="2"/>
-      <c r="G643" s="2"/>
-      <c r="H643" s="2"/>
-      <c r="I643" s="2"/>
-      <c r="J643" s="2"/>
-      <c r="K643" s="2"/>
+      <c r="D643" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="E643" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="F643" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="G643" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="H643" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="I643" s="2">
+        <v>-38000000000</v>
+      </c>
+      <c r="J643" s="2">
+        <v>60000000000</v>
+      </c>
+      <c r="K643" s="2">
+        <v>3000000000</v>
+      </c>
       <c r="L643" s="2"/>
       <c r="M643" s="2"/>
       <c r="N643" s="2"/>
@@ -37681,17 +38384,35 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C644" s="2"/>
-      <c r="D644" s="2"/>
-      <c r="E644" s="2"/>
-      <c r="F644" s="2"/>
-      <c r="G644" s="2"/>
-      <c r="H644" s="2"/>
-      <c r="I644" s="2"/>
-      <c r="J644" s="2"/>
-      <c r="K644" s="2"/>
+        <v>1674</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F644" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G644" s="2">
+        <v>55000000000</v>
+      </c>
+      <c r="H644" s="2">
+        <v>52000000000</v>
+      </c>
+      <c r="I644" s="2">
+        <v>75000000000</v>
+      </c>
+      <c r="J644" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K644" s="2">
+        <v>82000000000</v>
+      </c>
       <c r="L644" s="2"/>
       <c r="M644" s="2"/>
       <c r="N644" s="2"/>
@@ -37714,17 +38435,29 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1635</v>
+        <v>1675</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
-      <c r="F645" s="2"/>
-      <c r="G645" s="2"/>
-      <c r="H645" s="2"/>
-      <c r="I645" s="2"/>
-      <c r="J645" s="2"/>
-      <c r="K645" s="2"/>
+      <c r="F645" s="2">
+        <v>-240000000000</v>
+      </c>
+      <c r="G645" s="2">
+        <v>19000000000</v>
+      </c>
+      <c r="H645" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I645" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="J645" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="K645" s="5" t="s">
+        <v>771</v>
+      </c>
       <c r="L645" s="2"/>
       <c r="M645" s="2"/>
       <c r="N645" s="2"/>
@@ -37747,17 +38480,31 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1636</v>
+        <v>1676</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
-      <c r="E646" s="2"/>
-      <c r="F646" s="2"/>
-      <c r="G646" s="2"/>
-      <c r="H646" s="2"/>
-      <c r="I646" s="2"/>
-      <c r="J646" s="2"/>
-      <c r="K646" s="2"/>
+      <c r="E646" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="F646" s="2">
+        <v>0</v>
+      </c>
+      <c r="G646" s="2">
+        <v>0</v>
+      </c>
+      <c r="H646" s="2">
+        <v>0</v>
+      </c>
+      <c r="I646" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="J646" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="K646" s="2">
+        <v>1000000000</v>
+      </c>
       <c r="L646" s="2"/>
       <c r="M646" s="2"/>
       <c r="N646" s="2"/>
@@ -37780,11 +38527,15 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1637</v>
+        <v>1677</v>
       </c>
       <c r="C647" s="2"/>
-      <c r="D647" s="2"/>
-      <c r="E647" s="2"/>
+      <c r="D647" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="E647" s="2">
+        <v>-15000000000</v>
+      </c>
       <c r="F647" s="2"/>
       <c r="G647" s="2"/>
       <c r="H647" s="2"/>
@@ -37813,17 +38564,31 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1638</v>
+        <v>1678</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
-      <c r="E648" s="2"/>
-      <c r="F648" s="2"/>
-      <c r="G648" s="2"/>
-      <c r="H648" s="2"/>
-      <c r="I648" s="2"/>
-      <c r="J648" s="2"/>
-      <c r="K648" s="2"/>
+      <c r="E648" s="2">
+        <v>0</v>
+      </c>
+      <c r="F648" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="G648" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="H648" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="I648" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="J648" s="2">
+        <v>-9000000000</v>
+      </c>
+      <c r="K648" s="2">
+        <v>-8000000000</v>
+      </c>
       <c r="L648" s="2"/>
       <c r="M648" s="2"/>
       <c r="N648" s="2"/>
@@ -37846,17 +38611,35 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C649" s="2"/>
-      <c r="D649" s="2"/>
-      <c r="E649" s="2"/>
-      <c r="F649" s="2"/>
-      <c r="G649" s="2"/>
-      <c r="H649" s="2"/>
-      <c r="I649" s="2"/>
-      <c r="J649" s="2"/>
-      <c r="K649" s="2"/>
+        <v>1679</v>
+      </c>
+      <c r="C649" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="D649" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="E649" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="F649" s="2">
+        <v>-2000000000</v>
+      </c>
+      <c r="G649" s="2">
+        <v>0</v>
+      </c>
+      <c r="H649" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I649" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="J649" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="K649" s="2">
+        <v>-64000000000</v>
+      </c>
       <c r="L649" s="2"/>
       <c r="M649" s="2"/>
       <c r="N649" s="2"/>
@@ -37879,17 +38662,25 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1640</v>
+        <v>1680</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
-      <c r="H650" s="2"/>
-      <c r="I650" s="2"/>
-      <c r="J650" s="2"/>
-      <c r="K650" s="2"/>
+      <c r="H650" s="2">
+        <v>15000000000</v>
+      </c>
+      <c r="I650" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="J650" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="K650" s="2">
+        <v>30000000000</v>
+      </c>
       <c r="L650" s="2"/>
       <c r="M650" s="2"/>
       <c r="N650" s="2"/>
@@ -37912,17 +38703,31 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1641</v>
+        <v>1681</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
-      <c r="E651" s="2"/>
-      <c r="F651" s="2"/>
-      <c r="G651" s="2"/>
-      <c r="H651" s="2"/>
-      <c r="I651" s="2"/>
-      <c r="J651" s="2"/>
-      <c r="K651" s="2"/>
+      <c r="E651" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="F651" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="G651" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="H651" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="I651" s="2">
+        <v>8000000000</v>
+      </c>
+      <c r="J651" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="K651" s="2">
+        <v>39000000000</v>
+      </c>
       <c r="L651" s="2"/>
       <c r="M651" s="2"/>
       <c r="N651" s="2"/>
@@ -37945,13 +38750,23 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C652" s="2"/>
-      <c r="D652" s="2"/>
-      <c r="E652" s="2"/>
-      <c r="F652" s="2"/>
-      <c r="G652" s="2"/>
+        <v>1682</v>
+      </c>
+      <c r="C652" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D652" s="2">
+        <v>11000000000</v>
+      </c>
+      <c r="E652" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="F652" s="2">
+        <v>11000000000</v>
+      </c>
+      <c r="G652" s="2">
+        <v>5000000000</v>
+      </c>
       <c r="H652" s="2"/>
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
@@ -37978,17 +38793,31 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1643</v>
+        <v>1683</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
-      <c r="E653" s="2"/>
-      <c r="F653" s="2"/>
-      <c r="G653" s="2"/>
-      <c r="H653" s="2"/>
-      <c r="I653" s="2"/>
-      <c r="J653" s="2"/>
-      <c r="K653" s="2"/>
+      <c r="E653" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="F653" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="G653" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="H653" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="I653" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="J653" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="K653" s="2">
+        <v>6000000000</v>
+      </c>
       <c r="L653" s="2"/>
       <c r="M653" s="2"/>
       <c r="N653" s="2"/>
@@ -38011,17 +38840,35 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C654" s="2"/>
-      <c r="D654" s="2"/>
-      <c r="E654" s="2"/>
-      <c r="F654" s="2"/>
-      <c r="G654" s="2"/>
-      <c r="H654" s="2"/>
-      <c r="I654" s="2"/>
-      <c r="J654" s="2"/>
-      <c r="K654" s="2"/>
+        <v>1684</v>
+      </c>
+      <c r="C654" s="2">
+        <v>-113000000000</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E654" s="2">
+        <v>-99000000000</v>
+      </c>
+      <c r="F654" s="2">
+        <v>18000000000</v>
+      </c>
+      <c r="G654" s="2">
+        <v>-123000000000</v>
+      </c>
+      <c r="H654" s="2">
+        <v>-86000000000</v>
+      </c>
+      <c r="I654" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J654" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="K654" s="5" t="s">
+        <v>1685</v>
+      </c>
       <c r="L654" s="2"/>
       <c r="M654" s="2"/>
       <c r="N654" s="2"/>
@@ -38044,17 +38891,27 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1645</v>
+        <v>1686</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
-      <c r="G655" s="2"/>
-      <c r="H655" s="2"/>
-      <c r="I655" s="2"/>
-      <c r="J655" s="2"/>
-      <c r="K655" s="2"/>
+      <c r="G655" s="2">
+        <v>0</v>
+      </c>
+      <c r="H655" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I655" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J655" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="K655" s="2">
+        <v>-6000000000</v>
+      </c>
       <c r="L655" s="2"/>
       <c r="M655" s="2"/>
       <c r="N655" s="2"/>
@@ -38077,17 +38934,29 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1646</v>
+        <v>1687</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
-      <c r="F656" s="2"/>
-      <c r="G656" s="2"/>
-      <c r="H656" s="2"/>
-      <c r="I656" s="2"/>
-      <c r="J656" s="2"/>
-      <c r="K656" s="2"/>
+      <c r="F656" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G656" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="H656" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I656" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J656" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="K656" s="5" t="s">
+        <v>628</v>
+      </c>
       <c r="L656" s="2"/>
       <c r="M656" s="2"/>
       <c r="N656" s="2"/>
@@ -38110,17 +38979,35 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C657" s="2"/>
-      <c r="D657" s="2"/>
-      <c r="E657" s="2"/>
-      <c r="F657" s="2"/>
-      <c r="G657" s="2"/>
-      <c r="H657" s="2"/>
-      <c r="I657" s="2"/>
-      <c r="J657" s="2"/>
-      <c r="K657" s="2"/>
+        <v>1690</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D657" s="2">
+        <v>-66000000000</v>
+      </c>
+      <c r="E657" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F657" s="2">
+        <v>-60000000000</v>
+      </c>
+      <c r="G657" s="2">
+        <v>-223000000000</v>
+      </c>
+      <c r="H657" s="2">
+        <v>-171000000000</v>
+      </c>
+      <c r="I657" s="2">
+        <v>-236000000000</v>
+      </c>
+      <c r="J657" s="2">
+        <v>-164000000000</v>
+      </c>
+      <c r="K657" s="2">
+        <v>-147000000000</v>
+      </c>
       <c r="L657" s="2"/>
       <c r="M657" s="2"/>
       <c r="N657" s="2"/>
@@ -38143,17 +39030,31 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1648</v>
+        <v>1691</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
-      <c r="E658" s="2"/>
-      <c r="F658" s="2"/>
-      <c r="G658" s="2"/>
-      <c r="H658" s="2"/>
-      <c r="I658" s="2"/>
-      <c r="J658" s="2"/>
-      <c r="K658" s="2"/>
+      <c r="E658" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="F658" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="G658" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H658" s="2">
+        <v>0</v>
+      </c>
+      <c r="I658" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="J658" s="2">
+        <v>-5000000000</v>
+      </c>
+      <c r="K658" s="2">
+        <v>-8000000000</v>
+      </c>
       <c r="L658" s="2"/>
       <c r="M658" s="2"/>
       <c r="N658" s="2"/>
@@ -38176,17 +39077,29 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1649</v>
+        <v>1692</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
-      <c r="F659" s="2"/>
-      <c r="G659" s="2"/>
-      <c r="H659" s="2"/>
-      <c r="I659" s="2"/>
-      <c r="J659" s="2"/>
-      <c r="K659" s="2"/>
+      <c r="F659" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="G659" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="H659" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="I659" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="J659" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="K659" s="2">
+        <v>-17000000000</v>
+      </c>
       <c r="L659" s="2"/>
       <c r="M659" s="2"/>
       <c r="N659" s="2"/>
@@ -38209,17 +39122,26 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C660" s="2"/>
-      <c r="D660" s="2"/>
-      <c r="E660" s="2"/>
-      <c r="F660" s="2"/>
-      <c r="G660" s="2"/>
-      <c r="H660" s="2"/>
-      <c r="I660" s="2"/>
-      <c r="J660" s="2"/>
-      <c r="K660" s="2"/>
+        <v>1693</v>
+      </c>
+      <c r="F660">
+        <v>-10000000000</v>
+      </c>
+      <c r="G660">
+        <v>4000000000</v>
+      </c>
+      <c r="H660">
+        <v>4000000000</v>
+      </c>
+      <c r="I660">
+        <v>4000000000</v>
+      </c>
+      <c r="J660">
+        <v>-6000000000</v>
+      </c>
+      <c r="K660">
+        <v>-17000000000</v>
+      </c>
       <c r="L660" s="2"/>
       <c r="M660" s="2"/>
       <c r="N660" s="2"/>
@@ -38242,17 +39164,35 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C661" s="2"/>
-      <c r="D661" s="2"/>
-      <c r="E661" s="2"/>
-      <c r="F661" s="2"/>
-      <c r="G661" s="2"/>
-      <c r="H661" s="2"/>
-      <c r="I661" s="2"/>
-      <c r="J661" s="2"/>
-      <c r="K661" s="2"/>
+        <v>1694</v>
+      </c>
+      <c r="C661" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="D661" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="E661" s="2">
+        <v>51000000000</v>
+      </c>
+      <c r="F661" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="G661" s="2">
+        <v>-114000000000</v>
+      </c>
+      <c r="H661" s="2">
+        <v>-77000000000</v>
+      </c>
+      <c r="I661" s="2">
+        <v>-47000000000</v>
+      </c>
+      <c r="J661" s="2">
+        <v>-24000000000</v>
+      </c>
+      <c r="K661" s="2">
+        <v>-14000000000</v>
+      </c>
       <c r="L661" s="2"/>
       <c r="M661" s="2"/>
       <c r="N661" s="2"/>
@@ -38275,17 +39215,35 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C662" s="2"/>
-      <c r="D662" s="2"/>
-      <c r="E662" s="2"/>
-      <c r="F662" s="2"/>
-      <c r="G662" s="2"/>
-      <c r="H662" s="2"/>
-      <c r="I662" s="2"/>
-      <c r="J662" s="2"/>
-      <c r="K662" s="2"/>
+        <v>1695</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D662" s="2">
+        <v>68000000000</v>
+      </c>
+      <c r="E662" s="2">
+        <v>-111000000000</v>
+      </c>
+      <c r="F662" s="2">
+        <v>-71000000000</v>
+      </c>
+      <c r="G662" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H662" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I662" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="J662" s="2">
+        <v>-3304000000000</v>
+      </c>
+      <c r="K662" s="2">
+        <v>-1983000000000</v>
+      </c>
       <c r="L662" s="2"/>
       <c r="M662" s="2"/>
       <c r="N662" s="2"/>
@@ -38308,17 +39266,31 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1653</v>
+        <v>1698</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
-      <c r="E663" s="2"/>
-      <c r="F663" s="2"/>
-      <c r="G663" s="2"/>
-      <c r="H663" s="2"/>
-      <c r="I663" s="2"/>
-      <c r="J663" s="2"/>
-      <c r="K663" s="2"/>
+      <c r="E663" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F663" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="G663" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="H663" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="I663" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="J663" s="2">
+        <v>0</v>
+      </c>
+      <c r="K663" s="2">
+        <v>5000000000</v>
+      </c>
       <c r="L663" s="2"/>
       <c r="M663" s="2"/>
       <c r="N663" s="2"/>
@@ -38341,17 +39313,33 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1654</v>
+        <v>1699</v>
       </c>
       <c r="C664" s="2"/>
-      <c r="D664" s="2"/>
-      <c r="E664" s="2"/>
-      <c r="F664" s="2"/>
-      <c r="G664" s="2"/>
-      <c r="H664" s="2"/>
-      <c r="I664" s="2"/>
-      <c r="J664" s="2"/>
-      <c r="K664" s="2"/>
+      <c r="D664" s="2">
+        <v>0</v>
+      </c>
+      <c r="E664" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="F664" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="G664" s="2">
+        <v>0</v>
+      </c>
+      <c r="H664" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="I664" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J664" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K664" s="5" t="s">
+        <v>1701</v>
+      </c>
       <c r="L664" s="2"/>
       <c r="M664" s="2"/>
       <c r="N664" s="2"/>
@@ -38374,17 +39362,35 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C665" s="2"/>
-      <c r="D665" s="2"/>
-      <c r="E665" s="2"/>
-      <c r="F665" s="2"/>
-      <c r="G665" s="2"/>
-      <c r="H665" s="2"/>
-      <c r="I665" s="2"/>
-      <c r="J665" s="2"/>
-      <c r="K665" s="2"/>
+        <v>1702</v>
+      </c>
+      <c r="C665" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="D665" s="2">
+        <v>36000000000</v>
+      </c>
+      <c r="E665" s="2">
+        <v>-25000000000</v>
+      </c>
+      <c r="F665" s="2">
+        <v>-23000000000</v>
+      </c>
+      <c r="G665" s="2">
+        <v>-216000000000</v>
+      </c>
+      <c r="H665" s="2">
+        <v>-135000000000</v>
+      </c>
+      <c r="I665" s="2">
+        <v>29000000000</v>
+      </c>
+      <c r="J665" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="K665" s="5" t="s">
+        <v>673</v>
+      </c>
       <c r="L665" s="2"/>
       <c r="M665" s="2"/>
       <c r="N665" s="2"/>
@@ -38407,17 +39413,35 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C666" s="2"/>
-      <c r="D666" s="2"/>
-      <c r="E666" s="2"/>
-      <c r="F666" s="2"/>
-      <c r="G666" s="2"/>
-      <c r="H666" s="2"/>
-      <c r="I666" s="2"/>
-      <c r="J666" s="2"/>
-      <c r="K666" s="2"/>
+        <v>1703</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E666" s="2">
+        <v>87000000000</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G666" s="2">
+        <v>86000000000</v>
+      </c>
+      <c r="H666" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I666" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J666" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K666" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="L666" s="2"/>
       <c r="M666" s="2"/>
       <c r="N666" s="2"/>
@@ -38440,17 +39464,25 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1657</v>
+        <v>1705</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
-      <c r="H667" s="2"/>
-      <c r="I667" s="2"/>
-      <c r="J667" s="2"/>
-      <c r="K667" s="2"/>
+      <c r="H667" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="I667" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="J667" s="2">
+        <v>16000000000</v>
+      </c>
+      <c r="K667" s="2">
+        <v>23000000000</v>
+      </c>
       <c r="L667" s="2"/>
       <c r="M667" s="2"/>
       <c r="N667" s="2"/>
@@ -38473,17 +39505,35 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C668" s="2"/>
-      <c r="D668" s="2"/>
-      <c r="E668" s="2"/>
-      <c r="F668" s="2"/>
-      <c r="G668" s="2"/>
-      <c r="H668" s="2"/>
-      <c r="I668" s="2"/>
-      <c r="J668" s="2"/>
-      <c r="K668" s="2"/>
+        <v>1706</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E668" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F668" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="G668" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="H668" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I668" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="J668" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="K668" s="5" t="s">
+        <v>905</v>
+      </c>
       <c r="L668" s="2"/>
       <c r="M668" s="2"/>
       <c r="N668" s="2"/>
@@ -38506,17 +39556,35 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C669" s="2"/>
-      <c r="D669" s="2"/>
-      <c r="E669" s="2"/>
-      <c r="F669" s="2"/>
-      <c r="G669" s="2"/>
-      <c r="H669" s="2"/>
-      <c r="I669" s="2"/>
-      <c r="J669" s="2"/>
-      <c r="K669" s="2"/>
+        <v>1709</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E669" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F669" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G669" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H669" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I669" s="2">
+        <v>35000000000</v>
+      </c>
+      <c r="J669" s="2">
+        <v>-66000000000</v>
+      </c>
+      <c r="K669" s="2">
+        <v>-7227000000000</v>
+      </c>
       <c r="L669" s="2"/>
       <c r="M669" s="2"/>
       <c r="N669" s="2"/>
@@ -38539,17 +39607,35 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C670" s="2"/>
-      <c r="D670" s="2"/>
-      <c r="E670" s="2"/>
-      <c r="F670" s="2"/>
-      <c r="G670" s="2"/>
-      <c r="H670" s="2"/>
-      <c r="I670" s="2"/>
-      <c r="J670" s="2"/>
-      <c r="K670" s="2"/>
+        <v>1710</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D670" s="2">
+        <v>97000000000</v>
+      </c>
+      <c r="E670" s="2">
+        <v>44000000000</v>
+      </c>
+      <c r="F670" s="2">
+        <v>13000000000</v>
+      </c>
+      <c r="G670" s="2">
+        <v>43000000000</v>
+      </c>
+      <c r="H670" s="2">
+        <v>83000000000</v>
+      </c>
+      <c r="I670" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J670" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K670" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="L670" s="2"/>
       <c r="M670" s="2"/>
       <c r="N670" s="2"/>
@@ -38572,17 +39658,35 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C671" s="2"/>
-      <c r="D671" s="2"/>
-      <c r="E671" s="2"/>
-      <c r="F671" s="2"/>
-      <c r="G671" s="2"/>
-      <c r="H671" s="2"/>
-      <c r="I671" s="2"/>
-      <c r="J671" s="2"/>
-      <c r="K671" s="2"/>
+        <v>1711</v>
+      </c>
+      <c r="C671">
+        <v>-10000000000</v>
+      </c>
+      <c r="D671">
+        <v>0</v>
+      </c>
+      <c r="E671">
+        <v>-8000000000</v>
+      </c>
+      <c r="F671">
+        <v>-10000000000</v>
+      </c>
+      <c r="G671">
+        <v>-16000000000</v>
+      </c>
+      <c r="H671">
+        <v>1000000000</v>
+      </c>
+      <c r="I671">
+        <v>5000000000</v>
+      </c>
+      <c r="J671">
+        <v>9000000000</v>
+      </c>
+      <c r="K671">
+        <v>0</v>
+      </c>
       <c r="L671" s="2"/>
       <c r="M671" s="2"/>
       <c r="N671" s="2"/>
@@ -38605,17 +39709,35 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C672" s="2"/>
-      <c r="D672" s="2"/>
-      <c r="E672" s="2"/>
-      <c r="F672" s="2"/>
-      <c r="G672" s="2"/>
-      <c r="H672" s="2"/>
-      <c r="I672" s="2"/>
-      <c r="J672" s="2"/>
-      <c r="K672" s="2"/>
+        <v>1712</v>
+      </c>
+      <c r="C672" s="2">
+        <v>25000000000</v>
+      </c>
+      <c r="D672" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="E672" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="F672" s="2">
+        <v>-15000000000</v>
+      </c>
+      <c r="G672" s="2">
+        <v>-87000000000</v>
+      </c>
+      <c r="H672" s="2">
+        <v>-63000000000</v>
+      </c>
+      <c r="I672" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J672" s="2">
+        <v>35000000000</v>
+      </c>
+      <c r="K672" s="2">
+        <v>18000000000</v>
+      </c>
       <c r="L672" s="2"/>
       <c r="M672" s="2"/>
       <c r="N672" s="2"/>
@@ -38638,17 +39760,29 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1663</v>
+        <v>1713</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
-      <c r="F673" s="2"/>
-      <c r="G673" s="2"/>
-      <c r="H673" s="2"/>
-      <c r="I673" s="2"/>
-      <c r="J673" s="2"/>
-      <c r="K673" s="2"/>
+      <c r="F673" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="G673" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="H673" s="2">
+        <v>12000000000</v>
+      </c>
+      <c r="I673" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="J673" s="2">
+        <v>34000000000</v>
+      </c>
+      <c r="K673" s="2">
+        <v>24000000000</v>
+      </c>
       <c r="L673" s="2"/>
       <c r="M673" s="2"/>
       <c r="N673" s="2"/>
@@ -38671,17 +39805,35 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C674" s="2"/>
-      <c r="D674" s="2"/>
-      <c r="E674" s="2"/>
-      <c r="F674" s="2"/>
-      <c r="G674" s="2"/>
-      <c r="H674" s="2"/>
-      <c r="I674" s="2"/>
-      <c r="J674" s="2"/>
-      <c r="K674" s="2"/>
+        <v>1714</v>
+      </c>
+      <c r="C674" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="D674" s="2">
+        <v>32000000000</v>
+      </c>
+      <c r="E674" s="2">
+        <v>56000000000</v>
+      </c>
+      <c r="F674" s="2">
+        <v>33000000000</v>
+      </c>
+      <c r="G674" s="2">
+        <v>-7000000000</v>
+      </c>
+      <c r="H674" s="2">
+        <v>-97000000000</v>
+      </c>
+      <c r="I674" s="2">
+        <v>-113000000000</v>
+      </c>
+      <c r="J674" s="2">
+        <v>-73000000000</v>
+      </c>
+      <c r="K674" s="2">
+        <v>-34000000000</v>
+      </c>
       <c r="L674" s="2"/>
       <c r="M674" s="2"/>
       <c r="N674" s="2"/>
@@ -38704,17 +39856,33 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1665</v>
+        <v>1715</v>
       </c>
       <c r="C675" s="2"/>
-      <c r="D675" s="2"/>
-      <c r="E675" s="2"/>
-      <c r="F675" s="2"/>
-      <c r="G675" s="2"/>
-      <c r="H675" s="2"/>
-      <c r="I675" s="2"/>
-      <c r="J675" s="2"/>
-      <c r="K675" s="2"/>
+      <c r="D675" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E675" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F675" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G675" s="2">
+        <v>49000000000</v>
+      </c>
+      <c r="H675" s="2">
+        <v>11000000000</v>
+      </c>
+      <c r="I675" s="2">
+        <v>27000000000</v>
+      </c>
+      <c r="J675" s="2">
+        <v>8000000000</v>
+      </c>
+      <c r="K675" s="2">
+        <v>-291000000000</v>
+      </c>
       <c r="L675" s="2"/>
       <c r="M675" s="2"/>
       <c r="N675" s="2"/>
@@ -38737,17 +39905,29 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1666</v>
+        <v>1716</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
-      <c r="F676" s="2"/>
-      <c r="G676" s="2"/>
-      <c r="H676" s="2"/>
-      <c r="I676" s="2"/>
-      <c r="J676" s="2"/>
-      <c r="K676" s="2"/>
+      <c r="F676">
+        <v>5000000000</v>
+      </c>
+      <c r="G676">
+        <v>0</v>
+      </c>
+      <c r="H676">
+        <v>19000000000</v>
+      </c>
+      <c r="I676">
+        <v>24000000000</v>
+      </c>
+      <c r="J676">
+        <v>36000000000</v>
+      </c>
+      <c r="K676">
+        <v>48000000000</v>
+      </c>
       <c r="L676" s="2"/>
       <c r="M676" s="2"/>
       <c r="N676" s="2"/>
@@ -38770,17 +39950,35 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C677" s="2"/>
-      <c r="D677" s="2"/>
-      <c r="E677" s="2"/>
-      <c r="F677" s="2"/>
-      <c r="G677" s="2"/>
-      <c r="H677" s="2"/>
-      <c r="I677" s="2"/>
-      <c r="J677" s="2"/>
-      <c r="K677" s="2"/>
+        <v>1717</v>
+      </c>
+      <c r="C677" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D677" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E677" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F677" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G677" s="2">
+        <v>-3145000000000</v>
+      </c>
+      <c r="H677" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I677" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J677" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K677" s="5" t="s">
+        <v>1724</v>
+      </c>
       <c r="L677" s="2"/>
       <c r="M677" s="2"/>
       <c r="N677" s="2"/>
@@ -38803,17 +40001,29 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1668</v>
+        <v>1725</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
-      <c r="F678" s="2"/>
-      <c r="G678" s="2"/>
-      <c r="H678" s="2"/>
-      <c r="I678" s="2"/>
-      <c r="J678" s="2"/>
-      <c r="K678" s="2"/>
+      <c r="F678" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G678" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H678" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I678" s="5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J678" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="K678" s="5" t="s">
+        <v>1731</v>
+      </c>
       <c r="L678" s="2"/>
       <c r="M678" s="2"/>
       <c r="N678" s="2"/>
@@ -38836,17 +40046,31 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1669</v>
+        <v>1732</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
-      <c r="E679" s="2"/>
-      <c r="F679" s="2"/>
-      <c r="G679" s="2"/>
-      <c r="H679" s="2"/>
-      <c r="I679" s="2"/>
-      <c r="J679" s="2"/>
-      <c r="K679" s="2"/>
+      <c r="E679">
+        <v>-1000000000</v>
+      </c>
+      <c r="F679">
+        <v>-4000000000</v>
+      </c>
+      <c r="G679">
+        <v>-8000000000</v>
+      </c>
+      <c r="H679">
+        <v>-11000000000</v>
+      </c>
+      <c r="I679">
+        <v>-10000000000</v>
+      </c>
+      <c r="J679">
+        <v>-7000000000</v>
+      </c>
+      <c r="K679">
+        <v>-5000000000</v>
+      </c>
       <c r="L679" s="2"/>
       <c r="M679" s="2"/>
       <c r="N679" s="2"/>
@@ -38869,17 +40093,35 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C680" s="2"/>
-      <c r="D680" s="2"/>
-      <c r="E680" s="2"/>
-      <c r="F680" s="2"/>
-      <c r="G680" s="2"/>
-      <c r="H680" s="2"/>
-      <c r="I680" s="2"/>
-      <c r="J680" s="2"/>
-      <c r="K680" s="2"/>
+        <v>1733</v>
+      </c>
+      <c r="C680" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="D680" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="E680" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="F680" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="G680" s="2">
+        <v>-5000000000</v>
+      </c>
+      <c r="H680" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="I680" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="J680" s="2">
+        <v>-51000000000</v>
+      </c>
+      <c r="K680" s="2">
+        <v>-1000000000</v>
+      </c>
       <c r="L680" s="2"/>
       <c r="M680" s="2"/>
       <c r="N680" s="2"/>
@@ -38902,17 +40144,29 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1671</v>
+        <v>1734</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
-      <c r="F681" s="2"/>
-      <c r="G681" s="2"/>
-      <c r="H681" s="2"/>
-      <c r="I681" s="2"/>
-      <c r="J681" s="2"/>
-      <c r="K681" s="2"/>
+      <c r="F681" s="2">
+        <v>-22000000000</v>
+      </c>
+      <c r="G681" s="2">
+        <v>-101000000000</v>
+      </c>
+      <c r="H681" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="I681" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="J681" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K681" s="2">
+        <v>79000000000</v>
+      </c>
       <c r="L681" s="2"/>
       <c r="M681" s="2"/>
       <c r="N681" s="2"/>
@@ -38935,17 +40189,35 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C682" s="2"/>
-      <c r="D682" s="2"/>
-      <c r="E682" s="2"/>
-      <c r="F682" s="2"/>
-      <c r="G682" s="2"/>
-      <c r="H682" s="2"/>
-      <c r="I682" s="2"/>
-      <c r="J682" s="2"/>
-      <c r="K682" s="2"/>
+        <v>1735</v>
+      </c>
+      <c r="C682" s="2">
+        <v>14000000000</v>
+      </c>
+      <c r="D682" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="E682" s="2">
+        <v>16000000000</v>
+      </c>
+      <c r="F682" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="G682" s="2">
+        <v>-64000000000</v>
+      </c>
+      <c r="H682" s="2">
+        <v>-48000000000</v>
+      </c>
+      <c r="I682" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="J682" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="K682" s="2">
+        <v>3000000000</v>
+      </c>
       <c r="L682" s="2"/>
       <c r="M682" s="2"/>
       <c r="N682" s="2"/>
@@ -38968,7 +40240,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1673</v>
+        <v>1736</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -39001,7 +40273,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1674</v>
+        <v>1737</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -39034,7 +40306,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1675</v>
+        <v>1738</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -39067,7 +40339,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1676</v>
+        <v>1739</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -39100,7 +40372,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1677</v>
+        <v>1740</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -39133,7 +40405,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1678</v>
+        <v>1741</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -39166,7 +40438,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1679</v>
+        <v>1742</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -39199,7 +40471,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1680</v>
+        <v>1743</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -39232,7 +40504,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1681</v>
+        <v>1744</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -39265,7 +40537,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1682</v>
+        <v>1745</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -39298,7 +40570,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1683</v>
+        <v>1746</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -39331,7 +40603,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1684</v>
+        <v>1747</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -39364,7 +40636,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1685</v>
+        <v>1748</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -39397,7 +40669,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1686</v>
+        <v>1749</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -39430,7 +40702,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1687</v>
+        <v>1750</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -39463,7 +40735,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1688</v>
+        <v>1751</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -39496,7 +40768,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1689</v>
+        <v>1752</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -39529,7 +40801,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1690</v>
+        <v>1753</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -39562,7 +40834,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1691</v>
+        <v>1754</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -39595,7 +40867,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1692</v>
+        <v>1755</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -39628,7 +40900,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1693</v>
+        <v>1756</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -39661,7 +40933,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1694</v>
+        <v>1757</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -39694,7 +40966,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1695</v>
+        <v>1758</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -39727,7 +40999,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1696</v>
+        <v>1759</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -39760,7 +41032,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1697</v>
+        <v>1760</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -39793,7 +41065,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1698</v>
+        <v>1761</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -39826,7 +41098,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1699</v>
+        <v>1762</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -39859,7 +41131,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1700</v>
+        <v>1763</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -39892,7 +41164,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1701</v>
+        <v>1764</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -39925,7 +41197,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1702</v>
+        <v>1765</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -39958,7 +41230,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1703</v>
+        <v>1766</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -39991,7 +41263,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1704</v>
+        <v>1767</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -40024,7 +41296,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1705</v>
+        <v>1768</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -40057,7 +41329,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1706</v>
+        <v>1769</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -40090,7 +41362,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1707</v>
+        <v>1770</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -40123,7 +41395,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1708</v>
+        <v>1771</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -40156,7 +41428,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1709</v>
+        <v>1772</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -40189,7 +41461,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1710</v>
+        <v>1773</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -40222,7 +41494,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1711</v>
+        <v>1774</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -40255,7 +41527,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1712</v>
+        <v>1775</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -40288,7 +41560,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1713</v>
+        <v>1776</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -40321,7 +41593,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1714</v>
+        <v>1777</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -40354,7 +41626,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1715</v>
+        <v>1778</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -40387,7 +41659,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1716</v>
+        <v>1779</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -40420,7 +41692,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1717</v>
+        <v>1780</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -40453,7 +41725,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1718</v>
+        <v>1781</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -40486,7 +41758,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1719</v>
+        <v>1782</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -40519,7 +41791,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1720</v>
+        <v>1783</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -40552,7 +41824,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1721</v>
+        <v>1784</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -40585,7 +41857,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1722</v>
+        <v>1785</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -40618,7 +41890,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1723</v>
+        <v>1786</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -40651,7 +41923,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1724</v>
+        <v>1787</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -40684,7 +41956,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1725</v>
+        <v>1788</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -40717,7 +41989,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1726</v>
+        <v>1789</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -40750,7 +42022,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1727</v>
+        <v>1790</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -40783,7 +42055,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1728</v>
+        <v>1791</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -40816,7 +42088,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1729</v>
+        <v>1792</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -40849,7 +42121,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1730</v>
+        <v>1793</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -40882,7 +42154,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1731</v>
+        <v>1794</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -40915,7 +42187,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1732</v>
+        <v>1795</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -40948,7 +42220,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1733</v>
+        <v>1796</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -40981,7 +42253,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1734</v>
+        <v>1797</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -41014,7 +42286,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1735</v>
+        <v>1798</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -41047,7 +42319,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1736</v>
+        <v>1799</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -41080,7 +42352,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1737</v>
+        <v>1800</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -41113,7 +42385,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1738</v>
+        <v>1801</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -41146,7 +42418,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1739</v>
+        <v>1802</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -41179,7 +42451,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1740</v>
+        <v>1803</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -41212,7 +42484,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1741</v>
+        <v>1804</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -41245,7 +42517,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1742</v>
+        <v>1805</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -41278,7 +42550,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1743</v>
+        <v>1806</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -41311,7 +42583,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1744</v>
+        <v>1807</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -41344,7 +42616,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1745</v>
+        <v>1808</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -41377,7 +42649,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1746</v>
+        <v>1809</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -41410,7 +42682,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1747</v>
+        <v>1810</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -41443,7 +42715,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1748</v>
+        <v>1811</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -41476,7 +42748,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1749</v>
+        <v>1812</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -41509,7 +42781,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1750</v>
+        <v>1813</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -41542,7 +42814,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1751</v>
+        <v>1814</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -41575,7 +42847,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1752</v>
+        <v>1815</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -41608,7 +42880,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1753</v>
+        <v>1816</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -41641,7 +42913,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1754</v>
+        <v>1817</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -41674,7 +42946,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1755</v>
+        <v>1818</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -41707,7 +42979,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1756</v>
+        <v>1819</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -41740,7 +43012,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1757</v>
+        <v>1820</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -41773,7 +43045,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1758</v>
+        <v>1821</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -41806,7 +43078,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1759</v>
+        <v>1822</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -41839,7 +43111,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1760</v>
+        <v>1823</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -41872,7 +43144,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1761</v>
+        <v>1824</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -41905,7 +43177,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1762</v>
+        <v>1825</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -41938,7 +43210,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1763</v>
+        <v>1826</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -41971,7 +43243,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1764</v>
+        <v>1827</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -42004,7 +43276,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1765</v>
+        <v>1828</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -42037,7 +43309,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1766</v>
+        <v>1829</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -42070,7 +43342,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1767</v>
+        <v>1830</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -42103,7 +43375,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1768</v>
+        <v>1831</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -42136,7 +43408,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1769</v>
+        <v>1832</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -42169,7 +43441,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1770</v>
+        <v>1833</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -42202,7 +43474,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1771</v>
+        <v>1834</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -42235,7 +43507,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1772</v>
+        <v>1835</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -42268,7 +43540,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1773</v>
+        <v>1836</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -42301,7 +43573,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1774</v>
+        <v>1837</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -42334,7 +43606,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1775</v>
+        <v>1838</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -42367,7 +43639,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1776</v>
+        <v>1839</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -42400,7 +43672,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1777</v>
+        <v>1840</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -42433,7 +43705,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1778</v>
+        <v>1841</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -42466,7 +43738,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1779</v>
+        <v>1842</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -42499,7 +43771,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1780</v>
+        <v>1843</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -42532,7 +43804,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1781</v>
+        <v>1844</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -42565,7 +43837,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1782</v>
+        <v>1845</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -42598,7 +43870,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1783</v>
+        <v>1846</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -42631,7 +43903,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1784</v>
+        <v>1847</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -42664,7 +43936,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1785</v>
+        <v>1848</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -42697,7 +43969,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1786</v>
+        <v>1849</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -42730,7 +44002,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1787</v>
+        <v>1850</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -42763,7 +44035,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1788</v>
+        <v>1851</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -42796,7 +44068,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1789</v>
+        <v>1852</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -42829,7 +44101,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1790</v>
+        <v>1853</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -42862,7 +44134,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1791</v>
+        <v>1854</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -42895,7 +44167,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1792</v>
+        <v>1855</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -42928,7 +44200,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1793</v>
+        <v>1856</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -42961,7 +44233,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1794</v>
+        <v>1857</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -42994,7 +44266,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1795</v>
+        <v>1858</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -43027,7 +44299,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1796</v>
+        <v>1859</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -43060,7 +44332,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1797</v>
+        <v>1860</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -43093,7 +44365,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1798</v>
+        <v>1861</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -43126,7 +44398,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1799</v>
+        <v>1862</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -43159,7 +44431,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1800</v>
+        <v>1863</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -43192,7 +44464,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1801</v>
+        <v>1864</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -43225,7 +44497,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1802</v>
+        <v>1865</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -43258,7 +44530,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1803</v>
+        <v>1866</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -43291,7 +44563,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1804</v>
+        <v>1867</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -43324,7 +44596,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1805</v>
+        <v>1868</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -43357,7 +44629,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1806</v>
+        <v>1869</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -43390,7 +44662,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1807</v>
+        <v>1870</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -43423,7 +44695,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1808</v>
+        <v>1871</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -43456,7 +44728,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1809</v>
+        <v>1872</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -43489,7 +44761,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1810</v>
+        <v>1873</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -43522,7 +44794,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1811</v>
+        <v>1874</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -43555,7 +44827,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1812</v>
+        <v>1875</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -43588,7 +44860,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1813</v>
+        <v>1876</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -43621,7 +44893,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1814</v>
+        <v>1877</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -43654,7 +44926,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1815</v>
+        <v>1878</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -43687,7 +44959,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1816</v>
+        <v>1879</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -43720,7 +44992,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1817</v>
+        <v>1880</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -43753,7 +45025,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1818</v>
+        <v>1881</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -43786,7 +45058,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1819</v>
+        <v>1882</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -43819,7 +45091,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1820</v>
+        <v>1883</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -43852,7 +45124,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1821</v>
+        <v>1884</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -43885,7 +45157,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1822</v>
+        <v>1885</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -43918,7 +45190,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1823</v>
+        <v>1886</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -43951,7 +45223,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1824</v>
+        <v>1887</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -43984,7 +45256,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1825</v>
+        <v>1888</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -44017,7 +45289,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1826</v>
+        <v>1889</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -44050,7 +45322,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1827</v>
+        <v>1890</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -44083,7 +45355,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1828</v>
+        <v>1891</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -44116,7 +45388,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1829</v>
+        <v>1892</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -44149,7 +45421,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1830</v>
+        <v>1893</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -44182,7 +45454,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1831</v>
+        <v>1894</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -44215,7 +45487,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1832</v>
+        <v>1895</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -44248,7 +45520,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1833</v>
+        <v>1896</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -44281,7 +45553,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1834</v>
+        <v>1897</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -44314,7 +45586,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1835</v>
+        <v>1898</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -44347,7 +45619,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1836</v>
+        <v>1899</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -44380,7 +45652,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1837</v>
+        <v>1900</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -44413,7 +45685,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1838</v>
+        <v>1901</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -44446,7 +45718,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1839</v>
+        <v>1902</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -44479,7 +45751,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1840</v>
+        <v>1903</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -44512,7 +45784,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1841</v>
+        <v>1904</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -44545,7 +45817,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1842</v>
+        <v>1905</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -44578,7 +45850,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1843</v>
+        <v>1906</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -44611,7 +45883,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1844</v>
+        <v>1907</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -44644,7 +45916,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1845</v>
+        <v>1908</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -44677,7 +45949,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1846</v>
+        <v>1909</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -44710,7 +45982,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1847</v>
+        <v>1910</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -44743,7 +46015,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1848</v>
+        <v>1911</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -44776,7 +46048,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1849</v>
+        <v>1912</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -44809,7 +46081,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1850</v>
+        <v>1913</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -44842,7 +46114,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1851</v>
+        <v>1914</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -44875,7 +46147,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1852</v>
+        <v>1915</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -44908,7 +46180,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1853</v>
+        <v>1916</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -44941,7 +46213,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1854</v>
+        <v>1917</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -44974,7 +46246,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1855</v>
+        <v>1918</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -45007,7 +46279,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1856</v>
+        <v>1919</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -45040,7 +46312,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1857</v>
+        <v>1920</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -45073,7 +46345,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1858</v>
+        <v>1921</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -45106,7 +46378,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1859</v>
+        <v>1922</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -45139,7 +46411,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1860</v>
+        <v>1923</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -45172,7 +46444,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1861</v>
+        <v>1924</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -45205,7 +46477,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1862</v>
+        <v>1925</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -45238,7 +46510,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1863</v>
+        <v>1926</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -45271,7 +46543,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1864</v>
+        <v>1927</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -45304,7 +46576,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1865</v>
+        <v>1928</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -45337,7 +46609,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1866</v>
+        <v>1929</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -45370,7 +46642,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1867</v>
+        <v>1930</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -45403,7 +46675,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1868</v>
+        <v>1931</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -45436,7 +46708,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1869</v>
+        <v>1932</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -45469,7 +46741,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1870</v>
+        <v>1933</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -45502,7 +46774,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -45535,7 +46807,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1872</v>
+        <v>1935</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -45568,7 +46840,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1873</v>
+        <v>1936</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -45601,7 +46873,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1874</v>
+        <v>1937</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -45634,7 +46906,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1875</v>
+        <v>1938</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -45669,37 +46941,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1876</v>
+        <v>1939</v>
       </c>
       <c r="C886" t="s">
-        <v>1877</v>
+        <v>1940</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1878</v>
+        <v>1941</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1879</v>
+        <v>1942</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1880</v>
+        <v>1943</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1881</v>
+        <v>1944</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1882</v>
+        <v>1945</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1883</v>
+        <v>1946</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1884</v>
+        <v>1947</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1885</v>
+        <v>1948</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1886</v>
+        <v>1949</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -45722,7 +46994,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1887</v>
+        <v>1950</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -45755,7 +47027,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1888</v>
+        <v>1951</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -45788,7 +47060,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1889</v>
+        <v>1952</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -45821,7 +47093,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1890</v>
+        <v>1953</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -45854,7 +47126,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1891</v>
+        <v>1954</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -45887,7 +47159,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1892</v>
+        <v>1955</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -45920,7 +47192,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1893</v>
+        <v>1956</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -45953,7 +47225,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1894</v>
+        <v>1957</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -45986,7 +47258,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1895</v>
+        <v>1958</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -46019,7 +47291,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1896</v>
+        <v>1959</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -46052,7 +47324,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1897</v>
+        <v>1960</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -46085,7 +47357,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1898</v>
+        <v>1961</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -46118,7 +47390,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1899</v>
+        <v>1962</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -46151,7 +47423,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1900</v>
+        <v>1963</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -46184,7 +47456,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1901</v>
+        <v>1964</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -46217,7 +47489,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1902</v>
+        <v>1965</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -46250,7 +47522,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1903</v>
+        <v>1966</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -46283,7 +47555,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1904</v>
+        <v>1967</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -46316,7 +47588,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1905</v>
+        <v>1968</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -46349,7 +47621,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1906</v>
+        <v>1969</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -46382,7 +47654,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1907</v>
+        <v>1970</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -46415,7 +47687,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1908</v>
+        <v>1971</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -46448,7 +47720,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1909</v>
+        <v>1972</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -46481,7 +47753,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1910</v>
+        <v>1973</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -46514,7 +47786,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1911</v>
+        <v>1974</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -46547,7 +47819,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1912</v>
+        <v>1975</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -46580,37 +47852,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1913</v>
+        <v>1976</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1914</v>
+        <v>1977</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1915</v>
+        <v>1978</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1916</v>
+        <v>1979</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1917</v>
+        <v>1980</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1918</v>
+        <v>1981</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1919</v>
+        <v>1982</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1920</v>
+        <v>1983</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1921</v>
+        <v>1984</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1922</v>
+        <v>1985</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1923</v>
+        <v>1986</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -46633,7 +47905,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1924</v>
+        <v>1987</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -46666,7 +47938,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1925</v>
+        <v>1988</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -46699,7 +47971,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1926</v>
+        <v>1989</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -46732,7 +48004,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1927</v>
+        <v>1990</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -46765,7 +48037,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1928</v>
+        <v>1991</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -46798,7 +48070,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1929</v>
+        <v>1992</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -46831,7 +48103,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1930</v>
+        <v>1993</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -46864,7 +48136,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1931</v>
+        <v>1994</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -46897,7 +48169,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1932</v>
+        <v>1995</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -46930,7 +48202,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1933</v>
+        <v>1996</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -46963,7 +48235,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1934</v>
+        <v>1997</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -46996,7 +48268,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1935</v>
+        <v>1998</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -47029,7 +48301,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1936</v>
+        <v>1999</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -47062,7 +48334,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1937</v>
+        <v>2000</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -47095,7 +48367,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1938</v>
+        <v>2001</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -47128,7 +48400,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1939</v>
+        <v>2002</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -47161,7 +48433,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1940</v>
+        <v>2003</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -47194,7 +48466,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1941</v>
+        <v>2004</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -47227,7 +48499,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1942</v>
+        <v>2005</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -47260,7 +48532,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1943</v>
+        <v>2006</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -47293,7 +48565,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1944</v>
+        <v>2007</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -47326,7 +48598,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1945</v>
+        <v>2008</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -47359,7 +48631,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1946</v>
+        <v>2009</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -47392,7 +48664,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1947</v>
+        <v>2010</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -47425,7 +48697,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1948</v>
+        <v>2011</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -47458,7 +48730,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1949</v>
+        <v>2012</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -47491,7 +48763,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1950</v>
+        <v>2013</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -47524,7 +48796,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1951</v>
+        <v>2014</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -47557,7 +48829,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1952</v>
+        <v>2015</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -47590,7 +48862,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1953</v>
+        <v>2016</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -47623,7 +48895,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1954</v>
+        <v>2017</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -47656,7 +48928,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1955</v>
+        <v>2018</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -47689,7 +48961,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1956</v>
+        <v>2019</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -47722,7 +48994,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1957</v>
+        <v>2020</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -47755,7 +49027,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1958</v>
+        <v>2021</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -47788,7 +49060,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1959</v>
+        <v>2022</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -47821,7 +49093,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1960</v>
+        <v>2023</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -47854,7 +49126,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1961</v>
+        <v>2024</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -47887,7 +49159,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1962</v>
+        <v>2025</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -47920,7 +49192,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1963</v>
+        <v>2026</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -47953,7 +49225,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1964</v>
+        <v>2027</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -47986,7 +49258,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1965</v>
+        <v>2028</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -48019,7 +49291,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1966</v>
+        <v>2029</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -48052,7 +49324,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1967</v>
+        <v>2030</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -48085,7 +49357,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1968</v>
+        <v>2031</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>

--- a/public/data/netprofit-saham.xlsx
+++ b/public/data/netprofit-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11460"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="2073">
   <si>
     <t>No</t>
   </si>
@@ -5255,6 +5255,21 @@
     <t>PLIN</t>
   </si>
   <si>
+    <t>726000000000</t>
+  </si>
+  <si>
+    <t>549000000000</t>
+  </si>
+  <si>
+    <t>557000000000</t>
+  </si>
+  <si>
+    <t>613000000000</t>
+  </si>
+  <si>
+    <t>998000000000</t>
+  </si>
+  <si>
     <t>PMJS</t>
   </si>
   <si>
@@ -5267,6 +5282,30 @@
     <t>PNBN</t>
   </si>
   <si>
+    <t>2518000000000</t>
+  </si>
+  <si>
+    <t>3187000000000</t>
+  </si>
+  <si>
+    <t>3498000000000</t>
+  </si>
+  <si>
+    <t>3124000000000</t>
+  </si>
+  <si>
+    <t>1817000000000</t>
+  </si>
+  <si>
+    <t>3273000000000</t>
+  </si>
+  <si>
+    <t>3006000000000</t>
+  </si>
+  <si>
+    <t>2867000000000</t>
+  </si>
+  <si>
     <t>PNBS</t>
   </si>
   <si>
@@ -5276,9 +5315,54 @@
     <t>PNIN</t>
   </si>
   <si>
+    <t>2395000000000</t>
+  </si>
+  <si>
+    <t>1863000000000</t>
+  </si>
+  <si>
+    <t>2140000000000</t>
+  </si>
+  <si>
+    <t>2293000000000</t>
+  </si>
+  <si>
+    <t>1929000000000</t>
+  </si>
+  <si>
+    <t>1486000000000</t>
+  </si>
+  <si>
+    <t>2404000000000</t>
+  </si>
+  <si>
+    <t>3542000000000</t>
+  </si>
+  <si>
     <t>PNLF</t>
   </si>
   <si>
+    <t>1678000000000</t>
+  </si>
+  <si>
+    <t>1609000000000</t>
+  </si>
+  <si>
+    <t>1993000000000</t>
+  </si>
+  <si>
+    <t>1496000000000</t>
+  </si>
+  <si>
+    <t>1985000000000</t>
+  </si>
+  <si>
+    <t>3607000000000</t>
+  </si>
+  <si>
+    <t>3457000000000</t>
+  </si>
+  <si>
     <t>PNSE</t>
   </si>
   <si>
@@ -5291,6 +5375,9 @@
     <t>POLL</t>
   </si>
   <si>
+    <t>469000000000</t>
+  </si>
+  <si>
     <t>POLU</t>
   </si>
   <si>
@@ -5309,28 +5396,64 @@
     <t>POWR</t>
   </si>
   <si>
+    <t>1382000000000</t>
+  </si>
+  <si>
+    <t>1437000000000</t>
+  </si>
+  <si>
+    <t>1124000000000</t>
+  </si>
+  <si>
+    <t>1090000000000</t>
+  </si>
+  <si>
+    <t>1294000000000</t>
+  </si>
+  <si>
+    <t>1079000000000</t>
+  </si>
+  <si>
+    <t>1174000000000</t>
+  </si>
+  <si>
     <t>PPGL</t>
   </si>
   <si>
     <t>PPRE</t>
   </si>
   <si>
+    <t>432000000000</t>
+  </si>
+  <si>
+    <t>439000000000</t>
+  </si>
+  <si>
     <t>PPRI</t>
   </si>
   <si>
     <t>PPRO</t>
   </si>
   <si>
+    <t>497000000000</t>
+  </si>
+  <si>
     <t>PRAY</t>
   </si>
   <si>
     <t>PRDA</t>
   </si>
   <si>
+    <t>622000000000</t>
+  </si>
+  <si>
     <t>PRIM</t>
   </si>
   <si>
     <t>PSAB</t>
+  </si>
+  <si>
+    <t>273000000000</t>
   </si>
   <si>
     <t>PSAT</t>
@@ -7160,8 +7283,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="C682" sqref="C682"/>
+    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
+      <selection activeCell="C717" sqref="C717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -40245,12 +40368,24 @@
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
-      <c r="F683" s="2"/>
-      <c r="G683" s="2"/>
-      <c r="H683" s="2"/>
-      <c r="I683" s="2"/>
-      <c r="J683" s="2"/>
-      <c r="K683" s="2"/>
+      <c r="F683" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="G683" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H683" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="I683" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="J683" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K683" s="2">
+        <v>0</v>
+      </c>
       <c r="L683" s="2"/>
       <c r="M683" s="2"/>
       <c r="N683" s="2"/>
@@ -40275,15 +40410,33 @@
       <c r="B684" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="C684" s="2"/>
-      <c r="D684" s="2"/>
-      <c r="E684" s="2"/>
-      <c r="F684" s="2"/>
-      <c r="G684" s="2"/>
-      <c r="H684" s="2"/>
-      <c r="I684" s="2"/>
-      <c r="J684" s="2"/>
-      <c r="K684" s="2"/>
+      <c r="C684" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E684" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G684" s="2">
+        <v>-394000000000</v>
+      </c>
+      <c r="H684" s="2">
+        <v>-276000000000</v>
+      </c>
+      <c r="I684" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J684" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K684" s="5" t="s">
+        <v>1228</v>
+      </c>
       <c r="L684" s="2"/>
       <c r="M684" s="2"/>
       <c r="N684" s="2"/>
@@ -40308,15 +40461,33 @@
       <c r="B685" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="C685" s="2"/>
-      <c r="D685" s="2"/>
-      <c r="E685" s="2"/>
-      <c r="F685" s="2"/>
-      <c r="G685" s="2"/>
-      <c r="H685" s="2"/>
-      <c r="I685" s="2"/>
-      <c r="J685" s="2"/>
-      <c r="K685" s="2"/>
+      <c r="C685" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="D685" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="E685" s="2">
+        <v>-4000000000</v>
+      </c>
+      <c r="F685" s="2">
+        <v>-41000000000</v>
+      </c>
+      <c r="G685" s="2">
+        <v>0</v>
+      </c>
+      <c r="H685" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="I685" s="2">
+        <v>-29000000000</v>
+      </c>
+      <c r="J685" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="K685" s="2">
+        <v>16000000000</v>
+      </c>
       <c r="L685" s="2"/>
       <c r="M685" s="2"/>
       <c r="N685" s="2"/>
@@ -40344,12 +40515,24 @@
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
-      <c r="F686" s="2"/>
-      <c r="G686" s="2"/>
-      <c r="H686" s="2"/>
-      <c r="I686" s="2"/>
-      <c r="J686" s="2"/>
-      <c r="K686" s="2"/>
+      <c r="F686" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G686" s="2">
+        <v>0</v>
+      </c>
+      <c r="H686" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="I686" s="2">
+        <v>-2000000000</v>
+      </c>
+      <c r="J686" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="K686" s="2">
+        <v>-1000000000</v>
+      </c>
       <c r="L686" s="2"/>
       <c r="M686" s="2"/>
       <c r="N686" s="2"/>
@@ -40374,10 +40557,18 @@
       <c r="B687" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="C687" s="2"/>
-      <c r="D687" s="2"/>
-      <c r="E687" s="2"/>
-      <c r="F687" s="2"/>
+      <c r="C687" s="2">
+        <v>-19000000000</v>
+      </c>
+      <c r="D687" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="E687" s="2">
+        <v>0</v>
+      </c>
+      <c r="F687" s="2">
+        <v>0</v>
+      </c>
       <c r="G687" s="2"/>
       <c r="H687" s="2"/>
       <c r="I687" s="2"/>
@@ -40407,15 +40598,33 @@
       <c r="B688" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="C688" s="2"/>
-      <c r="D688" s="2"/>
-      <c r="E688" s="2"/>
-      <c r="F688" s="2"/>
-      <c r="G688" s="2"/>
-      <c r="H688" s="2"/>
-      <c r="I688" s="2"/>
-      <c r="J688" s="2"/>
-      <c r="K688" s="2"/>
+      <c r="C688" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D688" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E688" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F688" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G688" s="2">
+        <v>-575000000000</v>
+      </c>
+      <c r="H688" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="I688" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J688" s="5" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K688" s="5" t="s">
+        <v>1746</v>
+      </c>
       <c r="L688" s="2"/>
       <c r="M688" s="2"/>
       <c r="N688" s="2"/>
@@ -40438,17 +40647,31 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1742</v>
+        <v>1747</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
-      <c r="E689" s="2"/>
-      <c r="F689" s="2"/>
-      <c r="G689" s="2"/>
-      <c r="H689" s="2"/>
-      <c r="I689" s="2"/>
-      <c r="J689" s="2"/>
-      <c r="K689" s="2"/>
+      <c r="E689" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F689" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G689" s="2">
+        <v>69000000000</v>
+      </c>
+      <c r="H689" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="I689" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J689" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K689" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="L689" s="2"/>
       <c r="M689" s="2"/>
       <c r="N689" s="2"/>
@@ -40471,16 +40694,30 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="C690" s="2"/>
-      <c r="D690" s="2"/>
-      <c r="E690" s="2"/>
-      <c r="F690" s="2"/>
-      <c r="G690" s="2"/>
-      <c r="H690" s="2"/>
-      <c r="I690" s="2"/>
-      <c r="J690" s="2"/>
+      <c r="D690" s="2">
+        <v>64000000000</v>
+      </c>
+      <c r="E690" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F690" s="2">
+        <v>81000000000</v>
+      </c>
+      <c r="G690" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="H690" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I690" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J690" s="2">
+        <v>1000000000</v>
+      </c>
       <c r="K690" s="2"/>
       <c r="L690" s="2"/>
       <c r="M690" s="2"/>
@@ -40504,7 +40741,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -40512,9 +40749,15 @@
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
       <c r="H691" s="2"/>
-      <c r="I691" s="2"/>
-      <c r="J691" s="2"/>
-      <c r="K691" s="2"/>
+      <c r="I691" s="2">
+        <v>26000000000</v>
+      </c>
+      <c r="J691" s="2">
+        <v>48000000000</v>
+      </c>
+      <c r="K691" s="2">
+        <v>50000000000</v>
+      </c>
       <c r="L691" s="2"/>
       <c r="M691" s="2"/>
       <c r="N691" s="2"/>
@@ -40537,17 +40780,35 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C692" s="2"/>
-      <c r="D692" s="2"/>
-      <c r="E692" s="2"/>
-      <c r="F692" s="2"/>
-      <c r="G692" s="2"/>
-      <c r="H692" s="2"/>
-      <c r="I692" s="2"/>
-      <c r="J692" s="2"/>
-      <c r="K692" s="2"/>
+        <v>1750</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D692" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E692" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G692" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H692" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I692" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J692" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K692" s="5" t="s">
+        <v>1758</v>
+      </c>
       <c r="L692" s="2"/>
       <c r="M692" s="2"/>
       <c r="N692" s="2"/>
@@ -40570,17 +40831,35 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C693" s="2"/>
-      <c r="D693" s="2"/>
-      <c r="E693" s="2"/>
-      <c r="F693" s="2"/>
-      <c r="G693" s="2"/>
-      <c r="H693" s="2"/>
-      <c r="I693" s="2"/>
-      <c r="J693" s="2"/>
-      <c r="K693" s="2"/>
+        <v>1759</v>
+      </c>
+      <c r="C693" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="D693" s="2">
+        <v>-969000000000</v>
+      </c>
+      <c r="E693" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="F693" s="2">
+        <v>13000000000</v>
+      </c>
+      <c r="G693" s="2">
+        <v>0</v>
+      </c>
+      <c r="H693" s="2">
+        <v>-818000000000</v>
+      </c>
+      <c r="I693" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="J693" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K693" s="2">
+        <v>89000000000</v>
+      </c>
       <c r="L693" s="2"/>
       <c r="M693" s="2"/>
       <c r="N693" s="2"/>
@@ -40603,17 +40882,29 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1747</v>
+        <v>1760</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
-      <c r="F694" s="2"/>
-      <c r="G694" s="2"/>
-      <c r="H694" s="2"/>
-      <c r="I694" s="2"/>
-      <c r="J694" s="2"/>
-      <c r="K694" s="2"/>
+      <c r="F694" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="G694" s="2">
+        <v>81000000000</v>
+      </c>
+      <c r="H694" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="I694" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J694" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K694" s="5" t="s">
+        <v>495</v>
+      </c>
       <c r="L694" s="2"/>
       <c r="M694" s="2"/>
       <c r="N694" s="2"/>
@@ -40636,17 +40927,35 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C695" s="2"/>
-      <c r="D695" s="2"/>
-      <c r="E695" s="2"/>
-      <c r="F695" s="2"/>
-      <c r="G695" s="2"/>
-      <c r="H695" s="2"/>
-      <c r="I695" s="2"/>
-      <c r="J695" s="2"/>
-      <c r="K695" s="2"/>
+        <v>1761</v>
+      </c>
+      <c r="C695" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D695" s="6" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E695" s="6" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F695" s="6" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G695" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H695" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I695" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J695" s="6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K695" s="6" t="s">
+        <v>1049</v>
+      </c>
       <c r="L695" s="2"/>
       <c r="M695" s="2"/>
       <c r="N695" s="2"/>
@@ -40669,17 +40978,35 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C696" s="2"/>
-      <c r="D696" s="2"/>
-      <c r="E696" s="2"/>
-      <c r="F696" s="2"/>
-      <c r="G696" s="2"/>
-      <c r="H696" s="2"/>
-      <c r="I696" s="2"/>
-      <c r="J696" s="2"/>
-      <c r="K696" s="2"/>
+        <v>1770</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E696" s="5" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F696" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G696" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H696" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I696" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J696" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K696" s="5" t="s">
+        <v>1777</v>
+      </c>
       <c r="L696" s="2"/>
       <c r="M696" s="2"/>
       <c r="N696" s="2"/>
@@ -40702,17 +41029,35 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C697" s="2"/>
-      <c r="D697" s="2"/>
-      <c r="E697" s="2"/>
-      <c r="F697" s="2"/>
-      <c r="G697" s="2"/>
-      <c r="H697" s="2"/>
-      <c r="I697" s="2"/>
-      <c r="J697" s="2"/>
-      <c r="K697" s="2"/>
+        <v>1778</v>
+      </c>
+      <c r="C697" s="2">
+        <v>-1000000000</v>
+      </c>
+      <c r="D697" s="2">
+        <v>28000000000</v>
+      </c>
+      <c r="E697" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="F697" s="2">
+        <v>-14000000000</v>
+      </c>
+      <c r="G697" s="2">
+        <v>-51000000000</v>
+      </c>
+      <c r="H697" s="2">
+        <v>-42000000000</v>
+      </c>
+      <c r="I697" s="2">
+        <v>-13000000000</v>
+      </c>
+      <c r="J697" s="2">
+        <v>25000000000</v>
+      </c>
+      <c r="K697" s="2">
+        <v>11000000000</v>
+      </c>
       <c r="L697" s="2"/>
       <c r="M697" s="2"/>
       <c r="N697" s="2"/>
@@ -40735,17 +41080,33 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1751</v>
+        <v>1779</v>
       </c>
       <c r="C698" s="2"/>
-      <c r="D698" s="2"/>
-      <c r="E698" s="2"/>
-      <c r="F698" s="2"/>
-      <c r="G698" s="2"/>
-      <c r="H698" s="2"/>
-      <c r="I698" s="2"/>
-      <c r="J698" s="2"/>
-      <c r="K698" s="2"/>
+      <c r="D698" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="E698" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="F698" s="2">
+        <v>-55000000000</v>
+      </c>
+      <c r="G698" s="2">
+        <v>-38000000000</v>
+      </c>
+      <c r="H698" s="2">
+        <v>-47000000000</v>
+      </c>
+      <c r="I698" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J698" s="2">
+        <v>-17000000000</v>
+      </c>
+      <c r="K698" s="2">
+        <v>-29000000000</v>
+      </c>
       <c r="L698" s="2"/>
       <c r="M698" s="2"/>
       <c r="N698" s="2"/>
@@ -40768,17 +41129,31 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1752</v>
+        <v>1780</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
-      <c r="E699" s="2"/>
-      <c r="F699" s="2"/>
-      <c r="G699" s="2"/>
-      <c r="H699" s="2"/>
-      <c r="I699" s="2"/>
-      <c r="J699" s="2"/>
-      <c r="K699" s="2"/>
+      <c r="E699" s="2">
+        <v>72000000000</v>
+      </c>
+      <c r="F699" s="2">
+        <v>55000000000</v>
+      </c>
+      <c r="G699" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="H699" s="2">
+        <v>36000000000</v>
+      </c>
+      <c r="I699" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="J699" s="2">
+        <v>92000000000</v>
+      </c>
+      <c r="K699" s="2">
+        <v>34000000000</v>
+      </c>
       <c r="L699" s="2"/>
       <c r="M699" s="2"/>
       <c r="N699" s="2"/>
@@ -40801,17 +41176,31 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1753</v>
+        <v>1781</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
-      <c r="E700" s="2"/>
-      <c r="F700" s="2"/>
-      <c r="G700" s="2"/>
-      <c r="H700" s="2"/>
-      <c r="I700" s="2"/>
-      <c r="J700" s="2"/>
-      <c r="K700" s="2"/>
+      <c r="E700" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F700" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G700" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H700" s="2">
+        <v>86000000000</v>
+      </c>
+      <c r="I700" s="2">
+        <v>-137000000000</v>
+      </c>
+      <c r="J700" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K700" s="2">
+        <v>12000000000</v>
+      </c>
       <c r="L700" s="2"/>
       <c r="M700" s="2"/>
       <c r="N700" s="2"/>
@@ -40834,17 +41223,31 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1754</v>
+        <v>1783</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
-      <c r="E701" s="2"/>
-      <c r="F701" s="2"/>
-      <c r="G701" s="2"/>
-      <c r="H701" s="2"/>
-      <c r="I701" s="2"/>
-      <c r="J701" s="2"/>
-      <c r="K701" s="2"/>
+      <c r="E701" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="F701" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="G701" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="H701" s="2">
+        <v>-52000000000</v>
+      </c>
+      <c r="I701" s="2">
+        <v>-6000000000</v>
+      </c>
+      <c r="J701" s="2">
+        <v>-15000000000</v>
+      </c>
+      <c r="K701" s="2">
+        <v>-1000000000</v>
+      </c>
       <c r="L701" s="2"/>
       <c r="M701" s="2"/>
       <c r="N701" s="2"/>
@@ -40867,17 +41270,35 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C702" s="2"/>
-      <c r="D702" s="2"/>
-      <c r="E702" s="2"/>
-      <c r="F702" s="2"/>
-      <c r="G702" s="2"/>
-      <c r="H702" s="2"/>
-      <c r="I702" s="2"/>
-      <c r="J702" s="2"/>
-      <c r="K702" s="2"/>
+        <v>1784</v>
+      </c>
+      <c r="C702" s="2">
+        <v>-158000000000</v>
+      </c>
+      <c r="D702" s="2">
+        <v>-59000000000</v>
+      </c>
+      <c r="E702" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F702" s="2">
+        <v>-169000000000</v>
+      </c>
+      <c r="G702" s="2">
+        <v>-300000000000</v>
+      </c>
+      <c r="H702" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="I702" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J702" s="2">
+        <v>-515000000000</v>
+      </c>
+      <c r="K702" s="2">
+        <v>-769000000000</v>
+      </c>
       <c r="L702" s="2"/>
       <c r="M702" s="2"/>
       <c r="N702" s="2"/>
@@ -40900,14 +41321,26 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C703" s="2"/>
-      <c r="D703" s="2"/>
-      <c r="E703" s="2"/>
-      <c r="F703" s="2"/>
-      <c r="G703" s="2"/>
-      <c r="H703" s="2"/>
+        <v>1785</v>
+      </c>
+      <c r="C703" s="2">
+        <v>19000000000</v>
+      </c>
+      <c r="D703" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E703" s="2">
+        <v>-61000000000</v>
+      </c>
+      <c r="F703" s="2">
+        <v>-419000000000</v>
+      </c>
+      <c r="G703" s="2">
+        <v>-82000000000</v>
+      </c>
+      <c r="H703" s="2">
+        <v>-155000000000</v>
+      </c>
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
@@ -40933,17 +41366,35 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C704" s="2"/>
-      <c r="D704" s="2"/>
-      <c r="E704" s="2"/>
-      <c r="F704" s="2"/>
-      <c r="G704" s="2"/>
-      <c r="H704" s="2"/>
-      <c r="I704" s="2"/>
-      <c r="J704" s="2"/>
-      <c r="K704" s="2"/>
+        <v>1786</v>
+      </c>
+      <c r="C704" s="2">
+        <v>94000000000</v>
+      </c>
+      <c r="D704" s="2">
+        <v>28000000000</v>
+      </c>
+      <c r="E704" s="2">
+        <v>-42000000000</v>
+      </c>
+      <c r="F704" s="2">
+        <v>-10000000000</v>
+      </c>
+      <c r="G704" s="2">
+        <v>-71000000000</v>
+      </c>
+      <c r="H704" s="2">
+        <v>-83000000000</v>
+      </c>
+      <c r="I704" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="J704" s="2">
+        <v>65000000000</v>
+      </c>
+      <c r="K704" s="2">
+        <v>-65000000000</v>
+      </c>
       <c r="L704" s="2"/>
       <c r="M704" s="2"/>
       <c r="N704" s="2"/>
@@ -40966,17 +41417,31 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
-      <c r="E705" s="2"/>
-      <c r="F705" s="2"/>
-      <c r="G705" s="2"/>
-      <c r="H705" s="2"/>
-      <c r="I705" s="2"/>
-      <c r="J705" s="2"/>
-      <c r="K705" s="2"/>
+      <c r="E705" s="2">
+        <v>-353000000000</v>
+      </c>
+      <c r="F705" s="2">
+        <v>-151000000000</v>
+      </c>
+      <c r="G705" s="2">
+        <v>-136000000000</v>
+      </c>
+      <c r="H705" s="2">
+        <v>-141000000000</v>
+      </c>
+      <c r="I705" s="2">
+        <v>-122000000000</v>
+      </c>
+      <c r="J705" s="2">
+        <v>-146000000000</v>
+      </c>
+      <c r="K705" s="2">
+        <v>-120000000000</v>
+      </c>
       <c r="L705" s="2"/>
       <c r="M705" s="2"/>
       <c r="N705" s="2"/>
@@ -40999,17 +41464,35 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C706" s="2"/>
-      <c r="D706" s="2"/>
-      <c r="E706" s="2"/>
-      <c r="F706" s="2"/>
-      <c r="G706" s="2"/>
-      <c r="H706" s="2"/>
-      <c r="I706" s="2"/>
-      <c r="J706" s="2"/>
-      <c r="K706" s="2"/>
+        <v>1788</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D706" s="5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E706" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F706" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G706" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H706" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I706" s="5" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J706" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K706" s="5" t="s">
+        <v>1550</v>
+      </c>
       <c r="L706" s="2"/>
       <c r="M706" s="2"/>
       <c r="N706" s="2"/>
@@ -41032,17 +41515,29 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1760</v>
+        <v>1796</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
-      <c r="F707" s="2"/>
-      <c r="G707" s="2"/>
-      <c r="H707" s="2"/>
-      <c r="I707" s="2"/>
-      <c r="J707" s="2"/>
-      <c r="K707" s="2"/>
+      <c r="F707" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="G707" s="2">
+        <v>7000000000</v>
+      </c>
+      <c r="H707" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="I707" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="J707" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="K707" s="2">
+        <v>13000000000</v>
+      </c>
       <c r="L707" s="2"/>
       <c r="M707" s="2"/>
       <c r="N707" s="2"/>
@@ -41065,17 +41560,35 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C708" s="2"/>
-      <c r="D708" s="2"/>
-      <c r="E708" s="2"/>
-      <c r="F708" s="2"/>
-      <c r="G708" s="2"/>
-      <c r="H708" s="2"/>
-      <c r="I708" s="2"/>
-      <c r="J708" s="2"/>
-      <c r="K708" s="2"/>
+        <v>1797</v>
+      </c>
+      <c r="C708" s="2">
+        <v>41000000000</v>
+      </c>
+      <c r="D708" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E708" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F708" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G708" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H708" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I708" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J708" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K708" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="L708" s="2"/>
       <c r="M708" s="2"/>
       <c r="N708" s="2"/>
@@ -41098,17 +41611,27 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
-      <c r="G709" s="2"/>
-      <c r="H709" s="2"/>
-      <c r="I709" s="2"/>
-      <c r="J709" s="2"/>
-      <c r="K709" s="2"/>
+      <c r="G709" s="2">
+        <v>0</v>
+      </c>
+      <c r="H709" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="I709" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="J709" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="K709" s="2">
+        <v>5000000000</v>
+      </c>
       <c r="L709" s="2"/>
       <c r="M709" s="2"/>
       <c r="N709" s="2"/>
@@ -41131,17 +41654,35 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C710" s="2"/>
-      <c r="D710" s="2"/>
-      <c r="E710" s="2"/>
-      <c r="F710" s="2"/>
-      <c r="G710" s="2"/>
-      <c r="H710" s="2"/>
-      <c r="I710" s="2"/>
-      <c r="J710" s="2"/>
-      <c r="K710" s="2"/>
+        <v>1801</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D710" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E710" s="5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="H710" s="2">
+        <v>21000000000</v>
+      </c>
+      <c r="I710" s="2">
+        <v>24000000000</v>
+      </c>
+      <c r="J710" s="2">
+        <v>-1284000000000</v>
+      </c>
+      <c r="K710" s="2">
+        <v>-1092000000000</v>
+      </c>
       <c r="L710" s="2"/>
       <c r="M710" s="2"/>
       <c r="N710" s="2"/>
@@ -41164,17 +41705,29 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1764</v>
+        <v>1803</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
-      <c r="F711" s="2"/>
-      <c r="G711" s="2"/>
-      <c r="H711" s="2"/>
-      <c r="I711" s="2"/>
-      <c r="J711" s="2"/>
-      <c r="K711" s="2"/>
+      <c r="F711" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G711" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H711" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="I711" s="2">
+        <v>55000000000</v>
+      </c>
+      <c r="J711" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="K711" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="L711" s="2"/>
       <c r="M711" s="2"/>
       <c r="N711" s="2"/>
@@ -41197,17 +41750,35 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C712" s="2"/>
-      <c r="D712" s="2"/>
-      <c r="E712" s="2"/>
-      <c r="F712" s="2"/>
-      <c r="G712" s="2"/>
-      <c r="H712" s="2"/>
-      <c r="I712" s="2"/>
-      <c r="J712" s="2"/>
-      <c r="K712" s="2"/>
+        <v>1804</v>
+      </c>
+      <c r="C712" s="2">
+        <v>88000000000</v>
+      </c>
+      <c r="D712" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E712" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F712" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G712" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="H712" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I712" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="J712" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K712" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="L712" s="2"/>
       <c r="M712" s="2"/>
       <c r="N712" s="2"/>
@@ -41230,17 +41801,33 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1766</v>
+        <v>1806</v>
       </c>
       <c r="C713" s="2"/>
-      <c r="D713" s="2"/>
-      <c r="E713" s="2"/>
-      <c r="F713" s="2"/>
-      <c r="G713" s="2"/>
-      <c r="H713" s="2"/>
-      <c r="I713" s="2"/>
-      <c r="J713" s="2"/>
-      <c r="K713" s="2"/>
+      <c r="D713" s="2">
+        <v>20000000000</v>
+      </c>
+      <c r="E713" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="F713" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="G713" s="2">
+        <v>38000000000</v>
+      </c>
+      <c r="H713" s="2">
+        <v>75000000000</v>
+      </c>
+      <c r="I713" s="2">
+        <v>22000000000</v>
+      </c>
+      <c r="J713" s="2">
+        <v>-3000000000</v>
+      </c>
+      <c r="K713" s="2">
+        <v>-18000000000</v>
+      </c>
       <c r="L713" s="2"/>
       <c r="M713" s="2"/>
       <c r="N713" s="2"/>
@@ -41263,17 +41850,35 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C714" s="2"/>
-      <c r="D714" s="2"/>
-      <c r="E714" s="2"/>
-      <c r="F714" s="2"/>
-      <c r="G714" s="2"/>
-      <c r="H714" s="2"/>
-      <c r="I714" s="2"/>
-      <c r="J714" s="2"/>
-      <c r="K714" s="2"/>
+        <v>1807</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D714" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="E714" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F714" s="2">
+        <v>59000000000</v>
+      </c>
+      <c r="G714" s="2">
+        <v>28000000000</v>
+      </c>
+      <c r="H714" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I714" s="2">
+        <v>-239000000000</v>
+      </c>
+      <c r="J714" s="2">
+        <v>9000000000</v>
+      </c>
+      <c r="K714" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="L714" s="2"/>
       <c r="M714" s="2"/>
       <c r="N714" s="2"/>
@@ -41296,7 +41901,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1768</v>
+        <v>1809</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -41304,9 +41909,15 @@
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
       <c r="H715" s="2"/>
-      <c r="I715" s="2"/>
-      <c r="J715" s="2"/>
-      <c r="K715" s="2"/>
+      <c r="I715" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J715" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="K715" s="5" t="s">
+        <v>1448</v>
+      </c>
       <c r="L715" s="2"/>
       <c r="M715" s="2"/>
       <c r="N715" s="2"/>
@@ -41329,17 +41940,35 @@
         <v>715</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C716" s="2"/>
-      <c r="D716" s="2"/>
-      <c r="E716" s="2"/>
-      <c r="F716" s="2"/>
-      <c r="G716" s="2"/>
-      <c r="H716" s="2"/>
-      <c r="I716" s="2"/>
-      <c r="J716" s="2"/>
-      <c r="K716" s="2"/>
+        <v>1810</v>
+      </c>
+      <c r="C716" s="2">
+        <v>-37000000000</v>
+      </c>
+      <c r="D716" s="2">
+        <v>32000000000</v>
+      </c>
+      <c r="E716" s="2">
+        <v>-47000000000</v>
+      </c>
+      <c r="F716" s="2">
+        <v>-26000000000</v>
+      </c>
+      <c r="G716" s="2">
+        <v>-52000000000</v>
+      </c>
+      <c r="H716" s="2">
+        <v>-81000000000</v>
+      </c>
+      <c r="I716" s="2">
+        <v>-26000000000</v>
+      </c>
+      <c r="J716" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K716" s="2">
+        <v>-21000000000</v>
+      </c>
       <c r="L716" s="2"/>
       <c r="M716" s="2"/>
       <c r="N716" s="2"/>
@@ -41362,7 +41991,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1770</v>
+        <v>1811</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -41395,7 +42024,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1771</v>
+        <v>1812</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -41428,7 +42057,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1772</v>
+        <v>1813</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -41461,7 +42090,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1773</v>
+        <v>1814</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -41494,7 +42123,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1774</v>
+        <v>1815</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -41527,7 +42156,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1775</v>
+        <v>1816</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -41560,7 +42189,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1776</v>
+        <v>1817</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -41593,7 +42222,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1777</v>
+        <v>1818</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -41626,7 +42255,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1778</v>
+        <v>1819</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -41659,7 +42288,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1779</v>
+        <v>1820</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -41692,7 +42321,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1780</v>
+        <v>1821</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -41725,7 +42354,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1781</v>
+        <v>1822</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -41758,7 +42387,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1782</v>
+        <v>1823</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -41791,7 +42420,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1783</v>
+        <v>1824</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -41824,7 +42453,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1784</v>
+        <v>1825</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -41857,7 +42486,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1785</v>
+        <v>1826</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -41890,7 +42519,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1786</v>
+        <v>1827</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -41923,7 +42552,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1787</v>
+        <v>1828</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -41956,7 +42585,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1788</v>
+        <v>1829</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -41989,7 +42618,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1789</v>
+        <v>1830</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -42022,7 +42651,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1790</v>
+        <v>1831</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -42055,7 +42684,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1791</v>
+        <v>1832</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -42088,7 +42717,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1792</v>
+        <v>1833</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -42121,7 +42750,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1793</v>
+        <v>1834</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -42154,7 +42783,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1794</v>
+        <v>1835</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -42187,7 +42816,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1795</v>
+        <v>1836</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -42220,7 +42849,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1796</v>
+        <v>1837</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -42253,7 +42882,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1797</v>
+        <v>1838</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -42286,7 +42915,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1798</v>
+        <v>1839</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -42319,7 +42948,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1799</v>
+        <v>1840</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -42352,7 +42981,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1800</v>
+        <v>1841</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -42385,7 +43014,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1801</v>
+        <v>1842</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -42418,7 +43047,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1802</v>
+        <v>1843</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -42451,7 +43080,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1803</v>
+        <v>1844</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -42484,7 +43113,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1804</v>
+        <v>1845</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -42517,7 +43146,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1805</v>
+        <v>1846</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -42550,7 +43179,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1806</v>
+        <v>1847</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -42583,7 +43212,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1807</v>
+        <v>1848</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -42616,7 +43245,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1808</v>
+        <v>1849</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -42649,7 +43278,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1809</v>
+        <v>1850</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -42682,7 +43311,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1810</v>
+        <v>1851</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -42715,7 +43344,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1811</v>
+        <v>1852</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -42748,7 +43377,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1812</v>
+        <v>1853</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -42781,7 +43410,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1813</v>
+        <v>1854</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -42814,7 +43443,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1814</v>
+        <v>1855</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -42847,7 +43476,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1815</v>
+        <v>1856</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -42880,7 +43509,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1816</v>
+        <v>1857</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -42913,7 +43542,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1817</v>
+        <v>1858</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -42946,7 +43575,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1818</v>
+        <v>1859</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -42979,7 +43608,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1819</v>
+        <v>1860</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -43012,7 +43641,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1820</v>
+        <v>1861</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -43045,7 +43674,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1821</v>
+        <v>1862</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -43078,7 +43707,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1822</v>
+        <v>1863</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -43111,7 +43740,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1823</v>
+        <v>1864</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -43144,7 +43773,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1824</v>
+        <v>1865</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -43177,7 +43806,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1825</v>
+        <v>1866</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -43210,7 +43839,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1826</v>
+        <v>1867</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -43243,7 +43872,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1827</v>
+        <v>1868</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -43276,7 +43905,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1828</v>
+        <v>1869</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -43309,7 +43938,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1829</v>
+        <v>1870</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -43342,7 +43971,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1830</v>
+        <v>1871</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -43375,7 +44004,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1831</v>
+        <v>1872</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -43408,7 +44037,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1832</v>
+        <v>1873</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -43441,7 +44070,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1833</v>
+        <v>1874</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -43474,7 +44103,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1834</v>
+        <v>1875</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -43507,7 +44136,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1835</v>
+        <v>1876</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -43540,7 +44169,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1836</v>
+        <v>1877</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -43573,7 +44202,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1837</v>
+        <v>1878</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -43606,7 +44235,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1838</v>
+        <v>1879</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -43639,7 +44268,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1839</v>
+        <v>1880</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -43672,7 +44301,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1840</v>
+        <v>1881</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -43705,7 +44334,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1841</v>
+        <v>1882</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -43738,7 +44367,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1842</v>
+        <v>1883</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -43771,7 +44400,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1843</v>
+        <v>1884</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -43804,7 +44433,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1844</v>
+        <v>1885</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -43837,7 +44466,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1845</v>
+        <v>1886</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -43870,7 +44499,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1846</v>
+        <v>1887</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -43903,7 +44532,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1847</v>
+        <v>1888</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -43936,7 +44565,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1848</v>
+        <v>1889</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -43969,7 +44598,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1849</v>
+        <v>1890</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -44002,7 +44631,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1850</v>
+        <v>1891</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -44035,7 +44664,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1851</v>
+        <v>1892</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -44068,7 +44697,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1852</v>
+        <v>1893</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -44101,7 +44730,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1853</v>
+        <v>1894</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -44134,7 +44763,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1854</v>
+        <v>1895</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -44167,7 +44796,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1855</v>
+        <v>1896</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -44200,7 +44829,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1856</v>
+        <v>1897</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -44233,7 +44862,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1857</v>
+        <v>1898</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -44266,7 +44895,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1858</v>
+        <v>1899</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -44299,7 +44928,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1859</v>
+        <v>1900</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -44332,7 +44961,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1860</v>
+        <v>1901</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -44365,7 +44994,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1861</v>
+        <v>1902</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -44398,7 +45027,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1862</v>
+        <v>1903</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -44431,7 +45060,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1863</v>
+        <v>1904</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -44464,7 +45093,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1864</v>
+        <v>1905</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -44497,7 +45126,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1865</v>
+        <v>1906</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -44530,7 +45159,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1866</v>
+        <v>1907</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -44563,7 +45192,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1867</v>
+        <v>1908</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -44596,7 +45225,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1868</v>
+        <v>1909</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -44629,7 +45258,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1869</v>
+        <v>1910</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -44662,7 +45291,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1870</v>
+        <v>1911</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -44695,7 +45324,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1871</v>
+        <v>1912</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -44728,7 +45357,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1872</v>
+        <v>1913</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -44761,7 +45390,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1873</v>
+        <v>1914</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -44794,7 +45423,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1874</v>
+        <v>1915</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -44827,7 +45456,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1875</v>
+        <v>1916</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -44860,7 +45489,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1876</v>
+        <v>1917</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -44893,7 +45522,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1877</v>
+        <v>1918</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -44926,7 +45555,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1878</v>
+        <v>1919</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -44959,7 +45588,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1879</v>
+        <v>1920</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -44992,7 +45621,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1880</v>
+        <v>1921</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -45025,7 +45654,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1881</v>
+        <v>1922</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -45058,7 +45687,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1882</v>
+        <v>1923</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -45091,7 +45720,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1883</v>
+        <v>1924</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -45124,7 +45753,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1884</v>
+        <v>1925</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -45157,7 +45786,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1885</v>
+        <v>1926</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -45190,7 +45819,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1886</v>
+        <v>1927</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -45223,7 +45852,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1887</v>
+        <v>1928</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -45256,7 +45885,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1888</v>
+        <v>1929</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -45289,7 +45918,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1889</v>
+        <v>1930</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -45322,7 +45951,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1890</v>
+        <v>1931</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -45355,7 +45984,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1891</v>
+        <v>1932</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -45388,7 +46017,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1892</v>
+        <v>1933</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -45421,7 +46050,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1893</v>
+        <v>1934</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -45454,7 +46083,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1894</v>
+        <v>1935</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -45487,7 +46116,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1895</v>
+        <v>1936</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -45520,7 +46149,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1896</v>
+        <v>1937</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -45553,7 +46182,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1897</v>
+        <v>1938</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -45586,7 +46215,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1898</v>
+        <v>1939</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -45619,7 +46248,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1899</v>
+        <v>1940</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -45652,7 +46281,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1900</v>
+        <v>1941</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -45685,7 +46314,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1901</v>
+        <v>1942</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -45718,7 +46347,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1902</v>
+        <v>1943</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -45751,7 +46380,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1903</v>
+        <v>1944</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -45784,7 +46413,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1904</v>
+        <v>1945</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -45817,7 +46446,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1905</v>
+        <v>1946</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -45850,7 +46479,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1906</v>
+        <v>1947</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -45883,7 +46512,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1907</v>
+        <v>1948</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -45916,7 +46545,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1908</v>
+        <v>1949</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -45949,7 +46578,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1909</v>
+        <v>1950</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -45982,7 +46611,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1910</v>
+        <v>1951</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -46015,7 +46644,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1911</v>
+        <v>1952</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -46048,7 +46677,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1912</v>
+        <v>1953</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -46081,7 +46710,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1913</v>
+        <v>1954</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -46114,7 +46743,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1914</v>
+        <v>1955</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -46147,7 +46776,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1915</v>
+        <v>1956</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -46180,7 +46809,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1916</v>
+        <v>1957</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -46213,7 +46842,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1917</v>
+        <v>1958</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -46246,7 +46875,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1918</v>
+        <v>1959</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -46279,7 +46908,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1919</v>
+        <v>1960</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -46312,7 +46941,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1920</v>
+        <v>1961</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -46345,7 +46974,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1921</v>
+        <v>1962</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -46378,7 +47007,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1922</v>
+        <v>1963</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -46411,7 +47040,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1923</v>
+        <v>1964</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -46444,7 +47073,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1924</v>
+        <v>1965</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -46477,7 +47106,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1925</v>
+        <v>1966</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -46510,7 +47139,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1926</v>
+        <v>1967</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -46543,7 +47172,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1927</v>
+        <v>1968</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -46576,7 +47205,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1928</v>
+        <v>1969</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -46609,7 +47238,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1929</v>
+        <v>1970</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -46642,7 +47271,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1930</v>
+        <v>1971</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -46675,7 +47304,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1931</v>
+        <v>1972</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -46708,7 +47337,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1932</v>
+        <v>1973</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -46741,7 +47370,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1933</v>
+        <v>1974</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -46774,7 +47403,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1934</v>
+        <v>1975</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -46807,7 +47436,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1935</v>
+        <v>1976</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -46840,7 +47469,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1936</v>
+        <v>1977</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -46873,7 +47502,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1937</v>
+        <v>1978</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -46906,7 +47535,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1938</v>
+        <v>1979</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -46941,37 +47570,37 @@
         <v>885</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1939</v>
+        <v>1980</v>
       </c>
       <c r="C886" t="s">
-        <v>1940</v>
+        <v>1981</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1941</v>
+        <v>1982</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1942</v>
+        <v>1983</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1943</v>
+        <v>1984</v>
       </c>
       <c r="G886" s="2" t="s">
-        <v>1944</v>
+        <v>1985</v>
       </c>
       <c r="H886" s="2" t="s">
-        <v>1945</v>
+        <v>1986</v>
       </c>
       <c r="I886" s="2" t="s">
-        <v>1946</v>
+        <v>1987</v>
       </c>
       <c r="J886" s="2" t="s">
-        <v>1947</v>
+        <v>1988</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>1948</v>
+        <v>1989</v>
       </c>
       <c r="L886" s="2" t="s">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
@@ -46994,7 +47623,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1950</v>
+        <v>1991</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -47027,7 +47656,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1951</v>
+        <v>1992</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -47060,7 +47689,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1952</v>
+        <v>1993</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -47093,7 +47722,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1953</v>
+        <v>1994</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -47126,7 +47755,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1954</v>
+        <v>1995</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -47159,7 +47788,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1955</v>
+        <v>1996</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -47192,7 +47821,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1956</v>
+        <v>1997</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -47225,7 +47854,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1957</v>
+        <v>1998</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -47258,7 +47887,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1958</v>
+        <v>1999</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -47291,7 +47920,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1959</v>
+        <v>2000</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -47324,7 +47953,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1960</v>
+        <v>2001</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -47357,7 +47986,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1961</v>
+        <v>2002</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -47390,7 +48019,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1962</v>
+        <v>2003</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -47423,7 +48052,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1963</v>
+        <v>2004</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -47456,7 +48085,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1964</v>
+        <v>2005</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -47489,7 +48118,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1965</v>
+        <v>2006</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -47522,7 +48151,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -47555,7 +48184,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1967</v>
+        <v>2008</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -47588,7 +48217,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1968</v>
+        <v>2009</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -47621,7 +48250,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1969</v>
+        <v>2010</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -47654,7 +48283,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1970</v>
+        <v>2011</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -47687,7 +48316,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1971</v>
+        <v>2012</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -47720,7 +48349,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -47753,7 +48382,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1973</v>
+        <v>2014</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -47786,7 +48415,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1974</v>
+        <v>2015</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -47819,7 +48448,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -47852,37 +48481,37 @@
         <v>912</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1976</v>
+        <v>2017</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1977</v>
+        <v>2018</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1978</v>
+        <v>2019</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1979</v>
+        <v>2020</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1980</v>
+        <v>2021</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1981</v>
+        <v>2022</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>1982</v>
+        <v>2023</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>1983</v>
+        <v>2024</v>
       </c>
       <c r="J913" s="2" t="s">
-        <v>1984</v>
+        <v>2025</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>1985</v>
+        <v>2026</v>
       </c>
       <c r="L913" s="2" t="s">
-        <v>1986</v>
+        <v>2027</v>
       </c>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
@@ -47905,7 +48534,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1987</v>
+        <v>2028</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -47938,7 +48567,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1988</v>
+        <v>2029</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -47971,7 +48600,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1989</v>
+        <v>2030</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -48004,7 +48633,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1990</v>
+        <v>2031</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -48037,7 +48666,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1991</v>
+        <v>2032</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -48070,7 +48699,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1992</v>
+        <v>2033</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -48103,7 +48732,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1993</v>
+        <v>2034</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -48136,7 +48765,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1994</v>
+        <v>2035</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -48169,7 +48798,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1995</v>
+        <v>2036</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -48202,7 +48831,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1996</v>
+        <v>2037</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -48235,7 +48864,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1997</v>
+        <v>2038</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -48268,7 +48897,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1998</v>
+        <v>2039</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -48301,7 +48930,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1999</v>
+        <v>2040</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -48334,7 +48963,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>2000</v>
+        <v>2041</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -48367,7 +48996,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>2001</v>
+        <v>2042</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -48400,7 +49029,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>2002</v>
+        <v>2043</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -48433,7 +49062,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>2003</v>
+        <v>2044</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -48466,7 +49095,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>2004</v>
+        <v>2045</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -48499,7 +49128,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>2005</v>
+        <v>2046</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -48532,7 +49161,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>2006</v>
+        <v>2047</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -48565,7 +49194,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>2007</v>
+        <v>2048</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -48598,7 +49227,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>2008</v>
+        <v>2049</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -48631,7 +49260,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>2009</v>
+        <v>2050</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -48664,7 +49293,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>2010</v>
+        <v>2051</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -48697,7 +49326,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>2011</v>
+        <v>2052</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -48730,7 +49359,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>2012</v>
+        <v>2053</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -48763,7 +49392,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>2013</v>
+        <v>2054</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -48796,7 +49425,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>2014</v>
+        <v>2055</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -48829,7 +49458,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>2015</v>
+        <v>2056</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -48862,7 +49491,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>2016</v>
+        <v>2057</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -48895,7 +49524,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>2017</v>
+        <v>2058</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -48928,7 +49557,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>2018</v>
+        <v>2059</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -48961,7 +49590,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>2019</v>
+        <v>2060</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -48994,7 +49623,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>2020</v>
+        <v>2061</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -49027,7 +49656,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>2021</v>
+        <v>2062</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -49060,7 +49689,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>2022</v>
+        <v>2063</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -49093,7 +49722,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>2023</v>
+        <v>2064</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -49126,7 +49755,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>2024</v>
+        <v>2065</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -49159,7 +49788,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>2025</v>
+        <v>2066</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -49192,7 +49821,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>2026</v>
+        <v>2067</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -49225,7 +49854,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>2027</v>
+        <v>2068</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -49258,7 +49887,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>2028</v>
+        <v>2069</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -49291,7 +49920,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>2029</v>
+        <v>2070</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -49324,7 +49953,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>2030</v>
+        <v>2071</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -49357,7 +49986,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>2031</v>
+        <v>2072</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
